--- a/info_faccts.xlsx
+++ b/info_faccts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="194">
   <si>
     <t>DataDateTime</t>
   </si>
@@ -41,7 +41,7 @@
     <t>CurrentMarginRate</t>
   </si>
   <si>
-    <t>20200710T141740</t>
+    <t>20200714T135035</t>
   </si>
   <si>
     <t>10</t>
@@ -332,6 +332,9 @@
     <t>1110_f_huat_3821</t>
   </si>
   <si>
+    <t>1110_f_zx_2687</t>
+  </si>
+  <si>
     <t>1111_f_zxjt_0021</t>
   </si>
   <si>
@@ -494,6 +497,9 @@
     <t>805_f_xy_0808</t>
   </si>
   <si>
+    <t>805_f_zhaos_0468</t>
+  </si>
+  <si>
     <t>806_f_zc_0705</t>
   </si>
   <si>
@@ -585,15 +591,6 @@
   </si>
   <si>
     <t>IF2007</t>
-  </si>
-  <si>
-    <t>IO2012-P-4700</t>
-  </si>
-  <si>
-    <t>IO2012-C-4700</t>
-  </si>
-  <si>
-    <t>IF2012</t>
   </si>
   <si>
     <t>short</t>
@@ -957,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1000,7 +997,7 @@
         <v>93</v>
       </c>
       <c r="D2">
-        <v>21316346.93</v>
+        <v>18235592.04</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1009,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>20532506.93</v>
+        <v>21671552.04</v>
       </c>
       <c r="H2">
-        <v>0.6532578045987296</v>
+        <v>0.6211143519003814</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1026,7 +1023,7 @@
         <v>94</v>
       </c>
       <c r="D3">
-        <v>1826119.12</v>
+        <v>1745079.12</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1035,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1805879.12</v>
+        <v>1748567.36921</v>
       </c>
       <c r="H3">
-        <v>0.219709057824424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1052,7 +1049,7 @@
         <v>95</v>
       </c>
       <c r="D4">
-        <v>5646613.34</v>
+        <v>6134333.34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1061,10 +1058,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>5772293.34</v>
+        <v>5598413.34</v>
       </c>
       <c r="H4">
-        <v>0.330513764222523</v>
+        <v>0.3512332299493985</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1078,19 +1075,19 @@
         <v>96</v>
       </c>
       <c r="D5">
-        <v>9607720.25</v>
+        <v>10198585.09</v>
       </c>
       <c r="E5">
-        <v>2300000</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>11473040.25</v>
+        <v>12074745.09</v>
       </c>
       <c r="H5">
-        <v>0.7434796544011081</v>
+        <v>0.6915241636790529</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1104,7 +1101,7 @@
         <v>97</v>
       </c>
       <c r="D6">
-        <v>7106434.37</v>
+        <v>7469514.37</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1113,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>7184474.37</v>
+        <v>6929194.37</v>
       </c>
       <c r="H6">
-        <v>0.5507542787712668</v>
+        <v>0.5878259120042549</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1130,19 +1127,19 @@
         <v>98</v>
       </c>
       <c r="D7">
-        <v>1664539.59</v>
+        <v>1393219.59</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1597059.59</v>
+        <v>2213539.59</v>
       </c>
       <c r="H7">
-        <v>0.6937289046302899</v>
+        <v>0.5152312636070812</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1156,19 +1153,19 @@
         <v>99</v>
       </c>
       <c r="D8">
-        <v>8293890.840000001</v>
+        <v>6994270.959999999</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>7927710.955887998</v>
+        <v>9900835.640931999</v>
       </c>
       <c r="H8">
-        <v>0.6202167595865952</v>
+        <v>0.4785181546104348</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1182,7 +1179,7 @@
         <v>100</v>
       </c>
       <c r="D9">
-        <v>3488111.1</v>
+        <v>4095725.84</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1191,10 +1188,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3581231.1</v>
+        <v>3449525.84</v>
       </c>
       <c r="H9">
-        <v>0.3573725247722773</v>
+        <v>0.7182413221174769</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1208,19 +1205,19 @@
         <v>101</v>
       </c>
       <c r="D10">
-        <v>1744504.39</v>
+        <v>2095445.19</v>
       </c>
       <c r="E10">
-        <v>700000</v>
+        <v>500000</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2357525.2019472</v>
+        <v>3007285.19</v>
       </c>
       <c r="H10">
-        <v>0.6053534438661594</v>
+        <v>0.487595125622256</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1260,19 +1257,19 @@
         <v>103</v>
       </c>
       <c r="D12">
-        <v>2481167.84</v>
+        <v>2816047.84</v>
       </c>
       <c r="E12">
-        <v>800000</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3165487.84</v>
+        <v>3365167.839999998</v>
       </c>
       <c r="H12">
-        <v>0.6000030630349854</v>
+        <v>0.5809864152273608</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1286,19 +1283,19 @@
         <v>104</v>
       </c>
       <c r="D13">
-        <v>5856557.88</v>
+        <v>6427728.84</v>
       </c>
       <c r="E13">
-        <v>1600000</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>7196277.88</v>
+        <v>7005535.553684798</v>
       </c>
       <c r="H13">
-        <v>0.5938389916649526</v>
+        <v>0.2790817040349813</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1306,13 +1303,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>105</v>
       </c>
       <c r="D14">
-        <v>7530675.35</v>
+        <v>1010</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1321,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>7160078.4622</v>
+        <v>1010</v>
       </c>
       <c r="H14">
-        <v>0.8401677763390927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1332,13 +1329,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>106</v>
       </c>
       <c r="D15">
-        <v>3696711.86</v>
+        <v>8853518.459999999</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1347,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3576231.86</v>
+        <v>10592398.46</v>
       </c>
       <c r="H15">
-        <v>0.5322983728465525</v>
+        <v>0.5844949303389407</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1364,19 +1361,19 @@
         <v>107</v>
       </c>
       <c r="D16">
-        <v>1142570.22</v>
+        <v>3686673.74</v>
       </c>
       <c r="E16">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1334730.22</v>
+        <v>4180913.74</v>
       </c>
       <c r="H16">
-        <v>0.7707840765004933</v>
+        <v>0.429890715707519</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1384,13 +1381,13 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>108</v>
       </c>
       <c r="D17">
-        <v>1784897.69</v>
+        <v>1660010.22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1399,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1795497.69</v>
+        <v>1934570.219999999</v>
       </c>
       <c r="H17">
-        <v>0.0886323613148174</v>
+        <v>0.5474195710507735</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1410,25 +1407,25 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>109</v>
       </c>
       <c r="D18">
-        <v>1311401.6</v>
+        <v>1827177.69</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2640000</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1323041.6</v>
+        <v>4423697.689999999</v>
       </c>
       <c r="H18">
-        <v>0.1209177398503569</v>
+        <v>0.03712116231884734</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1436,13 +1433,13 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>110</v>
       </c>
       <c r="D19">
-        <v>1241825.22</v>
+        <v>1354681.6</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1451,10 +1448,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1265105.22</v>
+        <v>1311041.6</v>
       </c>
       <c r="H19">
-        <v>0.3161381311824799</v>
+        <v>0.1259859336271252</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1462,25 +1459,25 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>111</v>
       </c>
       <c r="D20">
-        <v>8443873.050000001</v>
+        <v>1328385.22</v>
       </c>
       <c r="E20">
-        <v>3750000</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>11750433.05</v>
+        <v>1241105.22</v>
       </c>
       <c r="H20">
-        <v>0.619607734371969</v>
+        <v>0.3327131280617771</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1488,25 +1485,25 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>112</v>
       </c>
       <c r="D21">
-        <v>17955003.09</v>
+        <v>10410913.05</v>
       </c>
       <c r="E21">
-        <v>7600000</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>24609186.967354</v>
+        <v>12534273.05</v>
       </c>
       <c r="H21">
-        <v>0.619610945303793</v>
+        <v>0.5979297219793697</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1514,13 +1511,13 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
         <v>113</v>
       </c>
       <c r="D22">
-        <v>5076341.24</v>
+        <v>21949928.67</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1529,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4893181.24</v>
+        <v>26150488.66999998</v>
       </c>
       <c r="H22">
-        <v>0.6145753963529871</v>
+        <v>0.5669608161857739</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1540,25 +1537,25 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
         <v>114</v>
       </c>
       <c r="D23">
-        <v>1017396.74</v>
+        <v>4316948.54</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1020493.0959368</v>
+        <v>6240148.54</v>
       </c>
       <c r="H23">
-        <v>0.6774109523645542</v>
+        <v>0.5221875695926942</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1566,13 +1563,13 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>115</v>
       </c>
       <c r="D24">
-        <v>4528821.529999999</v>
+        <v>4161057.56</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1581,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4528821.529999999</v>
+        <v>4914735.08074</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.7137842309644492</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1592,13 +1589,13 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>116</v>
       </c>
       <c r="D25">
-        <v>1750000</v>
+        <v>4528821.529999999</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1607,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1750000</v>
+        <v>4528821.529999999</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1624,7 +1621,7 @@
         <v>117</v>
       </c>
       <c r="D26">
-        <v>1001</v>
+        <v>1750000</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1633,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1001</v>
+        <v>1750000</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1644,25 +1641,25 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
         <v>118</v>
       </c>
       <c r="D27">
-        <v>16682947.55</v>
+        <v>1001</v>
       </c>
       <c r="E27">
-        <v>6800000</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>22653608.887282</v>
+        <v>1001</v>
       </c>
       <c r="H27">
-        <v>0.5659271007895544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1676,7 +1673,7 @@
         <v>119</v>
       </c>
       <c r="D28">
-        <v>42626281.58</v>
+        <v>20294888.89</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1685,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>40936373.1032544</v>
+        <v>24033848.88999999</v>
       </c>
       <c r="H28">
-        <v>0.7272372255575614</v>
+        <v>0.549102162554207</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1696,13 +1693,13 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
         <v>120</v>
       </c>
       <c r="D29">
-        <v>7284242.909999999</v>
+        <v>42290573.26000001</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1711,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>6988322.909999999</v>
+        <v>50276253.25999998</v>
       </c>
       <c r="H29">
-        <v>0.6803211673571625</v>
+        <v>0.5606278386385855</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1722,25 +1719,25 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
         <v>121</v>
       </c>
       <c r="D30">
-        <v>13909505.15</v>
+        <v>6096802.91</v>
       </c>
       <c r="E30">
-        <v>4200000</v>
+        <v>2000000</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>17488793.376108</v>
+        <v>9444287.320434799</v>
       </c>
       <c r="H30">
-        <v>0.5882560207987025</v>
+        <v>0.501105466132951</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1748,13 +1745,13 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>122</v>
       </c>
       <c r="D31">
-        <v>4565411.05</v>
+        <v>15638321.76</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1763,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>4433536.945520001</v>
+        <v>18527521.76</v>
       </c>
       <c r="H31">
-        <v>0.5079437089783558</v>
+        <v>0.5803875196744076</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1774,13 +1771,13 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>123</v>
       </c>
       <c r="D32">
-        <v>1132292.34</v>
+        <v>4876494.07</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1789,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1112732.34</v>
+        <v>4261614.07</v>
       </c>
       <c r="H32">
-        <v>0.2854519353683924</v>
+        <v>0.542615816922155</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1800,13 +1797,13 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
         <v>124</v>
       </c>
       <c r="D33">
-        <v>1637.84</v>
+        <v>1148852.34</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1815,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1637.84</v>
+        <v>1079132.34</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>0.2960278254657812</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1826,13 +1823,13 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
         <v>125</v>
       </c>
       <c r="D34">
-        <v>7340671.42</v>
+        <v>1637.84</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1841,10 +1838,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>7510956.27824</v>
+        <v>1637.84</v>
       </c>
       <c r="H34">
-        <v>0.3195888128059342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1852,13 +1849,13 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
         <v>126</v>
       </c>
       <c r="D35">
-        <v>1079233.48</v>
+        <v>7983756.279999999</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1867,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1114513.48</v>
+        <v>7324956.279999999</v>
       </c>
       <c r="H35">
-        <v>0.430625208768224</v>
+        <v>0.3382398345181659</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1878,25 +1875,25 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
         <v>127</v>
       </c>
       <c r="D36">
-        <v>1147790.46</v>
+        <v>1209073.48</v>
       </c>
       <c r="E36">
-        <v>350000</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1449590.46</v>
+        <v>1077673.48</v>
       </c>
       <c r="H36">
-        <v>0.5914249739198754</v>
+        <v>0.4598038359448172</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1904,13 +1901,13 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
         <v>128</v>
       </c>
       <c r="D37">
-        <v>4258334.26</v>
+        <v>1303990.46</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1919,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>4364334.26</v>
+        <v>1537590.46</v>
       </c>
       <c r="H37">
-        <v>0.3295138993318078</v>
+        <v>0.5739616776758618</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1930,25 +1927,25 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
         <v>129</v>
       </c>
       <c r="D38">
-        <v>11584831.64</v>
+        <v>4643334.26</v>
       </c>
       <c r="E38">
-        <v>3500000</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>14544831.64</v>
+        <v>4245374.26</v>
       </c>
       <c r="H38">
-        <v>0.6365903318218125</v>
+        <v>0.3496296696348275</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1956,13 +1953,13 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
         <v>130</v>
       </c>
       <c r="D39">
-        <v>1744476.89</v>
+        <v>12991791.64</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1971,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1776516.89</v>
+        <v>15508191.64</v>
       </c>
       <c r="H39">
-        <v>0.2905913267168544</v>
+        <v>0.6145909607807755</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1982,13 +1979,13 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
         <v>131</v>
       </c>
       <c r="D40">
-        <v>37643682.1</v>
+        <v>1865276.89</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1997,10 +1994,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>36212162.10000001</v>
+        <v>1728156.89</v>
       </c>
       <c r="H40">
-        <v>0.6042644330259402</v>
+        <v>0.3078102474827966</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2008,13 +2005,13 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
         <v>132</v>
       </c>
       <c r="D41">
-        <v>8064431.37</v>
+        <v>32735090.91</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2023,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>8148431.37</v>
+        <v>39294930.91</v>
       </c>
       <c r="H41">
-        <v>0.1374318993619995</v>
+        <v>0.5897488623425087</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2034,13 +2031,13 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
         <v>133</v>
       </c>
       <c r="D42">
-        <v>5434568.64</v>
+        <v>8367391.37</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2049,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>5554968.64</v>
+        <v>8060791.37</v>
       </c>
       <c r="H42">
-        <v>0.2879929849612976</v>
+        <v>0.1434362393130639</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2060,13 +2057,13 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
         <v>134</v>
       </c>
       <c r="D43">
-        <v>3411108.68</v>
+        <v>5867368.64</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2075,10 +2072,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>3276628.68</v>
+        <v>5428168.64</v>
       </c>
       <c r="H43">
-        <v>0.6290104254352067</v>
+        <v>0.304288261758942</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2092,19 +2089,19 @@
         <v>135</v>
       </c>
       <c r="D44">
-        <v>25497506.18</v>
+        <v>2893148.68</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>24626988.96426561</v>
+        <v>4189508.68</v>
       </c>
       <c r="H44">
-        <v>0.6758698119429791</v>
+        <v>0.5067870631551</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2112,25 +2109,25 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
         <v>136</v>
       </c>
       <c r="D45">
-        <v>2518699.12</v>
+        <v>21823348.96</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>5200000</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>2578699.12</v>
+        <v>31552708.96</v>
       </c>
       <c r="H45">
-        <v>0.3101936142127352</v>
+        <v>0.5426552383095279</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2138,13 +2135,13 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
         <v>137</v>
       </c>
       <c r="D46">
-        <v>6846211.82</v>
+        <v>2735099.12</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2153,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>6997331.82</v>
+        <v>2516099.12</v>
       </c>
       <c r="H46">
-        <v>0.2964869543659857</v>
+        <v>0.3282319020881816</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2164,13 +2161,13 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
         <v>138</v>
       </c>
       <c r="D47">
-        <v>4706748.34</v>
+        <v>7395291.82</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2179,10 +2176,10 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>4826869.300368</v>
+        <v>6817131.82</v>
       </c>
       <c r="H47">
-        <v>0.395290421444503</v>
+        <v>0.3139894102854535</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2190,13 +2187,13 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
         <v>139</v>
       </c>
       <c r="D48">
-        <v>2881990.89</v>
+        <v>5170509.3</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2205,10 +2202,10 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>2930150.89</v>
+        <v>4686069.3</v>
       </c>
       <c r="H48">
-        <v>0.2183903914927739</v>
+        <v>0.4200341638140093</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2216,13 +2213,13 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
         <v>140</v>
       </c>
       <c r="D49">
-        <v>8339596.970000001</v>
+        <v>3055110.89</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2231,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>8508156.970000001</v>
+        <v>2878950.89</v>
       </c>
       <c r="H49">
-        <v>0.2632425339468084</v>
+        <v>0.2294902640732437</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2242,25 +2239,25 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
         <v>141</v>
       </c>
       <c r="D50">
-        <v>2755039.86</v>
+        <v>8945516.970000001</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>2091159.86</v>
+        <v>8328956.970000001</v>
       </c>
       <c r="H50">
-        <v>0.2677591563946718</v>
+        <v>0.2776361083781659</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2268,13 +2265,13 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
         <v>142</v>
       </c>
       <c r="D51">
-        <v>6410561.279999999</v>
+        <v>2221365.16</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2283,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>6410561.279999999</v>
+        <v>2045205.16</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>0.3768846348891473</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2294,13 +2291,13 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
         <v>143</v>
       </c>
       <c r="D52">
-        <v>4832077.08</v>
+        <v>6410561.279999999</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2309,10 +2306,10 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>5035685.0766528</v>
+        <v>6410561.279999999</v>
       </c>
       <c r="H52">
-        <v>0.5370292936979183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2320,13 +2317,13 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
         <v>144</v>
       </c>
       <c r="D53">
-        <v>2588962.88</v>
+        <v>5543865.689999999</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2335,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>2637122.88</v>
+        <v>5079265.689999999</v>
       </c>
       <c r="H53">
-        <v>0.2628786111021114</v>
+        <v>0.3212098952043598</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2346,13 +2343,13 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
         <v>145</v>
       </c>
       <c r="D54">
-        <v>4103873.07</v>
+        <v>2762082.88</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2361,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>4221513.07</v>
+        <v>2585922.88</v>
       </c>
       <c r="H54">
-        <v>0.47295601527061</v>
+        <v>0.2767865992971917</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2372,13 +2369,13 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
         <v>146</v>
       </c>
       <c r="D55">
-        <v>2510924.82</v>
+        <v>4533673.07</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2387,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>2559084.82</v>
+        <v>4092193.07</v>
       </c>
       <c r="H55">
-        <v>0.2917330422834519</v>
+        <v>0.5036565882264201</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2398,25 +2395,25 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
         <v>147</v>
       </c>
       <c r="D56">
-        <v>4614522.66</v>
+        <v>2684044.82</v>
       </c>
       <c r="E56">
-        <v>1250000</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>5623470.64802</v>
+        <v>2507884.82</v>
       </c>
       <c r="H56">
-        <v>0.6415586078092689</v>
+        <v>0.307353190167641</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2424,25 +2421,25 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
         <v>148</v>
       </c>
       <c r="D57">
-        <v>4630424.62</v>
+        <v>5024550.65</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>4750824.62</v>
+        <v>7732202.941108</v>
       </c>
       <c r="H57">
-        <v>0.4209248204157029</v>
+        <v>0.5476225640028578</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2450,25 +2447,25 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
         <v>149</v>
       </c>
       <c r="D58">
-        <v>4285836.04</v>
+        <v>5063224.62</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="G58">
-        <v>4385800.885964</v>
+        <v>2122824.62</v>
       </c>
       <c r="H58">
-        <v>0.364766217527079</v>
+        <v>0.9726003648855363</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2476,13 +2473,13 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
         <v>150</v>
       </c>
       <c r="D59">
-        <v>3925999.69</v>
+        <v>4635720.88</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2491,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>4082519.69</v>
+        <v>4283400.88</v>
       </c>
       <c r="H59">
-        <v>0.5094230421213228</v>
+        <v>0.3856113509506493</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2502,13 +2499,13 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
         <v>151</v>
       </c>
       <c r="D60">
-        <v>3428285.42</v>
+        <v>4488639.689999999</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2517,10 +2514,10 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>3295165.42</v>
+        <v>3915079.689999999</v>
       </c>
       <c r="H60">
-        <v>0.7805289483767403</v>
+        <v>0.5484553495768053</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2528,13 +2525,13 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
         <v>152</v>
       </c>
       <c r="D61">
-        <v>2782742.8</v>
+        <v>3574405.42</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2543,10 +2540,10 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>2830902.8</v>
+        <v>4185405.42</v>
       </c>
       <c r="H61">
-        <v>0.2825586240544889</v>
+        <v>0.6325681109286659</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2554,13 +2551,13 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
         <v>153</v>
       </c>
       <c r="D62">
-        <v>2963475.83</v>
+        <v>2955862.8</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2569,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>3083875.83</v>
+        <v>2778262.8</v>
       </c>
       <c r="H62">
-        <v>0.5187601862685891</v>
+        <v>0.2972591361767505</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2580,13 +2577,13 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
         <v>154</v>
       </c>
       <c r="D63">
-        <v>8204027.220000001</v>
+        <v>3369396.77</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2595,10 +2592,10 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>8460227.220000004</v>
+        <v>2969796.77</v>
       </c>
       <c r="H63">
-        <v>0.397100823965813</v>
+        <v>0.5005578883433158</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2606,13 +2603,13 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
         <v>155</v>
       </c>
       <c r="D64">
-        <v>1383251.28</v>
+        <v>9112907.220000001</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2621,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1383251.28</v>
+        <v>8186387.220000001</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>0.4237069059628478</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2632,25 +2629,25 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
         <v>156</v>
       </c>
       <c r="D65">
-        <v>4038126.65</v>
+        <v>1383251.28</v>
       </c>
       <c r="E65">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>5324046.65</v>
+        <v>1383251.28</v>
       </c>
       <c r="H65">
-        <v>0.5958655527558161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2658,13 +2655,13 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
         <v>157</v>
       </c>
       <c r="D66">
-        <v>2621506.46</v>
+        <v>4734766.65</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2673,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>2514466.46</v>
+        <v>5654926.649999999</v>
       </c>
       <c r="H66">
-        <v>0.7885410410286403</v>
+        <v>0.5780480282622235</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2684,25 +2681,25 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
         <v>158</v>
       </c>
       <c r="D67">
-        <v>10303721.49</v>
+        <v>2769826.46</v>
       </c>
       <c r="E67">
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>11051283.4334692</v>
+        <v>3229586.459999999</v>
       </c>
       <c r="H67">
-        <v>0.5871972462806431</v>
+        <v>0.6325924465264202</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2710,13 +2707,13 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
         <v>159</v>
       </c>
       <c r="D68">
-        <v>1001</v>
+        <v>9881963.439999999</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2725,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>1001</v>
+        <v>11808963.43999999</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>0.5656705123985047</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2736,13 +2733,13 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
         <v>160</v>
       </c>
       <c r="D69">
-        <v>6666512.86</v>
+        <v>223083.7</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2751,10 +2748,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>6821632.860000001</v>
+        <v>223083.7</v>
       </c>
       <c r="H69">
-        <v>0.3263260931342469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2762,13 +2759,13 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
         <v>161</v>
       </c>
       <c r="D70">
-        <v>608025.0900000001</v>
+        <v>1001</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2777,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>592723.9259432001</v>
+        <v>1001</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2788,13 +2785,13 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
         <v>162</v>
       </c>
       <c r="D71">
-        <v>1532692.66</v>
+        <v>7236272.859999999</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2803,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>1532692.66</v>
+        <v>6594352.86</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>0.3479413444672719</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2814,13 +2811,13 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
         <v>163</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>592723.9299999999</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2829,10 +2826,10 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72" t="s">
-        <v>182</v>
+        <v>592723.9299999999</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2840,25 +2837,25 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
         <v>164</v>
       </c>
       <c r="D73">
-        <v>12405156.68</v>
+        <v>1532692.66</v>
       </c>
       <c r="E73">
-        <v>4200000</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>15953756.639696</v>
+        <v>1532692.66</v>
       </c>
       <c r="H73">
-        <v>0.5867937571961352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2866,13 +2863,13 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
         <v>165</v>
       </c>
       <c r="D74">
-        <v>4319724.91</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2881,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>4155884.91</v>
-      </c>
-      <c r="H74">
-        <v>0.6093535443935092</v>
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2892,25 +2889,25 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
         <v>166</v>
       </c>
       <c r="D75">
-        <v>2344877.87</v>
+        <v>14207356.56</v>
       </c>
       <c r="E75">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>2927597.87</v>
+        <v>16858875.8904</v>
       </c>
       <c r="H75">
-        <v>0.5958752798245477</v>
+        <v>0.5430226819104248</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2918,25 +2915,25 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
         <v>167</v>
       </c>
       <c r="D76">
-        <v>1930295.53</v>
+        <v>3699564.91</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>1833495.53</v>
+        <v>5156684.91</v>
       </c>
       <c r="H76">
-        <v>0.8399020749180666</v>
+        <v>0.505522917435729</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2944,13 +2941,13 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
         <v>168</v>
       </c>
       <c r="D77">
-        <v>2366123.58</v>
+        <v>2604437.87</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2959,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>2390523.58</v>
+        <v>3072724.063513199</v>
       </c>
       <c r="H77">
-        <v>0.1338444860686126</v>
+        <v>0.5319090052398969</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2970,25 +2967,25 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
         <v>169</v>
       </c>
       <c r="D78">
-        <v>4054468.67</v>
+        <v>1579644.9</v>
       </c>
       <c r="E78">
-        <v>2000000</v>
+        <v>600000</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>5820805.230483999</v>
+        <v>2419616.0134136</v>
       </c>
       <c r="H78">
-        <v>0.6497671456506565</v>
+        <v>0.3366782148423275</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2996,13 +2993,13 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
         <v>170</v>
       </c>
       <c r="D79">
-        <v>2972746.9</v>
+        <v>2452683.58</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3011,10 +3008,10 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>2880586.9</v>
+        <v>2364043.58</v>
       </c>
       <c r="H79">
-        <v>0.5769274310037305</v>
+        <v>0.139737525481658</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3022,25 +3019,25 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
         <v>171</v>
       </c>
       <c r="D80">
-        <v>3341975.22</v>
+        <v>5193363.96</v>
       </c>
       <c r="E80">
-        <v>900000</v>
+        <v>0</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>4065207.797175999</v>
+        <v>6234403.96</v>
       </c>
       <c r="H80">
-        <v>0.5852866861204119</v>
+        <v>0.6228469032346761</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3048,13 +3045,13 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
         <v>172</v>
       </c>
       <c r="D81">
-        <v>27133399.14</v>
+        <v>2601113.66</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3063,10 +3060,10 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>26263410.1473928</v>
+        <v>3074313.66</v>
       </c>
       <c r="H81">
-        <v>0.542650688544145</v>
+        <v>0.6182869447354959</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3074,13 +3071,13 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
         <v>173</v>
       </c>
       <c r="D82">
-        <v>5192586.29</v>
+        <v>3623007.72</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3089,10 +3086,10 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>4998026.29</v>
+        <v>4318407.720000001</v>
       </c>
       <c r="H82">
-        <v>0.6016832696572312</v>
+        <v>0.5677125827294508</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3100,25 +3097,25 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
         <v>174</v>
       </c>
       <c r="D83">
-        <v>6580402.6</v>
+        <v>24627970.76</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>3800000</v>
       </c>
       <c r="G83">
-        <v>6412539.070119999</v>
+        <v>22815410.76</v>
       </c>
       <c r="H83">
-        <v>0.4944722153467774</v>
+        <v>0.2999248565797027</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3126,25 +3123,25 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
         <v>175</v>
       </c>
       <c r="D84">
-        <v>42917973.35</v>
+        <v>4433547.810000001</v>
       </c>
       <c r="E84">
-        <v>12850000</v>
+        <v>1350000</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>53939665.035652</v>
+        <v>6689111.044912</v>
       </c>
       <c r="H84">
-        <v>0.5311644998363048</v>
+        <v>0.4627822111511566</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3152,13 +3149,13 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
         <v>176</v>
       </c>
       <c r="D85">
-        <v>14862322.68</v>
+        <v>5966835.37</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3167,10 +3164,10 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>14278937.503108</v>
+        <v>6859035.358728</v>
       </c>
       <c r="H85">
-        <v>0.8177524411363537</v>
+        <v>0.6371300585933164</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3178,25 +3175,25 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
         <v>177</v>
       </c>
       <c r="D86">
-        <v>1974500.44</v>
+        <v>48011595.85</v>
       </c>
       <c r="E86">
-        <v>800000</v>
+        <v>0</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>2678980.439999999</v>
+        <v>57475595.85</v>
       </c>
       <c r="H86">
-        <v>0.6410856810884369</v>
+        <v>0.5669411428989976</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3204,25 +3201,25 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
         <v>178</v>
       </c>
       <c r="D87">
-        <v>2218045.81</v>
+        <v>15600977.51</v>
       </c>
       <c r="E87">
-        <v>1100000</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>3195165.81</v>
+        <v>18137373.212038</v>
       </c>
       <c r="H87">
-        <v>0.5944299961071503</v>
+        <v>0.5951178196430326</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3230,13 +3227,13 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
         <v>179</v>
       </c>
       <c r="D88">
-        <v>3839914.82</v>
+        <v>2415100.44</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3245,10 +3242,10 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>3705754.82</v>
+        <v>2836540.44</v>
       </c>
       <c r="H88">
-        <v>0.6477782035239986</v>
+        <v>0.6237234537717361</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3256,13 +3253,13 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
         <v>180</v>
       </c>
       <c r="D89">
-        <v>3280591.57</v>
+        <v>2870967.59</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3271,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>3292631.57</v>
+        <v>3436453.0356</v>
       </c>
       <c r="H89">
-        <v>0.06073379172513978</v>
+        <v>0.568769711022324</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3282,25 +3279,77 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C90" t="s">
         <v>181</v>
       </c>
       <c r="D90">
-        <v>8107937.99</v>
+        <v>3351232.9</v>
       </c>
       <c r="E90">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="G90">
-        <v>11653857.99000001</v>
+        <v>3122851.834600001</v>
       </c>
       <c r="H90">
-        <v>0.5975796861413446</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" t="s">
+        <v>182</v>
+      </c>
+      <c r="D91">
+        <v>2123871.57</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>2079271.57</v>
+      </c>
+      <c r="H91">
+        <v>0.09929727457390283</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92">
+        <v>10402497.99</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>12493377.99</v>
+      </c>
+      <c r="H92">
+        <v>0.5738049073467604</v>
       </c>
     </row>
   </sheetData>
@@ -3310,7 +3359,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3327,13 +3376,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3347,13 +3396,13 @@
         <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F2">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3367,10 +3416,10 @@
         <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F3">
         <v>57</v>
@@ -3387,13 +3436,13 @@
         <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3407,13 +3456,13 @@
         <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3427,10 +3476,10 @@
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -3447,10 +3496,10 @@
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -3467,13 +3516,13 @@
         <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F8">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3481,19 +3530,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
         <v>188</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F9">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3507,13 +3556,13 @@
         <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E10" t="s">
         <v>193</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3521,19 +3570,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3541,19 +3590,19 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3567,13 +3616,13 @@
         <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3581,19 +3630,19 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E14" t="s">
         <v>193</v>
       </c>
       <c r="F14">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3601,19 +3650,19 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3621,19 +3670,19 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3641,19 +3690,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3661,19 +3710,19 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F18">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3681,19 +3730,19 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F19">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3701,19 +3750,19 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3721,19 +3770,19 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F21">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3741,19 +3790,19 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E22" t="s">
         <v>193</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3761,19 +3810,19 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E23" t="s">
         <v>193</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3781,19 +3830,19 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E24" t="s">
         <v>193</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3801,19 +3850,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3821,19 +3870,19 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E26" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3841,19 +3890,19 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3861,19 +3910,19 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F28">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3881,19 +3930,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3901,19 +3950,19 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F30">
-        <v>96</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3921,19 +3970,19 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F31">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3941,19 +3990,19 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3961,19 +4010,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E33" t="s">
         <v>193</v>
       </c>
       <c r="F33">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3981,19 +4030,19 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F34">
-        <v>188</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4001,10 +4050,10 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
         <v>188</v>
@@ -4013,7 +4062,7 @@
         <v>193</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4021,19 +4070,19 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E36" t="s">
         <v>193</v>
       </c>
       <c r="F36">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4041,19 +4090,19 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4061,19 +4110,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E38" t="s">
         <v>193</v>
       </c>
       <c r="F38">
-        <v>65</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4081,19 +4130,19 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E39" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F39">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4101,19 +4150,19 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E40" t="s">
         <v>193</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4121,19 +4170,19 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4141,19 +4190,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F42">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4161,19 +4210,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D43" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4181,19 +4230,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E44" t="s">
         <v>193</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4201,19 +4250,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4221,19 +4270,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D46" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E46" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F46">
-        <v>8</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4241,19 +4290,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D47" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E47" t="s">
         <v>193</v>
       </c>
       <c r="F47">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4261,19 +4310,19 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4281,19 +4330,19 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4301,19 +4350,19 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D50" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F50">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4321,19 +4370,19 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F51">
-        <v>92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4341,19 +4390,19 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E52" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F52">
-        <v>7</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4361,19 +4410,19 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D53" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4381,10 +4430,10 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D54" t="s">
         <v>188</v>
@@ -4393,7 +4442,7 @@
         <v>193</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4401,19 +4450,19 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E55" t="s">
         <v>193</v>
       </c>
       <c r="F55">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4421,10 +4470,10 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D56" t="s">
         <v>188</v>
@@ -4433,7 +4482,7 @@
         <v>193</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4441,19 +4490,19 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E57" t="s">
         <v>193</v>
       </c>
       <c r="F57">
-        <v>96</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4461,19 +4510,19 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4481,19 +4530,19 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F59">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4501,19 +4550,19 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4521,19 +4570,19 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D61" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F61">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4541,16 +4590,16 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F62">
         <v>4</v>
@@ -4561,19 +4610,19 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C63" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F63">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4581,16 +4630,16 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D64" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F64">
         <v>3</v>
@@ -4601,19 +4650,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F65">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4621,19 +4670,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F66">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4641,19 +4690,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4661,19 +4710,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F68">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4681,19 +4730,19 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
         <v>188</v>
       </c>
       <c r="E69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4701,19 +4750,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E70" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4721,10 +4770,10 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
         <v>188</v>
@@ -4733,7 +4782,7 @@
         <v>193</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4741,19 +4790,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D72" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E72" t="s">
         <v>193</v>
       </c>
       <c r="F72">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4761,19 +4810,19 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D73" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F73">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4781,16 +4830,16 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D74" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E74" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F74">
         <v>8</v>
@@ -4801,19 +4850,19 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D75" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E75" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F75">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4821,19 +4870,19 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C76" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D76" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F76">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4841,19 +4890,19 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D77" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E77" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4861,19 +4910,19 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D78" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E78" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F78">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4881,19 +4930,19 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C79" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D79" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F79">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4901,13 +4950,13 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C80" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D80" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E80" t="s">
         <v>193</v>
@@ -4921,19 +4970,19 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D81" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E81" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F81">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4941,19 +4990,19 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D82" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E82" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F82">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4961,19 +5010,19 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C83" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D83" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F83">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4981,19 +5030,19 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D84" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E84" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5001,19 +5050,19 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D85" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F85">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5021,19 +5070,19 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D86" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E86" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F86">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5041,19 +5090,19 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C87" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D87" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E87" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F87">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5061,19 +5110,19 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C88" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D88" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E88" t="s">
         <v>193</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5081,19 +5130,19 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C89" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D89" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5101,19 +5150,19 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C90" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="D90" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F90">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5121,19 +5170,19 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C91" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D91" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F91">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5141,19 +5190,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C92" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D92" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5161,19 +5210,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C93" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D93" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E93" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F93">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5181,19 +5230,19 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C94" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D94" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E94" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5201,19 +5250,19 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C95" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E95" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5221,19 +5270,19 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C96" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E96" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5241,19 +5290,19 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C97" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5261,19 +5310,19 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C98" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="D98" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F98">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5281,19 +5330,19 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C99" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="D99" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E99" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5301,19 +5350,19 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C100" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D100" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F100">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5321,19 +5370,19 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C101" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D101" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E101" t="s">
         <v>193</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5341,19 +5390,19 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C102" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D102" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F102">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5361,19 +5410,19 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C103" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D103" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F103">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5381,10 +5430,10 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C104" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D104" t="s">
         <v>188</v>
@@ -5393,7 +5442,7 @@
         <v>193</v>
       </c>
       <c r="F104">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5401,258 +5450,18 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C105" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D105" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E105" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F105">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" t="s">
-        <v>84</v>
-      </c>
-      <c r="C106" t="s">
-        <v>173</v>
-      </c>
-      <c r="D106" t="s">
-        <v>187</v>
-      </c>
-      <c r="E106" t="s">
-        <v>193</v>
-      </c>
-      <c r="F106">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" t="s">
-        <v>8</v>
-      </c>
-      <c r="B107" t="s">
-        <v>85</v>
-      </c>
-      <c r="C107" t="s">
-        <v>174</v>
-      </c>
-      <c r="D107" t="s">
-        <v>187</v>
-      </c>
-      <c r="E107" t="s">
-        <v>193</v>
-      </c>
-      <c r="F107">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108" t="s">
-        <v>8</v>
-      </c>
-      <c r="B108" t="s">
-        <v>85</v>
-      </c>
-      <c r="C108" t="s">
-        <v>174</v>
-      </c>
-      <c r="D108" t="s">
-        <v>187</v>
-      </c>
-      <c r="E108" t="s">
-        <v>194</v>
-      </c>
-      <c r="F108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" t="s">
-        <v>8</v>
-      </c>
-      <c r="B109" t="s">
-        <v>86</v>
-      </c>
-      <c r="C109" t="s">
-        <v>175</v>
-      </c>
-      <c r="D109" t="s">
-        <v>187</v>
-      </c>
-      <c r="E109" t="s">
-        <v>193</v>
-      </c>
-      <c r="F109">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110" t="s">
-        <v>8</v>
-      </c>
-      <c r="B110" t="s">
-        <v>87</v>
-      </c>
-      <c r="C110" t="s">
-        <v>176</v>
-      </c>
-      <c r="D110" t="s">
-        <v>187</v>
-      </c>
-      <c r="E110" t="s">
-        <v>193</v>
-      </c>
-      <c r="F110">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" t="s">
-        <v>88</v>
-      </c>
-      <c r="C111" t="s">
-        <v>177</v>
-      </c>
-      <c r="D111" t="s">
-        <v>188</v>
-      </c>
-      <c r="E111" t="s">
-        <v>193</v>
-      </c>
-      <c r="F111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" t="s">
-        <v>88</v>
-      </c>
-      <c r="C112" t="s">
-        <v>177</v>
-      </c>
-      <c r="D112" t="s">
-        <v>187</v>
-      </c>
-      <c r="E112" t="s">
-        <v>193</v>
-      </c>
-      <c r="F112">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" t="s">
-        <v>88</v>
-      </c>
-      <c r="C113" t="s">
-        <v>177</v>
-      </c>
-      <c r="D113" t="s">
-        <v>187</v>
-      </c>
-      <c r="E113" t="s">
-        <v>194</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114" t="s">
-        <v>8</v>
-      </c>
-      <c r="B114" t="s">
-        <v>89</v>
-      </c>
-      <c r="C114" t="s">
-        <v>178</v>
-      </c>
-      <c r="D114" t="s">
-        <v>187</v>
-      </c>
-      <c r="E114" t="s">
-        <v>193</v>
-      </c>
-      <c r="F114">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" t="s">
-        <v>8</v>
-      </c>
-      <c r="B115" t="s">
-        <v>90</v>
-      </c>
-      <c r="C115" t="s">
-        <v>179</v>
-      </c>
-      <c r="D115" t="s">
-        <v>187</v>
-      </c>
-      <c r="E115" t="s">
-        <v>193</v>
-      </c>
-      <c r="F115">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" t="s">
-        <v>8</v>
-      </c>
-      <c r="B116" t="s">
-        <v>91</v>
-      </c>
-      <c r="C116" t="s">
-        <v>180</v>
-      </c>
-      <c r="D116" t="s">
-        <v>186</v>
-      </c>
-      <c r="E116" t="s">
-        <v>194</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" t="s">
-        <v>8</v>
-      </c>
-      <c r="B117" t="s">
-        <v>92</v>
-      </c>
-      <c r="C117" t="s">
-        <v>181</v>
-      </c>
-      <c r="D117" t="s">
-        <v>187</v>
-      </c>
-      <c r="E117" t="s">
-        <v>193</v>
-      </c>
-      <c r="F117">
         <v>44</v>
       </c>
     </row>

--- a/info_faccts.xlsx
+++ b/info_faccts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="198">
   <si>
     <t>DataDateTime</t>
   </si>
@@ -41,7 +41,7 @@
     <t>CurrentMarginRate</t>
   </si>
   <si>
-    <t>20200714T135035</t>
+    <t>20200717T091708</t>
   </si>
   <si>
     <t>10</t>
@@ -83,6 +83,9 @@
     <t>1111</t>
   </si>
   <si>
+    <t>1201</t>
+  </si>
+  <si>
     <t>1202</t>
   </si>
   <si>
@@ -338,6 +341,9 @@
     <t>1111_f_zxjt_0021</t>
   </si>
   <si>
+    <t>1201_gtax_1947</t>
+  </si>
+  <si>
     <t>1202_f_hy_2555</t>
   </si>
   <si>
@@ -539,6 +545,9 @@
     <t>908_f_huat_2827</t>
   </si>
   <si>
+    <t>908_f_ya_9072</t>
+  </si>
+  <si>
     <t>913_f_gy_9906</t>
   </si>
   <si>
@@ -563,6 +572,9 @@
     <t>922_f_gtja_0567</t>
   </si>
   <si>
+    <t>922_f_ya_9073</t>
+  </si>
+  <si>
     <t>929_f_zx_0168</t>
   </si>
   <si>
@@ -590,7 +602,7 @@
     <t>IC2008</t>
   </si>
   <si>
-    <t>IF2007</t>
+    <t>IF2008</t>
   </si>
   <si>
     <t>short</t>
@@ -954,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -994,10 +1006,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2">
-        <v>18235592.04</v>
+        <v>26141112.04</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1006,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>21671552.04</v>
+        <v>26141112.04</v>
       </c>
       <c r="H2">
-        <v>0.6211143519003814</v>
+        <v>0.475603118221439</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1020,10 +1032,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3">
-        <v>1745079.12</v>
+        <v>1748567.37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1032,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1748567.36921</v>
+        <v>1748567.37</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1046,10 +1058,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <v>6134333.34</v>
+        <v>4887836.310000001</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1058,10 +1070,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>5598413.34</v>
+        <v>4887836.310000001</v>
       </c>
       <c r="H4">
-        <v>0.3512332299493985</v>
+        <v>0.3705050425471388</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1072,10 +1084,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>10198585.09</v>
+        <v>14492105.09</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1084,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>12074745.09</v>
+        <v>14492105.09</v>
       </c>
       <c r="H5">
-        <v>0.6915241636790529</v>
+        <v>0.5317343444685164</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1098,10 +1110,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D6">
-        <v>7469514.37</v>
+        <v>6294314.939999999</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1110,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6929194.37</v>
+        <v>6294314.939999999</v>
       </c>
       <c r="H6">
-        <v>0.5878259120042549</v>
+        <v>0.2627704548892497</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1124,22 +1136,22 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7">
-        <v>1393219.59</v>
+        <v>2626259.59</v>
       </c>
       <c r="E7">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2213539.59</v>
+        <v>2626259.59</v>
       </c>
       <c r="H7">
-        <v>0.5152312636070812</v>
+        <v>0.4007676941029276</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1150,22 +1162,22 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8">
-        <v>6994270.959999999</v>
+        <v>11796251.13</v>
       </c>
       <c r="E8">
-        <v>1600000</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>9900835.640931999</v>
+        <v>11796251.13</v>
       </c>
       <c r="H8">
-        <v>0.4785181546104348</v>
+        <v>0.4090126555316901</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1176,10 +1188,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9">
-        <v>4095725.84</v>
+        <v>2919311.14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1188,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3449525.84</v>
+        <v>2919311.14</v>
       </c>
       <c r="H9">
-        <v>0.7182413221174769</v>
+        <v>0.5196075126134038</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1202,22 +1214,22 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D10">
-        <v>2095445.19</v>
+        <v>3537925.19</v>
       </c>
       <c r="E10">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3007285.19</v>
+        <v>3537925.19</v>
       </c>
       <c r="H10">
-        <v>0.487595125622256</v>
+        <v>0.3824953687050686</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1228,7 +1240,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D11">
         <v>1001</v>
@@ -1254,10 +1266,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D12">
-        <v>2816047.84</v>
+        <v>4072687.84</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1266,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3365167.839999998</v>
+        <v>4072687.84</v>
       </c>
       <c r="H12">
-        <v>0.5809864152273608</v>
+        <v>0.4430292894728706</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1280,10 +1292,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D13">
-        <v>6427728.84</v>
+        <v>4949390.529999999</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1292,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>7005535.553684798</v>
+        <v>4949390.529999999</v>
       </c>
       <c r="H13">
-        <v>0.2790817040349813</v>
+        <v>0.4556924708869155</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1306,7 +1318,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D14">
         <v>1010</v>
@@ -1332,10 +1344,10 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D15">
-        <v>8853518.459999999</v>
+        <v>16177582.9</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1344,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>10592398.46</v>
+        <v>16177582.9</v>
       </c>
       <c r="H15">
-        <v>0.5844949303389407</v>
+        <v>0.3996567373485689</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1358,10 +1370,10 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D16">
-        <v>3686673.74</v>
+        <v>20624703.31</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1370,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4180913.74</v>
+        <v>20624703.31</v>
       </c>
       <c r="H16">
-        <v>0.429890715707519</v>
+        <v>0.4228366279466252</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1381,13 +1393,13 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D17">
-        <v>1660010.22</v>
+        <v>5133475.52</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1396,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1934570.219999999</v>
+        <v>5133475.52</v>
       </c>
       <c r="H17">
-        <v>0.5474195710507735</v>
+        <v>0.352517196770425</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1410,22 +1422,22 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D18">
-        <v>1827177.69</v>
+        <v>2288330.22</v>
       </c>
       <c r="E18">
-        <v>2640000</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4423697.689999999</v>
+        <v>2288330.22</v>
       </c>
       <c r="H18">
-        <v>0.03712116231884734</v>
+        <v>0.4270974492483869</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1436,10 +1448,10 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D19">
-        <v>1354681.6</v>
+        <v>5403686.04</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1448,10 +1460,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1311041.6</v>
+        <v>5403686.04</v>
       </c>
       <c r="H19">
-        <v>0.1259859336271252</v>
+        <v>0.4173817618760101</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1462,10 +1474,10 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D20">
-        <v>1328385.22</v>
+        <v>1251728.8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1474,10 +1486,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1241105.22</v>
+        <v>1251728.8</v>
       </c>
       <c r="H20">
-        <v>0.3327131280617771</v>
+        <v>0.1211840775733529</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1488,10 +1500,10 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D21">
-        <v>10410913.05</v>
+        <v>1120489.16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1500,10 +1512,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>12534273.05</v>
+        <v>1120489.16</v>
       </c>
       <c r="H21">
-        <v>0.5979297219793697</v>
+        <v>0.338445041271082</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1514,10 +1526,10 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D22">
-        <v>21949928.67</v>
+        <v>15228033.05</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1526,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26150488.66999998</v>
+        <v>15228033.05</v>
       </c>
       <c r="H22">
-        <v>0.5669608161857739</v>
+        <v>0.4541991718359187</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1540,22 +1552,22 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D23">
-        <v>4316948.54</v>
+        <v>31479448.67</v>
       </c>
       <c r="E23">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>6240148.54</v>
+        <v>31479448.67</v>
       </c>
       <c r="H23">
-        <v>0.5221875695926942</v>
+        <v>0.4346569135767523</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1566,10 +1578,10 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D24">
-        <v>4161057.56</v>
+        <v>7411348.540000001</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1578,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4914735.08074</v>
+        <v>7411348.540000001</v>
       </c>
       <c r="H24">
-        <v>0.7137842309644492</v>
+        <v>0.4057561162816395</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1592,10 +1604,10 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D25">
-        <v>4528821.529999999</v>
+        <v>5990061.21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1604,10 +1616,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4528821.529999999</v>
+        <v>5990061.21</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.5166741860389102</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1618,10 +1630,10 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D26">
-        <v>1750000</v>
+        <v>4528821.529999999</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1630,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1750000</v>
+        <v>4528821.529999999</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1641,13 +1653,13 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D27">
-        <v>1001</v>
+        <v>1750000</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1656,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1001</v>
+        <v>1750000</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1670,10 +1682,10 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D28">
-        <v>20294888.89</v>
+        <v>1001</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1682,10 +1694,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>24033848.88999999</v>
+        <v>1001</v>
       </c>
       <c r="H28">
-        <v>0.549102162554207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1693,13 +1705,13 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D29">
-        <v>42290573.26000001</v>
+        <v>26748583.58</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1708,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>50276253.25999998</v>
+        <v>26748583.58</v>
       </c>
       <c r="H29">
-        <v>0.5606278386385855</v>
+        <v>0.4496985780209302</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1722,22 +1734,22 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D30">
-        <v>6096802.91</v>
+        <v>55672369.73</v>
       </c>
       <c r="E30">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>9444287.320434799</v>
+        <v>55672369.73</v>
       </c>
       <c r="H30">
-        <v>0.501105466132951</v>
+        <v>0.3943169674017036</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1748,10 +1760,10 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D31">
-        <v>15638321.76</v>
+        <v>11153807.32</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1760,10 +1772,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>18527521.76</v>
+        <v>11153807.32</v>
       </c>
       <c r="H31">
-        <v>0.5803875196744076</v>
+        <v>0.3916525967027373</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1774,10 +1786,10 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D32">
-        <v>4876494.07</v>
+        <v>22130961.76</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1786,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>4261614.07</v>
+        <v>22130961.76</v>
       </c>
       <c r="H32">
-        <v>0.542615816922155</v>
+        <v>0.448410697538524</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1800,10 +1812,10 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D33">
-        <v>1148852.34</v>
+        <v>3407777.87</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1812,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1079132.34</v>
+        <v>3407777.87</v>
       </c>
       <c r="H33">
-        <v>0.2960278254657812</v>
+        <v>0.6231786463241515</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1826,10 +1838,10 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D34">
-        <v>1637.84</v>
+        <v>975118.76</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1838,10 +1850,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1637.84</v>
+        <v>975118.76</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.3068253963240334</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1852,10 +1864,10 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D35">
-        <v>7983756.279999999</v>
+        <v>1637.84</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1864,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>7324956.279999999</v>
+        <v>1637.84</v>
       </c>
       <c r="H35">
-        <v>0.3382398345181659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1878,10 +1890,10 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D36">
-        <v>1209073.48</v>
+        <v>6445742.55</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1890,10 +1902,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1077673.48</v>
+        <v>6445742.55</v>
       </c>
       <c r="H36">
-        <v>0.4598038359448172</v>
+        <v>0.3529995159362982</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1904,10 +1916,10 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D37">
-        <v>1303990.46</v>
+        <v>894959.95</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1916,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1537590.46</v>
+        <v>894959.95</v>
       </c>
       <c r="H37">
-        <v>0.5739616776758618</v>
+        <v>0.5084795135245997</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1930,10 +1942,10 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D38">
-        <v>4643334.26</v>
+        <v>1827590.46</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1942,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>4245374.26</v>
+        <v>1827590.46</v>
       </c>
       <c r="H38">
-        <v>0.3496296696348275</v>
+        <v>0.4456414157469392</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1956,10 +1968,10 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D39">
-        <v>12991791.64</v>
+        <v>3779635.62</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1968,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>15508191.64</v>
+        <v>3779635.62</v>
       </c>
       <c r="H39">
-        <v>0.6145909607807755</v>
+        <v>0.3210671403292575</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1982,10 +1994,10 @@
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D40">
-        <v>1865276.89</v>
+        <v>18646671.64</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1994,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1728156.89</v>
+        <v>18646671.64</v>
       </c>
       <c r="H40">
-        <v>0.3078102474827966</v>
+        <v>0.4717227915962808</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2008,10 +2020,10 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D41">
-        <v>32735090.91</v>
+        <v>1550762.36</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2020,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>39294930.91</v>
+        <v>1550762.36</v>
       </c>
       <c r="H41">
-        <v>0.5897488623425087</v>
+        <v>0.3160448129525146</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2034,10 +2046,10 @@
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42">
-        <v>8367391.37</v>
+        <v>48268397.9</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2046,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>8060791.37</v>
+        <v>48268397.9</v>
       </c>
       <c r="H42">
-        <v>0.1434362393130639</v>
+        <v>0.4553252926590298</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2060,10 +2072,10 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43">
-        <v>5867368.64</v>
+        <v>7348518.33</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2072,10 +2084,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>5428168.64</v>
+        <v>7348518.329999998</v>
       </c>
       <c r="H43">
-        <v>0.304288261758942</v>
+        <v>0.2477064243779332</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2086,22 +2098,22 @@
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44">
-        <v>2893148.68</v>
+        <v>4825421.33</v>
       </c>
       <c r="E44">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>4189508.68</v>
+        <v>4825421.33</v>
       </c>
       <c r="H44">
-        <v>0.5067870631551</v>
+        <v>0.3143551404660451</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2109,25 +2121,25 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45">
-        <v>21823348.96</v>
+        <v>4953068.68</v>
       </c>
       <c r="E45">
-        <v>5200000</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>31552708.96</v>
+        <v>4953068.68</v>
       </c>
       <c r="H45">
-        <v>0.5426552383095279</v>
+        <v>0.3957139556562741</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2138,10 +2150,10 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46">
-        <v>2735099.12</v>
+        <v>37180828.96</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2150,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>2516099.12</v>
+        <v>37180828.96</v>
       </c>
       <c r="H46">
-        <v>0.3282319020881816</v>
+        <v>0.4249977970367447</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2164,10 +2176,10 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47">
-        <v>7395291.82</v>
+        <v>2216193.42</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2176,10 +2188,10 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>6817131.82</v>
+        <v>2216193.42</v>
       </c>
       <c r="H47">
-        <v>0.3139894102854535</v>
+        <v>0.3422300567971184</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2190,10 +2202,10 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48">
-        <v>5170509.3</v>
+        <v>5715433.98</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2202,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>4686069.3</v>
+        <v>5715433.98</v>
       </c>
       <c r="H48">
-        <v>0.4200341638140093</v>
+        <v>0.2388631212917973</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2216,10 +2228,10 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D49">
-        <v>3055110.89</v>
+        <v>4020324.98</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2228,10 +2240,10 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>2878950.89</v>
+        <v>4020324.979999998</v>
       </c>
       <c r="H49">
-        <v>0.2294902640732437</v>
+        <v>0.4496239505493909</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2242,10 +2254,10 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D50">
-        <v>8945516.970000001</v>
+        <v>2636228.04</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2254,10 +2266,10 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>8328956.970000001</v>
+        <v>2636228.04</v>
       </c>
       <c r="H50">
-        <v>0.2776361083781659</v>
+        <v>0.2301615758551753</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2268,10 +2280,10 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D51">
-        <v>2221365.16</v>
+        <v>7490023.17</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2280,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>2045205.16</v>
+        <v>7490023.17</v>
       </c>
       <c r="H51">
-        <v>0.3768846348891473</v>
+        <v>0.2835310855253336</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2294,10 +2306,10 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D52">
-        <v>6410561.279999999</v>
+        <v>1807199.14</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2306,10 +2318,10 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>6410561.279999999</v>
+        <v>1807199.14</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>0.3917027096416171</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2320,10 +2332,10 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D53">
-        <v>5543865.689999999</v>
+        <v>5796790.35</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2332,10 +2344,10 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>5079265.689999999</v>
+        <v>5796790.35</v>
       </c>
       <c r="H53">
-        <v>0.3212098952043598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2346,10 +2358,10 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D54">
-        <v>2762082.88</v>
+        <v>4197622.36</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2358,10 +2370,10 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>2585922.88</v>
+        <v>4197622.36</v>
       </c>
       <c r="H54">
-        <v>0.2767865992971917</v>
+        <v>0.3594697832703559</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2372,10 +2384,10 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D55">
-        <v>4533673.07</v>
+        <v>2349158.42</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2384,10 +2396,10 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>4092193.07</v>
+        <v>2349158.42</v>
       </c>
       <c r="H55">
-        <v>0.5036565882264201</v>
+        <v>0.2798115250141368</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2398,10 +2410,10 @@
         <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D56">
-        <v>2684044.82</v>
+        <v>3488069.97</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2410,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>2507884.82</v>
+        <v>3488069.97</v>
       </c>
       <c r="H56">
-        <v>0.307353190167641</v>
+        <v>0.5436014805631895</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2424,22 +2436,22 @@
         <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D57">
-        <v>5024550.65</v>
+        <v>2270696.35</v>
       </c>
       <c r="E57">
-        <v>1600000</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>7732202.941108</v>
+        <v>2270696.35</v>
       </c>
       <c r="H57">
-        <v>0.5476225640028578</v>
+        <v>0.3117478917865878</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2450,22 +2462,22 @@
         <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D58">
-        <v>5063224.62</v>
+        <v>9124202.940000001</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>2122824.62</v>
+        <v>9124202.940000001</v>
       </c>
       <c r="H58">
-        <v>0.9726003648855363</v>
+        <v>0.4284604393071511</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2476,10 +2488,10 @@
         <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D59">
-        <v>4635720.88</v>
+        <v>2258785.69</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2488,10 +2500,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>4283400.88</v>
+        <v>2258785.69</v>
       </c>
       <c r="H59">
-        <v>0.3856113509506493</v>
+        <v>0.6715537497494949</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2502,10 +2514,10 @@
         <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D60">
-        <v>4488639.689999999</v>
+        <v>3809420.11</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2514,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>3915079.689999999</v>
+        <v>3809420.11</v>
       </c>
       <c r="H60">
-        <v>0.5484553495768053</v>
+        <v>0.3981960393441615</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2528,10 +2540,10 @@
         <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D61">
-        <v>3574405.42</v>
+        <v>3147033.73</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2540,10 +2552,10 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>4185405.42</v>
+        <v>3147033.73</v>
       </c>
       <c r="H61">
-        <v>0.6325681109286659</v>
+        <v>0.6266106337538366</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2554,10 +2566,10 @@
         <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D62">
-        <v>2955862.8</v>
+        <v>5006731.09</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2566,10 +2578,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>2778262.8</v>
+        <v>5006731.09</v>
       </c>
       <c r="H62">
-        <v>0.2972591361767505</v>
+        <v>0.4883449811961041</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2580,10 +2592,10 @@
         <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D63">
-        <v>3369396.77</v>
+        <v>2536192.62</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2592,10 +2604,10 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>2969796.77</v>
+        <v>2536192.62</v>
       </c>
       <c r="H63">
-        <v>0.5005578883433158</v>
+        <v>0.29904984109606</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2606,10 +2618,10 @@
         <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D64">
-        <v>9112907.220000001</v>
+        <v>2932858.51</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2618,10 +2630,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>8186387.220000001</v>
+        <v>2932858.51</v>
       </c>
       <c r="H64">
-        <v>0.4237069059628478</v>
+        <v>0.7758110363121473</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2632,10 +2644,10 @@
         <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D65">
-        <v>1383251.28</v>
+        <v>6915359.3</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2644,10 +2656,10 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>1383251.28</v>
+        <v>6915359.3</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>0.4606386250964575</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2658,10 +2670,10 @@
         <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D66">
-        <v>4734766.65</v>
+        <v>1383251.28</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2670,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>5654926.649999999</v>
+        <v>1383251.28</v>
       </c>
       <c r="H66">
-        <v>0.5780480282622235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2684,10 +2696,10 @@
         <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D67">
-        <v>2769826.46</v>
+        <v>6922332.19</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2696,10 +2708,10 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>3229586.459999999</v>
+        <v>6922332.19</v>
       </c>
       <c r="H67">
-        <v>0.6325924465264202</v>
+        <v>0.4576776602221974</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2710,10 +2722,10 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D68">
-        <v>9881963.439999999</v>
+        <v>3815586.46</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2722,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>11808963.43999999</v>
+        <v>3815586.46</v>
       </c>
       <c r="H68">
-        <v>0.5656705123985047</v>
+        <v>0.4943271551498272</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2733,13 +2745,13 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D69">
-        <v>223083.7</v>
+        <v>24188828.94</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2748,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>223083.7</v>
+        <v>24188828.94</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>0.447558665483704</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2762,10 +2774,10 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D70">
-        <v>1001</v>
+        <v>223083.7</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2774,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>1001</v>
+        <v>223083.7</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2788,10 +2800,10 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D71">
-        <v>7236272.859999999</v>
+        <v>1001</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2800,10 +2812,10 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>6594352.86</v>
+        <v>1001</v>
       </c>
       <c r="H71">
-        <v>0.3479413444672719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2814,10 +2826,10 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D72">
-        <v>592723.9299999999</v>
+        <v>5771701.52</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2826,10 +2838,10 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>592723.9299999999</v>
+        <v>5771701.52</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>0.3660995969174788</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2840,10 +2852,10 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D73">
-        <v>1532692.66</v>
+        <v>592723.9299999999</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2852,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>1532692.66</v>
+        <v>592723.9299999999</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2866,10 +2878,10 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>1482040.52</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2878,10 +2890,10 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74" t="s">
-        <v>184</v>
+        <v>1482040.52</v>
+      </c>
+      <c r="H74">
+        <v>0.6087282957688633</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2892,10 +2904,10 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D75">
-        <v>14207356.56</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2904,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>16858875.8904</v>
-      </c>
-      <c r="H75">
-        <v>0.5430226819104248</v>
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2918,22 +2930,22 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D76">
-        <v>3699564.91</v>
+        <v>20122235.65</v>
       </c>
       <c r="E76">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>5156684.91</v>
+        <v>20122235.65</v>
       </c>
       <c r="H76">
-        <v>0.505522917435729</v>
+        <v>0.4200363491916467</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2941,13 +2953,13 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D77">
-        <v>2604437.87</v>
+        <v>4560057.45</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2956,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>3072724.063513199</v>
+        <v>4560057.45</v>
       </c>
       <c r="H77">
-        <v>0.5319090052398969</v>
+        <v>0.461625763070156</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2970,22 +2982,22 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D78">
-        <v>1579644.9</v>
+        <v>1010</v>
       </c>
       <c r="E78">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>2419616.0134136</v>
+        <v>1010</v>
       </c>
       <c r="H78">
-        <v>0.3366782148423275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2996,10 +3008,10 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D79">
-        <v>2452683.58</v>
+        <v>2706616.01</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3008,10 +3020,10 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>2364043.58</v>
+        <v>2706616.01</v>
       </c>
       <c r="H79">
-        <v>0.139737525481658</v>
+        <v>0.2777638191832021</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3022,10 +3034,10 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D80">
-        <v>5193363.96</v>
+        <v>2245143.2</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3034,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>6234403.96</v>
+        <v>2245143.2</v>
       </c>
       <c r="H80">
-        <v>0.6228469032346761</v>
+        <v>0.1351268818844161</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3048,10 +3060,10 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D81">
-        <v>2601113.66</v>
+        <v>7497203.959999999</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3060,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>3074313.66</v>
+        <v>7497203.959999999</v>
       </c>
       <c r="H81">
-        <v>0.6182869447354959</v>
+        <v>0.4779888634642401</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3074,10 +3086,10 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D82">
-        <v>3623007.72</v>
+        <v>3648313.66</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3086,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>4318407.720000001</v>
+        <v>3648313.66</v>
       </c>
       <c r="H82">
-        <v>0.5677125827294508</v>
+        <v>0.480824886092716</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3100,22 +3112,22 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D83">
-        <v>24627970.76</v>
+        <v>2003140.2</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>3800000</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>22815410.76</v>
+        <v>2003140.2</v>
       </c>
       <c r="H83">
-        <v>0.2999248565797027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3123,25 +3135,25 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D84">
-        <v>4433547.810000001</v>
+        <v>4895128.04</v>
       </c>
       <c r="E84">
-        <v>1350000</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>6689111.044912</v>
+        <v>4895128.04</v>
       </c>
       <c r="H84">
-        <v>0.4627822111511566</v>
+        <v>0.575929776905284</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3149,13 +3161,13 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D85">
-        <v>5966835.37</v>
+        <v>16882392.01</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3164,10 +3176,10 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>6859035.358728</v>
+        <v>16882392.01</v>
       </c>
       <c r="H85">
-        <v>0.6371300585933164</v>
+        <v>0.3384401923978307</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3175,13 +3187,13 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D86">
-        <v>48011595.85</v>
+        <v>7779710.88</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3190,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>57475595.85</v>
+        <v>7779710.88</v>
       </c>
       <c r="H86">
-        <v>0.5669411428989976</v>
+        <v>0.3672167313240823</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3201,13 +3213,13 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D87">
-        <v>15600977.51</v>
+        <v>7444483.82</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3216,10 +3228,10 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>18137373.212038</v>
+        <v>7444483.82</v>
       </c>
       <c r="H87">
-        <v>0.5951178196430326</v>
+        <v>0.2827650715479693</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3227,13 +3239,13 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D88">
-        <v>2415100.44</v>
+        <v>78521514.2</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3242,10 +3254,10 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>2836540.44</v>
+        <v>78521514.2</v>
       </c>
       <c r="H88">
-        <v>0.6237234537717361</v>
+        <v>0.43276496061254</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3253,13 +3265,13 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D89">
-        <v>2870967.59</v>
+        <v>22347129.86</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3268,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>3436453.0356</v>
+        <v>22347129.86</v>
       </c>
       <c r="H89">
-        <v>0.568769711022324</v>
+        <v>0.5719123699583675</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3279,25 +3291,25 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D90">
-        <v>3351232.9</v>
+        <v>3356500.44</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>3122851.834600001</v>
+        <v>3356500.44</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>0.4865845332646523</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3305,13 +3317,13 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D91">
-        <v>2123871.57</v>
+        <v>4122853.04</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3320,10 +3332,10 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>2079271.57</v>
+        <v>4122853.04</v>
       </c>
       <c r="H91">
-        <v>0.09929727457390283</v>
+        <v>0.4376386891539554</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3331,25 +3343,103 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>184</v>
+      </c>
+      <c r="D92">
+        <v>10</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>10</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>185</v>
+      </c>
+      <c r="D93">
+        <v>6548223.12</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>6548223.12</v>
+      </c>
+      <c r="H93">
+        <v>0.5453464145247391</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" t="s">
         <v>92</v>
       </c>
-      <c r="C92" t="s">
-        <v>183</v>
-      </c>
-      <c r="D92">
-        <v>10402497.99</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>12493377.99</v>
-      </c>
-      <c r="H92">
-        <v>0.5738049073467604</v>
+      <c r="C94" t="s">
+        <v>186</v>
+      </c>
+      <c r="D94">
+        <v>2116995.85</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>2116995.85</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>187</v>
+      </c>
+      <c r="D95">
+        <v>15010177.99</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>15010177.99</v>
+      </c>
+      <c r="H95">
+        <v>0.4407569320235623</v>
       </c>
     </row>
   </sheetData>
@@ -3359,7 +3449,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F105"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3376,13 +3466,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3393,13 +3483,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F2">
         <v>19</v>
@@ -3413,13 +3503,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F3">
         <v>57</v>
@@ -3430,19 +3520,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3450,19 +3540,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3470,19 +3560,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3490,19 +3580,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7">
         <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3510,19 +3600,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F8">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3530,19 +3620,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3550,19 +3640,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3570,19 +3660,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E11" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3590,19 +3680,19 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E12" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3610,19 +3700,19 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F13">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3630,16 +3720,16 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E14" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F14">
         <v>15</v>
@@ -3650,19 +3740,19 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3670,19 +3760,19 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E16" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3690,19 +3780,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E17" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3710,19 +3800,19 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E18" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F18">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3730,19 +3820,19 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3750,19 +3840,19 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E20" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3770,19 +3860,19 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E21" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3790,19 +3880,19 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E22" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3810,19 +3900,19 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E23" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3830,19 +3920,19 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E24" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3850,19 +3940,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F25">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3870,19 +3960,19 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F26">
-        <v>91</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3890,19 +3980,19 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F27">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3910,19 +4000,19 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F28">
-        <v>20</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3930,19 +4020,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D29" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E29" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F29">
-        <v>81</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3950,19 +4040,19 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E30" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F30">
-        <v>173</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3970,19 +4060,19 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E31" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3990,19 +4080,19 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E32" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F32">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4010,19 +4100,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E33" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4030,19 +4120,19 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E34" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F34">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4050,19 +4140,19 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D35" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F35">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4070,19 +4160,19 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4090,19 +4180,19 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E37" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F37">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4110,19 +4200,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4130,19 +4220,19 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E39" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4150,16 +4240,16 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D40" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E40" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -4170,19 +4260,19 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E41" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F41">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4190,19 +4280,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E42" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F42">
-        <v>54</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4210,19 +4300,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E43" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4230,19 +4320,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E44" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4250,19 +4340,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E45" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F45">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4270,19 +4360,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E46" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F46">
-        <v>112</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4290,19 +4380,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E47" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F47">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4310,19 +4400,19 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D48" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E48" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4330,19 +4420,19 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E49" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4350,19 +4440,19 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E50" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F50">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4370,19 +4460,19 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D51" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E51" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4390,19 +4480,19 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E52" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F52">
-        <v>96</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4410,19 +4500,19 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D53" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4430,19 +4520,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D54" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F54">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4450,19 +4540,19 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D55" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E55" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4470,19 +4560,19 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D56" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E56" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F56">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4490,19 +4580,19 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D57" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E57" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4510,19 +4600,19 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D58" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E58" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F58">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4530,19 +4620,19 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D59" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E59" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4550,19 +4640,19 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D60" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E60" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4570,19 +4660,19 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E61" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F61">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4590,19 +4680,19 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D62" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E62" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4610,19 +4700,19 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D63" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E63" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F63">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4630,19 +4720,19 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D64" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E64" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4650,19 +4740,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D65" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E65" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4670,19 +4760,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D66" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E66" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F66">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4690,19 +4780,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D67" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E67" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F67">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4710,19 +4800,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D68" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E68" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F68">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4730,19 +4820,19 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D69" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E69" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F69">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4750,19 +4840,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E70" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F70">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4770,19 +4860,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D71" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E71" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4790,19 +4880,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D72" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E72" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F72">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4810,19 +4900,19 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D73" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E73" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F73">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4830,19 +4920,19 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D74" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E74" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F74">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4850,19 +4940,19 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E75" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F75">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4870,19 +4960,19 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D76" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E76" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F76">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4890,19 +4980,19 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D77" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E77" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4910,19 +5000,19 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D78" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E78" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F78">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4930,19 +5020,19 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C79" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D79" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E79" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F79">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4950,19 +5040,19 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D80" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E80" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F80">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4970,19 +5060,19 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D81" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E81" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F81">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4990,19 +5080,19 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D82" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E82" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F82">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5010,19 +5100,19 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D83" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E83" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F83">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5030,19 +5120,19 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D84" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E84" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F84">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5050,19 +5140,19 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D85" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E85" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F85">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5070,19 +5160,19 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D86" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E86" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5090,19 +5180,19 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D87" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E87" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F87">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5110,19 +5200,19 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C88" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D88" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E88" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5130,19 +5220,19 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C89" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="D89" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E89" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F89">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5150,19 +5240,19 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C90" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D90" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E90" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F90">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5170,19 +5260,19 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C91" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D91" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E91" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F91">
-        <v>9</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5190,19 +5280,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C92" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D92" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E92" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F92">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5210,19 +5300,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C93" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D93" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E93" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F93">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5230,19 +5320,19 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C94" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D94" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E94" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F94">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5250,19 +5340,19 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C95" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E95" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5270,19 +5360,19 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C96" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D96" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E96" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F96">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5290,19 +5380,19 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C97" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="D97" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E97" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F97">
-        <v>200</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5310,158 +5400,18 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C98" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D98" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E98" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F98">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" t="s">
-        <v>88</v>
-      </c>
-      <c r="C99" t="s">
-        <v>179</v>
-      </c>
-      <c r="D99" t="s">
-        <v>190</v>
-      </c>
-      <c r="E99" t="s">
-        <v>192</v>
-      </c>
-      <c r="F99">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" t="s">
-        <v>88</v>
-      </c>
-      <c r="C100" t="s">
-        <v>179</v>
-      </c>
-      <c r="D100" t="s">
-        <v>189</v>
-      </c>
-      <c r="E100" t="s">
-        <v>192</v>
-      </c>
-      <c r="F100">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" t="s">
-        <v>88</v>
-      </c>
-      <c r="C101" t="s">
-        <v>179</v>
-      </c>
-      <c r="D101" t="s">
-        <v>189</v>
-      </c>
-      <c r="E101" t="s">
-        <v>193</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>89</v>
-      </c>
-      <c r="C102" t="s">
-        <v>180</v>
-      </c>
-      <c r="D102" t="s">
-        <v>189</v>
-      </c>
-      <c r="E102" t="s">
-        <v>192</v>
-      </c>
-      <c r="F102">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" t="s">
-        <v>90</v>
-      </c>
-      <c r="C103" t="s">
-        <v>181</v>
-      </c>
-      <c r="D103" t="s">
-        <v>189</v>
-      </c>
-      <c r="E103" t="s">
-        <v>192</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" t="s">
-        <v>91</v>
-      </c>
-      <c r="C104" t="s">
-        <v>182</v>
-      </c>
-      <c r="D104" t="s">
-        <v>188</v>
-      </c>
-      <c r="E104" t="s">
-        <v>193</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" t="s">
-        <v>92</v>
-      </c>
-      <c r="C105" t="s">
-        <v>183</v>
-      </c>
-      <c r="D105" t="s">
-        <v>189</v>
-      </c>
-      <c r="E105" t="s">
-        <v>192</v>
-      </c>
-      <c r="F105">
         <v>44</v>
       </c>
     </row>

--- a/info_faccts.xlsx
+++ b/info_faccts.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DED2F37-C022-4C18-83C8-DD6F18AB7C2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="2085" windowWidth="14265" windowHeight="20955" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="trdrec_aggr" sheetId="3" r:id="rId3"/>
     <sheet name="trdrec_details" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="272">
   <si>
     <t>DataDateTime</t>
   </si>
@@ -49,10 +43,10 @@
     <t>CurrentMarginRate</t>
   </si>
   <si>
-    <t>20200720T111031</t>
-  </si>
-  <si>
-    <t>704_f_huat_0402</t>
+    <t>20200722T111512</t>
+  </si>
+  <si>
+    <t>10_f_xb_3670</t>
   </si>
   <si>
     <t>1101_f_ya_9059</t>
@@ -94,7 +88,7 @@
     <t>1111_f_zxjt_0021</t>
   </si>
   <si>
-    <t>1201_gtax_1947</t>
+    <t>1201_f_gtax_1947</t>
   </si>
   <si>
     <t>1202_f_hy_2555</t>
@@ -334,162 +328,162 @@
     <t>930_f_xy_0810</t>
   </si>
   <si>
-    <t>10_f_xb_3670</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>11022</t>
+  </si>
+  <si>
+    <t>11023</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1201</t>
+  </si>
+  <si>
+    <t>1202</t>
+  </si>
+  <si>
+    <t>1203</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>1402</t>
+  </si>
+  <si>
+    <t>1501</t>
+  </si>
+  <si>
+    <t>1601</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3004</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>601</t>
+  </si>
+  <si>
+    <t>602</t>
+  </si>
+  <si>
+    <t>603</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>608</t>
+  </si>
+  <si>
+    <t>610</t>
+  </si>
+  <si>
+    <t>612</t>
+  </si>
+  <si>
+    <t>613</t>
+  </si>
+  <si>
+    <t>614</t>
+  </si>
+  <si>
+    <t>6162</t>
+  </si>
+  <si>
+    <t>618</t>
+  </si>
+  <si>
+    <t>619</t>
+  </si>
+  <si>
+    <t>620</t>
+  </si>
+  <si>
+    <t>624</t>
+  </si>
+  <si>
+    <t>625</t>
+  </si>
+  <si>
+    <t>626</t>
+  </si>
+  <si>
+    <t>6272</t>
+  </si>
+  <si>
+    <t>628</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>7022</t>
+  </si>
+  <si>
+    <t>702</t>
   </si>
   <si>
     <t>704</t>
   </si>
   <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>11022</t>
-  </si>
-  <si>
-    <t>11023</t>
-  </si>
-  <si>
-    <t>1102</t>
-  </si>
-  <si>
-    <t>1104</t>
-  </si>
-  <si>
-    <t>1105</t>
-  </si>
-  <si>
-    <t>1106</t>
-  </si>
-  <si>
-    <t>1107</t>
-  </si>
-  <si>
-    <t>1108</t>
-  </si>
-  <si>
-    <t>1109</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>1111</t>
-  </si>
-  <si>
-    <t>1201</t>
-  </si>
-  <si>
-    <t>1202</t>
-  </si>
-  <si>
-    <t>1203</t>
-  </si>
-  <si>
-    <t>1205</t>
-  </si>
-  <si>
-    <t>1206</t>
-  </si>
-  <si>
-    <t>1207</t>
-  </si>
-  <si>
-    <t>1211</t>
-  </si>
-  <si>
-    <t>1402</t>
-  </si>
-  <si>
-    <t>1501</t>
-  </si>
-  <si>
-    <t>1601</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3004</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>307</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
-    <t>602</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t>604</t>
-  </si>
-  <si>
-    <t>605</t>
-  </si>
-  <si>
-    <t>606</t>
-  </si>
-  <si>
-    <t>608</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>612</t>
-  </si>
-  <si>
-    <t>613</t>
-  </si>
-  <si>
-    <t>614</t>
-  </si>
-  <si>
-    <t>6162</t>
-  </si>
-  <si>
-    <t>618</t>
-  </si>
-  <si>
-    <t>619</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>624</t>
-  </si>
-  <si>
-    <t>625</t>
-  </si>
-  <si>
-    <t>626</t>
-  </si>
-  <si>
-    <t>6272</t>
-  </si>
-  <si>
-    <t>628</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>7022</t>
-  </si>
-  <si>
-    <t>702</t>
-  </si>
-  <si>
     <t>705</t>
   </si>
   <si>
@@ -589,9 +583,6 @@
     <t>930</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Net Asset Equals to 0.</t>
   </si>
   <si>
@@ -622,6 +613,9 @@
     <t>NetQty</t>
   </si>
   <si>
+    <t>615</t>
+  </si>
+  <si>
     <t>TradeTime</t>
   </si>
   <si>
@@ -631,127 +625,202 @@
     <t>Price</t>
   </si>
   <si>
-    <t>09:30:41</t>
+    <t>10:12:46</t>
+  </si>
+  <si>
+    <t>09:30:45</t>
+  </si>
+  <si>
+    <t>09:30:49</t>
+  </si>
+  <si>
+    <t>10:06:38</t>
+  </si>
+  <si>
+    <t>10:13:19</t>
+  </si>
+  <si>
+    <t>10:13:15</t>
+  </si>
+  <si>
+    <t>10:13:08</t>
+  </si>
+  <si>
+    <t>10:13:03</t>
+  </si>
+  <si>
+    <t>10:07:19</t>
+  </si>
+  <si>
+    <t>10:07:07</t>
+  </si>
+  <si>
+    <t>10:06:57</t>
+  </si>
+  <si>
+    <t>09:30:47</t>
+  </si>
+  <si>
+    <t>09:31:18</t>
   </si>
   <si>
     <t>09:31:07</t>
   </si>
   <si>
-    <t>09:31:02</t>
-  </si>
-  <si>
-    <t>09:30:10</t>
+    <t>09:31:03</t>
+  </si>
+  <si>
+    <t>09:30:57</t>
+  </si>
+  <si>
+    <t>09:52:40</t>
+  </si>
+  <si>
+    <t>10:26:02</t>
+  </si>
+  <si>
+    <t>10:25:57</t>
+  </si>
+  <si>
+    <t>10:25:42</t>
+  </si>
+  <si>
+    <t>10:03:13</t>
+  </si>
+  <si>
+    <t>10:03:07</t>
+  </si>
+  <si>
+    <t>09:53:22</t>
+  </si>
+  <si>
+    <t>09:53:16</t>
+  </si>
+  <si>
+    <t>09:53:13</t>
+  </si>
+  <si>
+    <t>09:53:07</t>
+  </si>
+  <si>
+    <t>09:53:01</t>
+  </si>
+  <si>
+    <t>09:52:57</t>
+  </si>
+  <si>
+    <t>09:52:51</t>
+  </si>
+  <si>
+    <t>10:08:49</t>
+  </si>
+  <si>
+    <t>10:09:16</t>
+  </si>
+  <si>
+    <t>10:08:56</t>
+  </si>
+  <si>
+    <t>09:30:24</t>
+  </si>
+  <si>
+    <t>09:31:06</t>
+  </si>
+  <si>
+    <t>09:31:00</t>
+  </si>
+  <si>
+    <t>09:30:50</t>
+  </si>
+  <si>
+    <t>09:30:40</t>
+  </si>
+  <si>
+    <t>09:30:34</t>
+  </si>
+  <si>
+    <t>09:30:29</t>
+  </si>
+  <si>
+    <t>11:06:01</t>
+  </si>
+  <si>
+    <t>11:09:17</t>
+  </si>
+  <si>
+    <t>11:11:32</t>
+  </si>
+  <si>
+    <t>11:11:28</t>
+  </si>
+  <si>
+    <t>11:11:15</t>
+  </si>
+  <si>
+    <t>11:11:10</t>
+  </si>
+  <si>
+    <t>10:17:50</t>
+  </si>
+  <si>
+    <t>10:18:26</t>
+  </si>
+  <si>
+    <t>10:18:15</t>
+  </si>
+  <si>
+    <t>10:18:11</t>
+  </si>
+  <si>
+    <t>10:18:05</t>
+  </si>
+  <si>
+    <t>10:18:00</t>
+  </si>
+  <si>
+    <t>10:17:55</t>
+  </si>
+  <si>
+    <t>09:30:32</t>
+  </si>
+  <si>
+    <t>11:03:26</t>
+  </si>
+  <si>
+    <t>10:23:46</t>
+  </si>
+  <si>
+    <t>11:12:11</t>
+  </si>
+  <si>
+    <t>11:12:16</t>
+  </si>
+  <si>
+    <t>09:30:43</t>
   </si>
   <si>
     <t>09:31:14</t>
   </si>
   <si>
-    <t>09:30:47</t>
-  </si>
-  <si>
-    <t>09:30:42</t>
-  </si>
-  <si>
-    <t>09:30:31</t>
-  </si>
-  <si>
-    <t>09:30:16</t>
-  </si>
-  <si>
-    <t>09:35:06</t>
-  </si>
-  <si>
-    <t>09:31:28</t>
-  </si>
-  <si>
-    <t>09:31:23</t>
-  </si>
-  <si>
-    <t>09:31:18</t>
-  </si>
-  <si>
-    <t>09:31:10</t>
-  </si>
-  <si>
-    <t>09:31:03</t>
-  </si>
-  <si>
-    <t>09:58:09</t>
-  </si>
-  <si>
-    <t>09:58:27</t>
-  </si>
-  <si>
-    <t>09:58:23</t>
+    <t>09:31:08</t>
+  </si>
+  <si>
+    <t>09:31:05</t>
+  </si>
+  <si>
+    <t>09:30:58</t>
   </si>
   <si>
     <t>09:30:55</t>
   </si>
   <si>
-    <t>09:30:20</t>
-  </si>
-  <si>
-    <t>09:31:39</t>
-  </si>
-  <si>
-    <t>09:31:43</t>
-  </si>
-  <si>
-    <t>09:32:47</t>
-  </si>
-  <si>
-    <t>09:43:12</t>
-  </si>
-  <si>
-    <t>09:43:01</t>
-  </si>
-  <si>
-    <t>09:42:51</t>
-  </si>
-  <si>
-    <t>09:42:46</t>
-  </si>
-  <si>
-    <t>09:32:52</t>
-  </si>
-  <si>
-    <t>09:48:11</t>
-  </si>
-  <si>
-    <t>09:57:37</t>
-  </si>
-  <si>
-    <t>09:57:32</t>
-  </si>
-  <si>
-    <t>09:55:25</t>
-  </si>
-  <si>
-    <t>09:48:33</t>
-  </si>
-  <si>
-    <t>09:33:28</t>
-  </si>
-  <si>
-    <t>09:33:02</t>
-  </si>
-  <si>
-    <t>09:30:23</t>
-  </si>
-  <si>
-    <t>09:58:47</t>
-  </si>
-  <si>
-    <t>10:00:45</t>
-  </si>
-  <si>
-    <t>09:59:30</t>
-  </si>
-  <si>
-    <t>09:33:30</t>
-  </si>
-  <si>
-    <t>09:57:13</t>
+    <t>09:30:48</t>
+  </si>
+  <si>
+    <t>09:55:51</t>
+  </si>
+  <si>
+    <t>09:55:57</t>
   </si>
   <si>
     <t>sell</t>
@@ -769,12 +838,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -782,15 +851,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -836,23 +898,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -894,7 +948,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -926,27 +980,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -978,24 +1014,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1171,19 +1189,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="18.375" customWidth="1"/>
+    <col min="1" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +1225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1217,25 +1233,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2">
-        <v>9125162.9400000013</v>
+        <v>24123360.69</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="G2">
-        <v>9125162.9399999976</v>
+        <v>18198748.151624</v>
       </c>
       <c r="H2">
-        <v>0.42840168725798111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.732441236558928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1243,10 +1259,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3">
-        <v>1748567.37</v>
+        <v>1749178.61</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1255,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1758906.946794</v>
+        <v>1749178.61</v>
       </c>
       <c r="H3">
-        <v>0.32284027363416012</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1269,25 +1285,25 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4">
-        <v>4881756.3100000015</v>
+        <v>5236076.310000001</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="G4">
-        <v>4952436.3100000015</v>
+        <v>4680916.310000001</v>
       </c>
       <c r="H4">
-        <v>0.36552482186287821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3958107082670742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1295,10 +1311,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5">
-        <v>11494731.640000001</v>
+        <v>9809670.859999999</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1307,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>11272971.640000001</v>
+        <v>8279550.859999999</v>
       </c>
       <c r="H5">
-        <v>0.73357196878391151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.9514595819512848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1321,25 +1337,25 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6">
-        <v>6293874.9399999985</v>
+        <v>6601434.939999999</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>3200000</v>
       </c>
       <c r="G6">
-        <v>6349314.9399999985</v>
+        <v>3808874.939999999</v>
       </c>
       <c r="H6">
-        <v>0.26048592889613381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4439143911613963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1347,10 +1363,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7">
-        <v>2626539.59</v>
+        <v>2430819.59</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1359,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2591259.59</v>
+        <v>2172379.59</v>
       </c>
       <c r="H7">
-        <v>0.40616787452005138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.495296864762019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1373,10 +1389,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D8">
-        <v>11808731.130000001</v>
+        <v>9880397.67</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1385,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>11627051.130000001</v>
+        <v>8523997.67</v>
       </c>
       <c r="H8">
-        <v>0.41483591549321791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.6691401172098165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1399,10 +1415,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9">
-        <v>2907711.14</v>
+        <v>3224911.14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1411,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2974911.14</v>
+        <v>3587711.14</v>
       </c>
       <c r="H9">
-        <v>0.50942832531125615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4330248281917145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1425,10 +1441,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10">
-        <v>2635973.91</v>
+        <v>2356373.91</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1437,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2585573.91</v>
+        <v>1988773.91</v>
       </c>
       <c r="H10">
-        <v>0.58151576877568345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.7728902678535237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1451,7 +1467,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11">
         <v>1001</v>
@@ -1469,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1477,10 +1493,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12">
-        <v>4073167.84</v>
+        <v>2737647.84</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1489,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4012687.84</v>
+        <v>2285487.84</v>
       </c>
       <c r="H12">
-        <v>0.44963936192953391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.8070595553901524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1503,25 +1519,25 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13">
-        <v>4968680.7699999996</v>
+        <v>4353560.77</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1250000</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4857800.7699999996</v>
+        <v>4811569.703664</v>
       </c>
       <c r="H13">
-        <v>0.68092837821341956</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.6708659748900543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1529,7 +1545,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14">
         <v>1010</v>
@@ -1547,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1555,10 +1571,10 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15">
-        <v>11462326.17</v>
+        <v>10679446.17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1567,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>11321206.17</v>
+        <v>9650166.17</v>
       </c>
       <c r="H15">
-        <v>0.3718636986892716</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4459914082495015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1581,10 +1597,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16">
-        <v>20621387.870000001</v>
+        <v>14939967.36</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1593,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>20383927.374000002</v>
+        <v>12659935.5968</v>
       </c>
       <c r="H16">
-        <v>0.46517120209594448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.7527719811156766</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1607,10 +1623,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17">
-        <v>3738435.52</v>
+        <v>3406761.22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1619,13 +1635,13 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3664041.223708</v>
+        <v>3006121.22</v>
       </c>
       <c r="H17">
-        <v>0.45236739949192528</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5641002061786449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1633,10 +1649,10 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18">
-        <v>2288570.2200000002</v>
+        <v>2120810.22</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1645,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2258330.2200000002</v>
+        <v>1853048.93128</v>
       </c>
       <c r="H18">
-        <v>0.43275726080484378</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.7231878108444333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1659,10 +1675,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19">
-        <v>3904286.04</v>
+        <v>3484886.04</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1671,13 +1687,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3833486.04</v>
+        <v>2937086.04</v>
       </c>
       <c r="H19">
-        <v>0.58832299804070765</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.785014796502182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1685,10 +1701,10 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20">
-        <v>1250568.8</v>
+        <v>1282288.8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1697,13 +1713,13 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1256888.8</v>
+        <v>1318448.8</v>
       </c>
       <c r="H20">
-        <v>0.12057582182290109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.1178330171031291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1711,10 +1727,10 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21">
-        <v>1118169.1599999999</v>
+        <v>1181609.16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1723,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1130809.1599999999</v>
+        <v>1253689.16</v>
       </c>
       <c r="H21">
-        <v>0.33504857707378322</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3097992807084652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1737,10 +1753,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22">
-        <v>15231412.91</v>
+        <v>12284877.55</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1749,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>15028452.91</v>
+        <v>10800914.73112</v>
       </c>
       <c r="H22">
-        <v>0.43020220635605028</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5834808029584827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1763,10 +1779,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D23">
-        <v>31483088.670000002</v>
+        <v>28812091.33</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1775,13 +1791,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>31089611.342994008</v>
+        <v>24994448.47805597</v>
       </c>
       <c r="H23">
-        <v>0.47421396933359589</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.683590774767475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1789,10 +1805,10 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24">
-        <v>7492949.25</v>
+        <v>8428495.029999999</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1801,13 +1817,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>7327749.25</v>
+        <v>7057455.029999999</v>
       </c>
       <c r="H24">
-        <v>0.71815121130134241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.8276347741743957</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1815,10 +1831,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D25">
-        <v>5990821.21</v>
+        <v>4721117.689999999</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1827,13 +1843,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>5909157.6885328004</v>
+        <v>3963437.689999999</v>
       </c>
       <c r="H25">
-        <v>0.57924641385731401</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.8822925635548471</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1841,10 +1857,10 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D26">
-        <v>4528821.5299999993</v>
+        <v>4528821.529999999</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1853,13 +1869,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>4528821.5299999993</v>
+        <v>4469755.353711199</v>
       </c>
       <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.1055434945915568</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1867,7 +1883,7 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27">
         <v>1750000</v>
@@ -1876,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1750000</v>
       </c>
       <c r="G27">
-        <v>1750000</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1893,25 +1909,25 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28">
         <v>1001</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1750000</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1001</v>
+        <v>1751001</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1919,10 +1935,10 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29">
-        <v>26751783.579999998</v>
+        <v>20514983.58</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1931,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>26399783.579999998</v>
+        <v>17625383.58</v>
       </c>
       <c r="H29">
-        <v>0.45562555327584198</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.6976774119091267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1945,25 +1961,25 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D30">
-        <v>55634164.279999986</v>
+        <v>39938092.09</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>43943292.568623193</v>
+        <v>33797692.09</v>
       </c>
       <c r="H30">
-        <v>0.58182400328954198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.7731524368710213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1971,10 +1987,10 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31">
-        <v>9161687.3200000003</v>
+        <v>8333541.159999999</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1983,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>9017767.3200000003</v>
+        <v>7217181.159999999</v>
       </c>
       <c r="H31">
-        <v>0.48431855081397268</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.6616019044199799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1997,25 +2013,25 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32">
-        <v>22133441.760000002</v>
+        <v>20404512.28</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="G32">
-        <v>21860641.760000002</v>
+        <v>15044352.28</v>
       </c>
       <c r="H32">
-        <v>0.45394107405198147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.6743318829011102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2023,10 +2039,10 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33">
-        <v>3391537.87</v>
+        <v>3859906.11</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2035,13 +2051,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>3478337.87</v>
+        <v>4461026.11</v>
       </c>
       <c r="H33">
-        <v>0.60997685656109069</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5920309666154362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -2049,10 +2065,10 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34">
-        <v>972238.76</v>
+        <v>1047478.76</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2061,13 +2077,13 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>977398.76</v>
+        <v>1112998.76</v>
       </c>
       <c r="H34">
-        <v>0.30578553220182098</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.275966884275774</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2075,7 +2091,7 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35">
         <v>1637.84</v>
@@ -2093,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2101,10 +2117,10 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36">
-        <v>6428342.5499999998</v>
+        <v>6904142.55</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2113,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>6519542.5499999998</v>
+        <v>7436342.55</v>
       </c>
       <c r="H36">
-        <v>0.34868335969369502</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3133734069310726</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2127,10 +2143,10 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37">
-        <v>891479.95</v>
+        <v>986639.95</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2139,13 +2155,13 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>910079.95000000042</v>
+        <v>1093199.95</v>
       </c>
       <c r="H37">
-        <v>0.49957281225676908</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4263359141207423</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2153,10 +2169,10 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D38">
-        <v>1827790.46</v>
+        <v>1687990.46</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2165,13 +2181,13 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1805790.46</v>
+        <v>1507190.46</v>
       </c>
       <c r="H38">
-        <v>0.45100692358292782</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5524172439361114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2179,10 +2195,10 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39">
-        <v>3770355.62</v>
+        <v>2824115.62</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2191,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>3819955.62</v>
+        <v>3109235.62</v>
       </c>
       <c r="H39">
-        <v>0.31738672398502887</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3997298860225975</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2205,10 +2221,10 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40">
-        <v>18648831.640000001</v>
+        <v>17138991.64</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2217,13 +2233,13 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>18411231.640000001</v>
+        <v>15194991.64</v>
       </c>
       <c r="H40">
-        <v>0.47773985858123702</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5917777786944535</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2231,10 +2247,10 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D41">
-        <v>1549522.36</v>
+        <v>1637162.36</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2243,13 +2259,13 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1564882.36</v>
+        <v>1745282.36</v>
       </c>
       <c r="H41">
-        <v>0.3130901162436262</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.2872557538483343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2257,10 +2273,10 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D42">
-        <v>42299988.939999998</v>
+        <v>37419428.94</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2269,13 +2285,13 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>41468388.939999998</v>
+        <v>31454234.328196</v>
       </c>
       <c r="H42">
-        <v>0.62418154796056391</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.8020101756979177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2283,10 +2299,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43">
-        <v>7334086.8200000003</v>
+        <v>7740430.19</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2295,13 +2311,13 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>7408966.8200000003</v>
+        <v>8173390.190000002</v>
       </c>
       <c r="H43">
-        <v>0.2659149713940816</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.2280915943889374</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2309,10 +2325,10 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44">
-        <v>4813821.33</v>
+        <v>5131021.33</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2321,13 +2337,13 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>4873421.33</v>
+        <v>5495421.33</v>
       </c>
       <c r="H44">
-        <v>0.31097331779437998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.2827022546058357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2335,25 +2351,25 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45">
-        <v>4958068.68</v>
+        <v>3529548.68</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1050000</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>3841748.68</v>
+        <v>3061836.381719599</v>
       </c>
       <c r="H45">
-        <v>0.51002774080474211</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.706556370195394</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2361,10 +2377,10 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46">
-        <v>37185828.960000001</v>
+        <v>34474171.7</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2373,13 +2389,13 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>36726948.960000023</v>
+        <v>30766874.299144</v>
       </c>
       <c r="H46">
-        <v>0.43023231843214937</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5745804604041891</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2387,10 +2403,10 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47">
-        <v>2210393.42</v>
+        <v>2368993.42</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2399,13 +2415,13 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>2239193.42</v>
+        <v>2549193.42</v>
       </c>
       <c r="H47">
-        <v>0.33840399548869698</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3047175604274077</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2413,10 +2429,10 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48">
-        <v>3054993.98</v>
+        <v>3340473.98</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2425,13 +2441,13 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>3108633.98</v>
+        <v>3663753.98</v>
       </c>
       <c r="H48">
-        <v>0.43876300933955559</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3816334851173604</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2439,25 +2455,25 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49">
-        <v>4007564.98</v>
+        <v>3456484.98</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="F49">
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>3473124.9799999981</v>
+        <v>3851604.98</v>
       </c>
       <c r="H49">
-        <v>0.51998577949245051</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4806659067098828</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -2465,10 +2481,10 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50">
-        <v>1631588.04</v>
+        <v>1758468.04</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2477,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1654628.04</v>
+        <v>1902308.04</v>
       </c>
       <c r="H50">
-        <v>0.36636729545572072</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.326670122258433</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -2491,10 +2507,10 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51">
-        <v>7473783.1699999999</v>
+        <v>7917863.17</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2503,13 +2519,13 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>7557223.1699999999</v>
+        <v>8294111.65608</v>
       </c>
       <c r="H51">
-        <v>0.28075201066213851</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.1311168266227535</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2517,10 +2533,10 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52">
-        <v>1802559.14</v>
+        <v>1929439.14</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2529,13 +2545,13 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>1825599.14</v>
+        <v>2073279.14</v>
       </c>
       <c r="H52">
-        <v>0.38739895550126091</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3496868250938945</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2543,10 +2559,10 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D53">
-        <v>5796790.3499999996</v>
+        <v>5796790.35</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2555,13 +2571,13 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>5796790.3499999996</v>
+        <v>5796790.35</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2569,10 +2585,10 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D54">
-        <v>4192742.36</v>
+        <v>4487382.36</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2581,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>4244102.3599999994</v>
+        <v>4846262.360000001</v>
       </c>
       <c r="H54">
-        <v>0.35539500984137429</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.318531991322071</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2595,10 +2611,10 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D55">
-        <v>2344518.42</v>
+        <v>2471398.42</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2607,13 +2623,13 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>2368358.42</v>
+        <v>2612998.42</v>
       </c>
       <c r="H55">
-        <v>0.27728843508407819</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.2576399567819103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2621,10 +2637,10 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D56">
-        <v>3476469.97</v>
+        <v>3793669.97</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2633,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>3534069.97</v>
+        <v>4144869.97</v>
       </c>
       <c r="H56">
-        <v>0.53603352963608697</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4685213321661812</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2647,10 +2663,10 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D57">
-        <v>2266056.35</v>
+        <v>2392936.35</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2659,13 +2675,13 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>2293096.35</v>
+        <v>2533416.35</v>
       </c>
       <c r="H57">
-        <v>0.30841931260324063</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.2861742010941075</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2673,25 +2689,25 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="D58">
-        <v>9125162.9400000013</v>
+        <v>5918383.5</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>6525016.9674320016</v>
+        <v>5035383.5</v>
       </c>
       <c r="H58">
-        <v>0.64949225743820449</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.8267473569788679</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2702,7 +2718,7 @@
         <v>155</v>
       </c>
       <c r="D59">
-        <v>2249505.69</v>
+        <v>2503265.69</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2711,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>2303585.69</v>
+        <v>2782945.69</v>
       </c>
       <c r="H59">
-        <v>0.65788913630558277</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5582458923228214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2728,7 +2744,7 @@
         <v>156</v>
       </c>
       <c r="D60">
-        <v>3800140.11</v>
+        <v>4053900.11</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2737,13 +2753,13 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>3854220.11</v>
+        <v>4365865.58504</v>
       </c>
       <c r="H60">
-        <v>0.39320639629997672</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4003164930200175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2754,7 +2770,7 @@
         <v>157</v>
       </c>
       <c r="D61">
-        <v>3131953.73</v>
+        <v>3493754.76</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2763,13 +2779,13 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>3219194.7665684</v>
+        <v>3871714.76</v>
       </c>
       <c r="H61">
-        <v>0.70707669620947</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.6018914471891519</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2780,7 +2796,7 @@
         <v>158</v>
       </c>
       <c r="D62">
-        <v>5008371.09</v>
+        <v>3641131.09</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2789,13 +2805,13 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>4950251.0900000017</v>
+        <v>3186291.089999998</v>
       </c>
       <c r="H62">
-        <v>0.49386706968029759</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.7845648527988074</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2806,7 +2822,7 @@
         <v>159</v>
       </c>
       <c r="D63">
-        <v>2531552.62</v>
+        <v>1958432.62</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2815,13 +2831,13 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>2558592.62</v>
+        <v>2095872.62</v>
       </c>
       <c r="H63">
-        <v>0.29615969110393198</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3706255774265518</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2832,7 +2848,7 @@
         <v>160</v>
       </c>
       <c r="D64">
-        <v>2915308.06</v>
+        <v>3264228.06</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2841,13 +2857,13 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>2989668.0599999982</v>
+        <v>3643545.54272</v>
       </c>
       <c r="H64">
-        <v>0.55760518109157609</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4263890712452085</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2858,7 +2874,7 @@
         <v>161</v>
       </c>
       <c r="D65">
-        <v>6912586.1599999992</v>
+        <v>7450145.48</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2867,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>6989320.4138475992</v>
+        <v>8054592.64385</v>
       </c>
       <c r="H65">
-        <v>0.32566943067744608</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3278956139410176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2899,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2910,7 +2926,7 @@
         <v>163</v>
       </c>
       <c r="D67">
-        <v>6932132.1900000004</v>
+        <v>6314892.19</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2919,13 +2935,13 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>6822412.1900000023</v>
+        <v>5592412.19</v>
       </c>
       <c r="H67">
-        <v>0.46420836381625891</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.579551272310634</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2936,22 +2952,22 @@
         <v>164</v>
       </c>
       <c r="D68">
-        <v>3820466.46</v>
+        <v>2505280.68</v>
       </c>
       <c r="E68">
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>2771152.9827000001</v>
+        <v>2162640.680000001</v>
       </c>
       <c r="H68">
-        <v>0.74868331447315295</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.8912964681677954</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2962,7 +2978,7 @@
         <v>165</v>
       </c>
       <c r="D69">
-        <v>17796647.010000002</v>
+        <v>15685116.34</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2971,13 +2987,13 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>17447367.010000002</v>
+        <v>13036931.5976128</v>
       </c>
       <c r="H69">
-        <v>0.63770566605396306</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.8842786290380602</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2988,22 +3004,22 @@
         <v>165</v>
       </c>
       <c r="D70">
-        <v>223083.7</v>
+        <v>240692.12</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>217012.1159912</v>
+        <v>7274932.12</v>
       </c>
       <c r="H70">
-        <v>0.69854901560495009</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.02112877446339664</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -3029,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -3040,7 +3056,7 @@
         <v>167</v>
       </c>
       <c r="D72">
-        <v>5764421.5199999996</v>
+        <v>6193189.54</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3049,13 +3065,13 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>5842741.5199999996</v>
+        <v>6698749.54</v>
       </c>
       <c r="H72">
-        <v>0.36149879175212951</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3459124402492587</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -3066,7 +3082,7 @@
         <v>168</v>
       </c>
       <c r="D73">
-        <v>592723.92999999993</v>
+        <v>592723.9299999999</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3075,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>592723.92999999993</v>
+        <v>592723.9299999999</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -3092,7 +3108,7 @@
         <v>169</v>
       </c>
       <c r="D74">
-        <v>1465479.73</v>
+        <v>1469147.04</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3101,13 +3117,13 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>1465479.73</v>
+        <v>1400747.04</v>
       </c>
       <c r="H74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3292037654421887</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -3130,10 +3146,10 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -3144,22 +3160,22 @@
         <v>171</v>
       </c>
       <c r="D76">
-        <v>20151355.649999999</v>
+        <v>18424373.44</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="G76">
-        <v>19844795.649999999</v>
+        <v>13831373.44</v>
       </c>
       <c r="H76">
-        <v>0.42573257739743992</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.6807601602867291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -3170,7 +3186,7 @@
         <v>172</v>
       </c>
       <c r="D77">
-        <v>3560617.45</v>
+        <v>3169177.45</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3179,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>3498457.45</v>
+        <v>2687017.45</v>
       </c>
       <c r="H77">
-        <v>0.60168598020250319</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.8008677427829877</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -3211,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -3222,7 +3238,7 @@
         <v>173</v>
       </c>
       <c r="D79">
-        <v>2708513.3</v>
+        <v>2512793.3</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3231,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>2677433.2999999998</v>
+        <v>2271713.3</v>
       </c>
       <c r="H79">
-        <v>0.39309528270975042</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4736393452466031</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -3248,7 +3264,7 @@
         <v>174</v>
       </c>
       <c r="D80">
-        <v>2242823.2000000002</v>
+        <v>2306263.2</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3257,13 +3273,13 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>2255783.2000000002</v>
+        <v>2375063.2</v>
       </c>
       <c r="H80">
-        <v>0.1343661039766588</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.130823297670563</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -3274,7 +3290,7 @@
         <v>175</v>
       </c>
       <c r="D81">
-        <v>5998083.96</v>
+        <v>5365528.91</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3283,13 +3299,13 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>5900048.992944004</v>
+        <v>4564208.91</v>
       </c>
       <c r="H81">
-        <v>0.63520204738672204</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.8391269715127919</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -3300,7 +3316,7 @@
         <v>176</v>
       </c>
       <c r="D82">
-        <v>3648713.66</v>
+        <v>3369113.66</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3309,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>3604313.66</v>
+        <v>3021913.66</v>
       </c>
       <c r="H82">
-        <v>0.486679064440801</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5934279406248821</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -3338,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -3352,7 +3368,7 @@
         <v>177</v>
       </c>
       <c r="D84">
-        <v>4895728.04</v>
+        <v>4476328.04</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3361,13 +3377,13 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>4829128.04</v>
+        <v>3957928.04</v>
       </c>
       <c r="H84">
-        <v>0.58378240888390276</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.7281764526471785</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -3378,7 +3394,7 @@
         <v>178</v>
       </c>
       <c r="D85">
-        <v>16878730.440000001</v>
+        <v>15771890</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3387,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>16689930.439999999</v>
+        <v>14182130.00000001</v>
       </c>
       <c r="H85">
-        <v>0.36034949466212418</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4985625149395754</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -3404,7 +3420,7 @@
         <v>179</v>
       </c>
       <c r="D86">
-        <v>5280470.88</v>
+        <v>4730754.96</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3413,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>5202755.0355519997</v>
+        <v>4031554.96</v>
       </c>
       <c r="H86">
-        <v>0.57820258294763882</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.7625365474367733</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -3430,7 +3446,7 @@
         <v>180</v>
       </c>
       <c r="D87">
-        <v>7421460.959999999</v>
+        <v>7365540.959999999</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3439,13 +3455,13 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>7412740.959999999</v>
+        <v>7296100.959999999</v>
       </c>
       <c r="H87">
-        <v>4.0566694778984967E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.04213494326427194</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3456,7 +3472,7 @@
         <v>181</v>
       </c>
       <c r="D88">
-        <v>54031238.130000003</v>
+        <v>47852078.13</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3465,13 +3481,13 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>53067678.130000003</v>
+        <v>40416014.45137</v>
       </c>
       <c r="H88">
-        <v>0.64031961445078389</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.8329019587150012</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -3482,7 +3498,7 @@
         <v>182</v>
       </c>
       <c r="D89">
-        <v>22352447.890000001</v>
+        <v>20523394.34</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3491,13 +3507,13 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>22063167.890000001</v>
+        <v>18180194.33999998</v>
       </c>
       <c r="H89">
-        <v>0.54518082171925131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.7091105715869928</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -3508,7 +3524,7 @@
         <v>183</v>
       </c>
       <c r="D90">
-        <v>3360220.44</v>
+        <v>2097630.54</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3517,13 +3533,13 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>3315940.439999999</v>
+        <v>1783030.54</v>
       </c>
       <c r="H90">
-        <v>0.49238894049616899</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.8425226412554886</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -3534,7 +3550,7 @@
         <v>184</v>
       </c>
       <c r="D91">
-        <v>4123333.04</v>
+        <v>3807907.92</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3543,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>4065980.7344639981</v>
+        <v>3385027.919999998</v>
       </c>
       <c r="H91">
-        <v>0.40676710196415322</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5449068201481778</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -3575,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -3586,7 +3602,7 @@
         <v>185</v>
       </c>
       <c r="D93">
-        <v>6546678.54</v>
+        <v>4805062.34</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3595,13 +3611,13 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>6479013.5805700002</v>
+        <v>4090662.34</v>
       </c>
       <c r="H93">
-        <v>0.55157748252251704</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.9393979948978141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -3612,22 +3628,22 @@
         <v>186</v>
       </c>
       <c r="D94">
-        <v>2116995.85</v>
+        <v>466995.85</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>2116995.85</v>
+        <v>621967.562792</v>
       </c>
       <c r="H94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.6306309580507355</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -3638,7 +3654,7 @@
         <v>187</v>
       </c>
       <c r="D95">
-        <v>15011937.99</v>
+        <v>13781697.99</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3647,57 +3663,29 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>14813057.99000001</v>
+        <v>12215297.98999999</v>
       </c>
       <c r="H95">
-        <v>0.44660790529991051</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" t="s">
-        <v>103</v>
-      </c>
-      <c r="C96" t="s">
-        <v>188</v>
-      </c>
-      <c r="D96">
-        <v>26248320.690000001</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>25898720.690000001</v>
-      </c>
-      <c r="H96">
-        <v>0.47798672946729281</v>
+        <v>0.5536711102370748</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="18.375" customWidth="1"/>
+    <col min="1" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3708,16 +3696,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3725,24 +3713,24 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>105</v>
@@ -3754,10 +3742,10 @@
         <v>196</v>
       </c>
       <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3765,84 +3753,84 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
         <v>196</v>
       </c>
       <c r="F6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>109</v>
@@ -3851,13 +3839,13 @@
         <v>193</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3865,24 +3853,24 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>110</v>
@@ -3894,115 +3882,115 @@
         <v>196</v>
       </c>
       <c r="F10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F14">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F15">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>117</v>
@@ -4011,13 +3999,13 @@
         <v>193</v>
       </c>
       <c r="E16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F16">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -4025,39 +4013,39 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -4065,7 +4053,7 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
         <v>193</v>
@@ -4074,10 +4062,10 @@
         <v>196</v>
       </c>
       <c r="F19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -4085,19 +4073,19 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F20">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -4105,19 +4093,19 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -4125,19 +4113,19 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -4145,19 +4133,19 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F23">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -4165,19 +4153,19 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F24">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -4185,19 +4173,19 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F25">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -4205,79 +4193,79 @@
         <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F26">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
         <v>193</v>
       </c>
       <c r="E27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" t="s">
-        <v>193</v>
-      </c>
-      <c r="E28" t="s">
-        <v>196</v>
-      </c>
-      <c r="F28">
+      <c r="C29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29">
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" t="s">
-        <v>194</v>
-      </c>
-      <c r="E29" t="s">
-        <v>196</v>
-      </c>
-      <c r="F29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -4285,39 +4273,39 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
         <v>193</v>
       </c>
       <c r="E30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F30">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -4325,19 +4313,19 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F32">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -4345,19 +4333,19 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F33">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -4365,19 +4353,19 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -4385,19 +4373,19 @@
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F35">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -4405,19 +4393,19 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -4425,19 +4413,19 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F37">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -4445,19 +4433,19 @@
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F38">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -4465,19 +4453,19 @@
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F39">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -4485,19 +4473,19 @@
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -4505,19 +4493,19 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -4525,19 +4513,19 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F42">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -4545,19 +4533,19 @@
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F43">
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -4565,19 +4553,19 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F44">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -4585,19 +4573,19 @@
         <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F45">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -4605,19 +4593,19 @@
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F46">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -4625,19 +4613,19 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F47">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -4645,19 +4633,19 @@
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -4665,19 +4653,19 @@
         <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F49">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -4685,19 +4673,19 @@
         <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E50" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F50">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -4705,19 +4693,19 @@
         <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F51">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -4725,19 +4713,19 @@
         <v>56</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F52">
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -4745,19 +4733,19 @@
         <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F53">
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -4765,19 +4753,19 @@
         <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F54">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -4785,19 +4773,19 @@
         <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F55">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -4805,19 +4793,19 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F56">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -4825,19 +4813,19 @@
         <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F57">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -4845,19 +4833,19 @@
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E58" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F58">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -4865,19 +4853,19 @@
         <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F59">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -4885,19 +4873,19 @@
         <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F60">
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -4905,19 +4893,19 @@
         <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="D61" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F61">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -4928,16 +4916,16 @@
         <v>155</v>
       </c>
       <c r="D62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F62">
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -4948,16 +4936,16 @@
         <v>156</v>
       </c>
       <c r="D63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F63">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -4968,16 +4956,16 @@
         <v>157</v>
       </c>
       <c r="D64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F64">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -4988,16 +4976,16 @@
         <v>157</v>
       </c>
       <c r="D65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F65">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -5008,16 +4996,16 @@
         <v>158</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -5028,16 +5016,16 @@
         <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F67">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -5048,16 +5036,16 @@
         <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F68">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -5068,16 +5056,16 @@
         <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F69">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -5088,16 +5076,16 @@
         <v>161</v>
       </c>
       <c r="D70" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F70">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -5108,16 +5096,16 @@
         <v>163</v>
       </c>
       <c r="D71" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F71">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -5128,16 +5116,16 @@
         <v>163</v>
       </c>
       <c r="D72" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F72">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -5148,16 +5136,16 @@
         <v>164</v>
       </c>
       <c r="D73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -5168,16 +5156,16 @@
         <v>164</v>
       </c>
       <c r="D74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F74">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -5188,16 +5176,16 @@
         <v>165</v>
       </c>
       <c r="D75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -5208,16 +5196,16 @@
         <v>165</v>
       </c>
       <c r="D76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E76" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -5228,16 +5216,16 @@
         <v>167</v>
       </c>
       <c r="D77" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F77">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -5248,144 +5236,144 @@
         <v>167</v>
       </c>
       <c r="D78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E78" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F78">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D79" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F79">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E80" t="s">
         <v>196</v>
       </c>
       <c r="F80">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D81" t="s">
         <v>193</v>
       </c>
       <c r="E81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F81">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>171</v>
+      </c>
+      <c r="D82" t="s">
+        <v>192</v>
+      </c>
+      <c r="E82" t="s">
+        <v>195</v>
+      </c>
+      <c r="F82">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" t="s">
+        <v>172</v>
+      </c>
+      <c r="D83" t="s">
+        <v>192</v>
+      </c>
+      <c r="E83" t="s">
+        <v>195</v>
+      </c>
+      <c r="F83">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" t="s">
         <v>86</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C84" t="s">
         <v>173</v>
       </c>
-      <c r="D82" t="s">
-        <v>193</v>
-      </c>
-      <c r="E82" t="s">
-        <v>196</v>
-      </c>
-      <c r="F82">
+      <c r="D84" t="s">
+        <v>192</v>
+      </c>
+      <c r="E84" t="s">
+        <v>195</v>
+      </c>
+      <c r="F84">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="s">
         <v>87</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C85" t="s">
         <v>174</v>
-      </c>
-      <c r="D83" t="s">
-        <v>194</v>
-      </c>
-      <c r="E83" t="s">
-        <v>197</v>
-      </c>
-      <c r="F83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" t="s">
-        <v>88</v>
-      </c>
-      <c r="C84" t="s">
-        <v>175</v>
-      </c>
-      <c r="D84" t="s">
-        <v>193</v>
-      </c>
-      <c r="E84" t="s">
-        <v>196</v>
-      </c>
-      <c r="F84">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" t="s">
-        <v>89</v>
-      </c>
-      <c r="C85" t="s">
-        <v>176</v>
       </c>
       <c r="D85" t="s">
         <v>193</v>
@@ -5394,309 +5382,346 @@
         <v>196</v>
       </c>
       <c r="F85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" t="s">
+        <v>192</v>
+      </c>
+      <c r="E86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F86">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>176</v>
+      </c>
+      <c r="D87" t="s">
+        <v>192</v>
+      </c>
+      <c r="E87" t="s">
+        <v>195</v>
+      </c>
+      <c r="F87">
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" t="s">
         <v>91</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C88" t="s">
         <v>177</v>
       </c>
-      <c r="D86" t="s">
-        <v>193</v>
-      </c>
-      <c r="E86" t="s">
-        <v>196</v>
-      </c>
-      <c r="F86">
+      <c r="D88" t="s">
+        <v>192</v>
+      </c>
+      <c r="E88" t="s">
+        <v>195</v>
+      </c>
+      <c r="F88">
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
         <v>92</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C89" t="s">
         <v>178</v>
       </c>
-      <c r="D87" t="s">
-        <v>193</v>
-      </c>
-      <c r="E87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F87">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="D89" t="s">
+        <v>192</v>
+      </c>
+      <c r="E89" t="s">
+        <v>195</v>
+      </c>
+      <c r="F89">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="s">
         <v>93</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C90" t="s">
         <v>179</v>
       </c>
-      <c r="D88" t="s">
-        <v>193</v>
-      </c>
-      <c r="E88" t="s">
-        <v>196</v>
-      </c>
-      <c r="F88">
+      <c r="D90" t="s">
+        <v>192</v>
+      </c>
+      <c r="E90" t="s">
+        <v>195</v>
+      </c>
+      <c r="F90">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
         <v>94</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C91" t="s">
         <v>180</v>
       </c>
-      <c r="D89" t="s">
-        <v>193</v>
-      </c>
-      <c r="E89" t="s">
-        <v>196</v>
-      </c>
-      <c r="F89">
+      <c r="D91" t="s">
+        <v>192</v>
+      </c>
+      <c r="E91" t="s">
+        <v>195</v>
+      </c>
+      <c r="F91">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
         <v>95</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C92" t="s">
         <v>181</v>
       </c>
-      <c r="D90" t="s">
-        <v>193</v>
-      </c>
-      <c r="E90" t="s">
-        <v>197</v>
-      </c>
-      <c r="F90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" t="s">
-        <v>95</v>
-      </c>
-      <c r="C91" t="s">
-        <v>181</v>
-      </c>
-      <c r="D91" t="s">
-        <v>193</v>
-      </c>
-      <c r="E91" t="s">
-        <v>196</v>
-      </c>
-      <c r="F91">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" t="s">
-        <v>182</v>
-      </c>
       <c r="D92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E92" t="s">
         <v>196</v>
       </c>
       <c r="F92">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D93" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D94" t="s">
         <v>193</v>
       </c>
       <c r="E94" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" t="s">
+        <v>182</v>
+      </c>
+      <c r="D95" t="s">
+        <v>192</v>
+      </c>
+      <c r="E95" t="s">
+        <v>195</v>
+      </c>
+      <c r="F95">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" t="s">
+        <v>192</v>
+      </c>
+      <c r="E96" t="s">
+        <v>195</v>
+      </c>
+      <c r="F96">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
         <v>97</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C97" t="s">
         <v>183</v>
-      </c>
-      <c r="D95" t="s">
-        <v>193</v>
-      </c>
-      <c r="E95" t="s">
-        <v>197</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" t="s">
-        <v>98</v>
-      </c>
-      <c r="C96" t="s">
-        <v>184</v>
-      </c>
-      <c r="D96" t="s">
-        <v>193</v>
-      </c>
-      <c r="E96" t="s">
-        <v>196</v>
-      </c>
-      <c r="F96">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C97" t="s">
-        <v>185</v>
       </c>
       <c r="D97" t="s">
         <v>193</v>
       </c>
       <c r="E97" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F97">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>8</v>
       </c>
       <c r="B98" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" t="s">
+        <v>184</v>
+      </c>
+      <c r="D98" t="s">
+        <v>192</v>
+      </c>
+      <c r="E98" t="s">
+        <v>195</v>
+      </c>
+      <c r="F98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="s">
+        <v>185</v>
+      </c>
+      <c r="D99" t="s">
+        <v>192</v>
+      </c>
+      <c r="E99" t="s">
+        <v>195</v>
+      </c>
+      <c r="F99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
+        <v>186</v>
+      </c>
+      <c r="D100" t="s">
+        <v>193</v>
+      </c>
+      <c r="E100" t="s">
+        <v>195</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
         <v>102</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C101" t="s">
         <v>187</v>
       </c>
-      <c r="D98" t="s">
-        <v>193</v>
-      </c>
-      <c r="E98" t="s">
-        <v>196</v>
-      </c>
-      <c r="F98">
+      <c r="D101" t="s">
+        <v>192</v>
+      </c>
+      <c r="E101" t="s">
+        <v>195</v>
+      </c>
+      <c r="F101">
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" t="s">
-        <v>188</v>
-      </c>
-      <c r="D99" t="s">
-        <v>193</v>
-      </c>
-      <c r="E99" t="s">
-        <v>196</v>
-      </c>
-      <c r="F99">
-        <v>76</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="18.375" customWidth="1"/>
+    <col min="1" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5707,293 +5732,369 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4">
+      <c r="D13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" t="s">
+        <v>193</v>
+      </c>
+      <c r="E21">
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" t="s">
-        <v>185</v>
-      </c>
-      <c r="D20">
-        <v>-3</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="18.375" customWidth="1"/>
+    <col min="1" max="2" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6007,114 +6108,114 @@
         <v>199</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>200</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>202</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G2" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>6309.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
         <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G3" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>6311.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
         <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G4" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>6307.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
         <v>117</v>
@@ -6126,24 +6227,24 @@
         <v>193</v>
       </c>
       <c r="F5" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G5" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>6323.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>117</v>
@@ -6152,341 +6253,341 @@
         <v>206</v>
       </c>
       <c r="E6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F6" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>6317.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6482.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F7" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G7" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>6311.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6481.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F8" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G8" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>6307.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F9" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G9" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>6311.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6479.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E10" t="s">
         <v>193</v>
       </c>
       <c r="F10" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G10" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>6309.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6554.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F11" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G11" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>6312.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6493.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F12" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G12" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>6326.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F13" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="G13" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>6378.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6410.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F14" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G14" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>6309.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6405.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F15" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G15" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>6320.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6409.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F16" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G16" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>6319.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6408.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F17" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G17" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>6317.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6410.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -6494,28 +6595,28 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F18" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G18" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>6313.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -6523,28 +6624,28 @@
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F19" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G19" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>6307.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6522.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -6552,1044 +6653,1420 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="E20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F20" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G20" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>6311.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6519.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F21" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G21" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>6261.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6518.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F22" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G22" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>6261.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F23" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G23" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>6261.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6497.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F24" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G24" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>6309.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6464.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="E25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G25" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>6308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6465.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>6320.8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="E27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F27" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G27" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>6313.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6463.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="E28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F28" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G28" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>6307.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6461.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F29" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G29" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>6311.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6461.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="E30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F30" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G30" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>6309.2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6461.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D31" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="E31" t="s">
         <v>193</v>
       </c>
       <c r="F31" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G31" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>6312.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6551.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E32" t="s">
         <v>193</v>
       </c>
       <c r="F32" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G32" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>6320.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6552.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E33" t="s">
         <v>193</v>
       </c>
       <c r="F33" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G33" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>6322</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6552.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D34" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F34" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="G34" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>6375.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6478.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F35" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G35" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>6362.6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6475.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F36" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G36" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>6358.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6474.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="E37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F37" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G37" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>6364.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6475.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F38" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G38" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>6361.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6474.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="E39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F39" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="G39" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>6376.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6472.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="E40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F40" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="G40" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>6376.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6474.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="E41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F41" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="G41" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>6321.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6472.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D42" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="E42" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F42" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G42" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>6323.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6605.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D43" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E43" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F43" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G43" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>6342</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6592.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="D44" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E44" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F44" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G44" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>6375.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6587.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F45" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G45" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>6310</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6586</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F46" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G46" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>6316.4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6579.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="E47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F47" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G47" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>6317.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6577</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="D48" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="E48" t="s">
         <v>193</v>
       </c>
       <c r="F48" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G48" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>6312.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6560.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="D49" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="E49" t="s">
         <v>193</v>
       </c>
       <c r="F49" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G49" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>6273.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6558.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="D50" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F50" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G50" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>6292.4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6562.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="D51" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E51" t="s">
         <v>193</v>
       </c>
       <c r="F51" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G51" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>6255.6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6565.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="D52" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E52" t="s">
         <v>193</v>
       </c>
       <c r="F52" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G52" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>6311.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6567</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="D53" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="E53" t="s">
         <v>193</v>
       </c>
       <c r="F53" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G53" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>6312.2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6563.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="E54" t="s">
         <v>193</v>
       </c>
       <c r="F54" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G54" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>6261.8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6563.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="D55" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="E55" t="s">
         <v>193</v>
       </c>
       <c r="F55" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="G55" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>6308.8</v>
+        <v>6472</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" t="s">
+        <v>255</v>
+      </c>
+      <c r="E56" t="s">
+        <v>193</v>
+      </c>
+      <c r="F56" t="s">
+        <v>268</v>
+      </c>
+      <c r="G56" t="s">
+        <v>271</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>6652</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" t="s">
+        <v>256</v>
+      </c>
+      <c r="E57" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" t="s">
+        <v>268</v>
+      </c>
+      <c r="G57" t="s">
+        <v>271</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>6575</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" t="s">
+        <v>257</v>
+      </c>
+      <c r="E58" t="s">
+        <v>192</v>
+      </c>
+      <c r="F58" t="s">
+        <v>269</v>
+      </c>
+      <c r="G58" t="s">
+        <v>271</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>6582</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" t="s">
+        <v>258</v>
+      </c>
+      <c r="E59" t="s">
+        <v>192</v>
+      </c>
+      <c r="F59" t="s">
+        <v>269</v>
+      </c>
+      <c r="G59" t="s">
+        <v>271</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>6582.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" t="s">
+        <v>259</v>
+      </c>
+      <c r="E60" t="s">
+        <v>192</v>
+      </c>
+      <c r="F60" t="s">
+        <v>269</v>
+      </c>
+      <c r="G60" t="s">
+        <v>271</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>6407.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" t="s">
+        <v>181</v>
+      </c>
+      <c r="D61" t="s">
+        <v>260</v>
+      </c>
+      <c r="E61" t="s">
+        <v>192</v>
+      </c>
+      <c r="F61" t="s">
+        <v>269</v>
+      </c>
+      <c r="G61" t="s">
+        <v>271</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>6405.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" t="s">
+        <v>181</v>
+      </c>
+      <c r="D62" t="s">
+        <v>261</v>
+      </c>
+      <c r="E62" t="s">
+        <v>192</v>
+      </c>
+      <c r="F62" t="s">
+        <v>269</v>
+      </c>
+      <c r="G62" t="s">
+        <v>271</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>6408.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" t="s">
+        <v>262</v>
+      </c>
+      <c r="E63" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" t="s">
+        <v>269</v>
+      </c>
+      <c r="G63" t="s">
+        <v>271</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>6408.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" t="s">
+        <v>192</v>
+      </c>
+      <c r="F64" t="s">
+        <v>269</v>
+      </c>
+      <c r="G64" t="s">
+        <v>271</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>6410.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" t="s">
+        <v>264</v>
+      </c>
+      <c r="E65" t="s">
+        <v>192</v>
+      </c>
+      <c r="F65" t="s">
+        <v>269</v>
+      </c>
+      <c r="G65" t="s">
+        <v>271</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>6410.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C66" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" t="s">
+        <v>265</v>
+      </c>
+      <c r="E66" t="s">
+        <v>192</v>
+      </c>
+      <c r="F66" t="s">
+        <v>269</v>
+      </c>
+      <c r="G66" t="s">
+        <v>271</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>6409.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" t="s">
+        <v>266</v>
+      </c>
+      <c r="E67" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67" t="s">
+        <v>268</v>
+      </c>
+      <c r="G67" t="s">
+        <v>270</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>6536.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" t="s">
+        <v>267</v>
+      </c>
+      <c r="E68" t="s">
+        <v>193</v>
+      </c>
+      <c r="F68" t="s">
+        <v>268</v>
+      </c>
+      <c r="G68" t="s">
+        <v>270</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>6538</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/info_faccts.xlsx
+++ b/info_faccts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="261">
   <si>
     <t>DataDateTime</t>
   </si>
@@ -43,7 +43,7 @@
     <t>CurrentMarginRate</t>
   </si>
   <si>
-    <t>20200722T111512</t>
+    <t>20200724T140744</t>
   </si>
   <si>
     <t>10_f_xb_3670</t>
@@ -142,6 +142,9 @@
     <t>307_f_huat_5313</t>
   </si>
   <si>
+    <t>308_f_zx_0056</t>
+  </si>
+  <si>
     <t>601_f_huat_1561</t>
   </si>
   <si>
@@ -412,6 +415,9 @@
     <t>307</t>
   </si>
   <si>
+    <t>308</t>
+  </si>
+  <si>
     <t>601</t>
   </si>
   <si>
@@ -613,9 +619,6 @@
     <t>NetQty</t>
   </si>
   <si>
-    <t>615</t>
-  </si>
-  <si>
     <t>TradeTime</t>
   </si>
   <si>
@@ -625,214 +628,178 @@
     <t>Price</t>
   </si>
   <si>
-    <t>10:12:46</t>
-  </si>
-  <si>
-    <t>09:30:45</t>
+    <t>11:17:36</t>
+  </si>
+  <si>
+    <t>10:48:51</t>
+  </si>
+  <si>
+    <t>11:01:46</t>
+  </si>
+  <si>
+    <t>13:06:12</t>
+  </si>
+  <si>
+    <t>13:26:19</t>
+  </si>
+  <si>
+    <t>13:19:59</t>
+  </si>
+  <si>
+    <t>13:06:19</t>
+  </si>
+  <si>
+    <t>09:30:18</t>
+  </si>
+  <si>
+    <t>09:31:17</t>
+  </si>
+  <si>
+    <t>09:31:10</t>
   </si>
   <si>
     <t>09:30:49</t>
   </si>
   <si>
-    <t>10:06:38</t>
-  </si>
-  <si>
-    <t>10:13:19</t>
-  </si>
-  <si>
-    <t>10:13:15</t>
-  </si>
-  <si>
-    <t>10:13:08</t>
-  </si>
-  <si>
-    <t>10:13:03</t>
-  </si>
-  <si>
-    <t>10:07:19</t>
-  </si>
-  <si>
-    <t>10:07:07</t>
-  </si>
-  <si>
-    <t>10:06:57</t>
+    <t>09:30:33</t>
+  </si>
+  <si>
+    <t>09:30:30</t>
+  </si>
+  <si>
+    <t>09:30:23</t>
+  </si>
+  <si>
+    <t>09:31:45</t>
+  </si>
+  <si>
+    <t>11:15:47</t>
+  </si>
+  <si>
+    <t>13:56:25</t>
+  </si>
+  <si>
+    <t>13:56:53</t>
+  </si>
+  <si>
+    <t>13:56:46</t>
+  </si>
+  <si>
+    <t>13:56:42</t>
+  </si>
+  <si>
+    <t>13:56:36</t>
+  </si>
+  <si>
+    <t>10:33:40</t>
+  </si>
+  <si>
+    <t>10:34:51</t>
+  </si>
+  <si>
+    <t>10:34:45</t>
+  </si>
+  <si>
+    <t>10:34:35</t>
+  </si>
+  <si>
+    <t>10:34:30</t>
+  </si>
+  <si>
+    <t>10:33:45</t>
+  </si>
+  <si>
+    <t>11:20:44</t>
+  </si>
+  <si>
+    <t>09:32:21</t>
+  </si>
+  <si>
+    <t>09:32:26</t>
+  </si>
+  <si>
+    <t>09:30:05</t>
+  </si>
+  <si>
+    <t>09:32:16</t>
+  </si>
+  <si>
+    <t>09:32:06</t>
+  </si>
+  <si>
+    <t>09:32:01</t>
+  </si>
+  <si>
+    <t>09:31:55</t>
+  </si>
+  <si>
+    <t>09:31:51</t>
+  </si>
+  <si>
+    <t>09:31:25</t>
+  </si>
+  <si>
+    <t>09:31:13</t>
+  </si>
+  <si>
+    <t>09:31:03</t>
+  </si>
+  <si>
+    <t>09:30:58</t>
+  </si>
+  <si>
+    <t>09:30:52</t>
   </si>
   <si>
     <t>09:30:47</t>
   </si>
   <si>
-    <t>09:31:18</t>
-  </si>
-  <si>
-    <t>09:31:07</t>
-  </si>
-  <si>
-    <t>09:31:03</t>
-  </si>
-  <si>
-    <t>09:30:57</t>
-  </si>
-  <si>
-    <t>09:52:40</t>
-  </si>
-  <si>
-    <t>10:26:02</t>
-  </si>
-  <si>
-    <t>10:25:57</t>
-  </si>
-  <si>
-    <t>10:25:42</t>
-  </si>
-  <si>
-    <t>10:03:13</t>
-  </si>
-  <si>
-    <t>10:03:07</t>
-  </si>
-  <si>
-    <t>09:53:22</t>
-  </si>
-  <si>
-    <t>09:53:16</t>
-  </si>
-  <si>
-    <t>09:53:13</t>
-  </si>
-  <si>
-    <t>09:53:07</t>
-  </si>
-  <si>
-    <t>09:53:01</t>
-  </si>
-  <si>
-    <t>09:52:57</t>
-  </si>
-  <si>
-    <t>09:52:51</t>
-  </si>
-  <si>
-    <t>10:08:49</t>
-  </si>
-  <si>
-    <t>10:09:16</t>
-  </si>
-  <si>
-    <t>10:08:56</t>
-  </si>
-  <si>
-    <t>09:30:24</t>
-  </si>
-  <si>
-    <t>09:31:06</t>
-  </si>
-  <si>
-    <t>09:31:00</t>
-  </si>
-  <si>
-    <t>09:30:50</t>
-  </si>
-  <si>
-    <t>09:30:40</t>
-  </si>
-  <si>
-    <t>09:30:34</t>
-  </si>
-  <si>
-    <t>09:30:29</t>
-  </si>
-  <si>
-    <t>11:06:01</t>
-  </si>
-  <si>
-    <t>11:09:17</t>
-  </si>
-  <si>
-    <t>11:11:32</t>
-  </si>
-  <si>
-    <t>11:11:28</t>
-  </si>
-  <si>
-    <t>11:11:15</t>
-  </si>
-  <si>
-    <t>11:11:10</t>
-  </si>
-  <si>
-    <t>10:17:50</t>
-  </si>
-  <si>
-    <t>10:18:26</t>
-  </si>
-  <si>
-    <t>10:18:15</t>
-  </si>
-  <si>
-    <t>10:18:11</t>
-  </si>
-  <si>
-    <t>10:18:05</t>
-  </si>
-  <si>
-    <t>10:18:00</t>
-  </si>
-  <si>
-    <t>10:17:55</t>
-  </si>
-  <si>
-    <t>09:30:32</t>
-  </si>
-  <si>
-    <t>11:03:26</t>
-  </si>
-  <si>
-    <t>10:23:46</t>
-  </si>
-  <si>
-    <t>11:12:11</t>
-  </si>
-  <si>
-    <t>11:12:16</t>
-  </si>
-  <si>
-    <t>09:30:43</t>
-  </si>
-  <si>
-    <t>09:31:14</t>
-  </si>
-  <si>
-    <t>09:31:08</t>
-  </si>
-  <si>
-    <t>09:31:05</t>
-  </si>
-  <si>
-    <t>09:30:58</t>
-  </si>
-  <si>
-    <t>09:30:55</t>
-  </si>
-  <si>
-    <t>09:30:48</t>
-  </si>
-  <si>
-    <t>09:55:51</t>
-  </si>
-  <si>
-    <t>09:55:57</t>
+    <t>09:30:42</t>
+  </si>
+  <si>
+    <t>09:30:37</t>
+  </si>
+  <si>
+    <t>09:30:21</t>
+  </si>
+  <si>
+    <t>09:30:16</t>
+  </si>
+  <si>
+    <t>09:30:11</t>
+  </si>
+  <si>
+    <t>09:39:28</t>
+  </si>
+  <si>
+    <t>09:50:18</t>
+  </si>
+  <si>
+    <t>09:46:55</t>
+  </si>
+  <si>
+    <t>09:42:31</t>
+  </si>
+  <si>
+    <t>09:42:26</t>
+  </si>
+  <si>
+    <t>09:42:11</t>
+  </si>
+  <si>
+    <t>09:40:08</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>sell</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>close</t>
   </si>
   <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>close</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1233,22 +1200,22 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2">
-        <v>24123360.69</v>
+        <v>20083548.15</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>18198748.151624</v>
+        <v>25449948.15</v>
       </c>
       <c r="H2">
-        <v>0.732441236558928</v>
+        <v>0.5290648106880333</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1259,10 +1226,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D3">
-        <v>1749178.61</v>
+        <v>1549178.61</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1271,7 +1238,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1749178.61</v>
+        <v>1549178.61</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1285,22 +1252,22 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D4">
-        <v>5236076.310000001</v>
+        <v>4398796.310000001</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4680916.310000001</v>
+        <v>3585196.310000001</v>
       </c>
       <c r="H4">
-        <v>0.3958107082670742</v>
+        <v>0.5222261316005874</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1311,10 +1278,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5">
-        <v>9809670.859999999</v>
+        <v>10851359.27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1323,10 +1290,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>8279550.859999999</v>
+        <v>13682159.27</v>
       </c>
       <c r="H5">
-        <v>0.9514595819512848</v>
+        <v>0.5961401149513149</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1337,22 +1304,22 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D6">
-        <v>6601434.939999999</v>
+        <v>3552794.94</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3200000</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>3808874.939999999</v>
+        <v>2810074.94</v>
       </c>
       <c r="H6">
-        <v>0.4439143911613963</v>
+        <v>0.6081608627846773</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1363,10 +1330,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D7">
-        <v>2430819.59</v>
+        <v>2334499.59</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1375,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2172379.59</v>
+        <v>2807979.59</v>
       </c>
       <c r="H7">
-        <v>0.495296864762019</v>
+        <v>0.3873002509964824</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1389,10 +1356,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8">
-        <v>9880397.67</v>
+        <v>9376077.67</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1401,10 +1368,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8523997.67</v>
+        <v>11887397.67</v>
       </c>
       <c r="H8">
-        <v>0.6691401172098165</v>
+        <v>0.4849057262168633</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1415,22 +1382,22 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9">
-        <v>3224911.14</v>
+        <v>3357711.14</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2100000</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3587711.14</v>
+        <v>4770511.140000001</v>
       </c>
       <c r="H9">
-        <v>0.4330248281917145</v>
+        <v>0.3290012231267947</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1441,10 +1408,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D10">
-        <v>2356373.91</v>
+        <v>2212941.43</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1453,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1988773.91</v>
+        <v>2823141.43</v>
       </c>
       <c r="H10">
-        <v>0.7728902678535237</v>
+        <v>0.495283156961782</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1467,7 +1434,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11">
         <v>1001</v>
@@ -1493,22 +1460,22 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D12">
-        <v>2737647.84</v>
+        <v>2572527.84</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2285487.84</v>
+        <v>4090927.840000002</v>
       </c>
       <c r="H12">
-        <v>0.8070595553901524</v>
+        <v>0.4557252713604451</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1519,22 +1486,22 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D13">
-        <v>4353560.77</v>
+        <v>5313889.62</v>
       </c>
       <c r="E13">
-        <v>1250000</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4811569.703664</v>
+        <v>6746089.62</v>
       </c>
       <c r="H13">
-        <v>0.6708659748900543</v>
+        <v>0.4836273728601905</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1545,7 +1512,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D14">
         <v>1010</v>
@@ -1571,10 +1538,10 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D15">
-        <v>10679446.17</v>
+        <v>10300018.29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1583,10 +1550,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>9650166.17</v>
+        <v>12074258.29</v>
       </c>
       <c r="H15">
-        <v>0.4459914082495015</v>
+        <v>0.3345465620315134</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1597,10 +1564,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D16">
-        <v>14939967.36</v>
+        <v>14085935.6</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1609,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>12659935.5968</v>
+        <v>18321775.6</v>
       </c>
       <c r="H16">
-        <v>0.7527719811156766</v>
+        <v>0.5257361191564854</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1623,10 +1590,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D17">
-        <v>3406761.22</v>
+        <v>3256841.22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1635,10 +1602,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3006121.22</v>
+        <v>4009841.22</v>
       </c>
       <c r="H17">
-        <v>0.5641002061786449</v>
+        <v>0.427384503768456</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1649,10 +1616,10 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18">
-        <v>2120810.22</v>
+        <v>2027131.98</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1661,10 +1628,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1853048.93128</v>
+        <v>2505091.98</v>
       </c>
       <c r="H18">
-        <v>0.7231878108444333</v>
+        <v>0.4703056053055585</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1675,10 +1642,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D19">
-        <v>3484886.04</v>
+        <v>3278486.04</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1687,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2937086.04</v>
+        <v>4296686.04</v>
       </c>
       <c r="H19">
-        <v>0.785014796502182</v>
+        <v>0.5423770734712561</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1701,10 +1668,10 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D20">
-        <v>1282288.8</v>
+        <v>1295568.8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1713,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1318448.8</v>
+        <v>1227488.8</v>
       </c>
       <c r="H20">
-        <v>0.1178330171031291</v>
+        <v>0.1278629996461068</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1727,22 +1694,22 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D21">
-        <v>1181609.16</v>
+        <v>1813605.34</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3500000</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1253689.16</v>
+        <v>4837885.34</v>
       </c>
       <c r="H21">
-        <v>0.3097992807084652</v>
+        <v>0.2838670004527226</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1753,10 +1720,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D22">
-        <v>12284877.55</v>
+        <v>11716618.49</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1765,10 +1732,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>10800914.73112</v>
+        <v>14683978.49</v>
       </c>
       <c r="H22">
-        <v>0.5834808029584827</v>
+        <v>0.4655353046625169</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1779,10 +1746,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D23">
-        <v>28812091.33</v>
+        <v>27485288.48</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1791,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>24994448.47805597</v>
+        <v>34931168.48</v>
       </c>
       <c r="H23">
-        <v>0.683590774767475</v>
+        <v>0.4936891134882521</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1805,10 +1772,10 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D24">
-        <v>8428495.029999999</v>
+        <v>9705615.029999999</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1817,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>7057455.029999999</v>
+        <v>12248575.03</v>
       </c>
       <c r="H24">
-        <v>0.8276347741743957</v>
+        <v>0.4819940920099011</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1831,22 +1798,22 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D25">
-        <v>4721117.689999999</v>
+        <v>4510019.33</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="G25">
-        <v>3963437.689999999</v>
+        <v>5372781.5263576</v>
       </c>
       <c r="H25">
-        <v>0.8822925635548471</v>
+        <v>0.5012179234888107</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1857,10 +1824,10 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D26">
-        <v>4528821.529999999</v>
+        <v>4522815.029999999</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1869,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>4469755.353711199</v>
+        <v>4522815.029999999</v>
       </c>
       <c r="H26">
-        <v>0.1055434945915568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1883,22 +1850,22 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D27">
-        <v>1750000</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1750000</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1909,13 +1876,13 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D28">
-        <v>1001</v>
+        <v>1751001</v>
       </c>
       <c r="E28">
-        <v>1750000</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1935,10 +1902,10 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D29">
-        <v>20514983.58</v>
+        <v>19414183.58</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1947,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>17625383.58</v>
+        <v>24678183.58</v>
       </c>
       <c r="H29">
-        <v>0.6976774119091267</v>
+        <v>0.5036403088464253</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1961,10 +1928,10 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D30">
-        <v>39938092.09</v>
+        <v>37609740.17</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1973,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>33797692.09</v>
+        <v>48726340.17</v>
       </c>
       <c r="H30">
-        <v>0.7731524368710213</v>
+        <v>0.5197176868126776</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1987,10 +1954,10 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D31">
-        <v>8333541.159999999</v>
+        <v>7909861.159999999</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1999,10 +1966,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>7217181.159999999</v>
+        <v>9986021.159999998</v>
       </c>
       <c r="H31">
-        <v>0.6616019044199799</v>
+        <v>0.4832497671174573</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2013,22 +1980,22 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D32">
-        <v>20404512.28</v>
+        <v>16577419.51</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>15044352.28</v>
+        <v>20817544.232004</v>
       </c>
       <c r="H32">
-        <v>0.6743318829011102</v>
+        <v>0.4773720420260799</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2039,10 +2006,10 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D33">
-        <v>3859906.11</v>
+        <v>4085666.11</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2051,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>4461026.11</v>
+        <v>2937826.11</v>
       </c>
       <c r="H33">
-        <v>0.5920309666154362</v>
+        <v>0.9082078721126211</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2065,22 +2032,22 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D34">
-        <v>1047478.76</v>
+        <v>8540301.959999999</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>2200000</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1112998.76</v>
+        <v>8300208.605655999</v>
       </c>
       <c r="H34">
-        <v>0.275966884275774</v>
+        <v>0.7800049742832117</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2091,10 +2058,10 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D35">
-        <v>1637.84</v>
+        <v>1068718.76</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2103,10 +2070,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1637.84</v>
+        <v>930478.76</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>0.3326107089215019</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2117,10 +2084,10 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D36">
-        <v>6904142.55</v>
+        <v>1637.84</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2129,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>7436342.55</v>
+        <v>1637.84</v>
       </c>
       <c r="H36">
-        <v>0.3133734069310726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2143,10 +2110,10 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D37">
-        <v>986639.95</v>
+        <v>7103342.55</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2155,10 +2122,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1093199.95</v>
+        <v>6095342.55</v>
       </c>
       <c r="H37">
-        <v>0.4263359141207423</v>
+        <v>0.386238505988478</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2169,10 +2136,10 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D38">
-        <v>1687990.46</v>
+        <v>1026479.95</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2181,10 +2148,10 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1507190.46</v>
+        <v>823679.9500000004</v>
       </c>
       <c r="H38">
-        <v>0.5524172439361114</v>
+        <v>0.5716433913439314</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2195,10 +2162,10 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D39">
-        <v>2824115.62</v>
+        <v>1619190.46</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2207,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>3109235.62</v>
+        <v>1959390.46</v>
       </c>
       <c r="H39">
-        <v>0.3997298860225975</v>
+        <v>0.4294917308110197</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2221,10 +2188,10 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D40">
-        <v>17138991.64</v>
+        <v>2930355.62</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2233,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>15194991.64</v>
+        <v>2382515.62</v>
       </c>
       <c r="H40">
-        <v>0.5917777786944535</v>
+        <v>0.5270073318553942</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2247,10 +2214,10 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D41">
-        <v>1637162.36</v>
+        <v>16395951.64</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2259,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1745282.36</v>
+        <v>20072271.64</v>
       </c>
       <c r="H41">
-        <v>0.2872557538483343</v>
+        <v>0.4527964628521742</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2273,10 +2240,10 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D42">
-        <v>37419428.94</v>
+        <v>1677962.36</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2285,10 +2252,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>31454234.328196</v>
+        <v>1472122.36</v>
       </c>
       <c r="H42">
-        <v>0.8020101756979177</v>
+        <v>0.3441605220913838</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2299,10 +2266,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D43">
-        <v>7740430.19</v>
+        <v>35165474.33</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2311,10 +2278,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>8173390.190000002</v>
+        <v>46418074.33</v>
       </c>
       <c r="H43">
-        <v>0.2280915943889374</v>
+        <v>0.5492855868758318</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2325,10 +2292,10 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D44">
-        <v>5131021.33</v>
+        <v>7899790.19</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2337,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>5495421.33</v>
+        <v>6634275.302904002</v>
       </c>
       <c r="H44">
-        <v>0.2827022546058357</v>
+        <v>0.4470832856004135</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2351,10 +2318,10 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45">
-        <v>3529548.68</v>
+        <v>5263821.33</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2363,10 +2330,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>3061836.381719599</v>
+        <v>4574621.33</v>
       </c>
       <c r="H45">
-        <v>0.706556370195394</v>
+        <v>0.3430893809083866</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2377,10 +2344,10 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46">
-        <v>34474171.7</v>
+        <v>3379036.38</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2389,10 +2356,10 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>30766874.299144</v>
+        <v>4342636.38</v>
       </c>
       <c r="H46">
-        <v>0.5745804604041891</v>
+        <v>0.5023256402600303</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2403,22 +2370,22 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47">
-        <v>2368993.42</v>
+        <v>33502589.82</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="G47">
-        <v>2549193.42</v>
+        <v>40714069.82</v>
       </c>
       <c r="H47">
-        <v>0.3047175604274077</v>
+        <v>0.4920201318257699</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2429,10 +2396,10 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48">
-        <v>3340473.98</v>
+        <v>2435559.78</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2441,10 +2408,10 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>3663753.98</v>
+        <v>2158599.78</v>
       </c>
       <c r="H48">
-        <v>0.3816334851173604</v>
+        <v>0.2908374242491584</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2455,10 +2422,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49">
-        <v>3456484.98</v>
+        <v>3459993.98</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2467,10 +2434,10 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>3851604.98</v>
+        <v>2833233.98</v>
       </c>
       <c r="H49">
-        <v>0.4806659067098828</v>
+        <v>0.4985658120618757</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2481,10 +2448,10 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50">
-        <v>1758468.04</v>
+        <v>3602564.98</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2493,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1902308.04</v>
+        <v>2896731.107204</v>
       </c>
       <c r="H50">
-        <v>0.326670122258433</v>
+        <v>0.586970601369062</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2507,10 +2474,10 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51">
-        <v>7917863.17</v>
+        <v>1811588.04</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2519,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>8294111.65608</v>
+        <v>1498352.794644</v>
       </c>
       <c r="H51">
-        <v>0.1311168266227535</v>
+        <v>0.5210682042245601</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2533,10 +2500,10 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D52">
-        <v>1929439.14</v>
+        <v>8088077.790000001</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2545,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>2073279.14</v>
+        <v>7113117.790000001</v>
       </c>
       <c r="H52">
-        <v>0.3496868250938945</v>
+        <v>0.3089089292305954</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2559,10 +2526,10 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D53">
-        <v>5796790.35</v>
+        <v>1982559.14</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2571,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>5796790.35</v>
+        <v>1704639.14</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>0.4296717016599772</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2585,10 +2552,10 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D54">
-        <v>4487382.36</v>
+        <v>5787737.35</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2597,10 +2564,10 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>4846262.360000001</v>
+        <v>5485732.222784</v>
       </c>
       <c r="H54">
-        <v>0.318531991322071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2611,10 +2578,10 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D55">
-        <v>2471398.42</v>
+        <v>4623062.36</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2623,10 +2590,10 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>2612998.42</v>
+        <v>3927302.36</v>
       </c>
       <c r="H55">
-        <v>0.2576399567819103</v>
+        <v>0.3972118917780499</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2637,10 +2604,10 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D56">
-        <v>3793669.97</v>
+        <v>2524518.42</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2649,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>4144869.97</v>
+        <v>2246438.42</v>
       </c>
       <c r="H56">
-        <v>0.4685213321661812</v>
+        <v>0.3027540812803585</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2663,10 +2630,10 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D57">
-        <v>2392936.35</v>
+        <v>3926469.97</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2675,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>2533416.35</v>
+        <v>3230469.97</v>
       </c>
       <c r="H57">
-        <v>0.2861742010941075</v>
+        <v>0.6073048250623422</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2689,22 +2656,22 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D58">
-        <v>5918383.5</v>
+        <v>2446056.35</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>550000</v>
       </c>
       <c r="G58">
-        <v>5035383.5</v>
+        <v>1617176.35</v>
       </c>
       <c r="H58">
-        <v>0.8267473569788679</v>
+        <v>0.4529099130097963</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2715,10 +2682,10 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D59">
-        <v>2503265.69</v>
+        <v>5574383.5</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2727,10 +2694,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>2782945.69</v>
+        <v>7313383.5</v>
       </c>
       <c r="H59">
-        <v>0.5582458923228214</v>
+        <v>0.5753438199979529</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2741,10 +2708,10 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D60">
-        <v>4053900.11</v>
+        <v>2609505.69</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2753,10 +2720,10 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>4365865.58504</v>
+        <v>2053665.69</v>
       </c>
       <c r="H60">
-        <v>0.4003164930200175</v>
+        <v>0.7642451289138497</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2767,10 +2734,10 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D61">
-        <v>3493754.76</v>
+        <v>4173625.59</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2779,10 +2746,10 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>3871714.76</v>
+        <v>3548305.59</v>
       </c>
       <c r="H61">
-        <v>0.6018914471891519</v>
+        <v>0.4976155393650861</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2793,10 +2760,10 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D62">
-        <v>3641131.09</v>
+        <v>3634929.77</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2805,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>3186291.089999998</v>
+        <v>2867129.770000002</v>
       </c>
       <c r="H62">
-        <v>0.7845648527988074</v>
+        <v>0.6021542582636566</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2819,10 +2786,10 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D63">
-        <v>1958432.62</v>
+        <v>3462731.09</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2831,10 +2798,10 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>2095872.62</v>
+        <v>4372651.090000002</v>
       </c>
       <c r="H63">
-        <v>0.3706255774265518</v>
+        <v>0.5778215430401512</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2845,10 +2812,10 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D64">
-        <v>3264228.06</v>
+        <v>2011552.62</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2857,10 +2824,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>3643545.54272</v>
+        <v>1731872.62</v>
       </c>
       <c r="H64">
-        <v>0.4263890712452085</v>
+        <v>0.4531233942597926</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2871,10 +2838,10 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D65">
-        <v>7450145.48</v>
+        <v>3432745.54</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2883,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>8054592.64385</v>
+        <v>2733945.54</v>
       </c>
       <c r="H65">
-        <v>0.3278956139410176</v>
+        <v>0.5740801991249613</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2897,10 +2864,10 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D66">
-        <v>1383251.28</v>
+        <v>7696232.640000001</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2909,10 +2876,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>1383251.28</v>
+        <v>6515072.640000001</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>0.4095360017352008</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2923,10 +2890,10 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D67">
-        <v>6314892.19</v>
+        <v>1302268.44</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2935,10 +2902,10 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>5592412.19</v>
+        <v>1458726.172816</v>
       </c>
       <c r="H67">
-        <v>0.579551272310634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2949,10 +2916,10 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D68">
-        <v>2505280.68</v>
+        <v>6029772.19</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2961,10 +2928,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>2162640.680000001</v>
+        <v>7489252.19</v>
       </c>
       <c r="H68">
-        <v>0.8912964681677954</v>
+        <v>0.4373339175803613</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2975,10 +2942,10 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D69">
-        <v>15685116.34</v>
+        <v>2869120.68</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2987,10 +2954,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>13036931.5976128</v>
+        <v>3590005.237476</v>
       </c>
       <c r="H69">
-        <v>0.8842786290380602</v>
+        <v>0.5952810256907841</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3001,22 +2968,22 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D70">
-        <v>240692.12</v>
+        <v>12030273.99</v>
       </c>
       <c r="E70">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>7274932.12</v>
+        <v>15060993.99</v>
       </c>
       <c r="H70">
-        <v>0.02112877446339664</v>
+        <v>0.453881756047364</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3027,10 +2994,10 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D71">
-        <v>1001</v>
+        <v>7800594.23</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3039,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>1001</v>
+        <v>9863394.23</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>0.4725399686270068</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3053,10 +3020,10 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D72">
-        <v>6193189.54</v>
+        <v>1001</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -3065,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>6698749.54</v>
+        <v>1001</v>
       </c>
       <c r="H72">
-        <v>0.3459124402492587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3079,10 +3046,10 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D73">
-        <v>592723.9299999999</v>
+        <v>6396229.54</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3091,10 +3058,10 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>592723.9299999999</v>
+        <v>5374229.54</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>0.4356988443779796</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3105,10 +3072,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D74">
-        <v>1469147.04</v>
+        <v>592723.9299999999</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3117,10 +3084,10 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>1400747.04</v>
+        <v>592723.9299999999</v>
       </c>
       <c r="H74">
-        <v>0.3292037654421887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3131,10 +3098,10 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>1427536.64</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3143,10 +3110,10 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75" t="s">
-        <v>188</v>
+        <v>1300554.1141384</v>
+      </c>
+      <c r="H75">
+        <v>0.2389160102006597</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3157,22 +3124,22 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D76">
-        <v>18424373.44</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
       </c>
       <c r="F76">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>13831373.44</v>
-      </c>
-      <c r="H76">
-        <v>0.6807601602867291</v>
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3183,10 +3150,10 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D77">
-        <v>3169177.45</v>
+        <v>15189822.48</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3195,10 +3162,10 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>2687017.45</v>
+        <v>19136782.48</v>
       </c>
       <c r="H77">
-        <v>0.8008677427829877</v>
+        <v>0.4726153735327397</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3209,22 +3176,22 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D78">
-        <v>1010</v>
+        <v>2976537.45</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>1010</v>
+        <v>4629657.45</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>0.4698106552138108</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3235,10 +3202,10 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D79">
-        <v>2512793.3</v>
+        <v>1010</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3247,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>2271713.3</v>
+        <v>1010</v>
       </c>
       <c r="H79">
-        <v>0.4736393452466031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3261,10 +3228,10 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D80">
-        <v>2306263.2</v>
+        <v>2416473.3</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3273,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>2375063.2</v>
+        <v>2892753.3</v>
       </c>
       <c r="H80">
-        <v>0.130823297670563</v>
+        <v>0.3759502063311101</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3287,10 +3254,10 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D81">
-        <v>5365528.91</v>
+        <v>2332823.2</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3299,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>4564208.91</v>
+        <v>2196823.2</v>
       </c>
       <c r="H81">
-        <v>0.8391269715127919</v>
+        <v>0.1428885128307094</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3313,10 +3280,10 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D82">
-        <v>3369113.66</v>
+        <v>3953399.08</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3325,10 +3292,10 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>3021913.66</v>
+        <v>4973999.08</v>
       </c>
       <c r="H82">
-        <v>0.5934279406248821</v>
+        <v>0.5075646294651103</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3339,10 +3306,10 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>3231513.66</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3351,10 +3318,10 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83" t="s">
-        <v>188</v>
+        <v>3911913.66</v>
+      </c>
+      <c r="H83">
+        <v>0.4633415145466169</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3365,10 +3332,10 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D84">
-        <v>4476328.04</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3377,10 +3344,10 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>3957928.04</v>
-      </c>
-      <c r="H84">
-        <v>0.7281764526471785</v>
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3391,10 +3358,10 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D85">
-        <v>15771890</v>
+        <v>4269928.04</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3403,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>14182130.00000001</v>
+        <v>5300728.04</v>
       </c>
       <c r="H85">
-        <v>0.4985625149395754</v>
+        <v>0.5495528119944821</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3417,10 +3384,10 @@
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D86">
-        <v>4730754.96</v>
+        <v>15138930</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3429,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>4031554.96</v>
+        <v>19420248.5428384</v>
       </c>
       <c r="H86">
-        <v>0.7625365474367733</v>
+        <v>0.5127713570726807</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3443,10 +3410,10 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D87">
-        <v>7365540.959999999</v>
+        <v>4455554.96</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3455,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>7296100.959999999</v>
+        <v>5831554.96</v>
       </c>
       <c r="H87">
-        <v>0.04213494326427194</v>
+        <v>0.5328307837812097</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3469,10 +3436,10 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D88">
-        <v>47852078.13</v>
+        <v>7338020.959999999</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3481,10 +3448,10 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>40416014.45137</v>
+        <v>7476580.959999999</v>
       </c>
       <c r="H88">
-        <v>0.8329019587150012</v>
+        <v>0.04155953124327567</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3495,22 +3462,22 @@
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D89">
-        <v>20523394.34</v>
+        <v>44901453.9</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>12500000</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>18180194.33999998</v>
+        <v>72227373.90000001</v>
       </c>
       <c r="H89">
-        <v>0.7091105715869928</v>
+        <v>0.4710705728704354</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3521,10 +3488,10 @@
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D90">
-        <v>2097630.54</v>
+        <v>19349834.23</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3533,10 +3500,10 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>1783030.54</v>
+        <v>22677194.22999999</v>
       </c>
       <c r="H90">
-        <v>0.8425226412554886</v>
+        <v>0.4110603765816933</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3547,10 +3514,10 @@
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D91">
-        <v>3807907.92</v>
+        <v>1974750.54</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3559,10 +3526,10 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>3385027.919999998</v>
+        <v>2598870.54</v>
       </c>
       <c r="H91">
-        <v>0.5449068201481778</v>
+        <v>0.5841837739251144</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3573,10 +3540,10 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>3642787.92</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3585,10 +3552,10 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>10</v>
+        <v>4475107.919999998</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>0.4166020648726614</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3599,10 +3566,10 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D93">
-        <v>4805062.34</v>
+        <v>10</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -3611,10 +3578,10 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>4090662.34</v>
+        <v>10</v>
       </c>
       <c r="H93">
-        <v>0.9393979948978141</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3625,22 +3592,22 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D94">
-        <v>466995.85</v>
+        <v>5779862.34</v>
       </c>
       <c r="E94">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>621967.562792</v>
+        <v>7167062.34</v>
       </c>
       <c r="H94">
-        <v>0.6306309580507355</v>
+        <v>0.5419291497330551</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3651,22 +3618,48 @@
         <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D95">
-        <v>13781697.99</v>
+        <v>653934.9400000001</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1600000</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>12215297.98999999</v>
+        <v>1860692.308546</v>
       </c>
       <c r="H95">
-        <v>0.5536711102370748</v>
+        <v>0.7302475502044613</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" t="s">
+        <v>189</v>
+      </c>
+      <c r="D96">
+        <v>13176257.99</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>16256257.99000001</v>
+      </c>
+      <c r="H96">
+        <v>0.4205094680587061</v>
       </c>
     </row>
   </sheetData>
@@ -3676,7 +3669,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3696,13 +3689,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3713,13 +3706,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F2">
         <v>80</v>
@@ -3733,13 +3726,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3753,13 +3746,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -3773,16 +3766,16 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F5">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3793,13 +3786,13 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F6">
         <v>11</v>
@@ -3813,13 +3806,13 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -3833,13 +3826,13 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -3853,13 +3846,13 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F9">
         <v>27</v>
@@ -3873,13 +3866,13 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -3893,16 +3886,16 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3913,13 +3906,13 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F12">
         <v>12</v>
@@ -3933,13 +3926,13 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F13">
         <v>21</v>
@@ -3953,16 +3946,16 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F14">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3973,13 +3966,13 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F15">
         <v>62</v>
@@ -3993,13 +3986,13 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -4013,13 +4006,13 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -4033,16 +4026,16 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4050,19 +4043,19 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4070,19 +4063,19 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F20">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4090,19 +4083,19 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4110,19 +4103,19 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4130,19 +4123,19 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F23">
-        <v>41</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4150,19 +4143,19 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F24">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4170,19 +4163,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F25">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4190,19 +4183,19 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F26">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4210,19 +4203,19 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4230,19 +4223,19 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D28" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E28" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F28">
-        <v>80</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4250,19 +4243,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F29">
-        <v>170</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4270,19 +4263,19 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4290,19 +4283,19 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E31" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F31">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4310,19 +4303,19 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D32" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E32" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F32">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4330,19 +4323,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D33" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E33" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F33">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4350,19 +4343,19 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E34" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4370,19 +4363,19 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E35" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F35">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4390,19 +4383,19 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4410,19 +4403,19 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E37" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F37">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4430,19 +4423,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4450,19 +4443,19 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D39" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E39" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F39">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4470,19 +4463,19 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E40" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4490,19 +4483,19 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D41" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E41" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4510,19 +4503,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F42">
-        <v>11</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4530,19 +4523,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D43" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E43" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F43">
-        <v>153</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4550,19 +4543,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D44" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E44" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F44">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4570,16 +4563,16 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D45" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E45" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F45">
         <v>10</v>
@@ -4590,16 +4583,16 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E46" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F46">
         <v>4</v>
@@ -4610,16 +4603,16 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E47" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F47">
         <v>10</v>
@@ -4630,16 +4623,16 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E48" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F48">
         <v>2</v>
@@ -4650,19 +4643,19 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E49" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F49">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4670,19 +4663,19 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D50" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E50" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F50">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4690,16 +4683,16 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D51" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E51" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F51">
         <v>9</v>
@@ -4710,19 +4703,19 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D52" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E52" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F52">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4730,19 +4723,19 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D53" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E53" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4750,19 +4743,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E54" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F54">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4770,16 +4763,16 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E55" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F55">
         <v>4</v>
@@ -4793,16 +4786,16 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D56" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E56" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4810,19 +4803,19 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D57" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E57" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4833,16 +4826,16 @@
         <v>62</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E58" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4853,16 +4846,16 @@
         <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D59" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E59" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F59">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4873,16 +4866,16 @@
         <v>64</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D60" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E60" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4893,16 +4886,16 @@
         <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D61" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E61" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F61">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4913,16 +4906,16 @@
         <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D62" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E62" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F62">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4933,16 +4926,16 @@
         <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D63" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E63" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F63">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4953,16 +4946,16 @@
         <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D64" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E64" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F64">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4970,19 +4963,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D65" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E65" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4990,16 +4983,16 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E66" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -5010,16 +5003,16 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E67" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F67">
         <v>12</v>
@@ -5030,16 +5023,16 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D68" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E68" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F68">
         <v>4</v>
@@ -5050,16 +5043,16 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D69" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E69" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F69">
         <v>10</v>
@@ -5070,16 +5063,16 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E70" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F70">
         <v>17</v>
@@ -5093,16 +5086,16 @@
         <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D71" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E71" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F71">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5110,19 +5103,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D72" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E72" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F72">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5133,16 +5126,16 @@
         <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D73" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E73" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5150,19 +5143,19 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D74" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E74" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F74">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5173,16 +5166,16 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E75" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F75">
-        <v>75</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5193,16 +5186,16 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D76" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5210,19 +5203,19 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
         <v>167</v>
       </c>
       <c r="D77" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E77" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F77">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5230,19 +5223,19 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D78" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E78" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F78">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5250,19 +5243,19 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
         <v>169</v>
       </c>
       <c r="D79" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E79" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F79">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5270,19 +5263,19 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D80" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E80" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5290,19 +5283,19 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
         <v>171</v>
       </c>
       <c r="D81" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E81" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F81">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5310,19 +5303,19 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E82" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F82">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5333,16 +5326,16 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D83" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E83" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F83">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5350,19 +5343,19 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D84" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E84" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5373,16 +5366,16 @@
         <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D85" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E85" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5393,16 +5386,16 @@
         <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D86" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E86" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F86">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5413,16 +5406,16 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D87" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E87" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5430,19 +5423,19 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D88" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E88" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F88">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5453,16 +5446,16 @@
         <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D89" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E89" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F89">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5473,16 +5466,16 @@
         <v>93</v>
       </c>
       <c r="C90" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D90" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E90" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F90">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5490,19 +5483,19 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
         <v>180</v>
       </c>
       <c r="D91" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E91" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5510,19 +5503,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
         <v>181</v>
       </c>
       <c r="D92" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E92" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F92">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5533,16 +5526,16 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D93" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E93" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F93">
-        <v>219</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5553,16 +5546,16 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D94" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E94" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F94">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5573,16 +5566,16 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D95" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E95" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F95">
-        <v>58</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5593,16 +5586,16 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D96" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E96" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F96">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5610,19 +5603,19 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D97" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E97" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5633,16 +5626,16 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D98" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F98">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5650,19 +5643,19 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D99" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F99">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5673,16 +5666,16 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D100" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5693,15 +5686,35 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D101" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F101">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" t="s">
+        <v>189</v>
+      </c>
+      <c r="D102" t="s">
+        <v>194</v>
+      </c>
+      <c r="E102" t="s">
+        <v>197</v>
+      </c>
+      <c r="F102">
         <v>44</v>
       </c>
     </row>
@@ -5712,7 +5725,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5732,10 +5745,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5743,16 +5756,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E2">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5760,16 +5773,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5777,16 +5790,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5794,16 +5807,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5811,13 +5824,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E6">
         <v>-1</v>
@@ -5828,16 +5841,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5845,16 +5858,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E8">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5862,16 +5875,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5879,16 +5892,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E10">
-        <v>-13</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5896,16 +5909,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E11">
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5913,16 +5926,16 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5930,152 +5943,16 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" t="s">
-        <v>193</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" t="s">
-        <v>192</v>
-      </c>
-      <c r="E20">
         <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21">
-        <v>-2</v>
       </c>
     </row>
   </sheetData>
@@ -6085,7 +5962,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6105,22 +5982,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6128,28 +6005,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G2" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>6481</v>
+        <v>6317.4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6157,28 +6034,28 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>6408</v>
+        <v>6359.6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6186,28 +6063,28 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>6409</v>
+        <v>6361</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6215,28 +6092,28 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F5" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G5" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>6560</v>
+        <v>6265.8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6244,28 +6121,28 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G6" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>6482.2</v>
+        <v>6285.8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6273,28 +6150,28 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>6481.4</v>
+        <v>6288.6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6302,28 +6179,28 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F8" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G8" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>6481</v>
+        <v>6279</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6331,28 +6208,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G9" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>6479.4</v>
+        <v>6439.4</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6360,28 +6237,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G10" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>6554.6</v>
+        <v>6456.6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6389,28 +6266,28 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F11" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G11" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>6493.4</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6418,28 +6295,28 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F12" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G12" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>6492</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6447,28 +6324,28 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E13" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F13" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G13" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>6410.8</v>
+        <v>6436.4</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6476,28 +6353,28 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F14" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G14" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>6405.8</v>
+        <v>6439.4</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6505,28 +6382,28 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F15" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G15" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>6409.8</v>
+        <v>6439.4</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6534,28 +6411,28 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F16" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G16" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>6408.6</v>
+        <v>6496.6</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6563,28 +6440,28 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E17" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F17" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G17" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>6410.6</v>
+        <v>6372.6</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6592,28 +6469,28 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E18" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F18" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G18" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>6463</v>
+        <v>6239.8</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6621,28 +6498,28 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F19" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G19" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>6522.6</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6650,28 +6527,28 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E20" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F20" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G20" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>6519.6</v>
+        <v>6236.2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -6679,28 +6556,28 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F21" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G21" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>6518.8</v>
+        <v>6238.6</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6708,28 +6585,28 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E22" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F22" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G22" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>6500</v>
+        <v>6243.2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6737,28 +6614,28 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="D23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E23" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F23" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G23" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>6497.8</v>
+        <v>6408.8</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -6766,28 +6643,28 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="D24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E24" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F24" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G24" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>6464.8</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6795,28 +6672,28 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F25" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G25" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>6465.4</v>
+        <v>6410.2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -6824,28 +6701,28 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="D26" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F26" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G26" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>6465</v>
+        <v>6407.2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6853,28 +6730,28 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="D27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F27" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G27" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>6463.6</v>
+        <v>6408.6</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6882,28 +6759,28 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="D28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E28" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F28" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G28" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>6461.4</v>
+        <v>6409.4</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6911,28 +6788,28 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="D29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G29" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>6461.4</v>
+        <v>6302.8</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -6940,28 +6817,28 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E30" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F30" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G30" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>6461.4</v>
+        <v>6452.4</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6969,28 +6846,28 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="D31" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F31" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G31" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>6551.4</v>
+        <v>6447.4</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6998,28 +6875,28 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="D32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F32" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G32" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>6552.4</v>
+        <v>6505.2</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -7027,28 +6904,28 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E33" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F33" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G33" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>6552.6</v>
+        <v>6517</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -7056,28 +6933,28 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D34" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F34" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G34" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>6478.6</v>
+        <v>6513.6</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -7085,28 +6962,28 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D35" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F35" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G35" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>6475.8</v>
+        <v>6500.4</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -7114,28 +6991,28 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D36" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F36" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G36" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>6474.2</v>
+        <v>6499.2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -7143,28 +7020,28 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D37" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="E37" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F37" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G37" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>6475.4</v>
+        <v>6494</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -7172,28 +7049,28 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D38" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="E38" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F38" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G38" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>6474.4</v>
+        <v>6496.6</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -7201,28 +7078,28 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D39" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E39" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F39" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G39" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>6472.2</v>
+        <v>6516.8</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -7230,28 +7107,28 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D40" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E40" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F40" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G40" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>6474.4</v>
+        <v>6522.4</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -7259,28 +7136,28 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D41" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F41" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G41" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>6472.2</v>
+        <v>6518.2</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -7288,28 +7165,28 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="D42" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E42" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F42" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G42" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>6605.8</v>
+        <v>6514.2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -7317,28 +7194,28 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="D43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F43" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G43" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>6592.4</v>
+        <v>6509.4</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -7346,28 +7223,28 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="D44" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E44" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F44" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G44" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>6587.8</v>
+        <v>6509</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -7375,28 +7252,28 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="D45" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E45" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F45" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G45" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>6586</v>
+        <v>6507.4</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -7404,28 +7281,28 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="D46" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E46" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F46" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G46" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>6579.8</v>
+        <v>6505.2</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -7433,28 +7310,28 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E47" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F47" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G47" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>6577</v>
+        <v>6505.8</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -7462,28 +7339,28 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="D48" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E48" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F48" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G48" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>6560.2</v>
+        <v>6506.2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -7491,28 +7368,28 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="D49" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E49" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F49" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G49" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
       <c r="I49">
-        <v>6558.2</v>
+        <v>6505.8</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -7520,28 +7397,28 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="D50" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E50" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F50" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G50" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>6562.6</v>
+        <v>6478.6</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -7549,28 +7426,28 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="D51" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E51" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F51" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G51" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51">
-        <v>6565.4</v>
+        <v>6470.4</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -7578,28 +7455,28 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="D52" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E52" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F52" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G52" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
       <c r="I52">
-        <v>6567</v>
+        <v>6464</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -7607,28 +7484,28 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="D53" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E53" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F53" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G53" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
       <c r="I53">
-        <v>6563.2</v>
+        <v>6476.4</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -7636,28 +7513,28 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="D54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F54" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G54" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>6563.8</v>
+        <v>6473</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -7665,28 +7542,28 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="D55" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E55" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F55" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G55" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>6472</v>
+        <v>6464</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -7694,376 +7571,28 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="D56" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E56" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F56" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="G56" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>6652</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" t="s">
-        <v>161</v>
-      </c>
-      <c r="D57" t="s">
-        <v>256</v>
-      </c>
-      <c r="E57" t="s">
-        <v>193</v>
-      </c>
-      <c r="F57" t="s">
-        <v>268</v>
-      </c>
-      <c r="G57" t="s">
-        <v>271</v>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>6575</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" t="s">
-        <v>165</v>
-      </c>
-      <c r="D58" t="s">
-        <v>257</v>
-      </c>
-      <c r="E58" t="s">
-        <v>192</v>
-      </c>
-      <c r="F58" t="s">
-        <v>269</v>
-      </c>
-      <c r="G58" t="s">
-        <v>271</v>
-      </c>
-      <c r="H58">
-        <v>1</v>
-      </c>
-      <c r="I58">
-        <v>6582</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" t="s">
-        <v>165</v>
-      </c>
-      <c r="D59" t="s">
-        <v>258</v>
-      </c>
-      <c r="E59" t="s">
-        <v>192</v>
-      </c>
-      <c r="F59" t="s">
-        <v>269</v>
-      </c>
-      <c r="G59" t="s">
-        <v>271</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>6582.8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" t="s">
-        <v>181</v>
-      </c>
-      <c r="D60" t="s">
-        <v>259</v>
-      </c>
-      <c r="E60" t="s">
-        <v>192</v>
-      </c>
-      <c r="F60" t="s">
-        <v>269</v>
-      </c>
-      <c r="G60" t="s">
-        <v>271</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>6407.6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" t="s">
-        <v>181</v>
-      </c>
-      <c r="D61" t="s">
-        <v>260</v>
-      </c>
-      <c r="E61" t="s">
-        <v>192</v>
-      </c>
-      <c r="F61" t="s">
-        <v>269</v>
-      </c>
-      <c r="G61" t="s">
-        <v>271</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>6405.8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" t="s">
-        <v>181</v>
-      </c>
-      <c r="D62" t="s">
-        <v>261</v>
-      </c>
-      <c r="E62" t="s">
-        <v>192</v>
-      </c>
-      <c r="F62" t="s">
-        <v>269</v>
-      </c>
-      <c r="G62" t="s">
-        <v>271</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>6408.8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" t="s">
-        <v>95</v>
-      </c>
-      <c r="C63" t="s">
-        <v>181</v>
-      </c>
-      <c r="D63" t="s">
-        <v>262</v>
-      </c>
-      <c r="E63" t="s">
-        <v>192</v>
-      </c>
-      <c r="F63" t="s">
-        <v>269</v>
-      </c>
-      <c r="G63" t="s">
-        <v>271</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>6408.8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" t="s">
-        <v>8</v>
-      </c>
-      <c r="B64" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" t="s">
-        <v>181</v>
-      </c>
-      <c r="D64" t="s">
-        <v>263</v>
-      </c>
-      <c r="E64" t="s">
-        <v>192</v>
-      </c>
-      <c r="F64" t="s">
-        <v>269</v>
-      </c>
-      <c r="G64" t="s">
-        <v>271</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>6410.2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65" t="s">
-        <v>181</v>
-      </c>
-      <c r="D65" t="s">
-        <v>264</v>
-      </c>
-      <c r="E65" t="s">
-        <v>192</v>
-      </c>
-      <c r="F65" t="s">
-        <v>269</v>
-      </c>
-      <c r="G65" t="s">
-        <v>271</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>6410.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="A66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" t="s">
-        <v>95</v>
-      </c>
-      <c r="C66" t="s">
-        <v>181</v>
-      </c>
-      <c r="D66" t="s">
-        <v>265</v>
-      </c>
-      <c r="E66" t="s">
-        <v>192</v>
-      </c>
-      <c r="F66" t="s">
-        <v>269</v>
-      </c>
-      <c r="G66" t="s">
-        <v>271</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <v>6409.2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" t="s">
-        <v>101</v>
-      </c>
-      <c r="C67" t="s">
-        <v>186</v>
-      </c>
-      <c r="D67" t="s">
-        <v>266</v>
-      </c>
-      <c r="E67" t="s">
-        <v>193</v>
-      </c>
-      <c r="F67" t="s">
-        <v>268</v>
-      </c>
-      <c r="G67" t="s">
-        <v>270</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>6536.4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" t="s">
-        <v>101</v>
-      </c>
-      <c r="C68" t="s">
-        <v>186</v>
-      </c>
-      <c r="D68" t="s">
-        <v>267</v>
-      </c>
-      <c r="E68" t="s">
-        <v>193</v>
-      </c>
-      <c r="F68" t="s">
-        <v>268</v>
-      </c>
-      <c r="G68" t="s">
-        <v>270</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <v>6538</v>
+        <v>6465.8</v>
       </c>
     </row>
   </sheetData>

--- a/info_faccts.xlsx
+++ b/info_faccts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="244">
   <si>
     <t>DataDateTime</t>
   </si>
@@ -43,7 +43,7 @@
     <t>CurrentMarginRate</t>
   </si>
   <si>
-    <t>20200724T140744</t>
+    <t>20200727T093609</t>
   </si>
   <si>
     <t>10_f_xb_3670</t>
@@ -628,178 +628,127 @@
     <t>Price</t>
   </si>
   <si>
-    <t>11:17:36</t>
-  </si>
-  <si>
-    <t>10:48:51</t>
-  </si>
-  <si>
-    <t>11:01:46</t>
-  </si>
-  <si>
-    <t>13:06:12</t>
-  </si>
-  <si>
-    <t>13:26:19</t>
-  </si>
-  <si>
-    <t>13:19:59</t>
-  </si>
-  <si>
-    <t>13:06:19</t>
+    <t>09:30:14</t>
   </si>
   <si>
     <t>09:30:18</t>
   </si>
   <si>
+    <t>09:30:07</t>
+  </si>
+  <si>
+    <t>09:30:17</t>
+  </si>
+  <si>
+    <t>09:30:08</t>
+  </si>
+  <si>
+    <t>09:31:06</t>
+  </si>
+  <si>
+    <t>09:31:00</t>
+  </si>
+  <si>
+    <t>09:30:51</t>
+  </si>
+  <si>
+    <t>09:30:34</t>
+  </si>
+  <si>
+    <t>09:30:30</t>
+  </si>
+  <si>
+    <t>09:30:24</t>
+  </si>
+  <si>
+    <t>09:30:19</t>
+  </si>
+  <si>
+    <t>09:34:27</t>
+  </si>
+  <si>
+    <t>09:34:56</t>
+  </si>
+  <si>
+    <t>09:34:50</t>
+  </si>
+  <si>
+    <t>09:34:42</t>
+  </si>
+  <si>
+    <t>09:30:16</t>
+  </si>
+  <si>
+    <t>09:30:54</t>
+  </si>
+  <si>
+    <t>09:32:18</t>
+  </si>
+  <si>
+    <t>09:32:41</t>
+  </si>
+  <si>
+    <t>09:32:29</t>
+  </si>
+  <si>
+    <t>09:31:27</t>
+  </si>
+  <si>
+    <t>09:33:04</t>
+  </si>
+  <si>
+    <t>09:32:47</t>
+  </si>
+  <si>
+    <t>09:32:17</t>
+  </si>
+  <si>
+    <t>09:32:11</t>
+  </si>
+  <si>
+    <t>09:32:00</t>
+  </si>
+  <si>
+    <t>09:31:55</t>
+  </si>
+  <si>
+    <t>09:31:47</t>
+  </si>
+  <si>
+    <t>09:31:40</t>
+  </si>
+  <si>
+    <t>09:31:34</t>
+  </si>
+  <si>
+    <t>09:31:30</t>
+  </si>
+  <si>
+    <t>09:30:59</t>
+  </si>
+  <si>
+    <t>09:31:25</t>
+  </si>
+  <si>
+    <t>09:31:21</t>
+  </si>
+  <si>
     <t>09:31:17</t>
   </si>
   <si>
     <t>09:31:10</t>
   </si>
   <si>
-    <t>09:30:49</t>
-  </si>
-  <si>
-    <t>09:30:33</t>
-  </si>
-  <si>
-    <t>09:30:30</t>
-  </si>
-  <si>
-    <t>09:30:23</t>
-  </si>
-  <si>
-    <t>09:31:45</t>
-  </si>
-  <si>
-    <t>11:15:47</t>
-  </si>
-  <si>
-    <t>13:56:25</t>
-  </si>
-  <si>
-    <t>13:56:53</t>
-  </si>
-  <si>
-    <t>13:56:46</t>
-  </si>
-  <si>
-    <t>13:56:42</t>
-  </si>
-  <si>
-    <t>13:56:36</t>
-  </si>
-  <si>
-    <t>10:33:40</t>
-  </si>
-  <si>
-    <t>10:34:51</t>
-  </si>
-  <si>
-    <t>10:34:45</t>
-  </si>
-  <si>
-    <t>10:34:35</t>
-  </si>
-  <si>
-    <t>10:34:30</t>
-  </si>
-  <si>
-    <t>10:33:45</t>
-  </si>
-  <si>
-    <t>11:20:44</t>
-  </si>
-  <si>
-    <t>09:32:21</t>
-  </si>
-  <si>
-    <t>09:32:26</t>
-  </si>
-  <si>
-    <t>09:30:05</t>
-  </si>
-  <si>
-    <t>09:32:16</t>
-  </si>
-  <si>
-    <t>09:32:06</t>
-  </si>
-  <si>
-    <t>09:32:01</t>
-  </si>
-  <si>
-    <t>09:31:55</t>
-  </si>
-  <si>
-    <t>09:31:51</t>
-  </si>
-  <si>
-    <t>09:31:25</t>
-  </si>
-  <si>
-    <t>09:31:13</t>
-  </si>
-  <si>
-    <t>09:31:03</t>
-  </si>
-  <si>
-    <t>09:30:58</t>
-  </si>
-  <si>
-    <t>09:30:52</t>
-  </si>
-  <si>
-    <t>09:30:47</t>
-  </si>
-  <si>
-    <t>09:30:42</t>
-  </si>
-  <si>
-    <t>09:30:37</t>
-  </si>
-  <si>
-    <t>09:30:21</t>
-  </si>
-  <si>
-    <t>09:30:16</t>
-  </si>
-  <si>
-    <t>09:30:11</t>
-  </si>
-  <si>
-    <t>09:39:28</t>
-  </si>
-  <si>
-    <t>09:50:18</t>
-  </si>
-  <si>
-    <t>09:46:55</t>
-  </si>
-  <si>
-    <t>09:42:31</t>
-  </si>
-  <si>
-    <t>09:42:26</t>
-  </si>
-  <si>
-    <t>09:42:11</t>
-  </si>
-  <si>
-    <t>09:40:08</t>
+    <t>sell</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>sell</t>
+    <t>open</t>
   </si>
   <si>
     <t>close</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1152,7 @@
         <v>104</v>
       </c>
       <c r="D2">
-        <v>20083548.15</v>
+        <v>25181148.15</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1212,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25449948.15</v>
+        <v>24675548.15</v>
       </c>
       <c r="H2">
-        <v>0.5290648106880333</v>
+        <v>0.5188125476353403</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1255,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="D4">
-        <v>4398796.310000001</v>
+        <v>3632756.31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1264,10 +1213,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3585196.310000001</v>
+        <v>3707876.31</v>
       </c>
       <c r="H4">
-        <v>0.5222261316005874</v>
+        <v>0.4801558226735993</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1281,7 +1230,7 @@
         <v>107</v>
       </c>
       <c r="D5">
-        <v>10851359.27</v>
+        <v>13527599.27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1290,10 +1239,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>13682159.27</v>
+        <v>13220619.11641359</v>
       </c>
       <c r="H5">
-        <v>0.5961401149513149</v>
+        <v>0.6147120591281816</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1307,7 +1256,7 @@
         <v>108</v>
       </c>
       <c r="D6">
-        <v>3552794.94</v>
+        <v>2851874.94</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1316,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2810074.94</v>
+        <v>2932834.940000002</v>
       </c>
       <c r="H6">
-        <v>0.6081608627846773</v>
+        <v>0.5540261328174162</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1333,7 +1282,7 @@
         <v>109</v>
       </c>
       <c r="D7">
-        <v>2334499.59</v>
+        <v>2765666.51</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1342,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2807979.59</v>
+        <v>2765666.51</v>
       </c>
       <c r="H7">
-        <v>0.3873002509964824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1359,7 +1308,7 @@
         <v>110</v>
       </c>
       <c r="D8">
-        <v>9376077.67</v>
+        <v>11736517.67</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1368,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>11887397.67</v>
+        <v>11452757.67</v>
       </c>
       <c r="H8">
-        <v>0.4849057262168633</v>
+        <v>0.4785759515681783</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1385,19 +1334,19 @@
         <v>111</v>
       </c>
       <c r="D9">
-        <v>3357711.14</v>
+        <v>4866461.6</v>
       </c>
       <c r="E9">
-        <v>2100000</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4770511.140000001</v>
+        <v>5026901.600000003</v>
       </c>
       <c r="H9">
-        <v>0.3290012231267947</v>
+        <v>0.6235806167361615</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1411,7 +1360,7 @@
         <v>112</v>
       </c>
       <c r="D10">
-        <v>2212941.43</v>
+        <v>2786421.43</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1420,10 +1369,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2823141.43</v>
+        <v>2715861.43</v>
       </c>
       <c r="H10">
-        <v>0.495283156961782</v>
+        <v>0.4895083325366861</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1463,19 +1412,19 @@
         <v>114</v>
       </c>
       <c r="D12">
-        <v>2572527.84</v>
+        <v>4037167.84</v>
       </c>
       <c r="E12">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4090927.840000002</v>
+        <v>3942607.840000002</v>
       </c>
       <c r="H12">
-        <v>0.4557252713604451</v>
+        <v>0.4495964275259999</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1489,7 +1438,7 @@
         <v>115</v>
       </c>
       <c r="D13">
-        <v>5313889.62</v>
+        <v>6652009.62</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1498,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>6746089.62</v>
+        <v>6493249.62</v>
       </c>
       <c r="H13">
-        <v>0.4836273728601905</v>
+        <v>0.4777298550860271</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1541,7 +1490,7 @@
         <v>116</v>
       </c>
       <c r="D15">
-        <v>10300018.29</v>
+        <v>11956738.29</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1550,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>12074258.29</v>
+        <v>11775960.49324</v>
       </c>
       <c r="H15">
-        <v>0.3345465620315134</v>
+        <v>0.3640210581940033</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1567,7 +1516,7 @@
         <v>117</v>
       </c>
       <c r="D16">
-        <v>14085935.6</v>
+        <v>18036575.6</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1576,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>18321775.6</v>
+        <v>17549074.1088</v>
       </c>
       <c r="H16">
-        <v>0.5257361191564854</v>
+        <v>0.538820358349184</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1593,7 +1542,7 @@
         <v>118</v>
       </c>
       <c r="D17">
-        <v>3256841.22</v>
+        <v>3958601.22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1602,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4009841.22</v>
+        <v>3872281.220000001</v>
       </c>
       <c r="H17">
-        <v>0.427384503768456</v>
+        <v>0.4208198494426496</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1619,7 +1568,7 @@
         <v>118</v>
       </c>
       <c r="D18">
-        <v>2027131.98</v>
+        <v>2473171.98</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1628,10 +1577,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2505091.98</v>
+        <v>2418011.98</v>
       </c>
       <c r="H18">
-        <v>0.4703056053055585</v>
+        <v>0.4632622208927187</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1645,7 +1594,7 @@
         <v>119</v>
       </c>
       <c r="D19">
-        <v>3278486.04</v>
+        <v>4234286.04</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1654,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4296686.04</v>
+        <v>4114886.04</v>
       </c>
       <c r="H19">
-        <v>0.5423770734712561</v>
+        <v>0.5384664310168842</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1671,7 +1620,7 @@
         <v>120</v>
       </c>
       <c r="D20">
-        <v>1295568.8</v>
+        <v>1231568.8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1680,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1227488.8</v>
+        <v>1239008.8</v>
       </c>
       <c r="H20">
-        <v>0.1278629996461068</v>
+        <v>0.1204756576385898</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1697,19 +1646,19 @@
         <v>121</v>
       </c>
       <c r="D21">
-        <v>1813605.34</v>
+        <v>4885082.71</v>
       </c>
       <c r="E21">
-        <v>3500000</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4837885.34</v>
+        <v>5033882.71</v>
       </c>
       <c r="H21">
-        <v>0.2838670004527226</v>
+        <v>0.7413283572512956</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1723,7 +1672,7 @@
         <v>122</v>
       </c>
       <c r="D22">
-        <v>11716618.49</v>
+        <v>14520298.49</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1732,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>14683978.49</v>
+        <v>14166538.49</v>
       </c>
       <c r="H22">
-        <v>0.4655353046625169</v>
+        <v>0.4587901839668107</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1749,7 +1698,7 @@
         <v>123</v>
       </c>
       <c r="D23">
-        <v>27485288.48</v>
+        <v>34558208.48</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1758,10 +1707,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>34931168.48</v>
+        <v>33648008.48</v>
       </c>
       <c r="H23">
-        <v>0.4936891134882521</v>
+        <v>0.4872914606445667</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1775,7 +1724,7 @@
         <v>124</v>
       </c>
       <c r="D24">
-        <v>9705615.029999999</v>
+        <v>12126975.03</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1784,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>12248575.03</v>
+        <v>11815375.03</v>
       </c>
       <c r="H24">
-        <v>0.4819940920099011</v>
+        <v>0.4750740104099771</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1801,19 +1750,19 @@
         <v>125</v>
       </c>
       <c r="D25">
-        <v>4510019.33</v>
+        <v>5310701.529999999</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>5372781.5263576</v>
+        <v>5172461.529999999</v>
       </c>
       <c r="H25">
-        <v>0.5012179234888107</v>
+        <v>0.4950054795284287</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1905,7 +1854,7 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>19414183.58</v>
+        <v>24511783.58</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1914,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>24678183.58</v>
+        <v>23842983.58</v>
       </c>
       <c r="H29">
-        <v>0.5036403088464253</v>
+        <v>0.4956265628565262</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1931,7 +1880,7 @@
         <v>128</v>
       </c>
       <c r="D30">
-        <v>37609740.17</v>
+        <v>47973254.66</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1940,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>48726340.17</v>
+        <v>46486414.66</v>
       </c>
       <c r="H30">
-        <v>0.5197176868126776</v>
+        <v>0.5693255587373345</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1957,19 +1906,19 @@
         <v>129</v>
       </c>
       <c r="D31">
-        <v>7909861.159999999</v>
+        <v>9886861.16</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="G31">
-        <v>9986021.159999998</v>
+        <v>7641590.171557201</v>
       </c>
       <c r="H31">
-        <v>0.4832497671174573</v>
+        <v>0.619915998326127</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1983,7 +1932,7 @@
         <v>130</v>
       </c>
       <c r="D32">
-        <v>16577419.51</v>
+        <v>20610184.23</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1992,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>20817544.232004</v>
+        <v>20098184.23</v>
       </c>
       <c r="H32">
-        <v>0.4773720420260799</v>
+        <v>0.4703794478054698</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2009,7 +1958,7 @@
         <v>131</v>
       </c>
       <c r="D33">
-        <v>4085666.11</v>
+        <v>4397666.11</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2018,10 +1967,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>2937826.11</v>
+        <v>4527546.11</v>
       </c>
       <c r="H33">
-        <v>0.9082078721126211</v>
+        <v>0.5604795044262949</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2035,19 +1984,19 @@
         <v>132</v>
       </c>
       <c r="D34">
-        <v>8540301.959999999</v>
+        <v>8420328.609999999</v>
       </c>
       <c r="E34">
-        <v>2200000</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>8300208.605655999</v>
+        <v>8675088.609999999</v>
       </c>
       <c r="H34">
-        <v>0.7800049742832117</v>
+        <v>0.709779954628037</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2061,7 +2010,7 @@
         <v>133</v>
       </c>
       <c r="D35">
-        <v>1068718.76</v>
+        <v>943078.76</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2070,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>930478.76</v>
+        <v>967438.76</v>
       </c>
       <c r="H35">
-        <v>0.3326107089215019</v>
+        <v>0.305618104447252</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2113,7 +2062,7 @@
         <v>135</v>
       </c>
       <c r="D37">
-        <v>7103342.55</v>
+        <v>6143342.55</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2122,10 +2071,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>6095342.55</v>
+        <v>6248342.55</v>
       </c>
       <c r="H37">
-        <v>0.386238505988478</v>
+        <v>0.3583439899593853</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2139,7 +2088,7 @@
         <v>136</v>
       </c>
       <c r="D38">
-        <v>1026479.95</v>
+        <v>834479.95</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2148,10 +2097,10 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>823679.9500000004</v>
+        <v>855479.9500000004</v>
       </c>
       <c r="H38">
-        <v>0.5716433913439314</v>
+        <v>0.523461946711901</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2165,7 +2114,7 @@
         <v>137</v>
       </c>
       <c r="D39">
-        <v>1619190.46</v>
+        <v>1937790.46</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2174,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1959390.46</v>
+        <v>1902390.46</v>
       </c>
       <c r="H39">
-        <v>0.4294917308110197</v>
+        <v>0.4205887365520115</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2191,7 +2140,7 @@
         <v>138</v>
       </c>
       <c r="D40">
-        <v>2930355.62</v>
+        <v>2418355.62</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2200,10 +2149,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>2382515.62</v>
+        <v>2472115.62</v>
       </c>
       <c r="H40">
-        <v>0.5270073318553942</v>
+        <v>0.483053134869153</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2217,7 +2166,7 @@
         <v>139</v>
       </c>
       <c r="D41">
-        <v>16395951.64</v>
+        <v>19836831.64</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2226,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>20072271.64</v>
+        <v>19460991.63999999</v>
       </c>
       <c r="H41">
-        <v>0.4527964628521742</v>
+        <v>0.4440338580814475</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2243,7 +2192,7 @@
         <v>140</v>
       </c>
       <c r="D42">
-        <v>1677962.36</v>
+        <v>1486522.36</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2252,10 +2201,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1472122.36</v>
+        <v>1507522.36</v>
       </c>
       <c r="H42">
-        <v>0.3441605220913838</v>
+        <v>0.3195701853470354</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2269,7 +2218,7 @@
         <v>141</v>
       </c>
       <c r="D43">
-        <v>35165474.33</v>
+        <v>45618634.33</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2278,10 +2227,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>46418074.33</v>
+        <v>44512416.53249799</v>
       </c>
       <c r="H43">
-        <v>0.5492855868758318</v>
+        <v>0.5746955207728046</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2295,7 +2244,7 @@
         <v>142</v>
       </c>
       <c r="D44">
-        <v>7899790.19</v>
+        <v>6736359.840000001</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2304,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>6634275.302904002</v>
+        <v>6832679.840000001</v>
       </c>
       <c r="H44">
-        <v>0.4470832856004135</v>
+        <v>0.304258248400528</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2321,7 +2270,7 @@
         <v>143</v>
       </c>
       <c r="D45">
-        <v>5263821.33</v>
+        <v>4623821.33</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2330,10 +2279,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>4574621.33</v>
+        <v>4693021.33</v>
       </c>
       <c r="H45">
-        <v>0.3430893809083866</v>
+        <v>0.3180688718497684</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2347,7 +2296,7 @@
         <v>144</v>
       </c>
       <c r="D46">
-        <v>3379036.38</v>
+        <v>4272236.38</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2356,10 +2305,10 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>4342636.38</v>
+        <v>4170956.38</v>
       </c>
       <c r="H46">
-        <v>0.5023256402600303</v>
+        <v>0.4973040739399916</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2373,19 +2322,19 @@
         <v>144</v>
       </c>
       <c r="D47">
-        <v>33502589.82</v>
+        <v>40085829.82</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>40714069.82</v>
+        <v>39210869.82</v>
       </c>
       <c r="H47">
-        <v>0.4920201318257699</v>
+        <v>0.4857408388906799</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2399,7 +2348,7 @@
         <v>145</v>
       </c>
       <c r="D48">
-        <v>2435559.78</v>
+        <v>1829559.78</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2408,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>2158599.78</v>
+        <v>1860279.78</v>
       </c>
       <c r="H48">
-        <v>0.2908374242491584</v>
+        <v>0.3209633338056279</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2425,7 +2374,7 @@
         <v>146</v>
       </c>
       <c r="D49">
-        <v>3459993.98</v>
+        <v>2883993.98</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2434,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>2833233.98</v>
+        <v>2953113.98</v>
       </c>
       <c r="H49">
-        <v>0.4985658120618757</v>
+        <v>0.4549210118872553</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2451,7 +2400,7 @@
         <v>147</v>
       </c>
       <c r="D50">
-        <v>3602564.98</v>
+        <v>2953931.11</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2460,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>2896731.107204</v>
+        <v>3027531.11</v>
       </c>
       <c r="H50">
-        <v>0.586970601369062</v>
+        <v>0.5341302669553742</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2477,7 +2426,7 @@
         <v>148</v>
       </c>
       <c r="D51">
-        <v>1811588.04</v>
+        <v>1524952.71</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2486,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1498352.794644</v>
+        <v>1565152.71</v>
       </c>
       <c r="H51">
-        <v>0.5210682042245601</v>
+        <v>0.4768557056646568</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2503,7 +2452,7 @@
         <v>149</v>
       </c>
       <c r="D52">
-        <v>8088077.790000001</v>
+        <v>7192077.790000001</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2512,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>7113117.790000001</v>
+        <v>7304637.790000001</v>
       </c>
       <c r="H52">
-        <v>0.3089089292305954</v>
+        <v>0.2860902429496096</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2529,7 +2478,7 @@
         <v>150</v>
       </c>
       <c r="D53">
-        <v>1982559.14</v>
+        <v>1726559.14</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2538,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>1704639.14</v>
+        <v>1756799.14</v>
       </c>
       <c r="H53">
-        <v>0.4296717016599772</v>
+        <v>0.3965138553061906</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2555,7 +2504,7 @@
         <v>151</v>
       </c>
       <c r="D54">
-        <v>5787737.35</v>
+        <v>5485732.220000001</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2564,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>5485732.222784</v>
+        <v>5485732.220000001</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2581,7 +2530,7 @@
         <v>152</v>
       </c>
       <c r="D55">
-        <v>4623062.36</v>
+        <v>3984742.36</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2590,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>3927302.36</v>
+        <v>4062262.359999999</v>
       </c>
       <c r="H55">
-        <v>0.3972118917780499</v>
+        <v>0.3651592803572638</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2607,7 +2556,7 @@
         <v>153</v>
       </c>
       <c r="D56">
-        <v>2524518.42</v>
+        <v>2268518.42</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2616,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>2246438.42</v>
+        <v>2298598.42</v>
       </c>
       <c r="H56">
-        <v>0.3027540812803585</v>
+        <v>0.281405570617246</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2633,7 +2582,7 @@
         <v>154</v>
       </c>
       <c r="D57">
-        <v>3926469.97</v>
+        <v>3286469.97</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2642,10 +2591,10 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>3230469.97</v>
+        <v>3361669.97</v>
       </c>
       <c r="H57">
-        <v>0.6073048250623422</v>
+        <v>0.5550455626671764</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2659,19 +2608,19 @@
         <v>155</v>
       </c>
       <c r="D58">
-        <v>2446056.35</v>
+        <v>1640056.35</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>550000</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>1617176.35</v>
+        <v>1670616.35</v>
       </c>
       <c r="H58">
-        <v>0.4529099130097963</v>
+        <v>0.4169689827350246</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2685,7 +2634,7 @@
         <v>156</v>
       </c>
       <c r="D59">
-        <v>5574383.5</v>
+        <v>7167383.5</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2694,10 +2643,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>7313383.5</v>
+        <v>6967848.15368</v>
       </c>
       <c r="H59">
-        <v>0.5753438199979529</v>
+        <v>0.4822896145096349</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2711,7 +2660,7 @@
         <v>157</v>
       </c>
       <c r="D60">
-        <v>2609505.69</v>
+        <v>2097505.69</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2720,10 +2669,10 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>2053665.69</v>
+        <v>2154785.69</v>
       </c>
       <c r="H60">
-        <v>0.7642451289138497</v>
+        <v>0.6927389609683179</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2737,7 +2686,7 @@
         <v>158</v>
       </c>
       <c r="D61">
-        <v>4173625.59</v>
+        <v>3597625.59</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2746,10 +2695,10 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>3548305.59</v>
+        <v>3662065.59</v>
       </c>
       <c r="H61">
-        <v>0.4976155393650861</v>
+        <v>0.4585641514957137</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2763,7 +2712,7 @@
         <v>159</v>
       </c>
       <c r="D62">
-        <v>3634929.77</v>
+        <v>2930929.77</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2772,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>2867129.770000002</v>
+        <v>3006609.77</v>
       </c>
       <c r="H62">
-        <v>0.6021542582636566</v>
+        <v>0.5461215540452393</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2789,7 +2738,7 @@
         <v>160</v>
       </c>
       <c r="D63">
-        <v>3462731.09</v>
+        <v>4291371.09</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2798,10 +2747,10 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>4372651.090000002</v>
+        <v>4200494.796008002</v>
       </c>
       <c r="H63">
-        <v>0.5778215430401512</v>
+        <v>0.6166059299636533</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2815,7 +2764,7 @@
         <v>161</v>
       </c>
       <c r="D64">
-        <v>2011552.62</v>
+        <v>1755552.62</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2824,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1731872.62</v>
+        <v>1781632.62</v>
       </c>
       <c r="H64">
-        <v>0.4531233942597926</v>
+        <v>0.4189146469489316</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2841,7 +2790,7 @@
         <v>162</v>
       </c>
       <c r="D65">
-        <v>3432745.54</v>
+        <v>2792745.54</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2850,10 +2799,10 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>2733945.54</v>
+        <v>2851145.54</v>
       </c>
       <c r="H65">
-        <v>0.5740801991249613</v>
+        <v>0.5235453536335433</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2867,7 +2816,7 @@
         <v>163</v>
       </c>
       <c r="D66">
-        <v>7696232.640000001</v>
+        <v>6608232.64</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2876,10 +2825,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>6515072.640000001</v>
+        <v>6689832.640000003</v>
       </c>
       <c r="H66">
-        <v>0.4095360017352008</v>
+        <v>0.3793214175235329</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2893,7 +2842,7 @@
         <v>164</v>
       </c>
       <c r="D67">
-        <v>1302268.44</v>
+        <v>1458725.69</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2902,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>1458726.172816</v>
+        <v>1458725.69</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2919,7 +2868,7 @@
         <v>165</v>
       </c>
       <c r="D68">
-        <v>6029772.19</v>
+        <v>7370132.19</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2928,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>7489252.19</v>
+        <v>7270372.19</v>
       </c>
       <c r="H68">
-        <v>0.4373339175803613</v>
+        <v>0.4283770787255942</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2945,7 +2894,7 @@
         <v>166</v>
       </c>
       <c r="D69">
-        <v>2869120.68</v>
+        <v>3536725.24</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2954,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>3590005.237476</v>
+        <v>3483565.24</v>
       </c>
       <c r="H69">
-        <v>0.5952810256907841</v>
+        <v>0.5847216456896327</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2971,7 +2920,7 @@
         <v>167</v>
       </c>
       <c r="D70">
-        <v>12030273.99</v>
+        <v>14833953.99</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2980,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>15060993.99</v>
+        <v>14640261.18713321</v>
       </c>
       <c r="H70">
-        <v>0.453881756047364</v>
+        <v>0.474429896517447</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2997,7 +2946,7 @@
         <v>167</v>
       </c>
       <c r="D71">
-        <v>7800594.23</v>
+        <v>9712194.23</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3006,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>9863394.23</v>
+        <v>9560994.23</v>
       </c>
       <c r="H71">
-        <v>0.4725399686270068</v>
+        <v>0.4634932197841105</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3049,7 +2998,7 @@
         <v>169</v>
       </c>
       <c r="D73">
-        <v>6396229.54</v>
+        <v>5438469.54</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3058,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>5374229.54</v>
+        <v>5523149.54</v>
       </c>
       <c r="H73">
-        <v>0.4356988443779796</v>
+        <v>0.4031421535618968</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3101,7 +3050,7 @@
         <v>171</v>
       </c>
       <c r="D75">
-        <v>1427536.64</v>
+        <v>1309433.96</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3110,10 +3059,10 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>1300554.1141384</v>
+        <v>1321673.96</v>
       </c>
       <c r="H75">
-        <v>0.2389160102006597</v>
+        <v>0.2235274424261185</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3153,7 +3102,7 @@
         <v>173</v>
       </c>
       <c r="D77">
-        <v>15189822.48</v>
+        <v>18891462.48</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3162,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>19136782.48</v>
+        <v>18530033.185568</v>
       </c>
       <c r="H77">
-        <v>0.4726153735327397</v>
+        <v>0.4881210470278363</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3179,19 +3128,19 @@
         <v>174</v>
       </c>
       <c r="D78">
-        <v>2976537.45</v>
+        <v>4568617.45</v>
       </c>
       <c r="E78">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>4629657.45</v>
+        <v>4481257.45</v>
       </c>
       <c r="H78">
-        <v>0.4698106552138108</v>
+        <v>0.4614804712904855</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3231,7 +3180,7 @@
         <v>175</v>
       </c>
       <c r="D80">
-        <v>2416473.3</v>
+        <v>2862513.3</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3240,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>2892753.3</v>
+        <v>2819113.3</v>
       </c>
       <c r="H80">
-        <v>0.3759502063311101</v>
+        <v>0.3667842651091746</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3257,7 +3206,7 @@
         <v>176</v>
       </c>
       <c r="D81">
-        <v>2332823.2</v>
+        <v>2204823.2</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3266,10 +3215,10 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>2196823.2</v>
+        <v>2215623.2</v>
       </c>
       <c r="H81">
-        <v>0.1428885128307094</v>
+        <v>0.1347434888748231</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3283,7 +3232,7 @@
         <v>177</v>
       </c>
       <c r="D82">
-        <v>3953399.08</v>
+        <v>4909199.08</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3292,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>4973999.08</v>
+        <v>4821599.08</v>
       </c>
       <c r="H82">
-        <v>0.5075646294651103</v>
+        <v>0.4978373274453172</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3309,7 +3258,7 @@
         <v>178</v>
       </c>
       <c r="D83">
-        <v>3231513.66</v>
+        <v>3868713.66</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3318,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>3911913.66</v>
+        <v>3810313.66</v>
       </c>
       <c r="H83">
-        <v>0.4633415145466169</v>
+        <v>0.4522840253523905</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3361,7 +3310,7 @@
         <v>179</v>
       </c>
       <c r="D85">
-        <v>4269928.04</v>
+        <v>5225728.04</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3370,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>5300728.04</v>
+        <v>5151928.04</v>
       </c>
       <c r="H85">
-        <v>0.5495528119944821</v>
+        <v>0.537596794539079</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3387,7 +3336,7 @@
         <v>180</v>
       </c>
       <c r="D86">
-        <v>15138930</v>
+        <v>19219123.55</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3396,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>19420248.5428384</v>
+        <v>19073964.9671464</v>
       </c>
       <c r="H86">
-        <v>0.5127713570726807</v>
+        <v>0.4278296627919652</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3413,7 +3362,7 @@
         <v>181</v>
       </c>
       <c r="D87">
-        <v>4455554.96</v>
+        <v>5729954.96</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3422,10 +3371,10 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>5831554.96</v>
+        <v>5659554.96</v>
       </c>
       <c r="H87">
-        <v>0.5328307837812097</v>
+        <v>0.5220028820075281</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3439,7 +3388,7 @@
         <v>182</v>
       </c>
       <c r="D88">
-        <v>7338020.959999999</v>
+        <v>7465460.959999999</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3448,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>7476580.959999999</v>
+        <v>7458420.959999999</v>
       </c>
       <c r="H88">
-        <v>0.04155953124327567</v>
+        <v>0.03961031451354283</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3465,19 +3414,19 @@
         <v>183</v>
       </c>
       <c r="D89">
-        <v>44901453.9</v>
+        <v>71037533.90000001</v>
       </c>
       <c r="E89">
-        <v>12500000</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="G89">
-        <v>72227373.90000001</v>
+        <v>67724333.90000001</v>
       </c>
       <c r="H89">
-        <v>0.4710705728704354</v>
+        <v>0.4776662528385515</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3491,19 +3440,19 @@
         <v>184</v>
       </c>
       <c r="D90">
-        <v>19349834.23</v>
+        <v>22408394.23</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="G90">
-        <v>22677194.22999999</v>
+        <v>16252129.857228</v>
       </c>
       <c r="H90">
-        <v>0.4110603765816933</v>
+        <v>0.6253558203929762</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3517,7 +3466,7 @@
         <v>185</v>
       </c>
       <c r="D91">
-        <v>1974750.54</v>
+        <v>2548790.54</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3526,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>2598870.54</v>
+        <v>2511630.54</v>
       </c>
       <c r="H91">
-        <v>0.5841837739251144</v>
+        <v>0.5747631974565814</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3543,7 +3492,7 @@
         <v>186</v>
       </c>
       <c r="D92">
-        <v>3642787.92</v>
+        <v>4407427.92</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3552,10 +3501,10 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>4475107.919999998</v>
+        <v>4357027.919999998</v>
       </c>
       <c r="H92">
-        <v>0.4166020648726614</v>
+        <v>0.4068329220162538</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3595,7 +3544,7 @@
         <v>187</v>
       </c>
       <c r="D94">
-        <v>5779862.34</v>
+        <v>7054262.340000001</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3604,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>7167062.34</v>
+        <v>6951862.340000001</v>
       </c>
       <c r="H94">
-        <v>0.5419291497330551</v>
+        <v>0.5312072966047828</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3621,19 +3570,19 @@
         <v>188</v>
       </c>
       <c r="D95">
-        <v>653934.9400000001</v>
+        <v>1902692.31</v>
       </c>
       <c r="E95">
-        <v>1600000</v>
+        <v>0</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>1860692.308546</v>
+        <v>1934052.31</v>
       </c>
       <c r="H95">
-        <v>0.7302475502044613</v>
+        <v>0.6753260980826314</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3647,7 +3596,7 @@
         <v>189</v>
       </c>
       <c r="D96">
-        <v>13176257.99</v>
+        <v>15979937.99</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3656,10 +3605,10 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>16256257.99000001</v>
+        <v>15765217.99</v>
       </c>
       <c r="H96">
-        <v>0.4205094680587061</v>
+        <v>0.4122663450719595</v>
       </c>
     </row>
   </sheetData>
@@ -3669,7 +3618,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3775,7 +3724,7 @@
         <v>197</v>
       </c>
       <c r="F5">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3803,19 +3752,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s">
         <v>197</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3829,13 +3778,13 @@
         <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
         <v>197</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3843,19 +3792,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F9">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3863,19 +3812,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3883,10 +3832,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
         <v>194</v>
@@ -3895,7 +3844,7 @@
         <v>197</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3903,10 +3852,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
         <v>194</v>
@@ -3915,7 +3864,7 @@
         <v>197</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3923,10 +3872,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
         <v>194</v>
@@ -3935,7 +3884,7 @@
         <v>197</v>
       </c>
       <c r="F13">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3943,10 +3892,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
         <v>194</v>
@@ -3955,7 +3904,7 @@
         <v>197</v>
       </c>
       <c r="F14">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3963,19 +3912,19 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E15" t="s">
         <v>197</v>
       </c>
       <c r="F15">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3989,13 +3938,13 @@
         <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
         <v>197</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4003,7 +3952,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>118</v>
@@ -4015,7 +3964,7 @@
         <v>197</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4023,10 +3972,10 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s">
         <v>194</v>
@@ -4035,7 +3984,7 @@
         <v>197</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4043,19 +3992,19 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4063,10 +4012,10 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
         <v>195</v>
@@ -4075,7 +4024,7 @@
         <v>198</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4083,19 +4032,19 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4103,10 +4052,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
         <v>194</v>
@@ -4115,7 +4064,7 @@
         <v>197</v>
       </c>
       <c r="F22">
-        <v>44</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4123,10 +4072,10 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
         <v>194</v>
@@ -4135,7 +4084,7 @@
         <v>197</v>
       </c>
       <c r="F23">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4143,10 +4092,10 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D24" t="s">
         <v>194</v>
@@ -4155,7 +4104,7 @@
         <v>197</v>
       </c>
       <c r="F24">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4163,10 +4112,10 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D25" t="s">
         <v>194</v>
@@ -4175,7 +4124,7 @@
         <v>197</v>
       </c>
       <c r="F25">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4183,7 +4132,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
         <v>128</v>
@@ -4195,7 +4144,7 @@
         <v>197</v>
       </c>
       <c r="F26">
-        <v>80</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4209,13 +4158,13 @@
         <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E27" t="s">
         <v>197</v>
       </c>
       <c r="F27">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4255,7 +4204,7 @@
         <v>197</v>
       </c>
       <c r="F29">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4515,7 +4464,7 @@
         <v>197</v>
       </c>
       <c r="F42">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4535,7 +4484,7 @@
         <v>198</v>
       </c>
       <c r="F43">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4783,10 +4732,10 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D56" t="s">
         <v>195</v>
@@ -4795,7 +4744,7 @@
         <v>198</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4809,13 +4758,13 @@
         <v>152</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E57" t="s">
         <v>198</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4823,19 +4772,19 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E58" t="s">
         <v>198</v>
       </c>
       <c r="F58">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4843,10 +4792,10 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D59" t="s">
         <v>195</v>
@@ -4855,7 +4804,7 @@
         <v>198</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4863,10 +4812,10 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D60" t="s">
         <v>195</v>
@@ -4875,7 +4824,7 @@
         <v>198</v>
       </c>
       <c r="F60">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4883,19 +4832,19 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F61">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4903,19 +4852,19 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D62" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E62" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F62">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4923,10 +4872,10 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D63" t="s">
         <v>195</v>
@@ -4935,7 +4884,7 @@
         <v>198</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4943,10 +4892,10 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D64" t="s">
         <v>195</v>
@@ -4955,7 +4904,7 @@
         <v>198</v>
       </c>
       <c r="F64">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4963,19 +4912,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D65" t="s">
         <v>195</v>
       </c>
       <c r="E65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F65">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4989,13 +4938,13 @@
         <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E66" t="s">
         <v>197</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5003,19 +4952,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E67" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F67">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5023,10 +4972,10 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D68" t="s">
         <v>195</v>
@@ -5035,7 +4984,7 @@
         <v>198</v>
       </c>
       <c r="F68">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5043,10 +4992,10 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D69" t="s">
         <v>195</v>
@@ -5055,7 +5004,7 @@
         <v>198</v>
       </c>
       <c r="F69">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5063,19 +5012,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D70" t="s">
         <v>195</v>
       </c>
       <c r="E70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F70">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5083,19 +5032,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E71" t="s">
         <v>197</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5103,10 +5052,10 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D72" t="s">
         <v>195</v>
@@ -5115,7 +5064,7 @@
         <v>197</v>
       </c>
       <c r="F72">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5123,10 +5072,10 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D73" t="s">
         <v>194</v>
@@ -5135,7 +5084,7 @@
         <v>197</v>
       </c>
       <c r="F73">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5143,19 +5092,19 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E74" t="s">
         <v>197</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5163,10 +5112,10 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D75" t="s">
         <v>194</v>
@@ -5175,7 +5124,7 @@
         <v>197</v>
       </c>
       <c r="F75">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5183,19 +5132,19 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F76">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5203,19 +5152,19 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D77" t="s">
         <v>194</v>
       </c>
       <c r="E77" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F77">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5223,19 +5172,19 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D78" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E78" t="s">
         <v>198</v>
       </c>
       <c r="F78">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5243,19 +5192,19 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D79" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F79">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5263,10 +5212,10 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D80" t="s">
         <v>194</v>
@@ -5275,7 +5224,7 @@
         <v>197</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5283,19 +5232,19 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D81" t="s">
         <v>194</v>
       </c>
       <c r="E81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5303,19 +5252,19 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D82" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E82" t="s">
         <v>197</v>
       </c>
       <c r="F82">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5323,19 +5272,19 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D83" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E83" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F83">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5343,10 +5292,10 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D84" t="s">
         <v>194</v>
@@ -5355,7 +5304,7 @@
         <v>197</v>
       </c>
       <c r="F84">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5363,10 +5312,10 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D85" t="s">
         <v>194</v>
@@ -5375,7 +5324,7 @@
         <v>197</v>
       </c>
       <c r="F85">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5383,19 +5332,19 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5403,19 +5352,19 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D87" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E87" t="s">
         <v>197</v>
       </c>
       <c r="F87">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5423,10 +5372,10 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D88" t="s">
         <v>194</v>
@@ -5435,7 +5384,7 @@
         <v>197</v>
       </c>
       <c r="F88">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5443,10 +5392,10 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D89" t="s">
         <v>194</v>
@@ -5455,7 +5404,7 @@
         <v>197</v>
       </c>
       <c r="F89">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5463,10 +5412,10 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D90" t="s">
         <v>194</v>
@@ -5475,7 +5424,7 @@
         <v>197</v>
       </c>
       <c r="F90">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5483,19 +5432,19 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E91" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F91">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5503,10 +5452,10 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D92" t="s">
         <v>194</v>
@@ -5515,7 +5464,7 @@
         <v>197</v>
       </c>
       <c r="F92">
-        <v>20</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5523,10 +5472,10 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D93" t="s">
         <v>194</v>
@@ -5535,7 +5484,7 @@
         <v>197</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5543,19 +5492,19 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D94" t="s">
         <v>194</v>
       </c>
       <c r="E94" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F94">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5563,19 +5512,19 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D95" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E95" t="s">
         <v>197</v>
       </c>
       <c r="F95">
-        <v>219</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5583,10 +5532,10 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D96" t="s">
         <v>194</v>
@@ -5595,7 +5544,7 @@
         <v>197</v>
       </c>
       <c r="F96">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5603,10 +5552,10 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D97" t="s">
         <v>194</v>
@@ -5615,7 +5564,7 @@
         <v>197</v>
       </c>
       <c r="F97">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5623,19 +5572,19 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D98" t="s">
         <v>195</v>
       </c>
       <c r="E98" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5643,10 +5592,10 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D99" t="s">
         <v>194</v>
@@ -5655,66 +5604,6 @@
         <v>197</v>
       </c>
       <c r="F99">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100" t="s">
-        <v>187</v>
-      </c>
-      <c r="D100" t="s">
-        <v>194</v>
-      </c>
-      <c r="E100" t="s">
-        <v>197</v>
-      </c>
-      <c r="F100">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" t="s">
-        <v>102</v>
-      </c>
-      <c r="C101" t="s">
-        <v>188</v>
-      </c>
-      <c r="D101" t="s">
-        <v>195</v>
-      </c>
-      <c r="E101" t="s">
-        <v>198</v>
-      </c>
-      <c r="F101">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>103</v>
-      </c>
-      <c r="C102" t="s">
-        <v>189</v>
-      </c>
-      <c r="D102" t="s">
-        <v>194</v>
-      </c>
-      <c r="E102" t="s">
-        <v>197</v>
-      </c>
-      <c r="F102">
         <v>44</v>
       </c>
     </row>
@@ -5725,7 +5614,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5756,16 +5645,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
         <v>194</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5773,16 +5662,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
         <v>194</v>
       </c>
       <c r="E3">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5790,16 +5679,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E4">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5807,16 +5696,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
         <v>194</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5824,16 +5713,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5841,16 +5730,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5858,16 +5747,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
         <v>195</v>
       </c>
       <c r="E8">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5875,16 +5764,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5892,16 +5781,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D10" t="s">
         <v>194</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5909,16 +5798,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D11" t="s">
         <v>194</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5926,33 +5815,16 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E12">
-        <v>-18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13">
-        <v>7</v>
+        <v>-7</v>
       </c>
     </row>
   </sheetData>
@@ -5962,7 +5834,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6005,10 +5877,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
         <v>203</v>
@@ -6017,16 +5889,16 @@
         <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G2" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>6317.4</v>
+        <v>6196.8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6034,10 +5906,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
         <v>204</v>
@@ -6046,16 +5918,16 @@
         <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G3" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>6359.6</v>
+        <v>6197.4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6063,10 +5935,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
         <v>205</v>
@@ -6075,16 +5947,16 @@
         <v>194</v>
       </c>
       <c r="F4" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G4" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>6361</v>
+        <v>6193.4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6092,28 +5964,28 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
         <v>206</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G5" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>6265.8</v>
+        <v>6196.8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6121,28 +5993,28 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F6" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G6" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>6285.8</v>
+        <v>6197.4</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6150,28 +6022,28 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F7" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G7" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>6288.6</v>
+        <v>6197.2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6179,28 +6051,28 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F8" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>6279</v>
+        <v>6196.8</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6208,28 +6080,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
         <v>194</v>
       </c>
       <c r="F9" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>6439.4</v>
+        <v>6193.4</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6237,28 +6109,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E10" t="s">
         <v>194</v>
       </c>
       <c r="F10" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G10" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>6456.6</v>
+        <v>6193.6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6266,28 +6138,28 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E11" t="s">
         <v>194</v>
       </c>
       <c r="F11" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G11" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>6460</v>
+        <v>6192.6</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6295,28 +6167,28 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E12" t="s">
         <v>194</v>
       </c>
       <c r="F12" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G12" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>6440</v>
+        <v>6190.8</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6324,28 +6196,28 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E13" t="s">
         <v>194</v>
       </c>
       <c r="F13" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G13" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>6436.4</v>
+        <v>6199</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6353,28 +6225,28 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E14" t="s">
         <v>194</v>
       </c>
       <c r="F14" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>6439.4</v>
+        <v>6205.2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6382,28 +6254,28 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E15" t="s">
         <v>194</v>
       </c>
       <c r="F15" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G15" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>6439.4</v>
+        <v>6203.4</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6411,28 +6283,28 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F16" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G16" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>6496.6</v>
+        <v>6199.4</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6440,28 +6312,28 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F17" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G17" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>6372.6</v>
+        <v>6198</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6469,28 +6341,28 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F18" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G18" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>6239.8</v>
+        <v>6196.6</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6498,28 +6370,28 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D19" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F19" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="G19" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>6231</v>
+        <v>6192.4</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6527,28 +6399,28 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F20" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="G20" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>6236.2</v>
+        <v>6190.2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -6556,28 +6428,28 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F21" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="G21" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>6238.6</v>
+        <v>6192.2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6585,28 +6457,28 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D22" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F22" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="G22" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>6243.2</v>
+        <v>6197.2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6614,28 +6486,28 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E23" t="s">
         <v>195</v>
       </c>
       <c r="F23" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G23" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>6408.8</v>
+        <v>6257.8</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -6643,28 +6515,28 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D24" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F24" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G24" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>6410</v>
+        <v>6203.8</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6672,28 +6544,28 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D25" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F25" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>6410.2</v>
+        <v>6193.4</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -6701,28 +6573,28 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D26" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="E26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F26" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G26" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>6407.2</v>
+        <v>6199</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6730,28 +6602,28 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D27" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G27" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>6408.6</v>
+        <v>6183.4</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6759,28 +6631,28 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D28" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G28" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>6409.4</v>
+        <v>6170.6</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6788,28 +6660,28 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D29" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E29" t="s">
         <v>194</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G29" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>6302.8</v>
+        <v>6177.6</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -6817,28 +6689,28 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D30" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E30" t="s">
         <v>194</v>
       </c>
       <c r="F30" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G30" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>6452.4</v>
+        <v>6195.4</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6846,28 +6718,28 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D31" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E31" t="s">
         <v>194</v>
       </c>
       <c r="F31" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G31" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>6447.4</v>
+        <v>6158.6</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6881,22 +6753,22 @@
         <v>180</v>
       </c>
       <c r="D32" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F32" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G32" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>6505.2</v>
+        <v>6166.8</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -6910,22 +6782,22 @@
         <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F33" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G33" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>6517</v>
+        <v>6184</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -6939,22 +6811,22 @@
         <v>180</v>
       </c>
       <c r="D34" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F34" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G34" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>6513.6</v>
+        <v>6185.4</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -6968,22 +6840,22 @@
         <v>180</v>
       </c>
       <c r="D35" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F35" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G35" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>6500.4</v>
+        <v>6188</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -6997,22 +6869,22 @@
         <v>180</v>
       </c>
       <c r="D36" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F36" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G36" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>6499.2</v>
+        <v>6185.4</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -7026,22 +6898,22 @@
         <v>180</v>
       </c>
       <c r="D37" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F37" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G37" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>6494</v>
+        <v>6190.4</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -7055,22 +6927,22 @@
         <v>180</v>
       </c>
       <c r="D38" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="E38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F38" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G38" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>6496.6</v>
+        <v>6193.6</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -7084,22 +6956,22 @@
         <v>180</v>
       </c>
       <c r="D39" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F39" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G39" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>6516.8</v>
+        <v>6196.4</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -7113,22 +6985,22 @@
         <v>180</v>
       </c>
       <c r="D40" t="s">
+        <v>234</v>
+      </c>
+      <c r="E40" t="s">
+        <v>194</v>
+      </c>
+      <c r="F40" t="s">
         <v>240</v>
       </c>
-      <c r="E40" t="s">
-        <v>195</v>
-      </c>
-      <c r="F40" t="s">
-        <v>258</v>
-      </c>
       <c r="G40" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>6522.4</v>
+        <v>6195.4</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -7136,28 +7008,28 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C41" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D41" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F41" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G41" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>6518.2</v>
+        <v>6190.6</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -7165,28 +7037,28 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D42" t="s">
+        <v>231</v>
+      </c>
+      <c r="E42" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" t="s">
+        <v>240</v>
+      </c>
+      <c r="G42" t="s">
         <v>242</v>
-      </c>
-      <c r="E42" t="s">
-        <v>195</v>
-      </c>
-      <c r="F42" t="s">
-        <v>258</v>
-      </c>
-      <c r="G42" t="s">
-        <v>260</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42">
-        <v>6514.2</v>
+        <v>6189.4</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -7194,28 +7066,28 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F43" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G43" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43">
-        <v>6509.4</v>
+        <v>6195.4</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -7223,28 +7095,28 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D44" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F44" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G44" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>6509</v>
+        <v>6195.2</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -7252,28 +7124,28 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D45" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F45" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G45" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>6507.4</v>
+        <v>6195.6</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -7281,28 +7153,28 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D46" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F46" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G46" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>6505.2</v>
+        <v>6192.6</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -7310,289 +7182,28 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C47" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D47" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F47" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="G47" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>6505.8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>93</v>
-      </c>
-      <c r="C48" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" t="s">
-        <v>248</v>
-      </c>
-      <c r="E48" t="s">
-        <v>195</v>
-      </c>
-      <c r="F48" t="s">
-        <v>258</v>
-      </c>
-      <c r="G48" t="s">
-        <v>260</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>6506.2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" t="s">
-        <v>180</v>
-      </c>
-      <c r="D49" t="s">
-        <v>249</v>
-      </c>
-      <c r="E49" t="s">
-        <v>195</v>
-      </c>
-      <c r="F49" t="s">
-        <v>258</v>
-      </c>
-      <c r="G49" t="s">
-        <v>260</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>6505.8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>102</v>
-      </c>
-      <c r="C50" t="s">
-        <v>188</v>
-      </c>
-      <c r="D50" t="s">
-        <v>250</v>
-      </c>
-      <c r="E50" t="s">
-        <v>195</v>
-      </c>
-      <c r="F50" t="s">
-        <v>257</v>
-      </c>
-      <c r="G50" t="s">
-        <v>260</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>6478.6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C51" t="s">
-        <v>188</v>
-      </c>
-      <c r="D51" t="s">
-        <v>251</v>
-      </c>
-      <c r="E51" t="s">
-        <v>195</v>
-      </c>
-      <c r="F51" t="s">
-        <v>257</v>
-      </c>
-      <c r="G51" t="s">
-        <v>260</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>6470.4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" t="s">
-        <v>188</v>
-      </c>
-      <c r="D52" t="s">
-        <v>252</v>
-      </c>
-      <c r="E52" t="s">
-        <v>195</v>
-      </c>
-      <c r="F52" t="s">
-        <v>257</v>
-      </c>
-      <c r="G52" t="s">
-        <v>260</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>6464</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" t="s">
-        <v>188</v>
-      </c>
-      <c r="D53" t="s">
-        <v>253</v>
-      </c>
-      <c r="E53" t="s">
-        <v>195</v>
-      </c>
-      <c r="F53" t="s">
-        <v>257</v>
-      </c>
-      <c r="G53" t="s">
-        <v>260</v>
-      </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-      <c r="I53">
-        <v>6476.4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" t="s">
-        <v>188</v>
-      </c>
-      <c r="D54" t="s">
-        <v>254</v>
-      </c>
-      <c r="E54" t="s">
-        <v>195</v>
-      </c>
-      <c r="F54" t="s">
-        <v>257</v>
-      </c>
-      <c r="G54" t="s">
-        <v>260</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-      <c r="I54">
-        <v>6473</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" t="s">
-        <v>188</v>
-      </c>
-      <c r="D55" t="s">
-        <v>255</v>
-      </c>
-      <c r="E55" t="s">
-        <v>195</v>
-      </c>
-      <c r="F55" t="s">
-        <v>257</v>
-      </c>
-      <c r="G55" t="s">
-        <v>260</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>6464</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" t="s">
-        <v>102</v>
-      </c>
-      <c r="C56" t="s">
-        <v>188</v>
-      </c>
-      <c r="D56" t="s">
-        <v>256</v>
-      </c>
-      <c r="E56" t="s">
-        <v>195</v>
-      </c>
-      <c r="F56" t="s">
-        <v>257</v>
-      </c>
-      <c r="G56" t="s">
-        <v>260</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>6465.8</v>
+        <v>6189.6</v>
       </c>
     </row>
   </sheetData>

--- a/info_faccts.xlsx
+++ b/info_faccts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="229">
   <si>
     <t>DataDateTime</t>
   </si>
@@ -43,7 +43,7 @@
     <t>CurrentMarginRate</t>
   </si>
   <si>
-    <t>20200727T093609</t>
+    <t>20200730T093648</t>
   </si>
   <si>
     <t>10_f_xb_3670</t>
@@ -271,7 +271,7 @@
     <t>810_f_xz_8069</t>
   </si>
   <si>
-    <t>811_f_huat_5696</t>
+    <t>8111_f_huat_5696</t>
   </si>
   <si>
     <t>812_f_fzzq_0006</t>
@@ -538,7 +538,7 @@
     <t>810</t>
   </si>
   <si>
-    <t>811</t>
+    <t>8111</t>
   </si>
   <si>
     <t>812</t>
@@ -628,127 +628,82 @@
     <t>Price</t>
   </si>
   <si>
+    <t>09:32:00</t>
+  </si>
+  <si>
+    <t>09:32:06</t>
+  </si>
+  <si>
+    <t>09:32:34</t>
+  </si>
+  <si>
+    <t>09:32:40</t>
+  </si>
+  <si>
+    <t>09:30:04</t>
+  </si>
+  <si>
+    <t>09:30:25</t>
+  </si>
+  <si>
+    <t>09:30:22</t>
+  </si>
+  <si>
+    <t>09:30:09</t>
+  </si>
+  <si>
+    <t>09:32:52</t>
+  </si>
+  <si>
+    <t>09:33:18</t>
+  </si>
+  <si>
+    <t>09:33:11</t>
+  </si>
+  <si>
+    <t>09:33:01</t>
+  </si>
+  <si>
+    <t>09:32:56</t>
+  </si>
+  <si>
+    <t>09:33:21</t>
+  </si>
+  <si>
     <t>09:30:14</t>
   </si>
   <si>
-    <t>09:30:18</t>
-  </si>
-  <si>
-    <t>09:30:07</t>
-  </si>
-  <si>
-    <t>09:30:17</t>
-  </si>
-  <si>
-    <t>09:30:08</t>
-  </si>
-  <si>
-    <t>09:31:06</t>
-  </si>
-  <si>
-    <t>09:31:00</t>
-  </si>
-  <si>
-    <t>09:30:51</t>
+    <t>09:30:39</t>
   </si>
   <si>
     <t>09:30:34</t>
   </si>
   <si>
-    <t>09:30:30</t>
+    <t>09:30:29</t>
   </si>
   <si>
     <t>09:30:24</t>
   </si>
   <si>
-    <t>09:30:19</t>
-  </si>
-  <si>
-    <t>09:34:27</t>
-  </si>
-  <si>
-    <t>09:34:56</t>
-  </si>
-  <si>
-    <t>09:34:50</t>
-  </si>
-  <si>
-    <t>09:34:42</t>
-  </si>
-  <si>
-    <t>09:30:16</t>
-  </si>
-  <si>
-    <t>09:30:54</t>
-  </si>
-  <si>
-    <t>09:32:18</t>
-  </si>
-  <si>
-    <t>09:32:41</t>
-  </si>
-  <si>
-    <t>09:32:29</t>
-  </si>
-  <si>
-    <t>09:31:27</t>
-  </si>
-  <si>
-    <t>09:33:04</t>
-  </si>
-  <si>
-    <t>09:32:47</t>
-  </si>
-  <si>
-    <t>09:32:17</t>
-  </si>
-  <si>
-    <t>09:32:11</t>
-  </si>
-  <si>
-    <t>09:32:00</t>
-  </si>
-  <si>
-    <t>09:31:55</t>
-  </si>
-  <si>
-    <t>09:31:47</t>
-  </si>
-  <si>
-    <t>09:31:40</t>
-  </si>
-  <si>
-    <t>09:31:34</t>
-  </si>
-  <si>
-    <t>09:31:30</t>
-  </si>
-  <si>
-    <t>09:30:59</t>
-  </si>
-  <si>
-    <t>09:31:25</t>
-  </si>
-  <si>
-    <t>09:31:21</t>
-  </si>
-  <si>
-    <t>09:31:17</t>
-  </si>
-  <si>
-    <t>09:31:10</t>
+    <t>09:33:10</t>
+  </si>
+  <si>
+    <t>09:33:15</t>
+  </si>
+  <si>
+    <t>09:31:31</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>sell</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>close</t>
   </si>
   <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>close</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1107,7 @@
         <v>104</v>
       </c>
       <c r="D2">
-        <v>25181148.15</v>
+        <v>16203548.15</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1161,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>24675548.15</v>
+        <v>15496348.15</v>
       </c>
       <c r="H2">
-        <v>0.5188125476353403</v>
+        <v>0.8594974681179972</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1204,7 +1159,7 @@
         <v>106</v>
       </c>
       <c r="D4">
-        <v>3632756.31</v>
+        <v>4233596.310000001</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1213,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3707876.31</v>
+        <v>4337476.310000001</v>
       </c>
       <c r="H4">
-        <v>0.4801558226735993</v>
+        <v>0.4270822634187482</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1230,7 +1185,7 @@
         <v>107</v>
       </c>
       <c r="D5">
-        <v>13527599.27</v>
+        <v>9035964.440000001</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1239,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>13220619.11641359</v>
+        <v>8618421.756487202</v>
       </c>
       <c r="H5">
-        <v>0.6147120591281816</v>
+        <v>0.9807466191402964</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1256,7 +1211,7 @@
         <v>108</v>
       </c>
       <c r="D6">
-        <v>2851874.94</v>
+        <v>3398794.94</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1265,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2932834.940000002</v>
+        <v>3499114.94</v>
       </c>
       <c r="H6">
-        <v>0.5540261328174162</v>
+        <v>0.4831214832857134</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1282,7 +1237,7 @@
         <v>109</v>
       </c>
       <c r="D7">
-        <v>2765666.51</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1291,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2765666.51</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -1308,7 +1263,7 @@
         <v>110</v>
       </c>
       <c r="D8">
-        <v>11736517.67</v>
+        <v>9687107.43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1317,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>11452757.67</v>
+        <v>9338147.43</v>
       </c>
       <c r="H8">
-        <v>0.4785759515681783</v>
+        <v>0.6929840472651432</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1334,7 +1289,7 @@
         <v>111</v>
       </c>
       <c r="D9">
-        <v>4866461.6</v>
+        <v>5433321.52</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1343,10 +1298,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5026901.600000003</v>
+        <v>5498521.52</v>
       </c>
       <c r="H9">
-        <v>0.6235806167361615</v>
+        <v>0.2825079422440817</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1360,7 +1315,7 @@
         <v>112</v>
       </c>
       <c r="D10">
-        <v>2786421.43</v>
+        <v>2092668.54</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1369,10 +1324,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2715861.43</v>
+        <v>2001468.54</v>
       </c>
       <c r="H10">
-        <v>0.4895083325366861</v>
+        <v>0.7678441950429059</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1412,7 +1367,7 @@
         <v>114</v>
       </c>
       <c r="D12">
-        <v>4037167.84</v>
+        <v>3440527.84</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1421,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3942607.840000002</v>
+        <v>3340207.840000002</v>
       </c>
       <c r="H12">
-        <v>0.4495964275259999</v>
+        <v>0.552115104310395</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1438,7 +1393,7 @@
         <v>115</v>
       </c>
       <c r="D13">
-        <v>6652009.62</v>
+        <v>4561419.59</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1447,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>6493249.62</v>
+        <v>4377499.59</v>
       </c>
       <c r="H13">
-        <v>0.4777298550860271</v>
+        <v>0.772357628022074</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1490,7 +1445,7 @@
         <v>116</v>
       </c>
       <c r="D15">
-        <v>11956738.29</v>
+        <v>10539400.49</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1499,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>11775960.49324</v>
+        <v>10275572.56332</v>
       </c>
       <c r="H15">
-        <v>0.3640210581940033</v>
+        <v>0.4038123593046132</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1516,7 +1471,7 @@
         <v>117</v>
       </c>
       <c r="D16">
-        <v>18036575.6</v>
+        <v>14871314.11</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1525,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>17549074.1088</v>
+        <v>14308114.11</v>
       </c>
       <c r="H16">
-        <v>0.538820358349184</v>
+        <v>0.68741570862409</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1542,7 +1497,7 @@
         <v>118</v>
       </c>
       <c r="D17">
-        <v>3958601.22</v>
+        <v>3382807.12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1551,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3872281.220000001</v>
+        <v>3283927.12</v>
       </c>
       <c r="H17">
-        <v>0.4208198494426496</v>
+        <v>0.5635944807447493</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1568,7 +1523,7 @@
         <v>118</v>
       </c>
       <c r="D18">
-        <v>2473171.98</v>
+        <v>2125131.98</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1577,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2418011.98</v>
+        <v>2062971.98</v>
       </c>
       <c r="H18">
-        <v>0.4632622208927187</v>
+        <v>0.5649222632679675</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1594,7 +1549,7 @@
         <v>119</v>
       </c>
       <c r="D19">
-        <v>4234286.04</v>
+        <v>3450488.67</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1603,10 +1558,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4114886.04</v>
+        <v>3305848.67</v>
       </c>
       <c r="H19">
-        <v>0.5384664310168842</v>
+        <v>0.7438046460850249</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1620,7 +1575,7 @@
         <v>120</v>
       </c>
       <c r="D20">
-        <v>1231568.8</v>
+        <v>1282128.8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1629,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1239008.8</v>
+        <v>1289088.8</v>
       </c>
       <c r="H20">
-        <v>0.1204756576385898</v>
+        <v>0.1205018614699003</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1646,7 +1601,7 @@
         <v>121</v>
       </c>
       <c r="D21">
-        <v>4885082.71</v>
+        <v>5896282.71</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1655,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5033882.71</v>
+        <v>6031482.71</v>
       </c>
       <c r="H21">
-        <v>0.7413283572512956</v>
+        <v>0.6438615820884944</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1672,7 +1627,7 @@
         <v>122</v>
       </c>
       <c r="D22">
-        <v>14520298.49</v>
+        <v>12332618.49</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1681,10 +1636,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>14166538.49</v>
+        <v>11955367.35592</v>
       </c>
       <c r="H22">
-        <v>0.4587901839668107</v>
+        <v>0.6179367459036557</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1698,7 +1653,7 @@
         <v>123</v>
       </c>
       <c r="D23">
-        <v>34558208.48</v>
+        <v>23012234.83</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1707,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>33648008.48</v>
+        <v>22014034.83</v>
       </c>
       <c r="H23">
-        <v>0.4872914606445667</v>
+        <v>0.8028234776804876</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1724,7 +1679,7 @@
         <v>124</v>
       </c>
       <c r="D24">
-        <v>12126975.03</v>
+        <v>10190658.73</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1733,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>11815375.03</v>
+        <v>9859938.73</v>
       </c>
       <c r="H24">
-        <v>0.4750740104099771</v>
+        <v>0.6078721748811513</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1750,7 +1705,7 @@
         <v>125</v>
       </c>
       <c r="D25">
-        <v>5310701.529999999</v>
+        <v>4468910.43</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1759,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>5172461.529999999</v>
+        <v>4324750.43</v>
       </c>
       <c r="H25">
-        <v>0.4950054795284287</v>
+        <v>0.6544430356874951</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1854,7 +1809,7 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>24511783.58</v>
+        <v>20534183.58</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1863,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>23842983.58</v>
+        <v>19846183.58</v>
       </c>
       <c r="H29">
-        <v>0.4956265628565262</v>
+        <v>0.619490792798561</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1880,7 +1835,7 @@
         <v>128</v>
       </c>
       <c r="D30">
-        <v>47973254.66</v>
+        <v>39059934.66</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1889,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>46486414.66</v>
+        <v>37547176.230392</v>
       </c>
       <c r="H30">
-        <v>0.5693255587373345</v>
+        <v>0.7128923420433902</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1906,19 +1861,19 @@
         <v>129</v>
       </c>
       <c r="D31">
-        <v>9886861.16</v>
+        <v>6298470.17</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>7641590.171557201</v>
+        <v>6042470.169999996</v>
       </c>
       <c r="H31">
-        <v>0.619915998326127</v>
+        <v>0.8155186639506413</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1932,7 +1887,7 @@
         <v>130</v>
       </c>
       <c r="D32">
-        <v>20610184.23</v>
+        <v>13049908.18</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1941,10 +1896,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>20098184.23</v>
+        <v>12503428.18</v>
       </c>
       <c r="H32">
-        <v>0.4703794478054698</v>
+        <v>0.8480898396298853</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1958,7 +1913,7 @@
         <v>131</v>
       </c>
       <c r="D33">
-        <v>4397666.11</v>
+        <v>4320921.27</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1967,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>4527546.11</v>
+        <v>4265481.27</v>
       </c>
       <c r="H33">
-        <v>0.5604795044262949</v>
+        <v>0.2522039441518869</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1984,7 +1939,7 @@
         <v>132</v>
       </c>
       <c r="D34">
-        <v>8420328.609999999</v>
+        <v>9917225.52</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1993,10 +1948,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>8675088.609999999</v>
+        <v>10075625.52</v>
       </c>
       <c r="H34">
-        <v>0.709779954628037</v>
+        <v>0.578143757768401</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2010,7 +1965,7 @@
         <v>133</v>
       </c>
       <c r="D35">
-        <v>943078.76</v>
+        <v>1049278.76</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2019,10 +1974,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>967438.76</v>
+        <v>1056118.76</v>
       </c>
       <c r="H35">
-        <v>0.305618104447252</v>
+        <v>0.2910172715803288</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2062,7 +2017,7 @@
         <v>135</v>
       </c>
       <c r="D37">
-        <v>6143342.55</v>
+        <v>6901742.55</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2071,10 +2026,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>6248342.55</v>
+        <v>6976142.55</v>
       </c>
       <c r="H37">
-        <v>0.3583439899593853</v>
+        <v>0.334004642723363</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2088,7 +2043,7 @@
         <v>136</v>
       </c>
       <c r="D38">
-        <v>834479.95</v>
+        <v>986159.95</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2097,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>855479.9500000004</v>
+        <v>1001519.95</v>
       </c>
       <c r="H38">
-        <v>0.523461946711901</v>
+        <v>0.4653055588158778</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2114,7 +2069,7 @@
         <v>137</v>
       </c>
       <c r="D39">
-        <v>1937790.46</v>
+        <v>1700397.25</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2123,10 +2078,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1902390.46</v>
+        <v>1672717.25</v>
       </c>
       <c r="H39">
-        <v>0.4205887365520115</v>
+        <v>0.3981268202979314</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2140,7 +2095,7 @@
         <v>138</v>
       </c>
       <c r="D40">
-        <v>2418355.62</v>
+        <v>2822835.62</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2149,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>2472115.62</v>
+        <v>2863795.62</v>
       </c>
       <c r="H40">
-        <v>0.483053134869153</v>
+        <v>0.4339348769588522</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2166,7 +2121,7 @@
         <v>139</v>
       </c>
       <c r="D41">
-        <v>19836831.64</v>
+        <v>17012221.06</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2175,10 +2130,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>19460991.63999999</v>
+        <v>16564461.06</v>
       </c>
       <c r="H41">
-        <v>0.4440338580814475</v>
+        <v>0.5829545051313617</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2192,7 +2147,7 @@
         <v>140</v>
       </c>
       <c r="D42">
-        <v>1486522.36</v>
+        <v>1636522.36</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2201,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1507522.36</v>
+        <v>1656122.36</v>
       </c>
       <c r="H42">
-        <v>0.3195701853470354</v>
+        <v>0.302670389644398</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2218,7 +2173,7 @@
         <v>141</v>
       </c>
       <c r="D43">
-        <v>45618634.33</v>
+        <v>37084616.53</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2227,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>44512416.53249799</v>
+        <v>35844656.53</v>
       </c>
       <c r="H43">
-        <v>0.5746955207728046</v>
+        <v>0.7422342791242266</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2244,7 +2199,7 @@
         <v>142</v>
       </c>
       <c r="D44">
-        <v>6736359.840000001</v>
+        <v>7438319.840000001</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2253,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>6832679.840000001</v>
+        <v>7523999.840000001</v>
       </c>
       <c r="H44">
-        <v>0.304258248400528</v>
+        <v>0.2874979327484941</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2270,7 +2225,7 @@
         <v>143</v>
       </c>
       <c r="D45">
-        <v>4623821.33</v>
+        <v>5129421.33</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2279,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>4693021.33</v>
+        <v>5177821.33</v>
       </c>
       <c r="H45">
-        <v>0.3180688718497684</v>
+        <v>0.3000057168832436</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2296,7 +2251,7 @@
         <v>144</v>
       </c>
       <c r="D46">
-        <v>4272236.38</v>
+        <v>2622796.38</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2305,10 +2260,10 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>4170956.38</v>
+        <v>2522156.38</v>
       </c>
       <c r="H46">
-        <v>0.4973040739399916</v>
+        <v>0.855683024698096</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2322,7 +2277,7 @@
         <v>144</v>
       </c>
       <c r="D47">
-        <v>40085829.82</v>
+        <v>21808870.57</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2331,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>39210869.82</v>
+        <v>20785790.57</v>
       </c>
       <c r="H47">
-        <v>0.4857408388906799</v>
+        <v>1.033426730999724</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2348,7 +2303,7 @@
         <v>145</v>
       </c>
       <c r="D48">
-        <v>1829559.78</v>
+        <v>2031799.78</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2357,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>1860279.78</v>
+        <v>2056119.78</v>
       </c>
       <c r="H48">
-        <v>0.3209633338056279</v>
+        <v>0.302195624031203</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2374,7 +2329,7 @@
         <v>146</v>
       </c>
       <c r="D49">
-        <v>2883993.98</v>
+        <v>3339033.98</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2383,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>2953113.98</v>
+        <v>3386193.98</v>
       </c>
       <c r="H49">
-        <v>0.4549210118872553</v>
+        <v>0.4128642388053622</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2400,7 +2355,7 @@
         <v>147</v>
       </c>
       <c r="D50">
-        <v>2953931.11</v>
+        <v>3413218.53</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2409,10 +2364,10 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>3027531.11</v>
+        <v>3461098.53</v>
       </c>
       <c r="H50">
-        <v>0.5341302669553742</v>
+        <v>0.4375898538779825</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2426,7 +2381,7 @@
         <v>148</v>
       </c>
       <c r="D51">
-        <v>1524952.71</v>
+        <v>1777752.71</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2435,10 +2390,10 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1565152.71</v>
+        <v>1803352.71</v>
       </c>
       <c r="H51">
-        <v>0.4768557056646568</v>
+        <v>0.4306911208734091</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2452,7 +2407,7 @@
         <v>149</v>
       </c>
       <c r="D52">
-        <v>7192077.790000001</v>
+        <v>7942124.74</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2461,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>7304637.790000001</v>
+        <v>8030924.74</v>
       </c>
       <c r="H52">
-        <v>0.2860902429496096</v>
+        <v>0.2901364507121506</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2478,7 +2433,7 @@
         <v>150</v>
       </c>
       <c r="D53">
-        <v>1726559.14</v>
+        <v>1928799.14</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2487,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>1756799.14</v>
+        <v>1951839.14</v>
       </c>
       <c r="H53">
-        <v>0.3965138553061906</v>
+        <v>0.3713978191870874</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2504,7 +2459,7 @@
         <v>151</v>
       </c>
       <c r="D54">
-        <v>5485732.220000001</v>
+        <v>5508026.64</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2513,10 +2468,10 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>5485732.220000001</v>
+        <v>5568826.64</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>0.2789413462509941</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2530,7 +2485,7 @@
         <v>152</v>
       </c>
       <c r="D55">
-        <v>3984742.36</v>
+        <v>4485302.36</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2539,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>4062262.359999999</v>
+        <v>4553942.359999999</v>
       </c>
       <c r="H55">
-        <v>0.3651592803572638</v>
+        <v>0.3389239208552478</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2556,7 +2511,7 @@
         <v>153</v>
       </c>
       <c r="D56">
-        <v>2268518.42</v>
+        <v>2470758.42</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2565,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>2298598.42</v>
+        <v>2493158.42</v>
       </c>
       <c r="H56">
-        <v>0.281405570617246</v>
+        <v>0.2699907052035626</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2582,7 +2537,7 @@
         <v>154</v>
       </c>
       <c r="D57">
-        <v>3286469.97</v>
+        <v>3792069.97</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2591,10 +2546,10 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>3361669.97</v>
+        <v>3854069.97</v>
       </c>
       <c r="H57">
-        <v>0.5550455626671764</v>
+        <v>0.5038102616491936</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2608,7 +2563,7 @@
         <v>155</v>
       </c>
       <c r="D58">
-        <v>1640056.35</v>
+        <v>1842296.35</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2617,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>1670616.35</v>
+        <v>1867096.35</v>
       </c>
       <c r="H58">
-        <v>0.4169689827350246</v>
+        <v>0.3882546286376704</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2634,7 +2589,7 @@
         <v>156</v>
       </c>
       <c r="D59">
-        <v>7167383.5</v>
+        <v>7027340.409999999</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2643,10 +2598,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>6967848.15368</v>
+        <v>7027340.409999999</v>
       </c>
       <c r="H59">
-        <v>0.4822896145096349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2660,7 +2615,7 @@
         <v>157</v>
       </c>
       <c r="D60">
-        <v>2097505.69</v>
+        <v>3536912.63</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2669,10 +2624,10 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>2154785.69</v>
+        <v>3602114.414535998</v>
       </c>
       <c r="H60">
-        <v>0.6927389609683179</v>
+        <v>0.6471415762345446</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2686,7 +2641,7 @@
         <v>158</v>
       </c>
       <c r="D61">
-        <v>3597625.59</v>
+        <v>4052665.59</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2695,10 +2650,10 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>3662065.59</v>
+        <v>4102705.59</v>
       </c>
       <c r="H61">
-        <v>0.4585641514957137</v>
+        <v>0.4259501350180966</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2712,7 +2667,7 @@
         <v>159</v>
       </c>
       <c r="D62">
-        <v>2930929.77</v>
+        <v>3487089.77</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2721,10 +2676,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>3006609.77</v>
+        <v>3544729.770000002</v>
       </c>
       <c r="H62">
-        <v>0.5461215540452393</v>
+        <v>0.4820434027048552</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2738,7 +2693,7 @@
         <v>160</v>
       </c>
       <c r="D63">
-        <v>4291371.09</v>
+        <v>3658819.31</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2747,10 +2702,10 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>4200494.796008002</v>
+        <v>3561219.31</v>
       </c>
       <c r="H63">
-        <v>0.6166059299636533</v>
+        <v>0.7024184084860527</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2764,7 +2719,7 @@
         <v>161</v>
       </c>
       <c r="D64">
-        <v>1755552.62</v>
+        <v>1957792.62</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2773,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1781632.62</v>
+        <v>1980832.62</v>
       </c>
       <c r="H64">
-        <v>0.4189146469489316</v>
+        <v>0.3921017819264305</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2790,7 +2745,7 @@
         <v>162</v>
       </c>
       <c r="D65">
-        <v>2792745.54</v>
+        <v>3250667.38</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2799,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>2851145.54</v>
+        <v>3302507.38</v>
       </c>
       <c r="H65">
-        <v>0.5235453536335433</v>
+        <v>0.4233263515068966</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2816,7 +2771,7 @@
         <v>163</v>
       </c>
       <c r="D66">
-        <v>6608232.64</v>
+        <v>7467752.640000001</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2825,10 +2780,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>6689832.640000003</v>
+        <v>7577232.640000004</v>
       </c>
       <c r="H66">
-        <v>0.3793214175235329</v>
+        <v>0.3485097166028149</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2842,7 +2797,7 @@
         <v>164</v>
       </c>
       <c r="D67">
-        <v>1458725.69</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2851,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>1458725.69</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2868,7 +2823,7 @@
         <v>165</v>
       </c>
       <c r="D68">
-        <v>7370132.19</v>
+        <v>4682338.34</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2877,10 +2832,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>7270372.19</v>
+        <v>4512658.34</v>
       </c>
       <c r="H68">
-        <v>0.4283770787255942</v>
+        <v>0.7521604660192379</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2894,7 +2849,7 @@
         <v>166</v>
       </c>
       <c r="D69">
-        <v>3536725.24</v>
+        <v>1626031.81</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2903,10 +2858,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>3483565.24</v>
+        <v>1553391.81</v>
       </c>
       <c r="H69">
-        <v>0.5847216456896327</v>
+        <v>0.9893292793915269</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2920,7 +2875,7 @@
         <v>167</v>
       </c>
       <c r="D70">
-        <v>14833953.99</v>
+        <v>9523381.189999999</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2929,10 +2884,10 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>14640261.18713321</v>
+        <v>9113541.189999999</v>
       </c>
       <c r="H70">
-        <v>0.474429896517447</v>
+        <v>0.7925607674792322</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2946,7 +2901,7 @@
         <v>167</v>
       </c>
       <c r="D71">
-        <v>9712194.23</v>
+        <v>7186959.040000001</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2955,10 +2910,10 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>9560994.23</v>
+        <v>6917879.040000001</v>
       </c>
       <c r="H71">
-        <v>0.4634932197841105</v>
+        <v>0.6886691097738534</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2998,7 +2953,7 @@
         <v>169</v>
       </c>
       <c r="D73">
-        <v>5438469.54</v>
+        <v>6190149.54</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3007,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>5523149.54</v>
+        <v>6310109.54</v>
       </c>
       <c r="H73">
-        <v>0.4031421535618968</v>
+        <v>0.3671593948272411</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3050,7 +3005,7 @@
         <v>171</v>
       </c>
       <c r="D75">
-        <v>1309433.96</v>
+        <v>1314853.94</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3059,10 +3014,10 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>1321673.96</v>
+        <v>1314853.94</v>
       </c>
       <c r="H75">
-        <v>0.2235274424261185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3102,7 +3057,7 @@
         <v>173</v>
       </c>
       <c r="D77">
-        <v>18891462.48</v>
+        <v>12127421.47</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3111,10 +3066,10 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>18530033.185568</v>
+        <v>11572794.43454399</v>
       </c>
       <c r="H77">
-        <v>0.4881210470278363</v>
+        <v>0.8526702565929412</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3128,7 +3083,7 @@
         <v>174</v>
       </c>
       <c r="D78">
-        <v>4568617.45</v>
+        <v>3172537.45</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3137,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>4481257.45</v>
+        <v>3031977.45</v>
       </c>
       <c r="H78">
-        <v>0.4614804712904855</v>
+        <v>0.7096168871572578</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3180,7 +3135,7 @@
         <v>175</v>
       </c>
       <c r="D80">
-        <v>2862513.3</v>
+        <v>2478162.17</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3189,10 +3144,10 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>2819113.3</v>
+        <v>2405522.17</v>
       </c>
       <c r="H80">
-        <v>0.3667842651091746</v>
+        <v>0.5110960170448148</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3206,7 +3161,7 @@
         <v>176</v>
       </c>
       <c r="D81">
-        <v>2204823.2</v>
+        <v>2305943.2</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3215,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>2215623.2</v>
+        <v>2319943.2</v>
       </c>
       <c r="H81">
-        <v>0.1347434888748231</v>
+        <v>0.1339150027466189</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3232,7 +3187,7 @@
         <v>177</v>
       </c>
       <c r="D82">
-        <v>4909199.08</v>
+        <v>3363399.08</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3241,10 +3196,10 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>4821599.08</v>
+        <v>3219399.08</v>
       </c>
       <c r="H82">
-        <v>0.4978373274453172</v>
+        <v>0.775711844957103</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3258,7 +3213,7 @@
         <v>178</v>
       </c>
       <c r="D83">
-        <v>3868713.66</v>
+        <v>3371513.66</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3267,10 +3222,10 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>3810313.66</v>
+        <v>3276313.66</v>
       </c>
       <c r="H83">
-        <v>0.4522840253523905</v>
+        <v>0.5472467492627063</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3310,7 +3265,7 @@
         <v>179</v>
       </c>
       <c r="D85">
-        <v>5225728.04</v>
+        <v>4479928.04</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3319,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>5151928.04</v>
+        <v>4335928.04</v>
       </c>
       <c r="H85">
-        <v>0.537596794539079</v>
+        <v>0.6645705310183144</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3336,7 +3291,7 @@
         <v>180</v>
       </c>
       <c r="D86">
-        <v>19219123.55</v>
+        <v>16660846.43</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3345,10 +3300,10 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>19073964.9671464</v>
+        <v>16116526.43</v>
       </c>
       <c r="H86">
-        <v>0.4278296627919652</v>
+        <v>0.5442514699490359</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3362,7 +3317,7 @@
         <v>181</v>
       </c>
       <c r="D87">
-        <v>5729954.96</v>
+        <v>4735554.96</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3371,10 +3326,10 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>5659554.96</v>
+        <v>4539554.96</v>
       </c>
       <c r="H87">
-        <v>0.5220028820075281</v>
+        <v>0.6770778252677</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3388,7 +3343,7 @@
         <v>182</v>
       </c>
       <c r="D88">
-        <v>7465460.959999999</v>
+        <v>4407511.09</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3397,10 +3352,10 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>7458420.959999999</v>
+        <v>4397711.09</v>
       </c>
       <c r="H88">
-        <v>0.03961031451354283</v>
+        <v>0.03494581541508221</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3414,19 +3369,19 @@
         <v>183</v>
       </c>
       <c r="D89">
-        <v>71037533.90000001</v>
+        <v>47695785.84</v>
       </c>
       <c r="E89">
         <v>0</v>
       </c>
       <c r="F89">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>67724333.90000001</v>
+        <v>45666185.84</v>
       </c>
       <c r="H89">
-        <v>0.4776662528385515</v>
+        <v>0.7235450780971142</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3440,19 +3395,19 @@
         <v>184</v>
       </c>
       <c r="D90">
-        <v>22408394.23</v>
+        <v>13717663.8</v>
       </c>
       <c r="E90">
         <v>0</v>
       </c>
       <c r="F90">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>16252129.857228</v>
+        <v>13217077.48237399</v>
       </c>
       <c r="H90">
-        <v>0.6253558203929762</v>
+        <v>0.7412532772895772</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3466,7 +3421,7 @@
         <v>185</v>
       </c>
       <c r="D91">
-        <v>2548790.54</v>
+        <v>2099630.54</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3475,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>2511630.54</v>
+        <v>2017110.54</v>
       </c>
       <c r="H91">
-        <v>0.5747631974565814</v>
+        <v>0.7446213631901403</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3492,7 +3447,7 @@
         <v>186</v>
       </c>
       <c r="D92">
-        <v>4407427.92</v>
+        <v>2763996.32</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3501,10 +3456,10 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>4357027.919999998</v>
+        <v>2633203.20896</v>
       </c>
       <c r="H92">
-        <v>0.4068329220162538</v>
+        <v>0.7003558227959058</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3544,7 +3499,7 @@
         <v>187</v>
       </c>
       <c r="D94">
-        <v>7054262.340000001</v>
+        <v>6059862.34</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3553,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>6951862.340000001</v>
+        <v>5871862.34</v>
       </c>
       <c r="H94">
-        <v>0.5312072966047828</v>
+        <v>0.6543137045000955</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3570,7 +3525,7 @@
         <v>188</v>
       </c>
       <c r="D95">
-        <v>1902692.31</v>
+        <v>13148870.97</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3579,10 +3534,10 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>1934052.31</v>
+        <v>13455030.97</v>
       </c>
       <c r="H95">
-        <v>0.6753260980826314</v>
+        <v>0.6205408236232398</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3596,7 +3551,7 @@
         <v>189</v>
       </c>
       <c r="D96">
-        <v>15979937.99</v>
+        <v>9245599.449999999</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3605,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>15765217.99</v>
+        <v>8809999.449999999</v>
       </c>
       <c r="H96">
-        <v>0.4122663450719595</v>
+        <v>0.7849798446922713</v>
       </c>
     </row>
   </sheetData>
@@ -3618,7 +3573,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3732,10 +3687,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
         <v>194</v>
@@ -3744,7 +3699,7 @@
         <v>198</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3752,19 +3707,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3778,13 +3733,13 @@
         <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E8" t="s">
         <v>197</v>
       </c>
       <c r="F8">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3792,19 +3747,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F9">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3812,19 +3767,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3832,10 +3787,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
         <v>194</v>
@@ -3844,7 +3799,7 @@
         <v>197</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3852,10 +3807,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
         <v>194</v>
@@ -3864,7 +3819,7 @@
         <v>197</v>
       </c>
       <c r="F12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3872,10 +3827,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
         <v>194</v>
@@ -3884,7 +3839,7 @@
         <v>197</v>
       </c>
       <c r="F13">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3892,10 +3847,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
         <v>194</v>
@@ -3904,7 +3859,7 @@
         <v>197</v>
       </c>
       <c r="F14">
-        <v>64</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3912,19 +3867,19 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E15" t="s">
         <v>197</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3938,13 +3893,13 @@
         <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E16" t="s">
         <v>197</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3952,7 +3907,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>118</v>
@@ -3964,7 +3919,7 @@
         <v>197</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3972,10 +3927,10 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
         <v>194</v>
@@ -3984,7 +3939,7 @@
         <v>197</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3992,19 +3947,19 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4012,10 +3967,10 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
         <v>195</v>
@@ -4024,7 +3979,7 @@
         <v>198</v>
       </c>
       <c r="F20">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4032,19 +3987,19 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F21">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4052,10 +4007,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
         <v>194</v>
@@ -4064,7 +4019,7 @@
         <v>197</v>
       </c>
       <c r="F22">
-        <v>111</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4072,19 +4027,19 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E23" t="s">
         <v>197</v>
       </c>
       <c r="F23">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4092,10 +4047,10 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
         <v>194</v>
@@ -4104,7 +4059,7 @@
         <v>197</v>
       </c>
       <c r="F24">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4112,10 +4067,10 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D25" t="s">
         <v>194</v>
@@ -4124,7 +4079,7 @@
         <v>197</v>
       </c>
       <c r="F25">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4132,10 +4087,10 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
         <v>194</v>
@@ -4144,7 +4099,7 @@
         <v>197</v>
       </c>
       <c r="F26">
-        <v>163</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4152,19 +4107,19 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
         <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E27" t="s">
         <v>197</v>
       </c>
       <c r="F27">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4172,19 +4127,19 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E28" t="s">
         <v>197</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4192,19 +4147,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E29" t="s">
         <v>197</v>
       </c>
       <c r="F29">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4212,19 +4167,19 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E30" t="s">
         <v>197</v>
       </c>
       <c r="F30">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4232,19 +4187,19 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F31">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4252,19 +4207,19 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E32" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F32">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4272,19 +4227,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4292,10 +4247,10 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
         <v>195</v>
@@ -4304,7 +4259,7 @@
         <v>198</v>
       </c>
       <c r="F34">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4312,19 +4267,19 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E35" t="s">
         <v>198</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4332,19 +4287,19 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E36" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4352,10 +4307,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
         <v>195</v>
@@ -4364,7 +4319,7 @@
         <v>198</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4372,10 +4327,10 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D38" t="s">
         <v>194</v>
@@ -4384,7 +4339,7 @@
         <v>197</v>
       </c>
       <c r="F38">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4392,10 +4347,10 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D39" t="s">
         <v>195</v>
@@ -4404,7 +4359,7 @@
         <v>198</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4412,19 +4367,19 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
         <v>194</v>
       </c>
       <c r="E40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4432,19 +4387,19 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
         <v>195</v>
       </c>
       <c r="E41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F41">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4452,19 +4407,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" t="s">
         <v>194</v>
       </c>
       <c r="E42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F42">
-        <v>162</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4472,19 +4427,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D43" t="s">
         <v>195</v>
       </c>
       <c r="E43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F43">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4492,19 +4447,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" t="s">
         <v>194</v>
       </c>
       <c r="E44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F44">
-        <v>7</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4512,10 +4467,10 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D45" t="s">
         <v>195</v>
@@ -4524,7 +4479,7 @@
         <v>198</v>
       </c>
       <c r="F45">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4532,19 +4487,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E46" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4552,16 +4507,16 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F47">
         <v>10</v>
@@ -4572,7 +4527,7 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
         <v>144</v>
@@ -4584,7 +4539,7 @@
         <v>197</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4592,7 +4547,7 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
         <v>144</v>
@@ -4604,7 +4559,7 @@
         <v>197</v>
       </c>
       <c r="F49">
-        <v>117</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4612,19 +4567,19 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
         <v>195</v>
       </c>
       <c r="E50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4632,19 +4587,19 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E51" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F51">
-        <v>9</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4652,10 +4607,10 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D52" t="s">
         <v>195</v>
@@ -4664,7 +4619,7 @@
         <v>198</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4672,10 +4627,10 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
         <v>195</v>
@@ -4684,7 +4639,7 @@
         <v>198</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4692,10 +4647,10 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D54" t="s">
         <v>195</v>
@@ -4704,7 +4659,7 @@
         <v>198</v>
       </c>
       <c r="F54">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4712,10 +4667,10 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D55" t="s">
         <v>195</v>
@@ -4724,7 +4679,7 @@
         <v>198</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4732,10 +4687,10 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D56" t="s">
         <v>195</v>
@@ -4744,7 +4699,7 @@
         <v>198</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4752,19 +4707,19 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E57" t="s">
         <v>198</v>
       </c>
       <c r="F57">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4772,10 +4727,10 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D58" t="s">
         <v>195</v>
@@ -4784,7 +4739,7 @@
         <v>198</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4792,10 +4747,10 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D59" t="s">
         <v>195</v>
@@ -4804,7 +4759,7 @@
         <v>198</v>
       </c>
       <c r="F59">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4812,19 +4767,19 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E60" t="s">
         <v>198</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4832,19 +4787,19 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D61" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E61" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F61">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4852,10 +4807,10 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
         <v>195</v>
@@ -4864,7 +4819,7 @@
         <v>198</v>
       </c>
       <c r="F62">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4872,10 +4827,10 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D63" t="s">
         <v>195</v>
@@ -4884,7 +4839,7 @@
         <v>198</v>
       </c>
       <c r="F63">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4892,10 +4847,10 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D64" t="s">
         <v>195</v>
@@ -4904,7 +4859,7 @@
         <v>198</v>
       </c>
       <c r="F64">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4912,19 +4867,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D65" t="s">
         <v>195</v>
       </c>
       <c r="E65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4932,19 +4887,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E66" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F66">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4952,19 +4907,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D67" t="s">
         <v>195</v>
       </c>
       <c r="E67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4972,19 +4927,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F68">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4992,10 +4947,10 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
         <v>195</v>
@@ -5004,7 +4959,7 @@
         <v>198</v>
       </c>
       <c r="F69">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5012,19 +4967,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C70" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D70" t="s">
         <v>195</v>
       </c>
       <c r="E70" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F70">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5032,19 +4987,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D71" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E71" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F71">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5052,10 +5007,10 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D72" t="s">
         <v>195</v>
@@ -5064,7 +5019,7 @@
         <v>197</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5072,10 +5027,10 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D73" t="s">
         <v>194</v>
@@ -5084,7 +5039,7 @@
         <v>197</v>
       </c>
       <c r="F73">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5092,10 +5047,10 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D74" t="s">
         <v>194</v>
@@ -5104,7 +5059,7 @@
         <v>197</v>
       </c>
       <c r="F74">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5112,7 +5067,7 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
         <v>167</v>
@@ -5124,7 +5079,7 @@
         <v>197</v>
       </c>
       <c r="F75">
-        <v>30</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5132,19 +5087,19 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F76">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5158,13 +5113,13 @@
         <v>169</v>
       </c>
       <c r="D77" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E77" t="s">
         <v>198</v>
       </c>
       <c r="F77">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5172,10 +5127,10 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C78" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D78" t="s">
         <v>194</v>
@@ -5184,7 +5139,7 @@
         <v>198</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5204,7 +5159,7 @@
         <v>197</v>
       </c>
       <c r="F79">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5224,7 +5179,7 @@
         <v>197</v>
       </c>
       <c r="F80">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5264,7 +5219,7 @@
         <v>197</v>
       </c>
       <c r="F82">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5364,7 +5319,7 @@
         <v>197</v>
       </c>
       <c r="F87">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5384,7 +5339,7 @@
         <v>197</v>
       </c>
       <c r="F88">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5424,7 +5379,7 @@
         <v>197</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5441,10 +5396,10 @@
         <v>194</v>
       </c>
       <c r="E91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F91">
-        <v>5</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5452,10 +5407,10 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D92" t="s">
         <v>194</v>
@@ -5464,7 +5419,7 @@
         <v>197</v>
       </c>
       <c r="F92">
-        <v>219</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5472,19 +5427,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D93" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E93" t="s">
         <v>197</v>
       </c>
       <c r="F93">
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5512,19 +5467,19 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E95" t="s">
         <v>197</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5532,10 +5487,10 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D96" t="s">
         <v>194</v>
@@ -5544,7 +5499,7 @@
         <v>197</v>
       </c>
       <c r="F96">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5552,19 +5507,19 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D97" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E97" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F97">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5572,39 +5527,19 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E98" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F98">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" t="s">
-        <v>189</v>
-      </c>
-      <c r="D99" t="s">
-        <v>194</v>
-      </c>
-      <c r="E99" t="s">
-        <v>197</v>
-      </c>
-      <c r="F99">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -5614,7 +5549,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5654,7 +5589,7 @@
         <v>194</v>
       </c>
       <c r="E2">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5671,7 +5606,7 @@
         <v>194</v>
       </c>
       <c r="E3">
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5679,16 +5614,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E4">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5696,16 +5631,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
         <v>194</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5713,16 +5648,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E6">
-        <v>-9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5730,16 +5665,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="D7" t="s">
         <v>194</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5747,16 +5682,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5764,67 +5699,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="D9" t="s">
         <v>194</v>
       </c>
       <c r="E9">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D11" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11">
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5834,7 +5718,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5889,16 +5773,16 @@
         <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>6196.8</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5918,16 +5802,16 @@
         <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G3" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>6197.4</v>
+        <v>6463.4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5947,16 +5831,16 @@
         <v>194</v>
       </c>
       <c r="F4" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>6193.4</v>
+        <v>6464.6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5976,16 +5860,16 @@
         <v>194</v>
       </c>
       <c r="F5" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G5" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>6196.8</v>
+        <v>6462.2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5993,28 +5877,28 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F6" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G6" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>6197.4</v>
+        <v>6522</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6022,28 +5906,28 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G7" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>6197.2</v>
+        <v>6513.2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6051,28 +5935,28 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F8" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G8" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>6196.8</v>
+        <v>6514.6</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6080,28 +5964,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F9" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G9" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>6193.4</v>
+        <v>6519.8</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6109,28 +5993,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E10" t="s">
         <v>194</v>
       </c>
       <c r="F10" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G10" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>6193.6</v>
+        <v>6459.2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6138,28 +6022,28 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
         <v>194</v>
       </c>
       <c r="F11" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G11" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>6192.6</v>
+        <v>6447.8</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6167,28 +6051,28 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E12" t="s">
         <v>194</v>
       </c>
       <c r="F12" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G12" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>6190.8</v>
+        <v>6453.4</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6196,28 +6080,28 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E13" t="s">
         <v>194</v>
       </c>
       <c r="F13" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G13" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>6199</v>
+        <v>6458.4</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6225,28 +6109,28 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E14" t="s">
         <v>194</v>
       </c>
       <c r="F14" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G14" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>6205.2</v>
+        <v>6455.2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6254,28 +6138,28 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F15" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G15" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>6203.4</v>
+        <v>6506.2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6283,28 +6167,28 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D16" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E16" t="s">
         <v>194</v>
       </c>
       <c r="F16" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G16" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>6199.4</v>
+        <v>6454.6</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6312,28 +6196,28 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E17" t="s">
         <v>194</v>
       </c>
       <c r="F17" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G17" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>6198</v>
+        <v>6449.4</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6341,28 +6225,28 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="E18" t="s">
         <v>194</v>
       </c>
       <c r="F18" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G18" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>6196.6</v>
+        <v>6449.4</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6370,28 +6254,28 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="D19" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="E19" t="s">
         <v>194</v>
       </c>
       <c r="F19" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G19" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>6192.4</v>
+        <v>6449.6</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6399,28 +6283,28 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E20" t="s">
         <v>194</v>
       </c>
       <c r="F20" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G20" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>6190.2</v>
+        <v>6449.8</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -6428,28 +6312,28 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="D21" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E21" t="s">
         <v>194</v>
       </c>
       <c r="F21" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="G21" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>6192.2</v>
+        <v>6453.8</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6457,28 +6341,28 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="D22" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E22" t="s">
         <v>194</v>
       </c>
       <c r="F22" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="G22" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>6197.2</v>
+        <v>6448.4</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6486,724 +6370,28 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="D23" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F23" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="G23" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>6257.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" t="s">
-        <v>212</v>
-      </c>
-      <c r="E24" t="s">
-        <v>194</v>
-      </c>
-      <c r="F24" t="s">
-        <v>240</v>
-      </c>
-      <c r="G24" t="s">
-        <v>242</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>6203.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" t="s">
-        <v>220</v>
-      </c>
-      <c r="E25" t="s">
-        <v>194</v>
-      </c>
-      <c r="F25" t="s">
-        <v>240</v>
-      </c>
-      <c r="G25" t="s">
-        <v>242</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>6193.4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
-        <v>167</v>
-      </c>
-      <c r="D26" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" t="s">
-        <v>194</v>
-      </c>
-      <c r="F26" t="s">
-        <v>240</v>
-      </c>
-      <c r="G26" t="s">
-        <v>242</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>6199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" t="s">
-        <v>173</v>
-      </c>
-      <c r="D27" t="s">
-        <v>221</v>
-      </c>
-      <c r="E27" t="s">
-        <v>194</v>
-      </c>
-      <c r="F27" t="s">
-        <v>240</v>
-      </c>
-      <c r="G27" t="s">
-        <v>242</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>6183.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" t="s">
-        <v>222</v>
-      </c>
-      <c r="E28" t="s">
-        <v>194</v>
-      </c>
-      <c r="F28" t="s">
-        <v>240</v>
-      </c>
-      <c r="G28" t="s">
-        <v>242</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>6170.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" t="s">
-        <v>173</v>
-      </c>
-      <c r="D29" t="s">
-        <v>223</v>
-      </c>
-      <c r="E29" t="s">
-        <v>194</v>
-      </c>
-      <c r="F29" t="s">
-        <v>240</v>
-      </c>
-      <c r="G29" t="s">
-        <v>242</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>6177.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" t="s">
-        <v>180</v>
-      </c>
-      <c r="D30" t="s">
-        <v>224</v>
-      </c>
-      <c r="E30" t="s">
-        <v>194</v>
-      </c>
-      <c r="F30" t="s">
-        <v>240</v>
-      </c>
-      <c r="G30" t="s">
-        <v>242</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>6195.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" t="s">
-        <v>180</v>
-      </c>
-      <c r="D31" t="s">
-        <v>225</v>
-      </c>
-      <c r="E31" t="s">
-        <v>194</v>
-      </c>
-      <c r="F31" t="s">
-        <v>240</v>
-      </c>
-      <c r="G31" t="s">
-        <v>242</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>6158.6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" t="s">
-        <v>180</v>
-      </c>
-      <c r="D32" t="s">
-        <v>226</v>
-      </c>
-      <c r="E32" t="s">
-        <v>194</v>
-      </c>
-      <c r="F32" t="s">
-        <v>240</v>
-      </c>
-      <c r="G32" t="s">
-        <v>242</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>6166.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" t="s">
-        <v>180</v>
-      </c>
-      <c r="D33" t="s">
-        <v>227</v>
-      </c>
-      <c r="E33" t="s">
-        <v>194</v>
-      </c>
-      <c r="F33" t="s">
-        <v>240</v>
-      </c>
-      <c r="G33" t="s">
-        <v>242</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>6184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" t="s">
-        <v>228</v>
-      </c>
-      <c r="E34" t="s">
-        <v>194</v>
-      </c>
-      <c r="F34" t="s">
-        <v>240</v>
-      </c>
-      <c r="G34" t="s">
-        <v>242</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>6185.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" t="s">
-        <v>229</v>
-      </c>
-      <c r="E35" t="s">
-        <v>194</v>
-      </c>
-      <c r="F35" t="s">
-        <v>240</v>
-      </c>
-      <c r="G35" t="s">
-        <v>242</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>6188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" t="s">
-        <v>180</v>
-      </c>
-      <c r="D36" t="s">
-        <v>230</v>
-      </c>
-      <c r="E36" t="s">
-        <v>194</v>
-      </c>
-      <c r="F36" t="s">
-        <v>240</v>
-      </c>
-      <c r="G36" t="s">
-        <v>242</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>6185.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" t="s">
-        <v>180</v>
-      </c>
-      <c r="D37" t="s">
-        <v>231</v>
-      </c>
-      <c r="E37" t="s">
-        <v>194</v>
-      </c>
-      <c r="F37" t="s">
-        <v>240</v>
-      </c>
-      <c r="G37" t="s">
-        <v>242</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>6190.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" t="s">
-        <v>232</v>
-      </c>
-      <c r="E38" t="s">
-        <v>194</v>
-      </c>
-      <c r="F38" t="s">
-        <v>240</v>
-      </c>
-      <c r="G38" t="s">
-        <v>242</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>6193.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D39" t="s">
-        <v>233</v>
-      </c>
-      <c r="E39" t="s">
-        <v>194</v>
-      </c>
-      <c r="F39" t="s">
-        <v>240</v>
-      </c>
-      <c r="G39" t="s">
-        <v>242</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>6196.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" t="s">
-        <v>234</v>
-      </c>
-      <c r="E40" t="s">
-        <v>194</v>
-      </c>
-      <c r="F40" t="s">
-        <v>240</v>
-      </c>
-      <c r="G40" t="s">
-        <v>242</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>6195.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>97</v>
-      </c>
-      <c r="C41" t="s">
-        <v>184</v>
-      </c>
-      <c r="D41" t="s">
-        <v>235</v>
-      </c>
-      <c r="E41" t="s">
-        <v>194</v>
-      </c>
-      <c r="F41" t="s">
-        <v>240</v>
-      </c>
-      <c r="G41" t="s">
-        <v>242</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>6190.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" t="s">
-        <v>184</v>
-      </c>
-      <c r="D42" t="s">
-        <v>231</v>
-      </c>
-      <c r="E42" t="s">
-        <v>194</v>
-      </c>
-      <c r="F42" t="s">
-        <v>240</v>
-      </c>
-      <c r="G42" t="s">
-        <v>242</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>6189.4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D43" t="s">
-        <v>234</v>
-      </c>
-      <c r="E43" t="s">
-        <v>194</v>
-      </c>
-      <c r="F43" t="s">
-        <v>240</v>
-      </c>
-      <c r="G43" t="s">
-        <v>242</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>6195.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" t="s">
-        <v>184</v>
-      </c>
-      <c r="D44" t="s">
-        <v>236</v>
-      </c>
-      <c r="E44" t="s">
-        <v>194</v>
-      </c>
-      <c r="F44" t="s">
-        <v>240</v>
-      </c>
-      <c r="G44" t="s">
-        <v>242</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>6195.2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" t="s">
-        <v>184</v>
-      </c>
-      <c r="D45" t="s">
-        <v>237</v>
-      </c>
-      <c r="E45" t="s">
-        <v>194</v>
-      </c>
-      <c r="F45" t="s">
-        <v>240</v>
-      </c>
-      <c r="G45" t="s">
-        <v>242</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>6195.6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" t="s">
-        <v>184</v>
-      </c>
-      <c r="D46" t="s">
-        <v>238</v>
-      </c>
-      <c r="E46" t="s">
-        <v>194</v>
-      </c>
-      <c r="F46" t="s">
-        <v>240</v>
-      </c>
-      <c r="G46" t="s">
-        <v>242</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>6192.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" t="s">
-        <v>184</v>
-      </c>
-      <c r="D47" t="s">
-        <v>239</v>
-      </c>
-      <c r="E47" t="s">
-        <v>194</v>
-      </c>
-      <c r="F47" t="s">
-        <v>240</v>
-      </c>
-      <c r="G47" t="s">
-        <v>242</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>6189.6</v>
+        <v>6474</v>
       </c>
     </row>
   </sheetData>

--- a/info_faccts.xlsx
+++ b/info_faccts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="214">
   <si>
     <t>DataDateTime</t>
   </si>
@@ -43,7 +43,7 @@
     <t>CurrentMarginRate</t>
   </si>
   <si>
-    <t>20200730T093648</t>
+    <t>20200731T093622</t>
   </si>
   <si>
     <t>10_f_xb_3670</t>
@@ -628,70 +628,25 @@
     <t>Price</t>
   </si>
   <si>
-    <t>09:32:00</t>
-  </si>
-  <si>
-    <t>09:32:06</t>
-  </si>
-  <si>
-    <t>09:32:34</t>
-  </si>
-  <si>
-    <t>09:32:40</t>
-  </si>
-  <si>
-    <t>09:30:04</t>
-  </si>
-  <si>
-    <t>09:30:25</t>
-  </si>
-  <si>
-    <t>09:30:22</t>
-  </si>
-  <si>
-    <t>09:30:09</t>
-  </si>
-  <si>
-    <t>09:32:52</t>
-  </si>
-  <si>
-    <t>09:33:18</t>
-  </si>
-  <si>
-    <t>09:33:11</t>
-  </si>
-  <si>
     <t>09:33:01</t>
   </si>
   <si>
-    <t>09:32:56</t>
-  </si>
-  <si>
-    <t>09:33:21</t>
-  </si>
-  <si>
-    <t>09:30:14</t>
-  </si>
-  <si>
-    <t>09:30:39</t>
-  </si>
-  <si>
-    <t>09:30:34</t>
-  </si>
-  <si>
-    <t>09:30:29</t>
-  </si>
-  <si>
-    <t>09:30:24</t>
-  </si>
-  <si>
-    <t>09:33:10</t>
-  </si>
-  <si>
-    <t>09:33:15</t>
-  </si>
-  <si>
-    <t>09:31:31</t>
+    <t>09:30:01</t>
+  </si>
+  <si>
+    <t>09:33:34</t>
+  </si>
+  <si>
+    <t>09:32:28</t>
+  </si>
+  <si>
+    <t>09:31:50</t>
+  </si>
+  <si>
+    <t>09:32:01</t>
+  </si>
+  <si>
+    <t>09:31:56</t>
   </si>
   <si>
     <t>buy</t>
@@ -1107,7 +1062,7 @@
         <v>104</v>
       </c>
       <c r="D2">
-        <v>16203548.15</v>
+        <v>21472348.15</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1116,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>15496348.15</v>
+        <v>20880348.15</v>
       </c>
       <c r="H2">
-        <v>0.8594974681179972</v>
+        <v>0.6362024188758553</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1159,7 +1114,7 @@
         <v>106</v>
       </c>
       <c r="D4">
-        <v>4233596.310000001</v>
+        <v>4188276.31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1168,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4337476.310000001</v>
+        <v>4282956.310000001</v>
       </c>
       <c r="H4">
-        <v>0.4270822634187482</v>
+        <v>0.4312490406889067</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1185,7 +1140,7 @@
         <v>107</v>
       </c>
       <c r="D5">
-        <v>9035964.440000001</v>
+        <v>11655061.59</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1194,10 +1149,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>8618421.756487202</v>
+        <v>11302461.58999999</v>
       </c>
       <c r="H5">
-        <v>0.9807466191402964</v>
+        <v>0.7458828267515489</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1211,7 +1166,7 @@
         <v>108</v>
       </c>
       <c r="D6">
-        <v>3398794.94</v>
+        <v>3361834.94</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1220,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3499114.94</v>
+        <v>3452034.940000002</v>
       </c>
       <c r="H6">
-        <v>0.4831214832857134</v>
+        <v>0.4884256472792246</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1263,7 +1218,7 @@
         <v>110</v>
       </c>
       <c r="D8">
-        <v>9687107.43</v>
+        <v>12437754.06</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1272,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>9338147.43</v>
+        <v>12066514.06</v>
       </c>
       <c r="H8">
-        <v>0.6929840472651432</v>
+        <v>0.5474929351717016</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1289,7 +1244,7 @@
         <v>111</v>
       </c>
       <c r="D9">
-        <v>5433321.52</v>
+        <v>5389721.52</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1298,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5498521.52</v>
+        <v>5476121.52</v>
       </c>
       <c r="H9">
-        <v>0.2825079422440817</v>
+        <v>0.2827081163823406</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1315,7 +1270,7 @@
         <v>112</v>
       </c>
       <c r="D10">
-        <v>2092668.54</v>
+        <v>2616116.37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1324,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2001468.54</v>
+        <v>2537996.37</v>
       </c>
       <c r="H10">
-        <v>0.7678441950429059</v>
+        <v>0.5435412029371816</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1367,7 +1322,7 @@
         <v>114</v>
       </c>
       <c r="D12">
-        <v>3440527.84</v>
+        <v>3480847.84</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1376,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3340207.840000002</v>
+        <v>3376687.84</v>
       </c>
       <c r="H12">
-        <v>0.552115104310395</v>
+        <v>0.5447174530648945</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1393,7 +1348,7 @@
         <v>115</v>
       </c>
       <c r="D13">
-        <v>4561419.59</v>
+        <v>5935339.59</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1402,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4377499.59</v>
+        <v>5737708.442023196</v>
       </c>
       <c r="H13">
-        <v>0.772357628022074</v>
+        <v>0.5609985994452149</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1445,7 +1400,7 @@
         <v>116</v>
       </c>
       <c r="D15">
-        <v>10539400.49</v>
+        <v>10606052.56</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1454,10 +1409,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>10275572.56332</v>
+        <v>10377092.56</v>
       </c>
       <c r="H15">
-        <v>0.4038123593046132</v>
+        <v>0.3988127479899822</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1471,7 +1426,7 @@
         <v>117</v>
       </c>
       <c r="D16">
-        <v>14871314.11</v>
+        <v>15086354.11</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1480,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14308114.11</v>
+        <v>14523154.11</v>
       </c>
       <c r="H16">
-        <v>0.68741570862409</v>
+        <v>0.6754605456706823</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1497,7 +1452,7 @@
         <v>118</v>
       </c>
       <c r="D17">
-        <v>3382807.12</v>
+        <v>3417212.19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1506,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3283927.12</v>
+        <v>3318252.19</v>
       </c>
       <c r="H17">
-        <v>0.5635944807447493</v>
+        <v>0.509506301267596</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1523,7 +1478,7 @@
         <v>118</v>
       </c>
       <c r="D18">
-        <v>2125131.98</v>
+        <v>2148651.98</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1532,10 +1487,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2062971.98</v>
+        <v>2085091.98</v>
       </c>
       <c r="H18">
-        <v>0.5649222632679675</v>
+        <v>0.5574627935598313</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1549,7 +1504,7 @@
         <v>119</v>
       </c>
       <c r="D19">
-        <v>3450488.67</v>
+        <v>4354248.67</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1558,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3305848.67</v>
+        <v>4209608.67</v>
       </c>
       <c r="H19">
-        <v>0.7438046460850249</v>
+        <v>0.5825848890604834</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1575,7 +1530,7 @@
         <v>120</v>
       </c>
       <c r="D20">
-        <v>1282128.8</v>
+        <v>1277768.8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1584,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1289088.8</v>
+        <v>1286968.8</v>
       </c>
       <c r="H20">
-        <v>0.1205018614699003</v>
+        <v>0.1202938253048559</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1601,7 +1556,7 @@
         <v>121</v>
       </c>
       <c r="D21">
-        <v>5896282.71</v>
+        <v>3796250</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1610,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>6031482.71</v>
+        <v>3866028.052799998</v>
       </c>
       <c r="H21">
-        <v>0.6438615820884944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1627,7 +1582,7 @@
         <v>122</v>
       </c>
       <c r="D22">
-        <v>12332618.49</v>
+        <v>12533767.35</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1636,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>11955367.35592</v>
+        <v>12080647.35</v>
       </c>
       <c r="H22">
-        <v>0.6179367459036557</v>
+        <v>0.6095291905031898</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1653,7 +1608,7 @@
         <v>123</v>
       </c>
       <c r="D23">
-        <v>23012234.83</v>
+        <v>30749259.1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1662,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>22014034.83</v>
+        <v>29768019.1</v>
       </c>
       <c r="H23">
-        <v>0.8028234776804876</v>
+        <v>0.5715497004636101</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1679,7 +1634,7 @@
         <v>124</v>
       </c>
       <c r="D24">
-        <v>10190658.73</v>
+        <v>10321698.73</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1688,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>9859938.73</v>
+        <v>9969666.891100001</v>
       </c>
       <c r="H24">
-        <v>0.6078721748811513</v>
+        <v>0.5996045470021152</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1705,7 +1660,7 @@
         <v>125</v>
       </c>
       <c r="D25">
-        <v>4468910.43</v>
+        <v>4526030.43</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1714,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4324750.43</v>
+        <v>4372350.43</v>
       </c>
       <c r="H25">
-        <v>0.6544430356874951</v>
+        <v>0.6456200721313183</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1809,7 +1764,7 @@
         <v>128</v>
       </c>
       <c r="D29">
-        <v>20534183.58</v>
+        <v>20802983.58</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1818,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>19846183.58</v>
+        <v>20166183.58</v>
       </c>
       <c r="H29">
-        <v>0.619490792798561</v>
+        <v>0.6080611113825841</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1835,7 +1790,7 @@
         <v>128</v>
       </c>
       <c r="D30">
-        <v>39059934.66</v>
+        <v>39609015.83</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1844,10 +1799,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>37547176.230392</v>
+        <v>38285975.83</v>
       </c>
       <c r="H30">
-        <v>0.7128923420433902</v>
+        <v>0.6972531591863551</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1861,7 +1816,7 @@
         <v>129</v>
       </c>
       <c r="D31">
-        <v>6298470.17</v>
+        <v>8711990.17</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1870,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>6042470.169999996</v>
+        <v>8470837.7870612</v>
       </c>
       <c r="H31">
-        <v>0.8155186639506413</v>
+        <v>0.5618464807896119</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1887,7 +1842,7 @@
         <v>130</v>
       </c>
       <c r="D32">
-        <v>13049908.18</v>
+        <v>15571468.14</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1896,10 +1851,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>12503428.18</v>
+        <v>15082508.14</v>
       </c>
       <c r="H32">
-        <v>0.8480898396298853</v>
+        <v>0.6504102307747874</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1913,7 +1868,7 @@
         <v>131</v>
       </c>
       <c r="D33">
-        <v>4320921.27</v>
+        <v>4344441.27</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1922,10 +1877,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>4265481.27</v>
+        <v>4290961.27</v>
       </c>
       <c r="H33">
-        <v>0.2522039441518869</v>
+        <v>0.2500485864324756</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1939,7 +1894,7 @@
         <v>132</v>
       </c>
       <c r="D34">
-        <v>9917225.52</v>
+        <v>9786425.52</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1948,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>10075625.52</v>
+        <v>10040825.52</v>
       </c>
       <c r="H34">
-        <v>0.578143757768401</v>
+        <v>0.578193494990639</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1965,7 +1920,7 @@
         <v>133</v>
       </c>
       <c r="D35">
-        <v>1049278.76</v>
+        <v>1040878.76</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1974,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1056118.76</v>
+        <v>1057678.76</v>
       </c>
       <c r="H35">
-        <v>0.2910172715803288</v>
+        <v>0.289714430873132</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2017,7 +1972,7 @@
         <v>135</v>
       </c>
       <c r="D37">
-        <v>6901742.55</v>
+        <v>6836342.55</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2026,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>6976142.55</v>
+        <v>6961142.55</v>
       </c>
       <c r="H37">
-        <v>0.334004642723363</v>
+        <v>0.3335969610333579</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2043,7 +1998,7 @@
         <v>136</v>
       </c>
       <c r="D38">
-        <v>986159.95</v>
+        <v>973079.95</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2052,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1001519.95</v>
+        <v>997319.95</v>
       </c>
       <c r="H38">
-        <v>0.4653055588158778</v>
+        <v>0.4656912759039865</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2069,7 +2024,7 @@
         <v>137</v>
       </c>
       <c r="D39">
-        <v>1700397.25</v>
+        <v>1313837.25</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2078,10 +2033,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1672717.25</v>
+        <v>1279917.25</v>
       </c>
       <c r="H39">
-        <v>0.3981268202979314</v>
+        <v>0.5189447989704022</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2095,7 +2050,7 @@
         <v>138</v>
       </c>
       <c r="D40">
-        <v>2822835.62</v>
+        <v>2787955.62</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2104,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>2863795.62</v>
+        <v>2852595.62</v>
       </c>
       <c r="H40">
-        <v>0.4339348769588522</v>
+        <v>0.434171317980219</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2121,7 +2076,7 @@
         <v>139</v>
       </c>
       <c r="D41">
-        <v>17012221.06</v>
+        <v>17207101.06</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2130,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>16564461.06</v>
+        <v>16733821.06000001</v>
       </c>
       <c r="H41">
-        <v>0.5829545051313617</v>
+        <v>0.5755405633577381</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2147,7 +2102,7 @@
         <v>140</v>
       </c>
       <c r="D42">
-        <v>1636522.36</v>
+        <v>1625442.36</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2156,10 +2111,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1656122.36</v>
+        <v>1648202.36</v>
       </c>
       <c r="H42">
-        <v>0.302670389644398</v>
+        <v>0.3032508702390161</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2173,7 +2128,7 @@
         <v>141</v>
       </c>
       <c r="D43">
-        <v>37084616.53</v>
+        <v>44683732.48999999</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2182,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>35844656.53</v>
+        <v>43368572.48999999</v>
       </c>
       <c r="H43">
-        <v>0.7422342791242266</v>
+        <v>0.5904084762278961</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2199,7 +2154,7 @@
         <v>142</v>
       </c>
       <c r="D44">
-        <v>7438319.840000001</v>
+        <v>7384279.840000001</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2208,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>7523999.840000001</v>
+        <v>7490399.840000001</v>
       </c>
       <c r="H44">
-        <v>0.2874979327484941</v>
+        <v>0.2879218260797142</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2225,7 +2180,7 @@
         <v>143</v>
       </c>
       <c r="D45">
-        <v>5129421.33</v>
+        <v>5085821.33</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2234,10 +2189,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>5177821.33</v>
+        <v>5169421.33</v>
       </c>
       <c r="H45">
-        <v>0.3000057168832436</v>
+        <v>0.2994811026556428</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2251,7 +2206,7 @@
         <v>144</v>
       </c>
       <c r="D46">
-        <v>2622796.38</v>
+        <v>3673836.38</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2260,10 +2215,10 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>2522156.38</v>
+        <v>3557596.38</v>
       </c>
       <c r="H46">
-        <v>0.855683024698096</v>
+        <v>0.6049144900467882</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2277,7 +2232,7 @@
         <v>144</v>
       </c>
       <c r="D47">
-        <v>21808870.57</v>
+        <v>33244310.57</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2286,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>20785790.57</v>
+        <v>32104910.57</v>
       </c>
       <c r="H47">
-        <v>1.033426730999724</v>
+        <v>0.6673117607129971</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2303,7 +2258,7 @@
         <v>145</v>
       </c>
       <c r="D48">
-        <v>2031799.78</v>
+        <v>2014359.78</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2312,10 +2267,10 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>2056119.78</v>
+        <v>2046359.78</v>
       </c>
       <c r="H48">
-        <v>0.302195624031203</v>
+        <v>0.3026142353130103</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2329,7 +2284,7 @@
         <v>146</v>
       </c>
       <c r="D49">
-        <v>3339033.98</v>
+        <v>3299793.98</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2338,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>3386193.98</v>
+        <v>3373233.98</v>
       </c>
       <c r="H49">
-        <v>0.4128642388053622</v>
+        <v>0.4130545370588256</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2355,7 +2310,7 @@
         <v>147</v>
       </c>
       <c r="D50">
-        <v>3413218.53</v>
+        <v>3373978.53</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2364,10 +2319,10 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>3461098.53</v>
+        <v>3452818.53</v>
       </c>
       <c r="H50">
-        <v>0.4375898538779825</v>
+        <v>0.4371618105281659</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2381,7 +2336,7 @@
         <v>148</v>
       </c>
       <c r="D51">
-        <v>1777752.71</v>
+        <v>1755952.71</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2390,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1803352.71</v>
+        <v>1798952.71</v>
       </c>
       <c r="H51">
-        <v>0.4306911208734091</v>
+        <v>0.4302903548809796</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2407,7 +2362,7 @@
         <v>149</v>
       </c>
       <c r="D52">
-        <v>7942124.74</v>
+        <v>7876724.74</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2416,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>8030924.74</v>
+        <v>8005724.74</v>
       </c>
       <c r="H52">
-        <v>0.2901364507121506</v>
+        <v>0.2900694284924914</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2433,7 +2388,7 @@
         <v>150</v>
       </c>
       <c r="D53">
-        <v>1928799.14</v>
+        <v>1911359.14</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2442,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>1951839.14</v>
+        <v>1945279.14</v>
       </c>
       <c r="H53">
-        <v>0.3713978191870874</v>
+        <v>0.3713951304695532</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2459,7 +2414,7 @@
         <v>151</v>
       </c>
       <c r="D54">
-        <v>5508026.64</v>
+        <v>5478806.95</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2468,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>5568826.64</v>
+        <v>5546646.95</v>
       </c>
       <c r="H54">
-        <v>0.2789413462509941</v>
+        <v>0.2232907937289933</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2485,7 +2440,7 @@
         <v>152</v>
       </c>
       <c r="D55">
-        <v>4485302.36</v>
+        <v>4447702.36</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2494,10 +2449,10 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>4553942.359999999</v>
+        <v>4542422.360000001</v>
       </c>
       <c r="H55">
-        <v>0.3389239208552478</v>
+        <v>0.3387901604112392</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2511,7 +2466,7 @@
         <v>153</v>
       </c>
       <c r="D56">
-        <v>2470758.42</v>
+        <v>2453318.42</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2520,10 +2475,10 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>2493158.42</v>
+        <v>2490278.42</v>
       </c>
       <c r="H56">
-        <v>0.2699907052035626</v>
+        <v>0.2693925284065225</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2537,7 +2492,7 @@
         <v>154</v>
       </c>
       <c r="D57">
-        <v>3792069.97</v>
+        <v>3748469.97</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2546,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>3854069.97</v>
+        <v>3840869.97</v>
       </c>
       <c r="H57">
-        <v>0.5038102616491936</v>
+        <v>0.5038389779178075</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2563,7 +2518,7 @@
         <v>155</v>
       </c>
       <c r="D58">
-        <v>1842296.35</v>
+        <v>1824856.35</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2572,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>1867096.35</v>
+        <v>1862136.35</v>
       </c>
       <c r="H58">
-        <v>0.3882546286376704</v>
+        <v>0.3879776043252686</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2589,7 +2544,7 @@
         <v>156</v>
       </c>
       <c r="D59">
-        <v>7027340.409999999</v>
+        <v>10</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2598,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>7027340.409999999</v>
+        <v>10</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2615,7 +2570,7 @@
         <v>157</v>
       </c>
       <c r="D60">
-        <v>3536912.63</v>
+        <v>3477794.41</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2624,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>3602114.414535998</v>
+        <v>3595394.410000002</v>
       </c>
       <c r="H60">
-        <v>0.6471415762345446</v>
+        <v>0.6458863020816675</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2641,7 +2596,7 @@
         <v>158</v>
       </c>
       <c r="D61">
-        <v>4052665.59</v>
+        <v>4013425.59</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2650,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>4102705.59</v>
+        <v>4101625.59</v>
       </c>
       <c r="H61">
-        <v>0.4259501350180966</v>
+        <v>0.4246272512650283</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2667,7 +2622,7 @@
         <v>159</v>
       </c>
       <c r="D62">
-        <v>3487089.77</v>
+        <v>3439129.77</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2676,10 +2631,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>3544729.770000002</v>
+        <v>3548689.769999999</v>
       </c>
       <c r="H62">
-        <v>0.4820434027048552</v>
+        <v>0.479883706486972</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2693,7 +2648,7 @@
         <v>160</v>
       </c>
       <c r="D63">
-        <v>3658819.31</v>
+        <v>3704499.31</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2702,10 +2657,10 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>3561219.31</v>
+        <v>3574259.31</v>
       </c>
       <c r="H63">
-        <v>0.7024184084860527</v>
+        <v>0.6979387290173974</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2719,7 +2674,7 @@
         <v>161</v>
       </c>
       <c r="D64">
-        <v>1957792.62</v>
+        <v>1947342.11</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2728,10 +2683,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1980832.62</v>
+        <v>1976382.11</v>
       </c>
       <c r="H64">
-        <v>0.3921017819264305</v>
+        <v>0.2937458283307371</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2745,7 +2700,7 @@
         <v>162</v>
       </c>
       <c r="D65">
-        <v>3250667.38</v>
+        <v>3211427.38</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2754,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>3302507.38</v>
+        <v>3297107.38</v>
       </c>
       <c r="H65">
-        <v>0.4233263515068966</v>
+        <v>0.4225915141411014</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2771,19 +2726,19 @@
         <v>163</v>
       </c>
       <c r="D66">
-        <v>7467752.640000001</v>
+        <v>7393632.640000001</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="G66">
-        <v>7577232.640000004</v>
+        <v>4560912.640000001</v>
       </c>
       <c r="H66">
-        <v>0.3485097166028149</v>
+        <v>0.5770434576883277</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2823,7 +2778,7 @@
         <v>165</v>
       </c>
       <c r="D68">
-        <v>4682338.34</v>
+        <v>5764258.34</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2832,10 +2787,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>4512658.34</v>
+        <v>5544498.34</v>
       </c>
       <c r="H68">
-        <v>0.7521604660192379</v>
+        <v>0.6104092006996614</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2849,7 +2804,7 @@
         <v>166</v>
       </c>
       <c r="D69">
-        <v>1626031.81</v>
+        <v>2152911.81</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2858,10 +2813,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>1553391.81</v>
+        <v>2073231.81</v>
       </c>
       <c r="H69">
-        <v>0.9893292793915269</v>
+        <v>0.739321089232178</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2875,7 +2830,7 @@
         <v>167</v>
       </c>
       <c r="D70">
-        <v>9523381.189999999</v>
+        <v>12481301.19</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2884,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>9113541.189999999</v>
+        <v>12026341.19</v>
       </c>
       <c r="H70">
-        <v>0.7925607674792322</v>
+        <v>0.5990254796687675</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2901,7 +2856,7 @@
         <v>167</v>
       </c>
       <c r="D71">
-        <v>7186959.040000001</v>
+        <v>7283621.090000001</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2910,10 +2865,10 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>6917879.040000001</v>
+        <v>7010341.090000001</v>
       </c>
       <c r="H71">
-        <v>0.6886691097738534</v>
+        <v>0.6122091842466966</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2953,7 +2908,7 @@
         <v>169</v>
       </c>
       <c r="D73">
-        <v>6190149.54</v>
+        <v>6132749.54</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2962,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>6310109.54</v>
+        <v>6280629.54</v>
       </c>
       <c r="H73">
-        <v>0.3671593948272411</v>
+        <v>0.3677860611406161</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3057,7 +3012,7 @@
         <v>173</v>
       </c>
       <c r="D77">
-        <v>12127421.47</v>
+        <v>12396134.29</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3066,10 +3021,10 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>11572794.43454399</v>
+        <v>11817862.97590401</v>
       </c>
       <c r="H77">
-        <v>0.8526702565929412</v>
+        <v>0.7664764448927034</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3083,7 +3038,7 @@
         <v>174</v>
       </c>
       <c r="D78">
-        <v>3172537.45</v>
+        <v>3719577.45</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3092,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>3031977.45</v>
+        <v>3573417.45</v>
       </c>
       <c r="H78">
-        <v>0.7096168871572578</v>
+        <v>0.6005169085408701</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3135,7 +3090,7 @@
         <v>175</v>
       </c>
       <c r="D80">
-        <v>2478162.17</v>
+        <v>2505042.17</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3144,10 +3099,10 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>2405522.17</v>
+        <v>2419602.17</v>
       </c>
       <c r="H80">
-        <v>0.5110960170448148</v>
+        <v>0.5067887668492215</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3161,7 +3116,7 @@
         <v>176</v>
       </c>
       <c r="D81">
-        <v>2305943.2</v>
+        <v>2297223.2</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3170,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>2319943.2</v>
+        <v>2319223.2</v>
       </c>
       <c r="H81">
-        <v>0.1339150027466189</v>
+        <v>0.1335053909429674</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3187,7 +3142,7 @@
         <v>177</v>
       </c>
       <c r="D82">
-        <v>3363399.08</v>
+        <v>3413799.08</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3196,10 +3151,10 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>3219399.08</v>
+        <v>3248799.08</v>
       </c>
       <c r="H82">
-        <v>0.775711844957103</v>
+        <v>0.7666752971377968</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3213,7 +3168,7 @@
         <v>178</v>
       </c>
       <c r="D83">
-        <v>3371513.66</v>
+        <v>3405113.66</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3222,10 +3177,10 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>3276313.66</v>
+        <v>3291513.66</v>
       </c>
       <c r="H83">
-        <v>0.5472467492627063</v>
+        <v>0.5432904689813745</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3265,7 +3220,7 @@
         <v>179</v>
       </c>
       <c r="D85">
-        <v>4479928.04</v>
+        <v>4530328.04</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3274,10 +3229,10 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>4335928.04</v>
+        <v>4359928.04</v>
       </c>
       <c r="H85">
-        <v>0.6645705310183144</v>
+        <v>0.6591783106585402</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3291,7 +3246,7 @@
         <v>180</v>
       </c>
       <c r="D86">
-        <v>16660846.43</v>
+        <v>16861703.75</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3300,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>16116526.43</v>
+        <v>16207143.75</v>
       </c>
       <c r="H86">
-        <v>0.5442514699490359</v>
+        <v>0.5110818863441011</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3317,7 +3272,7 @@
         <v>181</v>
       </c>
       <c r="D87">
-        <v>4735554.96</v>
+        <v>4802754.96</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3326,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>4539554.96</v>
+        <v>4565154.96</v>
       </c>
       <c r="H87">
-        <v>0.6770778252677</v>
+        <v>0.6715145546778984</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3343,7 +3298,7 @@
         <v>182</v>
       </c>
       <c r="D88">
-        <v>4407511.09</v>
+        <v>4410871.09</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3352,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>4397711.09</v>
+        <v>4398591.09</v>
       </c>
       <c r="H88">
-        <v>0.03494581541508221</v>
+        <v>0.03484715829768119</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3369,7 +3324,7 @@
         <v>183</v>
       </c>
       <c r="D89">
-        <v>47695785.84</v>
+        <v>48418185.84</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3378,10 +3333,10 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>45666185.84</v>
+        <v>45898385.84</v>
       </c>
       <c r="H89">
-        <v>0.7235450780971142</v>
+        <v>0.7179959686355687</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3395,7 +3350,7 @@
         <v>184</v>
       </c>
       <c r="D90">
-        <v>13717663.8</v>
+        <v>13869877.48</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3404,10 +3359,10 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>13217077.48237399</v>
+        <v>13266037.48</v>
       </c>
       <c r="H90">
-        <v>0.7412532772895772</v>
+        <v>0.7365800085166049</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3421,7 +3376,7 @@
         <v>185</v>
       </c>
       <c r="D91">
-        <v>2099630.54</v>
+        <v>2131870.54</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3430,10 +3385,10 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>2017110.54</v>
+        <v>2026110.54</v>
       </c>
       <c r="H91">
-        <v>0.7446213631901403</v>
+        <v>0.7392451549065037</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3447,7 +3402,7 @@
         <v>186</v>
       </c>
       <c r="D92">
-        <v>2763996.32</v>
+        <v>3190163.21</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3456,10 +3411,10 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>2633203.20896</v>
+        <v>3048083.209999998</v>
       </c>
       <c r="H92">
-        <v>0.7003558227959058</v>
+        <v>0.6034417938347559</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3499,7 +3454,7 @@
         <v>187</v>
       </c>
       <c r="D94">
-        <v>6059862.34</v>
+        <v>6127062.34</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3508,10 +3463,10 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>5871862.34</v>
+        <v>5891062.34</v>
       </c>
       <c r="H94">
-        <v>0.6543137045000955</v>
+        <v>0.6504701153782053</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3525,19 +3480,19 @@
         <v>188</v>
       </c>
       <c r="D95">
-        <v>13148870.97</v>
+        <v>13221017</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>5300000</v>
       </c>
       <c r="G95">
-        <v>13455030.97</v>
+        <v>8004177</v>
       </c>
       <c r="H95">
-        <v>0.6205408236232398</v>
+        <v>0.1692398856247182</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3551,7 +3506,7 @@
         <v>189</v>
       </c>
       <c r="D96">
-        <v>9245599.449999999</v>
+        <v>12096799.45</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -3560,10 +3515,10 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>8809999.449999999</v>
+        <v>11549599.45</v>
       </c>
       <c r="H96">
-        <v>0.7849798446922713</v>
+        <v>0.5972092824396612</v>
       </c>
     </row>
   </sheetData>
@@ -3573,7 +3528,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3759,7 +3714,7 @@
         <v>197</v>
       </c>
       <c r="F9">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3799,7 +3754,7 @@
         <v>197</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3839,7 +3794,7 @@
         <v>197</v>
       </c>
       <c r="F13">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3899,7 +3854,7 @@
         <v>197</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3999,7 +3954,7 @@
         <v>198</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4013,13 +3968,13 @@
         <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E22" t="s">
         <v>197</v>
       </c>
       <c r="F22">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4033,13 +3988,13 @@
         <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E23" t="s">
         <v>197</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4059,7 +4014,7 @@
         <v>197</v>
       </c>
       <c r="F24">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4087,19 +4042,19 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F26">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4107,10 +4062,10 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D27" t="s">
         <v>194</v>
@@ -4119,7 +4074,7 @@
         <v>197</v>
       </c>
       <c r="F27">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4127,7 +4082,7 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
         <v>128</v>
@@ -4139,7 +4094,7 @@
         <v>197</v>
       </c>
       <c r="F28">
-        <v>158</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4167,19 +4122,19 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E30" t="s">
         <v>197</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4193,13 +4148,13 @@
         <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E31" t="s">
         <v>197</v>
       </c>
       <c r="F31">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4207,10 +4162,10 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" t="s">
         <v>194</v>
@@ -4219,7 +4174,7 @@
         <v>197</v>
       </c>
       <c r="F32">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4227,10 +4182,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
         <v>194</v>
@@ -4239,7 +4194,7 @@
         <v>197</v>
       </c>
       <c r="F33">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4247,19 +4202,19 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F34">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4267,19 +4222,19 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E35" t="s">
         <v>198</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4287,19 +4242,19 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E36" t="s">
         <v>198</v>
       </c>
       <c r="F36">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4307,10 +4262,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D37" t="s">
         <v>195</v>
@@ -4319,7 +4274,7 @@
         <v>198</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4327,19 +4282,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4347,19 +4302,19 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F39">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4367,19 +4322,19 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F40">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4387,19 +4342,19 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4413,13 +4368,13 @@
         <v>140</v>
       </c>
       <c r="D42" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E42" t="s">
         <v>198</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4427,19 +4382,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F43">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4453,13 +4408,13 @@
         <v>141</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E44" t="s">
         <v>197</v>
       </c>
       <c r="F44">
-        <v>162</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4467,19 +4422,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F45">
-        <v>7</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4493,7 +4448,7 @@
         <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E46" t="s">
         <v>198</v>
@@ -4507,19 +4462,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E47" t="s">
         <v>198</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4527,19 +4482,19 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" t="s">
         <v>195</v>
       </c>
       <c r="E48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4553,13 +4508,13 @@
         <v>144</v>
       </c>
       <c r="D49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E49" t="s">
         <v>197</v>
       </c>
       <c r="F49">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4567,19 +4522,19 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
         <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E50" t="s">
         <v>197</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4593,13 +4548,13 @@
         <v>144</v>
       </c>
       <c r="D51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E51" t="s">
         <v>197</v>
       </c>
       <c r="F51">
-        <v>127</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4607,19 +4562,19 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4627,10 +4582,10 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D53" t="s">
         <v>195</v>
@@ -4639,7 +4594,7 @@
         <v>198</v>
       </c>
       <c r="F53">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4647,10 +4602,10 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D54" t="s">
         <v>195</v>
@@ -4667,10 +4622,10 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D55" t="s">
         <v>195</v>
@@ -4679,7 +4634,7 @@
         <v>198</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4687,10 +4642,10 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D56" t="s">
         <v>195</v>
@@ -4699,7 +4654,7 @@
         <v>198</v>
       </c>
       <c r="F56">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4707,10 +4662,10 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D57" t="s">
         <v>195</v>
@@ -4719,7 +4674,7 @@
         <v>198</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4727,10 +4682,10 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
         <v>195</v>
@@ -4739,7 +4694,7 @@
         <v>198</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4747,10 +4702,10 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D59" t="s">
         <v>195</v>
@@ -4759,7 +4714,7 @@
         <v>198</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4773,13 +4728,13 @@
         <v>152</v>
       </c>
       <c r="D60" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E60" t="s">
         <v>198</v>
       </c>
       <c r="F60">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4787,19 +4742,19 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E61" t="s">
         <v>198</v>
       </c>
       <c r="F61">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4807,10 +4762,10 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D62" t="s">
         <v>195</v>
@@ -4819,7 +4774,7 @@
         <v>198</v>
       </c>
       <c r="F62">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4827,10 +4782,10 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
         <v>195</v>
@@ -4839,7 +4794,7 @@
         <v>198</v>
       </c>
       <c r="F63">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4847,10 +4802,10 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D64" t="s">
         <v>195</v>
@@ -4859,7 +4814,7 @@
         <v>198</v>
       </c>
       <c r="F64">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4867,10 +4822,10 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D65" t="s">
         <v>195</v>
@@ -4879,7 +4834,7 @@
         <v>198</v>
       </c>
       <c r="F65">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4887,10 +4842,10 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D66" t="s">
         <v>195</v>
@@ -4899,7 +4854,7 @@
         <v>198</v>
       </c>
       <c r="F66">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4907,19 +4862,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D67" t="s">
         <v>195</v>
       </c>
       <c r="E67" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4933,13 +4888,13 @@
         <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E68" t="s">
         <v>197</v>
       </c>
       <c r="F68">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4947,19 +4902,19 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4967,10 +4922,10 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s">
         <v>195</v>
@@ -4979,7 +4934,7 @@
         <v>198</v>
       </c>
       <c r="F70">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4987,10 +4942,10 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D71" t="s">
         <v>195</v>
@@ -4999,7 +4954,7 @@
         <v>198</v>
       </c>
       <c r="F71">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5007,19 +4962,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D72" t="s">
         <v>195</v>
       </c>
       <c r="E72" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F72">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5033,13 +4988,13 @@
         <v>165</v>
       </c>
       <c r="D73" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E73" t="s">
         <v>197</v>
       </c>
       <c r="F73">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5047,10 +5002,10 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D74" t="s">
         <v>194</v>
@@ -5059,7 +5014,7 @@
         <v>197</v>
       </c>
       <c r="F74">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5067,10 +5022,10 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s">
         <v>194</v>
@@ -5079,7 +5034,7 @@
         <v>197</v>
       </c>
       <c r="F75">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5087,7 +5042,7 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
         <v>167</v>
@@ -5099,7 +5054,7 @@
         <v>197</v>
       </c>
       <c r="F76">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5107,19 +5062,19 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F77">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5133,13 +5088,13 @@
         <v>169</v>
       </c>
       <c r="D78" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E78" t="s">
         <v>198</v>
       </c>
       <c r="F78">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5147,19 +5102,19 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F79">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5173,13 +5128,13 @@
         <v>173</v>
       </c>
       <c r="D80" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E80" t="s">
         <v>197</v>
       </c>
       <c r="F80">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5187,10 +5142,10 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D81" t="s">
         <v>194</v>
@@ -5199,7 +5154,7 @@
         <v>197</v>
       </c>
       <c r="F81">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5207,10 +5162,10 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D82" t="s">
         <v>194</v>
@@ -5219,7 +5174,7 @@
         <v>197</v>
       </c>
       <c r="F82">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5227,19 +5182,19 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5247,19 +5202,19 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D84" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F84">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5267,10 +5222,10 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D85" t="s">
         <v>194</v>
@@ -5279,7 +5234,7 @@
         <v>197</v>
       </c>
       <c r="F85">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5287,10 +5242,10 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D86" t="s">
         <v>194</v>
@@ -5299,7 +5254,7 @@
         <v>197</v>
       </c>
       <c r="F86">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5307,19 +5262,19 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E87" t="s">
         <v>197</v>
       </c>
       <c r="F87">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5333,13 +5288,13 @@
         <v>180</v>
       </c>
       <c r="D88" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E88" t="s">
         <v>197</v>
       </c>
       <c r="F88">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5347,10 +5302,10 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D89" t="s">
         <v>194</v>
@@ -5359,7 +5314,7 @@
         <v>197</v>
       </c>
       <c r="F89">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5367,10 +5322,10 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
         <v>194</v>
@@ -5379,7 +5334,7 @@
         <v>197</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5387,10 +5342,10 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
         <v>194</v>
@@ -5399,7 +5354,7 @@
         <v>197</v>
       </c>
       <c r="F91">
-        <v>215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5407,10 +5362,10 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D92" t="s">
         <v>194</v>
@@ -5419,7 +5374,7 @@
         <v>197</v>
       </c>
       <c r="F92">
-        <v>51</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5427,19 +5382,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E93" t="s">
         <v>197</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5467,19 +5422,19 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D95" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E95" t="s">
         <v>197</v>
       </c>
       <c r="F95">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5487,10 +5442,10 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C96" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D96" t="s">
         <v>194</v>
@@ -5499,7 +5454,7 @@
         <v>197</v>
       </c>
       <c r="F96">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5507,19 +5462,19 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E97" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F97">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5527,18 +5482,38 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98" t="s">
+        <v>188</v>
+      </c>
+      <c r="D98" t="s">
+        <v>195</v>
+      </c>
+      <c r="E98" t="s">
+        <v>198</v>
+      </c>
+      <c r="F98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
         <v>103</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>189</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>194</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E99" t="s">
         <v>197</v>
       </c>
-      <c r="F98">
+      <c r="F99">
         <v>45</v>
       </c>
     </row>
@@ -5549,7 +5524,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5580,16 +5555,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>194</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5597,16 +5572,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5614,16 +5589,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
         <v>195</v>
       </c>
       <c r="E4">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5631,16 +5606,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5648,67 +5623,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
@@ -5718,7 +5642,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5761,10 +5685,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>203</v>
@@ -5773,16 +5697,16 @@
         <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>6470</v>
+        <v>6425.4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5790,28 +5714,28 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
         <v>204</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="G3" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>6463.4</v>
+        <v>6468.2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5819,28 +5743,28 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="G4" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>6464.6</v>
+        <v>6468.2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5848,28 +5772,28 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F5" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="G5" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>6462.2</v>
+        <v>6468.2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5877,28 +5801,28 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E6" t="s">
         <v>195</v>
       </c>
       <c r="F6" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>6522</v>
+        <v>6468.2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5906,28 +5830,28 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E7" t="s">
         <v>195</v>
       </c>
       <c r="F7" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G7" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>6513.2</v>
+        <v>6468.2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5935,28 +5859,28 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E8" t="s">
         <v>195</v>
       </c>
       <c r="F8" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G8" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>6514.6</v>
+        <v>6468.2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5964,28 +5888,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E9" t="s">
         <v>195</v>
       </c>
       <c r="F9" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="G9" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>6519.8</v>
+        <v>6468.2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5993,28 +5917,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F10" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>6459.2</v>
+        <v>6492.4</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6022,28 +5946,28 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" t="s">
         <v>212</v>
-      </c>
-      <c r="E11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G11" t="s">
-        <v>227</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>6447.8</v>
+        <v>6481.4</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6051,28 +5975,28 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E12" t="s">
         <v>194</v>
       </c>
       <c r="F12" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="G12" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>6453.4</v>
+        <v>6423.2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6080,28 +6004,28 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E13" t="s">
         <v>194</v>
       </c>
       <c r="F13" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="G13" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>6458.4</v>
+        <v>6419.8</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6109,289 +6033,28 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E14" t="s">
         <v>194</v>
       </c>
       <c r="F14" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="G14" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>6455.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>157</v>
-      </c>
-      <c r="D15" t="s">
-        <v>216</v>
-      </c>
-      <c r="E15" t="s">
-        <v>195</v>
-      </c>
-      <c r="F15" t="s">
-        <v>225</v>
-      </c>
-      <c r="G15" t="s">
-        <v>228</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>6506.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" t="s">
-        <v>217</v>
-      </c>
-      <c r="E16" t="s">
-        <v>194</v>
-      </c>
-      <c r="F16" t="s">
-        <v>226</v>
-      </c>
-      <c r="G16" t="s">
-        <v>228</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>6454.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D17" t="s">
-        <v>218</v>
-      </c>
-      <c r="E17" t="s">
-        <v>194</v>
-      </c>
-      <c r="F17" t="s">
-        <v>226</v>
-      </c>
-      <c r="G17" t="s">
-        <v>228</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>6449.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" t="s">
-        <v>194</v>
-      </c>
-      <c r="F18" t="s">
-        <v>226</v>
-      </c>
-      <c r="G18" t="s">
-        <v>228</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>6449.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" t="s">
-        <v>220</v>
-      </c>
-      <c r="E19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F19" t="s">
-        <v>226</v>
-      </c>
-      <c r="G19" t="s">
-        <v>228</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>6449.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" t="s">
-        <v>194</v>
-      </c>
-      <c r="F20" t="s">
-        <v>226</v>
-      </c>
-      <c r="G20" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>6449.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21" t="s">
-        <v>194</v>
-      </c>
-      <c r="F21" t="s">
-        <v>225</v>
-      </c>
-      <c r="G21" t="s">
-        <v>227</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>6453.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" t="s">
-        <v>223</v>
-      </c>
-      <c r="E22" t="s">
-        <v>194</v>
-      </c>
-      <c r="F22" t="s">
-        <v>225</v>
-      </c>
-      <c r="G22" t="s">
-        <v>227</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>6448.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" t="s">
-        <v>224</v>
-      </c>
-      <c r="E23" t="s">
-        <v>194</v>
-      </c>
-      <c r="F23" t="s">
-        <v>225</v>
-      </c>
-      <c r="G23" t="s">
-        <v>227</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>6474</v>
+        <v>6416.8</v>
       </c>
     </row>
   </sheetData>

--- a/info_faccts.xlsx
+++ b/info_faccts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="207">
   <si>
     <t>DataDateTime</t>
   </si>
@@ -43,7 +43,7 @@
     <t>CurrentMarginRate</t>
   </si>
   <si>
-    <t>20200731T093622</t>
+    <t>20200803T093952</t>
   </si>
   <si>
     <t>10_f_xb_3670</t>
@@ -58,9 +58,6 @@
     <t>11023_f_huat_3955</t>
   </si>
   <si>
-    <t>1102_f_zc_0105</t>
-  </si>
-  <si>
     <t>1104_f_zxjt_5046</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>1402_f_yh_8956</t>
   </si>
   <si>
-    <t>1501_f_ya_0464</t>
-  </si>
-  <si>
     <t>1601_f_nh_5963</t>
   </si>
   <si>
@@ -343,9 +337,6 @@
     <t>11023</t>
   </si>
   <si>
-    <t>1102</t>
-  </si>
-  <si>
     <t>1104</t>
   </si>
   <si>
@@ -394,9 +385,6 @@
     <t>1402</t>
   </si>
   <si>
-    <t>1501</t>
-  </si>
-  <si>
     <t>1601</t>
   </si>
   <si>
@@ -628,25 +616,16 @@
     <t>Price</t>
   </si>
   <si>
-    <t>09:33:01</t>
-  </si>
-  <si>
-    <t>09:30:01</t>
-  </si>
-  <si>
-    <t>09:33:34</t>
-  </si>
-  <si>
-    <t>09:32:28</t>
-  </si>
-  <si>
-    <t>09:31:50</t>
-  </si>
-  <si>
-    <t>09:32:01</t>
-  </si>
-  <si>
-    <t>09:31:56</t>
+    <t>09:31:02</t>
+  </si>
+  <si>
+    <t>09:31:08</t>
+  </si>
+  <si>
+    <t>09:34:14</t>
+  </si>
+  <si>
+    <t>09:30:51</t>
   </si>
   <si>
     <t>buy</t>
@@ -1016,7 +995,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1059,10 +1038,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2">
-        <v>21472348.15</v>
+        <v>20662748.15</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1071,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>20880348.15</v>
+        <v>19049948.15</v>
       </c>
       <c r="H2">
-        <v>0.6362024188758553</v>
+        <v>0.7028562962256667</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1085,7 +1064,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3">
         <v>1549178.61</v>
@@ -1111,10 +1090,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4">
-        <v>4188276.31</v>
+        <v>4306316.310000001</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1123,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4282956.310000001</v>
+        <v>4553036.310000001</v>
       </c>
       <c r="H4">
-        <v>0.4312490406889067</v>
+        <v>0.4087789934624967</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1137,10 +1116,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5">
-        <v>11655061.59</v>
+        <v>11219901.59</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1149,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>11302461.58999999</v>
+        <v>10323781.59000001</v>
       </c>
       <c r="H5">
-        <v>0.7458828267515489</v>
+        <v>0.8230611938004002</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1163,10 +1142,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6">
-        <v>3361834.94</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1175,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3452034.940000002</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>0.4884256472792246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1189,10 +1168,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>11981967.48</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1201,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>11016767.48</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.6323742434110077</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1215,10 +1194,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8">
-        <v>12437754.06</v>
+        <v>5484121.52</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1227,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>12066514.06</v>
+        <v>5700121.52</v>
       </c>
       <c r="H8">
-        <v>0.5474929351717016</v>
+        <v>0.2735857462912475</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1241,10 +1220,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D9">
-        <v>5389721.52</v>
+        <v>2525036.37</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1253,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5476121.52</v>
+        <v>2330636.37</v>
       </c>
       <c r="H9">
-        <v>0.2827081163823406</v>
+        <v>0.5965903638584341</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1267,10 +1246,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10">
-        <v>2616116.37</v>
+        <v>1001</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1279,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2537996.37</v>
+        <v>1001</v>
       </c>
       <c r="H10">
-        <v>0.5435412029371816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1293,10 +1272,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D11">
-        <v>1001</v>
+        <v>3359407.84</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1305,10 +1284,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1001</v>
+        <v>3093967.839999998</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.5992026083891039</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1319,10 +1298,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D12">
-        <v>3480847.84</v>
+        <v>5704915.310000001</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1331,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3376687.84</v>
+        <v>5218275.310000001</v>
       </c>
       <c r="H12">
-        <v>0.5447174530648945</v>
+        <v>0.6513342815559493</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1345,10 +1324,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D13">
-        <v>5935339.59</v>
+        <v>1010</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1357,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5737708.442023196</v>
+        <v>1010</v>
       </c>
       <c r="H13">
-        <v>0.5609985994452149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1371,10 +1350,10 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D14">
-        <v>1010</v>
+        <v>10332812.56</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1383,10 +1362,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1010</v>
+        <v>9735572.559999999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.4284602240178875</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1397,10 +1376,10 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D15">
-        <v>10606052.56</v>
+        <v>14438674.11</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1409,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>10377092.56</v>
+        <v>13006089.08504</v>
       </c>
       <c r="H15">
-        <v>0.3988127479899822</v>
+        <v>0.7364668608196404</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1423,10 +1402,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D16">
-        <v>15086354.11</v>
+        <v>2507932.19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1435,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14523154.11</v>
+        <v>2263212.189999999</v>
       </c>
       <c r="H16">
-        <v>0.6754605456706823</v>
+        <v>0.7528167299240291</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1449,10 +1428,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D17">
-        <v>3417212.19</v>
+        <v>2077811.98</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1461,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3318252.19</v>
+        <v>1921571.98</v>
       </c>
       <c r="H17">
-        <v>0.509506301267596</v>
+        <v>0.6096937362710712</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1475,10 +1454,10 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D18">
-        <v>2148651.98</v>
+        <v>4192328.67</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1487,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2085091.98</v>
+        <v>3834568.67</v>
       </c>
       <c r="H18">
-        <v>0.5574627935598313</v>
+        <v>0.6446317728872488</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1501,10 +1480,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D19">
-        <v>4354248.67</v>
+        <v>1287208.8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1513,10 +1492,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4209608.67</v>
+        <v>1309408.8</v>
       </c>
       <c r="H19">
-        <v>0.5825848890604834</v>
+        <v>0.1190974125116618</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1527,10 +1506,10 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D20">
-        <v>1277768.8</v>
+        <v>70410.04000000001</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1539,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1286968.8</v>
+        <v>70410.04000000001</v>
       </c>
       <c r="H20">
-        <v>0.1202938253048559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1553,10 +1532,10 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D21">
-        <v>3796250</v>
+        <v>12050373.15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1565,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3866028.052799998</v>
+        <v>11031533.14999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.6586142380399771</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1579,10 +1558,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D22">
-        <v>12533767.35</v>
+        <v>29625939.1</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1591,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>12080647.35</v>
+        <v>27236705.278244</v>
       </c>
       <c r="H22">
-        <v>0.6095291905031898</v>
+        <v>0.6239450706827813</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1605,10 +1584,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D23">
-        <v>30749259.1</v>
+        <v>9928066.890000001</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1617,10 +1596,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>29768019.1</v>
+        <v>9113066.890000008</v>
       </c>
       <c r="H23">
-        <v>0.5715497004636101</v>
+        <v>0.6611626220599365</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1631,10 +1610,10 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D24">
-        <v>10321698.73</v>
+        <v>4522815.029999999</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1643,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>9969666.891100001</v>
+        <v>4522815.029999999</v>
       </c>
       <c r="H24">
-        <v>0.5996045470021152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1657,10 +1636,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D25">
-        <v>4526030.43</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1669,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4372350.43</v>
-      </c>
-      <c r="H25">
-        <v>0.6456200721313183</v>
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1683,10 +1662,10 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D26">
-        <v>4522815.029999999</v>
+        <v>1751001</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1695,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>4522815.029999999</v>
+        <v>1751001</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1709,10 +1688,10 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>19993383.58</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1721,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" t="s">
-        <v>190</v>
+        <v>18274983.58</v>
+      </c>
+      <c r="H27">
+        <v>0.676302878516732</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1735,10 +1714,10 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D28">
-        <v>1751001</v>
+        <v>37859015.83</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1747,10 +1726,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1751001</v>
+        <v>34017735.83</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>0.7909114743689889</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1761,10 +1740,10 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D29">
-        <v>20802983.58</v>
+        <v>8395477.790000001</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1773,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>20166183.58</v>
+        <v>7711197.790000001</v>
       </c>
       <c r="H29">
-        <v>0.6080611113825841</v>
+        <v>0.6220238321756232</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1787,10 +1766,10 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D30">
-        <v>39609015.83</v>
+        <v>14923788.14</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1799,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>38285975.83</v>
+        <v>13541388.14</v>
       </c>
       <c r="H30">
-        <v>0.6972531591863551</v>
+        <v>0.7301717591856871</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1813,10 +1792,10 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D31">
-        <v>8711990.17</v>
+        <v>4273601.27</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1825,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>8470837.7870612</v>
+        <v>4124641.27</v>
       </c>
       <c r="H31">
-        <v>0.5618464807896119</v>
+        <v>0.2621924015224723</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1839,10 +1818,10 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D32">
-        <v>15571468.14</v>
+        <v>10069625.52</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1851,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>15082508.14</v>
+        <v>10697225.52</v>
       </c>
       <c r="H32">
-        <v>0.6504102307747874</v>
+        <v>0.5466856792975231</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1865,10 +1844,10 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D33">
-        <v>4344441.27</v>
+        <v>1051438.76</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1877,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>4290961.27</v>
+        <v>1086958.76</v>
       </c>
       <c r="H33">
-        <v>0.2500485864324756</v>
+        <v>0.2829789052898383</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1891,10 +1870,10 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D34">
-        <v>9786425.52</v>
+        <v>1637.84</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1903,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>10040825.52</v>
+        <v>1637.84</v>
       </c>
       <c r="H34">
-        <v>0.578193494990639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1917,10 +1896,10 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D35">
-        <v>1040878.76</v>
+        <v>6977942.55</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1929,10 +1908,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1057678.76</v>
+        <v>7291142.55</v>
       </c>
       <c r="H35">
-        <v>0.289714430873132</v>
+        <v>0.3208287293738346</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1943,10 +1922,10 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D36">
-        <v>1637.84</v>
+        <v>1001399.95</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1955,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1637.84</v>
+        <v>1064759.949999999</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>0.4393869247242069</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1969,10 +1948,10 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D37">
-        <v>6836342.55</v>
+        <v>1273357.25</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1981,10 +1960,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>6961142.55</v>
+        <v>1188077.25</v>
       </c>
       <c r="H37">
-        <v>0.3335969610333579</v>
+        <v>0.5634892848928805</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1995,10 +1974,10 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D38">
-        <v>973079.95</v>
+        <v>2863475.62</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2007,10 +1986,10 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>997319.95</v>
+        <v>3029875.62</v>
       </c>
       <c r="H38">
-        <v>0.4656912759039865</v>
+        <v>0.4117586846683824</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2021,10 +2000,10 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D39">
-        <v>1313837.25</v>
+        <v>16620141.06</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2033,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1279917.25</v>
+        <v>15392861.06</v>
       </c>
       <c r="H39">
-        <v>0.5189447989704022</v>
+        <v>0.6306363425331926</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2047,10 +2026,10 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D40">
-        <v>2787955.62</v>
+        <v>1641986.52</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2059,10 +2038,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>2852595.62</v>
+        <v>1789106.52</v>
       </c>
       <c r="H40">
-        <v>0.434171317980219</v>
+        <v>0.6592387802599926</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2073,10 +2052,10 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D41">
-        <v>17207101.06</v>
+        <v>42997092.48999999</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2085,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>16733821.06000001</v>
+        <v>39376932.48999999</v>
       </c>
       <c r="H41">
-        <v>0.5755405633577381</v>
+        <v>0.6553981726878815</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2099,10 +2078,10 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D42">
-        <v>1625442.36</v>
+        <v>7521199.840000001</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2111,10 +2090,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1648202.36</v>
+        <v>7824159.840000001</v>
       </c>
       <c r="H42">
-        <v>0.3032508702390161</v>
+        <v>0.2777397247037836</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2125,10 +2104,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D43">
-        <v>44683732.48999999</v>
+        <v>5180221.33</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2137,10 +2116,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>43368572.48999999</v>
+        <v>5391821.33</v>
       </c>
       <c r="H43">
-        <v>0.5904084762278961</v>
+        <v>0.2892291685043651</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2151,10 +2130,10 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D44">
-        <v>7384279.840000001</v>
+        <v>3534876.38</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2163,10 +2142,10 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>7490399.840000001</v>
+        <v>3238236.38</v>
       </c>
       <c r="H44">
-        <v>0.2879218260797142</v>
+        <v>0.6697215846855507</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2177,10 +2156,10 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D45">
-        <v>5085821.33</v>
+        <v>31940190.57</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2189,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>5169421.33</v>
+        <v>29087350.57</v>
       </c>
       <c r="H45">
-        <v>0.2994811026556428</v>
+        <v>0.7423680595465092</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2203,10 +2182,10 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D46">
-        <v>3673836.38</v>
+        <v>2052119.78</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2215,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>3557596.38</v>
+        <v>2139319.78</v>
       </c>
       <c r="H46">
-        <v>0.6049144900467882</v>
+        <v>0.2915827759045915</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2229,10 +2208,10 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47">
-        <v>33244310.57</v>
+        <v>3384753.98</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2241,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>32104910.57</v>
+        <v>3577353.98</v>
       </c>
       <c r="H47">
-        <v>0.6673117607129971</v>
+        <v>0.3923360136700813</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2255,10 +2234,10 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D48">
-        <v>2014359.78</v>
+        <v>3458938.53</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2267,10 +2246,10 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>2046359.78</v>
+        <v>3655498.53</v>
       </c>
       <c r="H48">
-        <v>0.3026142353130103</v>
+        <v>0.4159446892186277</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2281,10 +2260,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49">
-        <v>3299793.98</v>
+        <v>1803152.71</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2293,10 +2272,10 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>3373233.98</v>
+        <v>1909352.71</v>
       </c>
       <c r="H49">
-        <v>0.4130545370588256</v>
+        <v>0.4083771405441375</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2307,10 +2286,10 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50">
-        <v>3373978.53</v>
+        <v>8018324.74</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2319,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>3452818.53</v>
+        <v>8339324.74</v>
       </c>
       <c r="H50">
-        <v>0.4371618105281659</v>
+        <v>0.2805032868884297</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2333,10 +2312,10 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D51">
-        <v>1755952.71</v>
+        <v>1949119.14</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2345,10 +2324,10 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1798952.71</v>
+        <v>2034719.14</v>
       </c>
       <c r="H51">
-        <v>0.4302903548809796</v>
+        <v>0.3576678400931542</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2359,10 +2338,10 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D52">
-        <v>7876724.74</v>
+        <v>5507770.58</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2371,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>8005724.74</v>
+        <v>5507770.58</v>
       </c>
       <c r="H52">
-        <v>0.2900694284924914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2385,10 +2364,10 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D53">
-        <v>1911359.14</v>
+        <v>4546182.36</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2397,10 +2376,10 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>1945279.14</v>
+        <v>4760822.360000001</v>
       </c>
       <c r="H53">
-        <v>0.3713951304695532</v>
+        <v>0.325730616002232</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2411,10 +2390,10 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D54">
-        <v>5478806.95</v>
+        <v>2491078.42</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2423,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>5546646.95</v>
+        <v>2577158.42</v>
       </c>
       <c r="H54">
-        <v>0.2232907937289933</v>
+        <v>0.2622156227400255</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2437,10 +2416,10 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D55">
-        <v>4447702.36</v>
+        <v>3842869.97</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2449,10 +2428,10 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>4542422.360000001</v>
+        <v>4055669.97</v>
       </c>
       <c r="H55">
-        <v>0.3387901604112392</v>
+        <v>0.4806456182133577</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2463,10 +2442,10 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D56">
-        <v>2453318.42</v>
+        <v>1862616.35</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2475,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>2490278.42</v>
+        <v>1947736.35</v>
       </c>
       <c r="H56">
-        <v>0.2693925284065225</v>
+        <v>0.3736407137444449</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2489,10 +2468,10 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D57">
-        <v>3748469.97</v>
+        <v>10</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2501,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>3840869.97</v>
+        <v>10</v>
       </c>
       <c r="H57">
-        <v>0.5038389779178075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2515,10 +2494,10 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D58">
-        <v>1824856.35</v>
+        <v>3591074.41</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2527,10 +2506,10 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>1862136.35</v>
+        <v>3837314.409999998</v>
       </c>
       <c r="H58">
-        <v>0.3879776043252686</v>
+        <v>0.6095950839743677</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2541,10 +2520,10 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D59">
-        <v>10</v>
+        <v>4098385.59</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2553,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>10</v>
+        <v>4274065.59</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>0.4104770886307339</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2567,10 +2546,10 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D60">
-        <v>3477794.41</v>
+        <v>3542969.77</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2579,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>3595394.410000002</v>
+        <v>3759449.77</v>
       </c>
       <c r="H60">
-        <v>0.6458863020816675</v>
+        <v>0.4562952838707563</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2593,10 +2572,10 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D61">
-        <v>4013425.59</v>
+        <v>3574299.31</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2605,10 +2584,10 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>4101625.59</v>
+        <v>3317139.31</v>
       </c>
       <c r="H61">
-        <v>0.4246272512650283</v>
+        <v>0.7579253582810787</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2619,10 +2598,10 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D62">
-        <v>3439129.77</v>
+        <v>1975662.11</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2631,10 +2610,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>3548689.769999999</v>
+        <v>2036502.11</v>
       </c>
       <c r="H62">
-        <v>0.479883706486972</v>
+        <v>0.287160026561426</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2645,10 +2624,10 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D63">
-        <v>3704499.31</v>
+        <v>3296387.38</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2657,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>3574259.31</v>
+        <v>3478907.38</v>
       </c>
       <c r="H63">
-        <v>0.6979387290173974</v>
+        <v>0.4034383922000245</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2671,10 +2650,10 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D64">
-        <v>1947342.11</v>
+        <v>4580054.62</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2683,10 +2662,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1976382.11</v>
+        <v>4856134.62</v>
       </c>
       <c r="H64">
-        <v>0.2937458283307371</v>
+        <v>0.4495881953124273</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2697,10 +2676,10 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D65">
-        <v>3211427.38</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2709,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>3297107.38</v>
-      </c>
-      <c r="H65">
-        <v>0.4225915141411014</v>
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2723,22 +2702,22 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D66">
-        <v>7393632.640000001</v>
+        <v>5547058.34</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>4560912.640000001</v>
+        <v>5118496.759744</v>
       </c>
       <c r="H66">
-        <v>0.5770434576883277</v>
+        <v>0.6971037332801706</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2749,10 +2728,10 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>2071951.81</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2761,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67" t="s">
-        <v>190</v>
+        <v>1913871.81</v>
+      </c>
+      <c r="H67">
+        <v>0.8072264777231867</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2775,10 +2754,10 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D68">
-        <v>5764258.34</v>
+        <v>12005661.19</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2787,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>5544498.34</v>
+        <v>11076941.19</v>
       </c>
       <c r="H68">
-        <v>0.6104092006996614</v>
+        <v>0.6555204614208117</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2801,10 +2780,10 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D69">
-        <v>2152911.81</v>
+        <v>7000261.090000001</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2813,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>2073231.81</v>
+        <v>6436901.090000001</v>
       </c>
       <c r="H69">
-        <v>0.739321089232178</v>
+        <v>0.6720312056247546</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2827,10 +2806,10 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D70">
-        <v>12481301.19</v>
+        <v>1001</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2839,10 +2818,10 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>12026341.19</v>
+        <v>1001</v>
       </c>
       <c r="H70">
-        <v>0.5990254796687675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2853,10 +2832,10 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D71">
-        <v>7283621.090000001</v>
+        <v>6279789.54</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2865,10 +2844,10 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>7010341.090000001</v>
+        <v>6588149.54</v>
       </c>
       <c r="H71">
-        <v>0.6122091842466966</v>
+        <v>0.3532968986007564</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2879,10 +2858,10 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D72">
-        <v>1001</v>
+        <v>592723.9299999999</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2891,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>1001</v>
+        <v>592723.9299999999</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2905,10 +2884,10 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D73">
-        <v>6132749.54</v>
+        <v>1314853.94</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2917,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>6280629.54</v>
+        <v>1314853.94</v>
       </c>
       <c r="H73">
-        <v>0.3677860611406161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2931,10 +2910,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D74">
-        <v>592723.9299999999</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2943,10 +2922,10 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>592723.9299999999</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2957,10 +2936,10 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D75">
-        <v>1314853.94</v>
+        <v>11851510.64</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2969,10 +2948,10 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>1314853.94</v>
+        <v>10696270.64000001</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>0.8095222242805916</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2983,10 +2962,10 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>3577897.45</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2995,10 +2974,10 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76" t="s">
-        <v>190</v>
+        <v>3288937.45</v>
+      </c>
+      <c r="H76">
+        <v>0.6576285602512751</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3009,10 +2988,10 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D77">
-        <v>12396134.29</v>
+        <v>1010</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3021,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>11817862.97590401</v>
+        <v>1010</v>
       </c>
       <c r="H77">
-        <v>0.7664764448927034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3035,10 +3014,10 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D78">
-        <v>3719577.45</v>
+        <v>2424082.17</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3047,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>3573417.45</v>
+        <v>2258962.17</v>
       </c>
       <c r="H78">
-        <v>0.6005169085408701</v>
+        <v>0.5471284187109695</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3061,10 +3040,10 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D79">
-        <v>1010</v>
+        <v>2316103.2</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3073,10 +3052,10 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>1010</v>
+        <v>2356743.2</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>0.1323412750273343</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3087,10 +3066,10 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D80">
-        <v>2505042.17</v>
+        <v>3261999.08</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3099,10 +3078,10 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>2419602.17</v>
+        <v>2968599.08</v>
       </c>
       <c r="H80">
-        <v>0.5067887668492215</v>
+        <v>0.8456877915626114</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3113,10 +3092,10 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D81">
-        <v>2297223.2</v>
+        <v>3303913.66</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3125,10 +3104,10 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>2319223.2</v>
+        <v>3108313.66</v>
       </c>
       <c r="H81">
-        <v>0.1335053909429674</v>
+        <v>0.5798694073879275</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3139,10 +3118,10 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D82">
-        <v>3413799.08</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3151,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>3248799.08</v>
-      </c>
-      <c r="H82">
-        <v>0.7666752971377968</v>
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3165,10 +3144,10 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D83">
-        <v>3405113.66</v>
+        <v>4378528.04</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3177,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>3291513.66</v>
+        <v>4083928.04</v>
       </c>
       <c r="H83">
-        <v>0.5432904689813745</v>
+        <v>0.7093024097456918</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3191,10 +3170,10 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>13814985.2</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3203,10 +3182,10 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84" t="s">
-        <v>190</v>
+        <v>12772185.2</v>
+      </c>
+      <c r="H84">
+        <v>0.6414314756413018</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3217,10 +3196,10 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D85">
-        <v>4530328.04</v>
+        <v>4600354.96</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3229,10 +3208,10 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>4359928.04</v>
+        <v>4209154.96</v>
       </c>
       <c r="H85">
-        <v>0.6591783106585402</v>
+        <v>0.734079887617157</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3243,10 +3222,10 @@
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D86">
-        <v>16861703.75</v>
+        <v>4400751.09</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3255,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>16207143.75</v>
+        <v>4381191.09</v>
       </c>
       <c r="H86">
-        <v>0.5110818863441011</v>
+        <v>0.03526273947571641</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3269,10 +3248,10 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D87">
-        <v>4802754.96</v>
+        <v>46242385.84</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3281,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>4565154.96</v>
+        <v>42200385.84</v>
       </c>
       <c r="H87">
-        <v>0.6715145546778984</v>
+        <v>0.7871006707364293</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3295,10 +3274,10 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D88">
-        <v>4410871.09</v>
+        <v>13353757.48</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3307,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>4398591.09</v>
+        <v>12368437.48</v>
       </c>
       <c r="H88">
-        <v>0.03484715829768119</v>
+        <v>0.7962942785558713</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3321,10 +3300,10 @@
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D89">
-        <v>48418185.84</v>
+        <v>2042150.54</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3333,10 +3312,10 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>45898385.84</v>
+        <v>1866390.54</v>
       </c>
       <c r="H89">
-        <v>0.7179959686355687</v>
+        <v>0.8087567782035586</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3347,10 +3326,10 @@
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D90">
-        <v>13869877.48</v>
+        <v>3068723.21</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3359,10 +3338,10 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>13266037.48</v>
+        <v>2834483.209999998</v>
       </c>
       <c r="H90">
-        <v>0.7365800085166049</v>
+        <v>0.6540570053332585</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3373,10 +3352,10 @@
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D91">
-        <v>2131870.54</v>
+        <v>10</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3385,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>2026110.54</v>
+        <v>10</v>
       </c>
       <c r="H91">
-        <v>0.7392451549065037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3399,10 +3378,10 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D92">
-        <v>3190163.21</v>
+        <v>5924662.34</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -3411,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>3048083.209999998</v>
+        <v>5527862.34</v>
       </c>
       <c r="H92">
-        <v>0.6034417938347559</v>
+        <v>0.6987004672768317</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3425,22 +3404,22 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D93">
-        <v>10</v>
+        <v>7987097</v>
       </c>
       <c r="E93">
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>5960000</v>
       </c>
       <c r="G93">
-        <v>10</v>
+        <v>2167657</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>0.6294990397466019</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3451,10 +3430,10 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D94">
-        <v>6127062.34</v>
+        <v>14341399.45</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -3463,62 +3442,10 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>5891062.34</v>
+        <v>13444999.45</v>
       </c>
       <c r="H94">
-        <v>0.6504701153782053</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" t="s">
-        <v>102</v>
-      </c>
-      <c r="C95" t="s">
-        <v>188</v>
-      </c>
-      <c r="D95">
-        <v>13221017</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>5300000</v>
-      </c>
-      <c r="G95">
-        <v>8004177</v>
-      </c>
-      <c r="H95">
-        <v>0.1692398856247182</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" t="s">
-        <v>103</v>
-      </c>
-      <c r="C96" t="s">
-        <v>189</v>
-      </c>
-      <c r="D96">
-        <v>12096799.45</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>11549599.45</v>
-      </c>
-      <c r="H96">
-        <v>0.5972092824396612</v>
+        <v>0.5170826541015585</v>
       </c>
     </row>
   </sheetData>
@@ -3528,7 +3455,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3548,13 +3475,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3565,13 +3492,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F2">
         <v>80</v>
@@ -3585,13 +3512,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3605,13 +3532,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" t="s">
         <v>194</v>
-      </c>
-      <c r="E4" t="s">
-        <v>198</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -3625,13 +3552,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F5">
         <v>44</v>
@@ -3645,13 +3572,13 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" t="s">
         <v>194</v>
-      </c>
-      <c r="E6" t="s">
-        <v>198</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3662,19 +3589,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3682,19 +3609,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3705,16 +3632,16 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" t="s">
         <v>194</v>
       </c>
-      <c r="E9" t="s">
-        <v>197</v>
-      </c>
       <c r="F9">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3725,16 +3652,16 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3742,19 +3669,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3765,16 +3692,16 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3782,19 +3709,19 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F13">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3805,16 +3732,16 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F14">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3825,16 +3752,16 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F15">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3842,19 +3769,19 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3865,16 +3792,16 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E17" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3885,16 +3812,16 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E18" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3905,16 +3832,16 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" t="s">
         <v>194</v>
       </c>
-      <c r="E19" t="s">
-        <v>197</v>
-      </c>
       <c r="F19">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3922,19 +3849,19 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3945,16 +3872,16 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3965,16 +3892,16 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3982,19 +3909,19 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" t="s">
         <v>194</v>
       </c>
-      <c r="E23" t="s">
-        <v>197</v>
-      </c>
       <c r="F23">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4005,16 +3932,16 @@
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E24" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F24">
-        <v>111</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4022,19 +3949,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
         <v>124</v>
       </c>
       <c r="D25" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E25" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F25">
-        <v>39</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4042,19 +3969,19 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
         <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E26" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4062,19 +3989,19 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E27" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F27">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4085,16 +4012,16 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E28" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F28">
-        <v>80</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4102,19 +4029,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E29" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F29">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4125,16 +4052,16 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E30" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F30">
-        <v>158</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4145,16 +4072,16 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D31" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E31" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4162,19 +4089,19 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" t="s">
         <v>194</v>
       </c>
-      <c r="E32" t="s">
-        <v>197</v>
-      </c>
       <c r="F32">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4182,19 +4109,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" t="s">
         <v>194</v>
       </c>
-      <c r="E33" t="s">
-        <v>197</v>
-      </c>
       <c r="F33">
-        <v>64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4202,19 +4129,19 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
         <v>131</v>
       </c>
       <c r="D34" t="s">
+        <v>191</v>
+      </c>
+      <c r="E34" t="s">
         <v>194</v>
       </c>
-      <c r="E34" t="s">
-        <v>197</v>
-      </c>
       <c r="F34">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4222,19 +4149,19 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
         <v>132</v>
       </c>
       <c r="D35" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F35">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4242,19 +4169,19 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>133</v>
       </c>
       <c r="D36" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E36" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4262,19 +4189,19 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F37">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4282,19 +4209,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E38" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4302,19 +4229,19 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" t="s">
         <v>194</v>
       </c>
-      <c r="E39" t="s">
-        <v>197</v>
-      </c>
       <c r="F39">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4325,16 +4252,16 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E40" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F40">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4345,16 +4272,16 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D41" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E41" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F41">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4362,19 +4289,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E42" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4385,16 +4312,16 @@
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" t="s">
         <v>194</v>
       </c>
-      <c r="E43" t="s">
-        <v>198</v>
-      </c>
       <c r="F43">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4402,19 +4329,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E44" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4425,16 +4352,16 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
+        <v>191</v>
+      </c>
+      <c r="E45" t="s">
         <v>194</v>
       </c>
-      <c r="E45" t="s">
-        <v>197</v>
-      </c>
       <c r="F45">
-        <v>162</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4445,16 +4372,16 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E46" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F46">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4465,16 +4392,16 @@
         <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E47" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F47">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4485,16 +4412,16 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D48" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E48" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4502,19 +4429,19 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E49" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4525,16 +4452,16 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" t="s">
         <v>194</v>
       </c>
-      <c r="E50" t="s">
-        <v>197</v>
-      </c>
       <c r="F50">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4545,16 +4472,16 @@
         <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E51" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4562,19 +4489,19 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" t="s">
         <v>194</v>
       </c>
-      <c r="E52" t="s">
-        <v>197</v>
-      </c>
       <c r="F52">
-        <v>127</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4582,19 +4509,19 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E53" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4602,19 +4529,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E54" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F54">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4622,19 +4549,19 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E55" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F55">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4642,19 +4569,19 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
         <v>148</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E56" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F56">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4662,19 +4589,19 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E57" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F57">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4682,16 +4609,16 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E58" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F58">
         <v>4</v>
@@ -4702,19 +4629,19 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E59" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F59">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4722,16 +4649,16 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D60" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E60" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F60">
         <v>4</v>
@@ -4742,19 +4669,19 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D61" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" t="s">
         <v>194</v>
       </c>
-      <c r="E61" t="s">
-        <v>198</v>
-      </c>
       <c r="F61">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4762,19 +4689,19 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E62" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4782,19 +4709,19 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D63" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E63" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F63">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4802,19 +4729,19 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D64" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E64" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4822,19 +4749,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D65" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E65" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F65">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4842,19 +4769,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D66" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E66" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F66">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4862,19 +4789,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E67" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F67">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4882,19 +4809,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E68" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4902,19 +4829,19 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D69" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E69" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F69">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4922,19 +4849,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
         <v>161</v>
       </c>
       <c r="D70" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E70" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F70">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4942,19 +4869,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
         <v>162</v>
       </c>
       <c r="D71" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E71" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F71">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4962,19 +4889,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
         <v>163</v>
       </c>
       <c r="D72" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E72" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F72">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4982,19 +4909,19 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D73" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E73" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F73">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5002,19 +4929,19 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
         <v>165</v>
       </c>
       <c r="D74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E74" t="s">
         <v>194</v>
       </c>
-      <c r="E74" t="s">
-        <v>197</v>
-      </c>
       <c r="F74">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5022,16 +4949,16 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D75" t="s">
+        <v>190</v>
+      </c>
+      <c r="E75" t="s">
         <v>194</v>
-      </c>
-      <c r="E75" t="s">
-        <v>197</v>
       </c>
       <c r="F75">
         <v>8</v>
@@ -5042,19 +4969,19 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D76" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E76" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F76">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5062,19 +4989,19 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D77" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E77" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F77">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5082,19 +5009,19 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D78" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E78" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F78">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5102,16 +5029,16 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C79" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D79" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E79" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F79">
         <v>8</v>
@@ -5122,19 +5049,19 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D80" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E80" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F80">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5142,19 +5069,19 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C81" t="s">
         <v>173</v>
       </c>
       <c r="D81" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E81" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F81">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5162,19 +5089,19 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
         <v>174</v>
       </c>
       <c r="D82" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E82" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F82">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5182,19 +5109,19 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
         <v>175</v>
       </c>
       <c r="D83" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E83" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F83">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5202,19 +5129,19 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C84" t="s">
         <v>176</v>
       </c>
       <c r="D84" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E84" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5222,19 +5149,19 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D85" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E85" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F85">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5242,19 +5169,19 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D86" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E86" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5262,19 +5189,19 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D87" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E87" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F87">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5282,19 +5209,19 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D88" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E88" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5302,19 +5229,19 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s">
         <v>180</v>
       </c>
       <c r="D89" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E89" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F89">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5322,19 +5249,19 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C90" t="s">
         <v>181</v>
       </c>
       <c r="D90" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E90" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F90">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5342,19 +5269,19 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D91" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E91" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5362,19 +5289,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D92" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E92" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F92">
-        <v>215</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5382,19 +5309,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D93" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E93" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F93">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5402,16 +5329,16 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D94" t="s">
+        <v>191</v>
+      </c>
+      <c r="E94" t="s">
         <v>194</v>
-      </c>
-      <c r="E94" t="s">
-        <v>197</v>
       </c>
       <c r="F94">
         <v>7</v>
@@ -5422,98 +5349,18 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
         <v>185</v>
       </c>
       <c r="D95" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E95" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" t="s">
-        <v>99</v>
-      </c>
-      <c r="C96" t="s">
-        <v>186</v>
-      </c>
-      <c r="D96" t="s">
-        <v>194</v>
-      </c>
-      <c r="E96" t="s">
-        <v>197</v>
-      </c>
-      <c r="F96">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C97" t="s">
-        <v>187</v>
-      </c>
-      <c r="D97" t="s">
-        <v>194</v>
-      </c>
-      <c r="E97" t="s">
-        <v>197</v>
-      </c>
-      <c r="F97">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" t="s">
-        <v>102</v>
-      </c>
-      <c r="C98" t="s">
-        <v>188</v>
-      </c>
-      <c r="D98" t="s">
-        <v>195</v>
-      </c>
-      <c r="E98" t="s">
-        <v>198</v>
-      </c>
-      <c r="F98">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" t="s">
-        <v>103</v>
-      </c>
-      <c r="C99" t="s">
-        <v>189</v>
-      </c>
-      <c r="D99" t="s">
-        <v>194</v>
-      </c>
-      <c r="E99" t="s">
-        <v>197</v>
-      </c>
-      <c r="F99">
         <v>45</v>
       </c>
     </row>
@@ -5524,7 +5371,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5544,10 +5391,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5555,16 +5402,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5572,16 +5419,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E3">
-        <v>-20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5589,50 +5436,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -5642,7 +5455,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5662,22 +5475,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5685,28 +5498,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" t="s">
         <v>203</v>
       </c>
-      <c r="E2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F2" t="s">
-        <v>210</v>
-      </c>
       <c r="G2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>6425.4</v>
+        <v>6564.2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5714,28 +5527,28 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>6468.2</v>
+        <v>6566</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5743,28 +5556,28 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>6468.2</v>
+        <v>6525.2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5772,289 +5585,28 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" t="s">
         <v>204</v>
       </c>
-      <c r="E5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F5" t="s">
-        <v>211</v>
-      </c>
       <c r="G5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>6468.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" t="s">
-        <v>195</v>
-      </c>
-      <c r="F6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6">
-        <v>6468.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>6468.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G8" t="s">
-        <v>212</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>6468.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F9" t="s">
-        <v>211</v>
-      </c>
-      <c r="G9" t="s">
-        <v>212</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>6468.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F10" t="s">
-        <v>210</v>
-      </c>
-      <c r="G10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>6492.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" t="s">
-        <v>206</v>
-      </c>
-      <c r="E11" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>6481.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" t="s">
-        <v>173</v>
-      </c>
-      <c r="D12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12" t="s">
-        <v>211</v>
-      </c>
-      <c r="G12" t="s">
-        <v>213</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>6423.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" t="s">
-        <v>211</v>
-      </c>
-      <c r="G13" t="s">
-        <v>213</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>6419.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" t="s">
-        <v>194</v>
-      </c>
-      <c r="F14" t="s">
-        <v>211</v>
-      </c>
-      <c r="G14" t="s">
-        <v>213</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>6416.8</v>
+        <v>6568.6</v>
       </c>
     </row>
   </sheetData>

--- a/info_faccts.xlsx
+++ b/info_faccts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="242">
   <si>
     <t>DataDateTime</t>
   </si>
@@ -43,7 +43,7 @@
     <t>CurrentMarginRate</t>
   </si>
   <si>
-    <t>20200803T093952</t>
+    <t>20200805T101501</t>
   </si>
   <si>
     <t>10_f_xb_3670</t>
@@ -58,6 +58,9 @@
     <t>11023_f_huat_3955</t>
   </si>
   <si>
+    <t>1102_f_zc_0105</t>
+  </si>
+  <si>
     <t>1104_f_zxjt_5046</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
     <t>1110_f_huat_3821</t>
   </si>
   <si>
-    <t>1110_f_zx_2687</t>
-  </si>
-  <si>
     <t>1111_f_zxjt_0021</t>
   </si>
   <si>
@@ -112,12 +112,12 @@
     <t>1402_f_yh_8956</t>
   </si>
   <si>
+    <t>1501_f_ya_0464</t>
+  </si>
+  <si>
     <t>1601_f_nh_5963</t>
   </si>
   <si>
-    <t>2_f_xy_0807</t>
-  </si>
-  <si>
     <t>2_f_zc_0709</t>
   </si>
   <si>
@@ -250,9 +250,6 @@
     <t>805_f_zhaos_0468</t>
   </si>
   <si>
-    <t>806_f_zc_0705</t>
-  </si>
-  <si>
     <t>807_f_nh_5910</t>
   </si>
   <si>
@@ -262,18 +259,12 @@
     <t>809_f_huat_5036</t>
   </si>
   <si>
-    <t>810_f_xz_8069</t>
-  </si>
-  <si>
     <t>8111_f_huat_5696</t>
   </si>
   <si>
     <t>812_f_fzzq_0006</t>
   </si>
   <si>
-    <t>812_f_zhaos_0666</t>
-  </si>
-  <si>
     <t>813_f_nh_5945</t>
   </si>
   <si>
@@ -286,9 +277,6 @@
     <t>906_f_gtja_0378</t>
   </si>
   <si>
-    <t>908_f_huat_2827</t>
-  </si>
-  <si>
     <t>908_f_ya_9072</t>
   </si>
   <si>
@@ -337,6 +325,9 @@
     <t>11023</t>
   </si>
   <si>
+    <t>1102</t>
+  </si>
+  <si>
     <t>1104</t>
   </si>
   <si>
@@ -385,6 +376,9 @@
     <t>1402</t>
   </si>
   <si>
+    <t>1501</t>
+  </si>
+  <si>
     <t>1601</t>
   </si>
   <si>
@@ -511,9 +505,6 @@
     <t>805</t>
   </si>
   <si>
-    <t>806</t>
-  </si>
-  <si>
     <t>807</t>
   </si>
   <si>
@@ -523,9 +514,6 @@
     <t>809</t>
   </si>
   <si>
-    <t>810</t>
-  </si>
-  <si>
     <t>8111</t>
   </si>
   <si>
@@ -616,28 +604,145 @@
     <t>Price</t>
   </si>
   <si>
-    <t>09:31:02</t>
-  </si>
-  <si>
-    <t>09:31:08</t>
-  </si>
-  <si>
-    <t>09:34:14</t>
-  </si>
-  <si>
-    <t>09:30:51</t>
+    <t>09:31:40</t>
+  </si>
+  <si>
+    <t>09:31:45</t>
+  </si>
+  <si>
+    <t>09:30:09</t>
+  </si>
+  <si>
+    <t>09:30:17</t>
+  </si>
+  <si>
+    <t>09:30:06</t>
+  </si>
+  <si>
+    <t>09:30:36</t>
+  </si>
+  <si>
+    <t>09:30:26</t>
+  </si>
+  <si>
+    <t>09:30:20</t>
+  </si>
+  <si>
+    <t>09:30:10</t>
+  </si>
+  <si>
+    <t>09:47:35</t>
+  </si>
+  <si>
+    <t>09:47:30</t>
+  </si>
+  <si>
+    <t>09:47:25</t>
+  </si>
+  <si>
+    <t>09:47:00</t>
+  </si>
+  <si>
+    <t>09:46:52</t>
+  </si>
+  <si>
+    <t>09:46:46</t>
+  </si>
+  <si>
+    <t>09:46:35</t>
+  </si>
+  <si>
+    <t>09:46:30</t>
+  </si>
+  <si>
+    <t>09:46:25</t>
+  </si>
+  <si>
+    <t>09:46:20</t>
+  </si>
+  <si>
+    <t>09:32:46</t>
+  </si>
+  <si>
+    <t>09:32:37</t>
+  </si>
+  <si>
+    <t>09:32:31</t>
+  </si>
+  <si>
+    <t>09:32:26</t>
+  </si>
+  <si>
+    <t>09:32:21</t>
+  </si>
+  <si>
+    <t>09:32:11</t>
+  </si>
+  <si>
+    <t>09:32:08</t>
+  </si>
+  <si>
+    <t>09:32:00</t>
+  </si>
+  <si>
+    <t>09:31:58</t>
+  </si>
+  <si>
+    <t>09:30:48</t>
+  </si>
+  <si>
+    <t>09:30:43</t>
+  </si>
+  <si>
+    <t>09:30:28</t>
+  </si>
+  <si>
+    <t>09:30:22</t>
+  </si>
+  <si>
+    <t>09:30:16</t>
+  </si>
+  <si>
+    <t>09:39:43</t>
+  </si>
+  <si>
+    <t>09:41:03</t>
+  </si>
+  <si>
+    <t>09:40:56</t>
+  </si>
+  <si>
+    <t>09:40:48</t>
+  </si>
+  <si>
+    <t>09:40:38</t>
+  </si>
+  <si>
+    <t>09:40:33</t>
+  </si>
+  <si>
+    <t>09:40:13</t>
+  </si>
+  <si>
+    <t>09:40:09</t>
+  </si>
+  <si>
+    <t>09:40:03</t>
+  </si>
+  <si>
+    <t>09:40:00</t>
+  </si>
+  <si>
+    <t>sell</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>sell</t>
+    <t>open</t>
   </si>
   <si>
     <t>close</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1038,10 +1143,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D2">
-        <v>20662748.15</v>
+        <v>18553948.15</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1050,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>19049948.15</v>
+        <v>19129948.15</v>
       </c>
       <c r="H2">
-        <v>0.7028562962256667</v>
+        <v>0.7142476233005368</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1064,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D3">
         <v>1549178.61</v>
@@ -1090,10 +1195,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>4306316.310000001</v>
+        <v>4624436.310000001</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1102,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4553036.310000001</v>
+        <v>4537516.310000001</v>
       </c>
       <c r="H4">
-        <v>0.4087789934624967</v>
+        <v>0.418590230918641</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1116,10 +1221,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D5">
-        <v>11219901.59</v>
+        <v>10086421.59</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1128,10 +1233,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>10323781.59000001</v>
+        <v>10377101.59</v>
       </c>
       <c r="H5">
-        <v>0.8230611938004002</v>
+        <v>0.8355974859450132</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1142,10 +1247,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>3763114.94</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1154,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>3688754.94</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4701358664937498</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1168,10 +1273,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D7">
-        <v>11981967.48</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1180,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>11016767.48</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>0.6323742434110077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1194,10 +1299,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D8">
-        <v>5484121.52</v>
+        <v>10797483.04</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1206,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>5700121.52</v>
+        <v>11115163.04</v>
       </c>
       <c r="H8">
-        <v>0.2735857462912475</v>
+        <v>0.6538052544841483</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1220,10 +1325,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D9">
-        <v>2525036.37</v>
+        <v>5751321.52</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1232,10 +1337,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2330636.37</v>
+        <v>5680521.52</v>
       </c>
       <c r="H9">
-        <v>0.5965903638584341</v>
+        <v>0.2801742752661907</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1246,10 +1351,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D10">
-        <v>1001</v>
+        <v>2287796.37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1258,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1001</v>
+        <v>2347556.37</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.6044174351391612</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1272,10 +1377,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D11">
-        <v>3359407.84</v>
+        <v>1001</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1284,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3093967.839999998</v>
+        <v>1001</v>
       </c>
       <c r="H11">
-        <v>0.5992026083891039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1298,10 +1403,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D12">
-        <v>5704915.310000001</v>
+        <v>3043087.84</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1310,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5218275.310000001</v>
+        <v>3115567.839999998</v>
       </c>
       <c r="H12">
-        <v>0.6513342815559493</v>
+        <v>0.6072318425266584</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1324,10 +1429,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D13">
-        <v>1010</v>
+        <v>5118043.25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1336,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1010</v>
+        <v>5260058.984344796</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.6899676240896887</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1350,10 +1455,10 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D14">
-        <v>10332812.56</v>
+        <v>9621092.559999999</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1362,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>9735572.559999999</v>
+        <v>9784172.559999999</v>
       </c>
       <c r="H14">
-        <v>0.4284602240178875</v>
+        <v>0.4350610104121059</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1376,10 +1481,10 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D15">
-        <v>14438674.11</v>
+        <v>17143456.32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1388,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>13006089.08504</v>
+        <v>17511896.32</v>
       </c>
       <c r="H15">
-        <v>0.7364668608196404</v>
+        <v>0.5491704510045888</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1402,10 +1507,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D16">
-        <v>2507932.19</v>
+        <v>3016892.19</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1414,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2263212.189999999</v>
+        <v>3085892.19</v>
       </c>
       <c r="H16">
-        <v>0.7528167299240291</v>
+        <v>0.5634379598983981</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1428,10 +1533,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D17">
-        <v>2077811.98</v>
+        <v>1893291.98</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1440,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1921571.98</v>
+        <v>1936131.98</v>
       </c>
       <c r="H17">
-        <v>0.6096937362710712</v>
+        <v>0.6174981934857561</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1454,10 +1559,10 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D18">
-        <v>4192328.67</v>
+        <v>3770568.67</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1466,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3834568.67</v>
+        <v>3867208.67</v>
       </c>
       <c r="H18">
-        <v>0.6446317728872488</v>
+        <v>0.6522782231970947</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1480,10 +1585,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D19">
-        <v>1287208.8</v>
+        <v>1313928.8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1492,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1309408.8</v>
+        <v>1307608.8</v>
       </c>
       <c r="H19">
-        <v>0.1190974125116618</v>
+        <v>0.1217134665964316</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1506,10 +1611,10 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D20">
-        <v>70410.04000000001</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1518,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>70410.04000000001</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1532,10 +1637,10 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D21">
-        <v>12050373.15</v>
+        <v>10829390.75</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1544,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>11031533.14999999</v>
+        <v>10983044.92632</v>
       </c>
       <c r="H21">
-        <v>0.6586142380399771</v>
+        <v>0.4593436550468873</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1558,10 +1663,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D22">
-        <v>29625939.1</v>
+        <v>26713749.37</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1570,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27236705.278244</v>
+        <v>27297989.37</v>
       </c>
       <c r="H22">
-        <v>0.6239450706827813</v>
+        <v>0.6295153744504519</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1584,10 +1689,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D23">
-        <v>9928066.890000001</v>
+        <v>8926746.890000001</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1596,10 +1701,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>9113066.890000008</v>
+        <v>9129746.890000001</v>
       </c>
       <c r="H23">
-        <v>0.6611626220599365</v>
+        <v>0.6734670822840303</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1610,10 +1715,10 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D24">
-        <v>4522815.029999999</v>
+        <v>3897791.2</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1622,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4522815.029999999</v>
+        <v>3982271.2</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6862174529951651</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1636,10 +1741,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>4522815.029999999</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1648,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>186</v>
+        <v>4522815.029999999</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1662,7 +1767,7 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D26">
         <v>1751001</v>
@@ -1688,10 +1793,10 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D27">
-        <v>19993383.58</v>
+        <v>17884583.58</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1700,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>18274983.58</v>
+        <v>18300583.58</v>
       </c>
       <c r="H27">
-        <v>0.676302878516732</v>
+        <v>0.6891845795444302</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1714,10 +1819,10 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D28">
-        <v>37859015.83</v>
+        <v>45238845.25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1726,10 +1831,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>34017735.83</v>
+        <v>45999245.25</v>
       </c>
       <c r="H28">
-        <v>0.7909114743689889</v>
+        <v>0.5622824778847866</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1740,10 +1845,10 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D29">
-        <v>8395477.790000001</v>
+        <v>7576517.790000001</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1752,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>7711197.790000001</v>
+        <v>7724397.790000001</v>
       </c>
       <c r="H29">
-        <v>0.6220238321756232</v>
+        <v>0.6336835741857877</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1766,10 +1871,10 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D30">
-        <v>14923788.14</v>
+        <v>13209221.45</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1778,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>13541388.14</v>
+        <v>13485341.45</v>
       </c>
       <c r="H30">
-        <v>0.7301717591856871</v>
+        <v>0.6897640697114125</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1792,10 +1897,10 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D31">
-        <v>4273601.27</v>
+        <v>4089081.27</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1804,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>4124641.27</v>
+        <v>4121841.27</v>
       </c>
       <c r="H31">
-        <v>0.2621924015224723</v>
+        <v>0.267742479079016</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1818,10 +1923,10 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D32">
-        <v>10069625.52</v>
+        <v>10906969.73</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1830,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>10697225.52</v>
+        <v>10641209.73</v>
       </c>
       <c r="H32">
-        <v>0.5466856792975231</v>
+        <v>0.8225989546397182</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1844,10 +1949,10 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D33">
-        <v>1051438.76</v>
+        <v>1109278.76</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1856,10 +1961,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1086958.76</v>
+        <v>1077838.76</v>
       </c>
       <c r="H33">
-        <v>0.2829789052898383</v>
+        <v>0.2912762202019902</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1870,7 +1975,7 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D34">
         <v>1637.84</v>
@@ -1896,10 +2001,10 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D35">
-        <v>6977942.55</v>
+        <v>7378742.55</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1908,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>7291142.55</v>
+        <v>7300142.55</v>
       </c>
       <c r="H35">
-        <v>0.3208287293738346</v>
+        <v>0.3270215593255779</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1922,10 +2027,10 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D36">
-        <v>1001399.95</v>
+        <v>1081559.95</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1934,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1064759.949999999</v>
+        <v>1065119.95</v>
       </c>
       <c r="H36">
-        <v>0.4393869247242069</v>
+        <v>0.4482695118047502</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1948,10 +2053,10 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D37">
-        <v>1273357.25</v>
+        <v>1167917.25</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1960,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1188077.25</v>
+        <v>1187917.25</v>
       </c>
       <c r="H37">
-        <v>0.5634892848928805</v>
+        <v>0.5751040318675396</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1974,10 +2079,10 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D38">
-        <v>2863475.62</v>
+        <v>3077235.62</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1986,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>3029875.62</v>
+        <v>3032435.62</v>
       </c>
       <c r="H38">
-        <v>0.4117586846683824</v>
+        <v>0.4198700185430482</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2000,10 +2105,10 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D39">
-        <v>16620141.06</v>
+        <v>15081506.97</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2012,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>15392861.06</v>
+        <v>15366506.97</v>
       </c>
       <c r="H39">
-        <v>0.6306363425331926</v>
+        <v>0.6335374733507182</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2026,10 +2131,10 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D40">
-        <v>1641986.52</v>
+        <v>1828306.52</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2038,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1789106.52</v>
+        <v>1791106.52</v>
       </c>
       <c r="H40">
-        <v>0.6592387802599926</v>
+        <v>0.6720259161359091</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2052,10 +2157,10 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D41">
-        <v>42997092.48999999</v>
+        <v>38553513</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2064,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>39376932.48999999</v>
+        <v>39336273</v>
       </c>
       <c r="H41">
-        <v>0.6553981726878815</v>
+        <v>0.6533263992752949</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2078,10 +2183,10 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D42">
-        <v>7521199.840000001</v>
+        <v>7892759.840000001</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2090,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>7824159.840000001</v>
+        <v>7822759.840000001</v>
       </c>
       <c r="H42">
-        <v>0.2777397247037836</v>
+        <v>0.283489106831637</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2104,10 +2209,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D43">
-        <v>5180221.33</v>
+        <v>5447421.33</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2116,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>5391821.33</v>
+        <v>5395821.33</v>
       </c>
       <c r="H43">
-        <v>0.2892291685043651</v>
+        <v>0.2949571349131384</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2130,10 +2235,10 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44">
-        <v>3534876.38</v>
+        <v>3164396.38</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2142,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>3238236.38</v>
+        <v>3227836.38</v>
       </c>
       <c r="H44">
-        <v>0.6697215846855507</v>
+        <v>0.6856525980415401</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2156,10 +2261,10 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45">
-        <v>31940190.57</v>
+        <v>35040286.98999999</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2168,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>29087350.57</v>
+        <v>35599726.98999999</v>
       </c>
       <c r="H45">
-        <v>0.7423680595465092</v>
+        <v>0.6045002537813002</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2182,10 +2287,10 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46">
-        <v>2052119.78</v>
+        <v>2158999.78</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2194,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>2139319.78</v>
+        <v>2140759.78</v>
       </c>
       <c r="H46">
-        <v>0.2915827759045915</v>
+        <v>0.297377784255644</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2208,10 +2313,10 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47">
-        <v>3384753.98</v>
+        <v>3616082.17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2220,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>3577353.98</v>
+        <v>3570482.17</v>
       </c>
       <c r="H47">
-        <v>0.3923360136700813</v>
+        <v>0.4457481998852833</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2234,10 +2339,10 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D48">
-        <v>3458938.53</v>
+        <v>3699418.53</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2246,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>3655498.53</v>
+        <v>3656938.53</v>
       </c>
       <c r="H48">
-        <v>0.4159446892186277</v>
+        <v>0.4243296919732473</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2260,10 +2365,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49">
-        <v>1803152.71</v>
+        <v>1936752.71</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2272,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>1909352.71</v>
+        <v>1913952.71</v>
       </c>
       <c r="H49">
-        <v>0.4083771405441375</v>
+        <v>0.4157720281396085</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2286,10 +2391,10 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D50">
-        <v>8018324.74</v>
+        <v>8419124.74</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2298,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>8339324.74</v>
+        <v>8350724.74</v>
       </c>
       <c r="H50">
-        <v>0.2805032868884297</v>
+        <v>0.2858798576565225</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2312,10 +2417,10 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D51">
-        <v>1949119.14</v>
+        <v>2055999.14</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2324,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>2034719.14</v>
+        <v>2035359.14</v>
       </c>
       <c r="H51">
-        <v>0.3576678400931542</v>
+        <v>0.3649070011300315</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2338,10 +2443,10 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D52">
-        <v>5507770.58</v>
+        <v>5459194.25</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2350,10 +2455,10 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>5507770.58</v>
+        <v>5433594.25</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>0.1464533351933667</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2364,10 +2469,10 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D53">
-        <v>4546182.36</v>
+        <v>4811222.36</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2376,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>4760822.360000001</v>
+        <v>4762662.360000001</v>
       </c>
       <c r="H53">
-        <v>0.325730616002232</v>
+        <v>0.3322827192814062</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2390,10 +2495,10 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D54">
-        <v>2491078.42</v>
+        <v>2597958.42</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2402,10 +2507,10 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>2577158.42</v>
+        <v>2578278.42</v>
       </c>
       <c r="H54">
-        <v>0.2622156227400255</v>
+        <v>0.2674907390335292</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2416,10 +2521,10 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D55">
-        <v>3842869.97</v>
+        <v>4109552.12</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2428,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>4055669.97</v>
+        <v>4062273.09344</v>
       </c>
       <c r="H55">
-        <v>0.4806456182133577</v>
+        <v>0.4408802556608452</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2442,10 +2547,10 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D56">
-        <v>1862616.35</v>
+        <v>1969223.93</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2454,10 +2559,10 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1947736.35</v>
+        <v>1933103.93</v>
       </c>
       <c r="H56">
-        <v>0.3736407137444449</v>
+        <v>0.6723665395476175</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2468,7 +2573,7 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D57">
         <v>10</v>
@@ -2494,10 +2599,10 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D58">
-        <v>3591074.41</v>
+        <v>3911714.41</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2506,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>3837314.409999998</v>
+        <v>3855554.41</v>
       </c>
       <c r="H58">
-        <v>0.6095950839743677</v>
+        <v>0.6191856594756238</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2520,10 +2625,10 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D59">
-        <v>4098385.59</v>
+        <v>4338865.59</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2532,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>4274065.59</v>
+        <v>4296025.59</v>
       </c>
       <c r="H59">
-        <v>0.4104770886307339</v>
+        <v>0.4167754503529388</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2546,10 +2651,10 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D60">
-        <v>3542969.77</v>
+        <v>3836889.77</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2558,10 +2663,10 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>3759449.77</v>
+        <v>3784529.770000002</v>
       </c>
       <c r="H60">
-        <v>0.4562952838707563</v>
+        <v>0.4625910499839981</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2572,10 +2677,10 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D61">
-        <v>3574299.31</v>
+        <v>3230899.31</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2584,10 +2689,10 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>3317139.31</v>
+        <v>3286619.31</v>
       </c>
       <c r="H61">
-        <v>0.7579253582810787</v>
+        <v>0.7806361972600955</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2598,10 +2703,10 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D62">
-        <v>1975662.11</v>
+        <v>2055822.11</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2610,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>2036502.11</v>
+        <v>2041662.110000001</v>
       </c>
       <c r="H62">
-        <v>0.287160026561426</v>
+        <v>0.2923235911940393</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2624,10 +2729,10 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D63">
-        <v>3296387.38</v>
+        <v>3536867.38</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2636,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>3478907.38</v>
+        <v>3494387.38</v>
       </c>
       <c r="H63">
-        <v>0.4034383922000245</v>
+        <v>0.4099094474179334</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2650,10 +2755,10 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D64">
-        <v>4580054.62</v>
+        <v>4933825.91</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2662,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>4856134.62</v>
+        <v>4854465.91</v>
       </c>
       <c r="H64">
-        <v>0.4495881953124273</v>
+        <v>0.5245597862278532</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2676,7 +2781,7 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2691,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2702,10 +2807,10 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D66">
-        <v>5547058.34</v>
+        <v>6064468.99</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2714,10 +2819,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>5118496.759744</v>
+        <v>6154588.989999999</v>
       </c>
       <c r="H66">
-        <v>0.6971037332801706</v>
+        <v>0.5393961490188803</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2728,10 +2833,10 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D67">
-        <v>2071951.81</v>
+        <v>1861071.81</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2740,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>1913871.81</v>
+        <v>1894991.81</v>
       </c>
       <c r="H67">
-        <v>0.8072264777231867</v>
+        <v>0.8319613792948265</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2754,10 +2859,10 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D68">
-        <v>12005661.19</v>
+        <v>10766741.19</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2766,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>11076941.19</v>
+        <v>10920950.8853232</v>
       </c>
       <c r="H68">
-        <v>0.6555204614208117</v>
+        <v>0.5918803287254876</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2780,10 +2885,10 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D69">
-        <v>7000261.090000001</v>
+        <v>7762181.090000001</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2792,10 +2897,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>6436901.090000001</v>
+        <v>7882021.090000001</v>
       </c>
       <c r="H69">
-        <v>0.6720312056247546</v>
+        <v>0.5600553398164023</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2806,22 +2911,22 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D70">
-        <v>1001</v>
+        <v>6677709.54</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="G70">
-        <v>1001</v>
+        <v>4607669.54</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>0.5155150948607308</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2832,10 +2937,10 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D71">
-        <v>6279789.54</v>
+        <v>592723.9299999999</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2844,10 +2949,10 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>6588149.54</v>
+        <v>592723.9299999999</v>
       </c>
       <c r="H71">
-        <v>0.3532968986007564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2858,10 +2963,10 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D72">
-        <v>592723.9299999999</v>
+        <v>1314853.94</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2870,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>592723.9299999999</v>
+        <v>1314853.94</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2884,10 +2989,10 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D73">
-        <v>1314853.94</v>
+        <v>13473550.64</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2896,10 +3001,10 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>1314853.94</v>
+        <v>13739670.64000001</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>0.6431175995060093</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2910,10 +3015,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>3208857.45</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2922,10 +3027,10 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74" t="s">
-        <v>186</v>
+        <v>3274937.45</v>
+      </c>
+      <c r="H74">
+        <v>0.6739621851403604</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2936,10 +3041,10 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D75">
-        <v>11851510.64</v>
+        <v>2213202.17</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2948,10 +3053,10 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>10696270.64000001</v>
+        <v>2250962.17</v>
       </c>
       <c r="H75">
-        <v>0.8095222242805916</v>
+        <v>0.5603150585156214</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2962,10 +3067,10 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D76">
-        <v>3577897.45</v>
+        <v>2369543.2</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2974,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>3288937.45</v>
+        <v>2359383.2</v>
       </c>
       <c r="H76">
-        <v>0.6576285602512751</v>
+        <v>0.1349111920437511</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2988,10 +3093,10 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D77">
-        <v>1010</v>
+        <v>4016599.08</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3000,10 +3105,10 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>1010</v>
+        <v>4088599.08</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>0.626598487616937</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3014,10 +3119,10 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D78">
-        <v>2424082.17</v>
+        <v>3042318.98</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3026,10 +3131,10 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>2258962.17</v>
+        <v>3086598.98</v>
       </c>
       <c r="H78">
-        <v>0.5471284187109695</v>
+        <v>0.5363145684704398</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3040,10 +3145,10 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D79">
-        <v>2316103.2</v>
+        <v>3983128.04</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3052,10 +3157,10 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>2356743.2</v>
+        <v>4053928.04</v>
       </c>
       <c r="H79">
-        <v>0.1323412750273343</v>
+        <v>0.7291816654939932</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3066,10 +3171,10 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D80">
-        <v>3261999.08</v>
+        <v>19754002.37</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3078,10 +3183,10 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>2968599.08</v>
+        <v>20046362.1991296</v>
       </c>
       <c r="H80">
-        <v>0.8456877915626114</v>
+        <v>0.4482924089035066</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3092,10 +3197,10 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D81">
-        <v>3303913.66</v>
+        <v>4060961.26</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3104,10 +3209,10 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>3108313.66</v>
+        <v>4136481.26</v>
       </c>
       <c r="H81">
-        <v>0.5798694073879275</v>
+        <v>0.6098168567552026</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3118,10 +3223,10 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>4374391.09</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3130,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82" t="s">
-        <v>186</v>
+        <v>4361407.125047999</v>
+      </c>
+      <c r="H82">
+        <v>0.07317198116341588</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3147,7 +3252,7 @@
         <v>175</v>
       </c>
       <c r="D83">
-        <v>4378528.04</v>
+        <v>67196399.36</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3156,10 +3261,10 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>4083928.04</v>
+        <v>68184503.921774</v>
       </c>
       <c r="H83">
-        <v>0.7093024097456918</v>
+        <v>0.4740117026748488</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3173,7 +3278,7 @@
         <v>176</v>
       </c>
       <c r="D84">
-        <v>13814985.2</v>
+        <v>11995378.22</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3182,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>12772185.2</v>
+        <v>12234138.22</v>
       </c>
       <c r="H84">
-        <v>0.6414314756413018</v>
+        <v>0.7570856102359776</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3199,7 +3304,7 @@
         <v>177</v>
       </c>
       <c r="D85">
-        <v>4600354.96</v>
+        <v>2504190.54</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3208,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>4209154.96</v>
+        <v>2550630.54</v>
       </c>
       <c r="H85">
-        <v>0.734079887617157</v>
+        <v>0.6039254905181211</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3225,7 +3330,7 @@
         <v>178</v>
       </c>
       <c r="D86">
-        <v>4400751.09</v>
+        <v>3352403.21</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3234,10 +3339,10 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>4381191.09</v>
+        <v>3413363.209999998</v>
       </c>
       <c r="H86">
-        <v>0.03526273947571641</v>
+        <v>0.5542545236491259</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3251,7 +3356,7 @@
         <v>179</v>
       </c>
       <c r="D87">
-        <v>46242385.84</v>
+        <v>10</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3260,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>42200385.84</v>
+        <v>10</v>
       </c>
       <c r="H87">
-        <v>0.7871006707364293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3274,10 +3379,10 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D88">
-        <v>13353757.48</v>
+        <v>5397462.34</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3286,10 +3391,10 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>12368437.48</v>
+        <v>5493462.34</v>
       </c>
       <c r="H88">
-        <v>0.7962942785558713</v>
+        <v>0.7174710148281457</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3300,10 +3405,10 @@
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D89">
-        <v>2042150.54</v>
+        <v>2208300.53</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -3312,10 +3417,10 @@
         <v>0</v>
       </c>
       <c r="G89">
-        <v>1866390.54</v>
+        <v>2176380.530000001</v>
       </c>
       <c r="H89">
-        <v>0.8087567782035586</v>
+        <v>0.4387659174657289</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3326,10 +3431,10 @@
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D90">
-        <v>3068723.21</v>
+        <v>13155199.45</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -3338,114 +3443,10 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>2834483.209999998</v>
+        <v>13334688.0594276</v>
       </c>
       <c r="H90">
-        <v>0.6540570053332585</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" t="s">
-        <v>98</v>
-      </c>
-      <c r="C91" t="s">
-        <v>183</v>
-      </c>
-      <c r="D91">
-        <v>10</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>10</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" t="s">
-        <v>99</v>
-      </c>
-      <c r="C92" t="s">
-        <v>183</v>
-      </c>
-      <c r="D92">
-        <v>5924662.34</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>5527862.34</v>
-      </c>
-      <c r="H92">
-        <v>0.6987004672768317</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" t="s">
-        <v>100</v>
-      </c>
-      <c r="C93" t="s">
-        <v>184</v>
-      </c>
-      <c r="D93">
-        <v>7987097</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>5960000</v>
-      </c>
-      <c r="G93">
-        <v>2167657</v>
-      </c>
-      <c r="H93">
-        <v>0.6294990397466019</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" t="s">
-        <v>101</v>
-      </c>
-      <c r="C94" t="s">
-        <v>185</v>
-      </c>
-      <c r="D94">
-        <v>14341399.45</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>13444999.45</v>
-      </c>
-      <c r="H94">
-        <v>0.5170826541015585</v>
+        <v>0.5202119441478535</v>
       </c>
     </row>
   </sheetData>
@@ -3455,7 +3456,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3475,13 +3476,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3492,13 +3493,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F2">
         <v>80</v>
@@ -3512,13 +3513,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3532,13 +3533,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" t="s">
         <v>190</v>
-      </c>
-      <c r="E4" t="s">
-        <v>194</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -3552,13 +3553,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F5">
         <v>44</v>
@@ -3572,13 +3573,13 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
         <v>190</v>
-      </c>
-      <c r="E6" t="s">
-        <v>194</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3589,19 +3590,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3609,19 +3610,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F8">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3632,16 +3633,16 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3652,16 +3653,16 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" t="s">
         <v>190</v>
       </c>
-      <c r="E10" t="s">
-        <v>193</v>
-      </c>
       <c r="F10">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3669,19 +3670,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F11">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3692,16 +3693,16 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F12">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3709,19 +3710,19 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E13" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F13">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3729,19 +3730,19 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E14" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F14">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3749,19 +3750,19 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E15" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3769,19 +3770,19 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3789,19 +3790,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3809,19 +3810,19 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F18">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3829,19 +3830,19 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E19" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3849,19 +3850,19 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E20" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3869,19 +3870,19 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
+        <v>187</v>
+      </c>
+      <c r="E21" t="s">
         <v>190</v>
       </c>
-      <c r="E21" t="s">
-        <v>193</v>
-      </c>
       <c r="F21">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3889,19 +3890,19 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F22">
-        <v>110</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3909,19 +3910,19 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E23" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3929,19 +3930,19 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E24" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F24">
-        <v>39</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3949,19 +3950,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" t="s">
         <v>190</v>
       </c>
-      <c r="E25" t="s">
-        <v>193</v>
-      </c>
       <c r="F25">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3969,19 +3970,19 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F26">
-        <v>158</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3989,16 +3990,16 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E27" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F27">
         <v>16</v>
@@ -4009,19 +4010,19 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E28" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4029,19 +4030,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F29">
-        <v>26</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4049,19 +4050,19 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E30" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F30">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4069,19 +4070,19 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E31" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4089,19 +4090,19 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E32" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F32">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4109,19 +4110,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4129,19 +4130,19 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E34" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F34">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4149,19 +4150,19 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E35" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4169,19 +4170,19 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" t="s">
         <v>190</v>
       </c>
-      <c r="E36" t="s">
-        <v>193</v>
-      </c>
       <c r="F36">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4189,19 +4190,19 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E37" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4209,19 +4210,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" t="s">
         <v>190</v>
       </c>
-      <c r="E38" t="s">
-        <v>193</v>
-      </c>
       <c r="F38">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4229,19 +4230,19 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E39" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4249,19 +4250,19 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" t="s">
         <v>190</v>
       </c>
-      <c r="E40" t="s">
-        <v>194</v>
-      </c>
       <c r="F40">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4269,19 +4270,19 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D41" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E41" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F41">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4289,19 +4290,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
+        <v>187</v>
+      </c>
+      <c r="E42" t="s">
         <v>190</v>
       </c>
-      <c r="E42" t="s">
-        <v>193</v>
-      </c>
       <c r="F42">
-        <v>162</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4309,19 +4310,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E43" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F43">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4329,19 +4330,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E44" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F44">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4349,19 +4350,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D45" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E45" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F45">
-        <v>10</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4369,19 +4370,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4389,19 +4390,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D47" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47" t="s">
         <v>190</v>
       </c>
-      <c r="E47" t="s">
-        <v>193</v>
-      </c>
       <c r="F47">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4409,19 +4410,19 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D48" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E48" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4429,19 +4430,19 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E49" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F49">
-        <v>127</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4449,19 +4450,19 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E50" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4469,19 +4470,19 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D51" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E51" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F51">
-        <v>9</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4489,19 +4490,19 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D52" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E52" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F52">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4509,19 +4510,19 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E53" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4529,19 +4530,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E54" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F54">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4549,19 +4550,19 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E55" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4569,19 +4570,19 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D56" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E56" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4589,19 +4590,19 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
+        <v>187</v>
+      </c>
+      <c r="E57" t="s">
         <v>190</v>
       </c>
-      <c r="E57" t="s">
-        <v>194</v>
-      </c>
       <c r="F57">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4609,19 +4610,19 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D58" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E58" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4629,19 +4630,19 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E59" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F59">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4649,19 +4650,19 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D60" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E60" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4669,19 +4670,19 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D61" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E61" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F61">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4689,16 +4690,16 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E62" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F62">
         <v>9</v>
@@ -4709,19 +4710,19 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D63" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E63" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F63">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4729,19 +4730,19 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D64" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E64" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4749,19 +4750,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D65" t="s">
+        <v>187</v>
+      </c>
+      <c r="E65" t="s">
         <v>190</v>
       </c>
-      <c r="E65" t="s">
-        <v>193</v>
-      </c>
       <c r="F65">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4769,19 +4770,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D66" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E66" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F66">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4789,19 +4790,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D67" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E67" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F67">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4809,19 +4810,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D68" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E68" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F68">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4829,19 +4830,19 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D69" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E69" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F69">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4849,19 +4850,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D70" t="s">
+        <v>187</v>
+      </c>
+      <c r="E70" t="s">
         <v>190</v>
       </c>
-      <c r="E70" t="s">
-        <v>193</v>
-      </c>
       <c r="F70">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4869,19 +4870,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D71" t="s">
+        <v>187</v>
+      </c>
+      <c r="E71" t="s">
         <v>190</v>
       </c>
-      <c r="E71" t="s">
-        <v>193</v>
-      </c>
       <c r="F71">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4889,19 +4890,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D72" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E72" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F72">
-        <v>47</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4909,19 +4910,19 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E73" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F73">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4929,19 +4930,19 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D74" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E74" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F74">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4949,19 +4950,19 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D75" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E75" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F75">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4969,19 +4970,19 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D76" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E76" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4989,19 +4990,19 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D77" t="s">
+        <v>187</v>
+      </c>
+      <c r="E77" t="s">
         <v>190</v>
       </c>
-      <c r="E77" t="s">
-        <v>193</v>
-      </c>
       <c r="F77">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5009,19 +5010,19 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D78" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" t="s">
         <v>190</v>
       </c>
-      <c r="E78" t="s">
-        <v>193</v>
-      </c>
       <c r="F78">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5029,19 +5030,19 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D79" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E79" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F79">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5049,19 +5050,19 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D80" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E80" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5069,19 +5070,19 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D81" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E81" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F81">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5089,19 +5090,19 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D82" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E82" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F82">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5109,19 +5110,19 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D83" t="s">
+        <v>187</v>
+      </c>
+      <c r="E83" t="s">
         <v>190</v>
       </c>
-      <c r="E83" t="s">
-        <v>193</v>
-      </c>
       <c r="F83">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5129,19 +5130,19 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D84" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E84" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5149,19 +5150,19 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D85" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E85" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F85">
-        <v>50</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5169,19 +5170,19 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D86" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E86" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F86">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5189,19 +5190,19 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D87" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E87" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5209,19 +5210,19 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D88" t="s">
+        <v>187</v>
+      </c>
+      <c r="E88" t="s">
         <v>190</v>
       </c>
-      <c r="E88" t="s">
-        <v>193</v>
-      </c>
       <c r="F88">
-        <v>215</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5229,19 +5230,19 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D89" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E89" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F89">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5249,19 +5250,19 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D90" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E90" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F90">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5269,19 +5270,19 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="D91" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E91" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5289,19 +5290,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D92" t="s">
+        <v>187</v>
+      </c>
+      <c r="E92" t="s">
         <v>190</v>
       </c>
-      <c r="E92" t="s">
-        <v>193</v>
-      </c>
       <c r="F92">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5309,19 +5310,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D93" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E93" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F93">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5329,19 +5330,19 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C94" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D94" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E94" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F94">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5349,19 +5350,139 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C95" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D95" t="s">
+        <v>186</v>
+      </c>
+      <c r="E95" t="s">
+        <v>189</v>
+      </c>
+      <c r="F95">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" t="s">
+        <v>177</v>
+      </c>
+      <c r="D96" t="s">
+        <v>186</v>
+      </c>
+      <c r="E96" t="s">
+        <v>189</v>
+      </c>
+      <c r="F96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" t="s">
+        <v>177</v>
+      </c>
+      <c r="D97" t="s">
+        <v>187</v>
+      </c>
+      <c r="E97" t="s">
+        <v>189</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" t="s">
+        <v>186</v>
+      </c>
+      <c r="E98" t="s">
+        <v>189</v>
+      </c>
+      <c r="F98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" t="s">
+        <v>179</v>
+      </c>
+      <c r="D99" t="s">
+        <v>186</v>
+      </c>
+      <c r="E99" t="s">
+        <v>189</v>
+      </c>
+      <c r="F99">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" t="s">
+        <v>180</v>
+      </c>
+      <c r="D100" t="s">
+        <v>187</v>
+      </c>
+      <c r="E100" t="s">
         <v>190</v>
       </c>
-      <c r="E95" t="s">
-        <v>193</v>
-      </c>
-      <c r="F95">
-        <v>45</v>
+      <c r="F100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>97</v>
+      </c>
+      <c r="C101" t="s">
+        <v>181</v>
+      </c>
+      <c r="D101" t="s">
+        <v>186</v>
+      </c>
+      <c r="E101" t="s">
+        <v>189</v>
+      </c>
+      <c r="F101">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -5371,7 +5492,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5391,10 +5512,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5402,16 +5523,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5419,16 +5540,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5436,16 +5557,135 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
         <v>161</v>
       </c>
-      <c r="D4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
+      <c r="D5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E9">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5455,7 +5695,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5475,22 +5715,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5498,28 +5738,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>6564.2</v>
+        <v>6636.8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5527,28 +5767,28 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="G3" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>6566</v>
+        <v>6633.8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5556,28 +5796,28 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="G4" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>6525.2</v>
+        <v>6647</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5585,28 +5825,1333 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="G5" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
+        <v>6649.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>6648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>6586.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" t="s">
+        <v>241</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>6582.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>6580.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G10" t="s">
+        <v>241</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>6586.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" t="s">
+        <v>241</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>6588.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" t="s">
+        <v>241</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>6587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" t="s">
+        <v>241</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>6649.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" t="s">
+        <v>240</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>6616.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" t="s">
+        <v>239</v>
+      </c>
+      <c r="G15" t="s">
+        <v>240</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>6617.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16" t="s">
+        <v>240</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>6612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" t="s">
+        <v>239</v>
+      </c>
+      <c r="G17" t="s">
+        <v>241</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>6603</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" t="s">
+        <v>239</v>
+      </c>
+      <c r="G18" t="s">
+        <v>241</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>6604.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F19" t="s">
+        <v>239</v>
+      </c>
+      <c r="G19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>6603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" t="s">
+        <v>239</v>
+      </c>
+      <c r="G20" t="s">
+        <v>241</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>6602.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" t="s">
+        <v>187</v>
+      </c>
+      <c r="F21" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" t="s">
+        <v>241</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>6603.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" t="s">
+        <v>239</v>
+      </c>
+      <c r="G22" t="s">
+        <v>241</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>6603</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" t="s">
+        <v>239</v>
+      </c>
+      <c r="G23" t="s">
+        <v>241</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>6604.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" t="s">
+        <v>240</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>6568.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>240</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>6571.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" t="s">
+        <v>238</v>
+      </c>
+      <c r="G26" t="s">
+        <v>240</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>6570.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" t="s">
+        <v>240</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
         <v>6568.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" t="s">
+        <v>240</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>6568.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" t="s">
+        <v>240</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>6568.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" t="s">
+        <v>240</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>6568.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" t="s">
+        <v>240</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>6569.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E32" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" t="s">
+        <v>238</v>
+      </c>
+      <c r="G32" t="s">
+        <v>240</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>6569.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>240</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>6577</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" t="s">
+        <v>241</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>6641.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>172</v>
+      </c>
+      <c r="D35" t="s">
+        <v>224</v>
+      </c>
+      <c r="E35" t="s">
+        <v>187</v>
+      </c>
+      <c r="F35" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" t="s">
+        <v>241</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>6640.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" t="s">
+        <v>225</v>
+      </c>
+      <c r="E36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" t="s">
+        <v>239</v>
+      </c>
+      <c r="G36" t="s">
+        <v>241</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>6638.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" t="s">
+        <v>226</v>
+      </c>
+      <c r="E37" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" t="s">
+        <v>241</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>6642.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" t="s">
+        <v>187</v>
+      </c>
+      <c r="F38" t="s">
+        <v>239</v>
+      </c>
+      <c r="G38" t="s">
+        <v>240</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>6647</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" t="s">
+        <v>227</v>
+      </c>
+      <c r="E39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39" t="s">
+        <v>239</v>
+      </c>
+      <c r="G39" t="s">
+        <v>240</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>6650.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" t="s">
+        <v>187</v>
+      </c>
+      <c r="F40" t="s">
+        <v>238</v>
+      </c>
+      <c r="G40" t="s">
+        <v>240</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>6597.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" t="s">
+        <v>229</v>
+      </c>
+      <c r="E41" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" t="s">
+        <v>238</v>
+      </c>
+      <c r="G41" t="s">
+        <v>240</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>6554.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E42" t="s">
+        <v>186</v>
+      </c>
+      <c r="F42" t="s">
+        <v>238</v>
+      </c>
+      <c r="G42" t="s">
+        <v>240</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>6554.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>175</v>
+      </c>
+      <c r="D43" t="s">
+        <v>231</v>
+      </c>
+      <c r="E43" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" t="s">
+        <v>238</v>
+      </c>
+      <c r="G43" t="s">
+        <v>240</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>6547.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44" t="s">
+        <v>186</v>
+      </c>
+      <c r="F44" t="s">
+        <v>238</v>
+      </c>
+      <c r="G44" t="s">
+        <v>240</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>6547.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" t="s">
+        <v>233</v>
+      </c>
+      <c r="E45" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" t="s">
+        <v>238</v>
+      </c>
+      <c r="G45" t="s">
+        <v>240</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>6547.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" t="s">
+        <v>175</v>
+      </c>
+      <c r="D46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E46" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" t="s">
+        <v>238</v>
+      </c>
+      <c r="G46" t="s">
+        <v>240</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>6594</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" t="s">
+        <v>235</v>
+      </c>
+      <c r="E47" t="s">
+        <v>187</v>
+      </c>
+      <c r="F47" t="s">
+        <v>238</v>
+      </c>
+      <c r="G47" t="s">
+        <v>240</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>6592.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
+        <v>175</v>
+      </c>
+      <c r="D48" t="s">
+        <v>236</v>
+      </c>
+      <c r="E48" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" t="s">
+        <v>238</v>
+      </c>
+      <c r="G48" t="s">
+        <v>240</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>6592</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" t="s">
+        <v>238</v>
+      </c>
+      <c r="G49" t="s">
+        <v>240</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>6594</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" t="s">
+        <v>186</v>
+      </c>
+      <c r="F50" t="s">
+        <v>239</v>
+      </c>
+      <c r="G50" t="s">
+        <v>241</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>6586.6</v>
       </c>
     </row>
   </sheetData>

--- a/info_faccts.xlsx
+++ b/info_faccts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="228">
   <si>
     <t>DataDateTime</t>
   </si>
@@ -43,7 +43,7 @@
     <t>CurrentMarginRate</t>
   </si>
   <si>
-    <t>20200805T101501</t>
+    <t>20200807T093735</t>
   </si>
   <si>
     <t>10_f_xb_3670</t>
@@ -211,9 +211,6 @@
     <t>702_f_yh_0019</t>
   </si>
   <si>
-    <t>704_f_ya_0402</t>
-  </si>
-  <si>
     <t>705_f_yh_1888</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>921_f_sw_0778</t>
   </si>
   <si>
-    <t>922_f_gtja_0567</t>
-  </si>
-  <si>
     <t>922_f_ya_9073</t>
   </si>
   <si>
@@ -469,9 +463,6 @@
     <t>702</t>
   </si>
   <si>
-    <t>704</t>
-  </si>
-  <si>
     <t>705</t>
   </si>
   <si>
@@ -604,64 +595,61 @@
     <t>Price</t>
   </si>
   <si>
-    <t>09:31:40</t>
-  </si>
-  <si>
-    <t>09:31:45</t>
-  </si>
-  <si>
-    <t>09:30:09</t>
+    <t>09:31:59</t>
+  </si>
+  <si>
+    <t>09:32:42</t>
+  </si>
+  <si>
+    <t>09:32:27</t>
+  </si>
+  <si>
+    <t>09:31:48</t>
+  </si>
+  <si>
+    <t>09:31:51</t>
+  </si>
+  <si>
+    <t>09:31:44</t>
+  </si>
+  <si>
+    <t>09:32:36</t>
+  </si>
+  <si>
+    <t>09:32:30</t>
+  </si>
+  <si>
+    <t>09:32:25</t>
+  </si>
+  <si>
+    <t>09:32:20</t>
+  </si>
+  <si>
+    <t>09:32:09</t>
+  </si>
+  <si>
+    <t>09:32:05</t>
+  </si>
+  <si>
+    <t>09:31:54</t>
+  </si>
+  <si>
+    <t>09:30:21</t>
   </si>
   <si>
     <t>09:30:17</t>
   </si>
   <si>
-    <t>09:30:06</t>
-  </si>
-  <si>
-    <t>09:30:36</t>
-  </si>
-  <si>
-    <t>09:30:26</t>
-  </si>
-  <si>
-    <t>09:30:20</t>
-  </si>
-  <si>
-    <t>09:30:10</t>
-  </si>
-  <si>
-    <t>09:47:35</t>
-  </si>
-  <si>
-    <t>09:47:30</t>
-  </si>
-  <si>
-    <t>09:47:25</t>
-  </si>
-  <si>
-    <t>09:47:00</t>
-  </si>
-  <si>
-    <t>09:46:52</t>
-  </si>
-  <si>
-    <t>09:46:46</t>
-  </si>
-  <si>
-    <t>09:46:35</t>
-  </si>
-  <si>
-    <t>09:46:30</t>
-  </si>
-  <si>
-    <t>09:46:25</t>
-  </si>
-  <si>
-    <t>09:46:20</t>
-  </si>
-  <si>
-    <t>09:32:46</t>
+    <t>09:30:23</t>
+  </si>
+  <si>
+    <t>09:31:47</t>
+  </si>
+  <si>
+    <t>09:31:46</t>
+  </si>
+  <si>
+    <t>09:31:55</t>
   </si>
   <si>
     <t>09:32:37</t>
@@ -670,79 +658,49 @@
     <t>09:32:31</t>
   </si>
   <si>
-    <t>09:32:26</t>
-  </si>
-  <si>
-    <t>09:32:21</t>
+    <t>09:32:28</t>
   </si>
   <si>
     <t>09:32:11</t>
   </si>
   <si>
-    <t>09:32:08</t>
-  </si>
-  <si>
-    <t>09:32:00</t>
-  </si>
-  <si>
-    <t>09:31:58</t>
-  </si>
-  <si>
-    <t>09:30:48</t>
-  </si>
-  <si>
-    <t>09:30:43</t>
-  </si>
-  <si>
-    <t>09:30:28</t>
-  </si>
-  <si>
-    <t>09:30:22</t>
-  </si>
-  <si>
-    <t>09:30:16</t>
-  </si>
-  <si>
-    <t>09:39:43</t>
-  </si>
-  <si>
-    <t>09:41:03</t>
-  </si>
-  <si>
-    <t>09:40:56</t>
-  </si>
-  <si>
-    <t>09:40:48</t>
-  </si>
-  <si>
-    <t>09:40:38</t>
-  </si>
-  <si>
-    <t>09:40:33</t>
-  </si>
-  <si>
-    <t>09:40:13</t>
-  </si>
-  <si>
-    <t>09:40:09</t>
-  </si>
-  <si>
-    <t>09:40:03</t>
-  </si>
-  <si>
-    <t>09:40:00</t>
+    <t>09:32:01</t>
+  </si>
+  <si>
+    <t>09:31:01</t>
+  </si>
+  <si>
+    <t>09:31:33</t>
+  </si>
+  <si>
+    <t>09:31:27</t>
+  </si>
+  <si>
+    <t>09:31:22</t>
+  </si>
+  <si>
+    <t>09:31:17</t>
+  </si>
+  <si>
+    <t>09:31:12</t>
+  </si>
+  <si>
+    <t>09:31:07</t>
+  </si>
+  <si>
+    <t>09:30:14</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>sell</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>close</t>
   </si>
   <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>close</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1143,10 +1101,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2">
-        <v>18553948.15</v>
+        <v>20635148.15</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1155,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>19129948.15</v>
+        <v>21297548.15</v>
       </c>
       <c r="H2">
-        <v>0.7142476233005368</v>
+        <v>0.6456360095140816</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1169,7 +1127,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3">
         <v>1549178.61</v>
@@ -1195,10 +1153,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>4624436.310000001</v>
+        <v>4734956.310000001</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1207,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4537516.310000001</v>
+        <v>4626236.310000001</v>
       </c>
       <c r="H4">
-        <v>0.418590230918641</v>
+        <v>0.413429464436502</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1221,10 +1179,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>10086421.59</v>
+        <v>11726941.59</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1233,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>10377101.59</v>
+        <v>12144901.59</v>
       </c>
       <c r="H5">
-        <v>0.8355974859450132</v>
+        <v>0.7185118739195976</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1247,10 +1205,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>3763114.94</v>
+        <v>3855074.94</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1259,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3688754.94</v>
+        <v>3745954.94</v>
       </c>
       <c r="H6">
-        <v>0.4701358664937498</v>
+        <v>0.4659028813624757</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1273,7 +1231,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -1299,10 +1257,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8">
-        <v>10797483.04</v>
+        <v>12394918.46</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1311,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>11115163.04</v>
+        <v>12865326.5163</v>
       </c>
       <c r="H8">
-        <v>0.6538052544841483</v>
+        <v>0.5435696941806973</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1325,10 +1283,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9">
-        <v>5751321.52</v>
+        <v>5855321.52</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1337,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5680521.52</v>
+        <v>5756921.52</v>
       </c>
       <c r="H9">
-        <v>0.2801742752661907</v>
+        <v>0.2786239128721005</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1351,10 +1309,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10">
-        <v>2287796.37</v>
+        <v>2212556.37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1363,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2347556.37</v>
+        <v>2307596.37</v>
       </c>
       <c r="H10">
-        <v>0.6044174351391612</v>
+        <v>0.6187966052312691</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1377,7 +1335,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11">
         <v>1001</v>
@@ -1403,10 +1361,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12">
-        <v>3043087.84</v>
+        <v>2942767.84</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1415,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3115567.839999998</v>
+        <v>3057967.839999998</v>
       </c>
       <c r="H12">
-        <v>0.6072318425266584</v>
+        <v>0.6226064169464911</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1429,10 +1387,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13">
-        <v>5118043.25</v>
+        <v>4923584.73</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1441,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5260058.984344796</v>
+        <v>5128832.631424</v>
       </c>
       <c r="H13">
-        <v>0.6899676240896887</v>
+        <v>0.6499696596795448</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1455,10 +1413,10 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D14">
-        <v>9621092.559999999</v>
+        <v>9395372.559999999</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1467,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>9784172.559999999</v>
+        <v>9648092.559999999</v>
       </c>
       <c r="H14">
-        <v>0.4350610104121059</v>
+        <v>0.4440046955768429</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1481,10 +1439,10 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D15">
-        <v>17143456.32</v>
+        <v>16633496.32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1493,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>17511896.32</v>
+        <v>17260576.32</v>
       </c>
       <c r="H15">
-        <v>0.5491704510045888</v>
+        <v>0.5607119380356821</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1507,10 +1465,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D16">
-        <v>3016892.19</v>
+        <v>3501419.62</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1519,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3085892.19</v>
+        <v>3633859.62</v>
       </c>
       <c r="H16">
-        <v>0.5634379598983981</v>
+        <v>0.5690359607232157</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1533,10 +1491,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D17">
-        <v>1893291.98</v>
+        <v>1399249.4</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1545,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1936131.98</v>
+        <v>1449849.4</v>
       </c>
       <c r="H17">
-        <v>0.6174981934857561</v>
+        <v>0.5927539784476926</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1559,10 +1517,10 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D18">
-        <v>3770568.67</v>
+        <v>3623374.02</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1571,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3867208.67</v>
+        <v>3740494.02</v>
       </c>
       <c r="H18">
-        <v>0.6522782231970947</v>
+        <v>0.508999717636228</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1585,10 +1543,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D19">
-        <v>1313928.8</v>
+        <v>1294706.46</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1597,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1307608.8</v>
+        <v>1247706.46</v>
       </c>
       <c r="H19">
-        <v>0.1217134665964316</v>
+        <v>0.6427858039622556</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1611,7 +1569,7 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -1637,10 +1595,10 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D21">
-        <v>10829390.75</v>
+        <v>10569891.31</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1649,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>10983044.92632</v>
+        <v>10853571.31</v>
       </c>
       <c r="H21">
-        <v>0.4593436550468873</v>
+        <v>0.4385446839617257</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1663,10 +1621,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D22">
-        <v>26713749.37</v>
+        <v>25775405.93</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1675,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27297989.37</v>
+        <v>26822685.93000003</v>
       </c>
       <c r="H22">
-        <v>0.6295153744504519</v>
+        <v>0.6270019059198652</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1689,10 +1647,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D23">
-        <v>8926746.890000001</v>
+        <v>8611106.890000001</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1701,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>9129746.890000001</v>
+        <v>9012234.766100001</v>
       </c>
       <c r="H23">
-        <v>0.6734670822840303</v>
+        <v>0.668984969485992</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1715,10 +1673,10 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D24">
-        <v>3897791.2</v>
+        <v>3764031.2</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1727,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3982271.2</v>
+        <v>3932351.2</v>
       </c>
       <c r="H24">
-        <v>0.6862174529951651</v>
+        <v>0.6993507599219519</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1741,7 +1699,7 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D25">
         <v>4522815.029999999</v>
@@ -1767,10 +1725,10 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D26">
-        <v>1751001</v>
+        <v>1728617.9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1779,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1751001</v>
+        <v>1748777.9</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>0.1814515153696762</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1793,10 +1751,10 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D27">
-        <v>17884583.58</v>
+        <v>21765783.58</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1805,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>18300583.58</v>
+        <v>22597783.58</v>
       </c>
       <c r="H27">
-        <v>0.6891845795444302</v>
+        <v>0.5616805716837469</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1819,10 +1777,10 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D28">
-        <v>45238845.25</v>
+        <v>43855565.25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1831,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>45999245.25</v>
+        <v>45563405.25</v>
       </c>
       <c r="H28">
-        <v>0.5622824778847866</v>
+        <v>0.5713041651995475</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1845,10 +1803,10 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D29">
-        <v>7576517.790000001</v>
+        <v>7320205.45</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1857,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>7724397.790000001</v>
+        <v>7660205.45</v>
       </c>
       <c r="H29">
-        <v>0.6336835741857877</v>
+        <v>0.6846377207807139</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1871,10 +1829,10 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D30">
-        <v>13209221.45</v>
+        <v>16015981.45</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1883,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>13485341.45</v>
+        <v>16603621.45</v>
       </c>
       <c r="H30">
-        <v>0.6897640697114125</v>
+        <v>0.5637862094236076</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1897,10 +1855,10 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D31">
-        <v>4089081.27</v>
+        <v>4030561.27</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1909,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>4121841.27</v>
+        <v>4100281.27</v>
       </c>
       <c r="H31">
-        <v>0.267742479079016</v>
+        <v>0.2708629791146011</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1923,10 +1881,10 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D32">
-        <v>10906969.73</v>
+        <v>11423311.85</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1935,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>10641209.73</v>
+        <v>11129311.85</v>
       </c>
       <c r="H32">
-        <v>0.8225989546397182</v>
+        <v>0.5404700740774012</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1949,10 +1907,10 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D33">
-        <v>1109278.76</v>
+        <v>1085278.76</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1961,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1077838.76</v>
+        <v>1075318.76</v>
       </c>
       <c r="H33">
-        <v>0.2912762202019902</v>
+        <v>0.2895037374778062</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1975,7 +1933,7 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D34">
         <v>1637.84</v>
@@ -2001,10 +1959,10 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D35">
-        <v>7378742.55</v>
+        <v>7534742.55</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2013,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>7300142.55</v>
+        <v>7388942.55</v>
       </c>
       <c r="H35">
-        <v>0.3270215593255779</v>
+        <v>0.3256249434501288</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2027,10 +1985,10 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D36">
-        <v>1081559.95</v>
+        <v>1112759.95</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2039,10 +1997,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1065119.95</v>
+        <v>1084079.95</v>
       </c>
       <c r="H36">
-        <v>0.4482695118047502</v>
+        <v>0.4438831287304961</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2053,10 +2011,10 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D37">
-        <v>1167917.25</v>
+        <v>1134477.25</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2065,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1187917.25</v>
+        <v>1173997.25</v>
       </c>
       <c r="H37">
-        <v>0.5751040318675396</v>
+        <v>0.5856259032974737</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2079,10 +2037,10 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D38">
-        <v>3077235.62</v>
+        <v>3160435.62</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2091,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>3032435.62</v>
+        <v>3081715.62</v>
       </c>
       <c r="H38">
-        <v>0.4198700185430482</v>
+        <v>0.4163955920111797</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2105,10 +2063,10 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D39">
-        <v>15081506.97</v>
+        <v>14604986.97</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2117,10 +2075,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>15366506.97</v>
+        <v>15165866.97</v>
       </c>
       <c r="H39">
-        <v>0.6335374733507182</v>
+        <v>0.6460036619983619</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2131,10 +2089,10 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D40">
-        <v>1828306.52</v>
+        <v>1860259.74</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2143,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1791106.52</v>
+        <v>1800019.74</v>
       </c>
       <c r="H40">
-        <v>0.6720259161359091</v>
+        <v>0.5771243375364318</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2157,10 +2115,10 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D41">
-        <v>38553513</v>
+        <v>37188793</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2169,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>39336273</v>
+        <v>38838233.00000003</v>
       </c>
       <c r="H41">
-        <v>0.6533263992752949</v>
+        <v>0.6659209238484127</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2183,10 +2141,10 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D42">
-        <v>7892759.840000001</v>
+        <v>8024079.840000001</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2195,10 +2153,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>7822759.840000001</v>
+        <v>7880999.840000001</v>
       </c>
       <c r="H42">
-        <v>0.283489106831637</v>
+        <v>0.2833936867584049</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2209,10 +2167,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43">
-        <v>5447421.33</v>
+        <v>5551421.33</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2221,10 +2179,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>5395821.33</v>
+        <v>5451506.812560002</v>
       </c>
       <c r="H43">
-        <v>0.2949571349131384</v>
+        <v>0.323395358497609</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2235,10 +2193,10 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44">
-        <v>3164396.38</v>
+        <v>3739196.38</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2247,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>3227836.38</v>
+        <v>3887436.38</v>
       </c>
       <c r="H44">
-        <v>0.6856525980415401</v>
+        <v>0.5731793866681876</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2261,10 +2219,10 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45">
-        <v>35040286.98999999</v>
+        <v>33986926.98999999</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2273,10 +2231,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>35599726.98999999</v>
+        <v>35396176.35500802</v>
       </c>
       <c r="H45">
-        <v>0.6045002537813002</v>
+        <v>0.6118452056174117</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2287,10 +2245,10 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46">
-        <v>2158999.78</v>
+        <v>2200599.78</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2299,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>2140759.78</v>
+        <v>2156599.78</v>
       </c>
       <c r="H46">
-        <v>0.297377784255644</v>
+        <v>0.2975083304515592</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2313,10 +2271,10 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47">
-        <v>3616082.17</v>
+        <v>3720082.17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2325,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>3570482.17</v>
+        <v>3608882.17</v>
       </c>
       <c r="H47">
-        <v>0.4457481998852833</v>
+        <v>0.4444633890609956</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2339,22 +2297,22 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D48">
-        <v>3699418.53</v>
+        <v>3900777.62</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>400000</v>
       </c>
       <c r="G48">
-        <v>3656938.53</v>
+        <v>3399977.62</v>
       </c>
       <c r="H48">
-        <v>0.4243296919732473</v>
+        <v>0.4599782042094736</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2365,10 +2323,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D49">
-        <v>1936752.71</v>
+        <v>1988752.71</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2377,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>1913952.71</v>
+        <v>1931952.71</v>
       </c>
       <c r="H49">
-        <v>0.4157720281396085</v>
+        <v>0.4151281736083487</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2391,10 +2349,10 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D50">
-        <v>8419124.74</v>
+        <v>8575124.74</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2403,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>8350724.74</v>
+        <v>8404124.74</v>
       </c>
       <c r="H50">
-        <v>0.2858798576565225</v>
+        <v>0.2862908481770108</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2417,10 +2375,10 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D51">
-        <v>2055999.14</v>
+        <v>2097599.14</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2429,10 +2387,10 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>2035359.14</v>
+        <v>2051359.14</v>
       </c>
       <c r="H51">
-        <v>0.3649070011300315</v>
+        <v>0.3648999267870765</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2443,10 +2401,10 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D52">
-        <v>5459194.25</v>
+        <v>5509559.439999999</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2455,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>5433594.25</v>
+        <v>5381079.439999999</v>
       </c>
       <c r="H52">
-        <v>0.1464533351933667</v>
+        <v>0.3278928734789316</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2469,10 +2427,10 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D53">
-        <v>4811222.36</v>
+        <v>4902982.36</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2481,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>4762662.360000001</v>
+        <v>4783462.359999999</v>
       </c>
       <c r="H53">
-        <v>0.3322827192814062</v>
+        <v>0.3331397803661195</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2495,10 +2453,10 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D54">
-        <v>2597958.42</v>
+        <v>2639558.42</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2507,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>2578278.42</v>
+        <v>2592518.42</v>
       </c>
       <c r="H54">
-        <v>0.2674907390335292</v>
+        <v>0.2681074875448715</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2521,10 +2479,10 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D55">
-        <v>4109552.12</v>
+        <v>4199793.09</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2533,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>4062273.09344</v>
+        <v>4099713.09</v>
       </c>
       <c r="H55">
-        <v>0.4408802556608452</v>
+        <v>0.4401571428014247</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2547,10 +2505,10 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D56">
-        <v>1969223.93</v>
+        <v>2042023.93</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2559,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1933103.93</v>
+        <v>1967826.375900001</v>
       </c>
       <c r="H56">
-        <v>0.6723665395476175</v>
+        <v>0.5705844853748711</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2573,10 +2531,10 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D57">
-        <v>10</v>
+        <v>4036514.41</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2585,10 +2543,10 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>10</v>
+        <v>3908796.376328</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>0.5129507415997848</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2599,10 +2557,10 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D58">
-        <v>3911714.41</v>
+        <v>4432465.59</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2611,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>3855554.41</v>
+        <v>4329145.59</v>
       </c>
       <c r="H58">
-        <v>0.6191856594756238</v>
+        <v>0.4168300562975522</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2625,10 +2583,10 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D59">
-        <v>4338865.59</v>
+        <v>3943416.6</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2637,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>4296025.59</v>
+        <v>3828616.6</v>
       </c>
       <c r="H59">
-        <v>0.4167754503529388</v>
+        <v>0.4189544599477524</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2651,10 +2609,10 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D60">
-        <v>3836889.77</v>
+        <v>3118139.31</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2663,10 +2621,10 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>3784529.770000002</v>
+        <v>3267819.31</v>
       </c>
       <c r="H60">
-        <v>0.4625910499839981</v>
+        <v>0.7903031823384384</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2677,10 +2635,10 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D61">
-        <v>3230899.31</v>
+        <v>2087022.11</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2689,10 +2647,10 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>3286619.31</v>
+        <v>2054569.66016</v>
       </c>
       <c r="H61">
-        <v>0.7806361972600955</v>
+        <v>0.3895268267213075</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2703,10 +2661,10 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D62">
-        <v>2055822.11</v>
+        <v>3630467.38</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2715,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>2041662.110000001</v>
+        <v>3532187.38</v>
       </c>
       <c r="H62">
-        <v>0.2923235911940393</v>
+        <v>0.4087026662781407</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2729,10 +2687,10 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D63">
-        <v>3536867.38</v>
+        <v>5100225.91</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2741,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>3494387.38</v>
+        <v>4917185.91</v>
       </c>
       <c r="H63">
-        <v>0.4099094474179334</v>
+        <v>0.5219297474152245</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2755,10 +2713,10 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D64">
-        <v>4933825.91</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2767,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>4854465.91</v>
-      </c>
-      <c r="H64">
-        <v>0.5245597862278532</v>
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2781,10 +2739,10 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>5876955.19</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2793,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65" t="s">
-        <v>182</v>
+        <v>6125755.189999999</v>
+      </c>
+      <c r="H65">
+        <v>0.5715143180574934</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2807,10 +2765,10 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D66">
-        <v>6064468.99</v>
+        <v>1794191.81</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2819,10 +2777,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>6154588.989999999</v>
+        <v>1881231.81</v>
       </c>
       <c r="H66">
-        <v>0.5393961490188803</v>
+        <v>0.8433793175121783</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2833,10 +2791,10 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D67">
-        <v>1861071.81</v>
+        <v>10395136.07</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2845,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>1894991.81</v>
+        <v>10922536.07</v>
       </c>
       <c r="H67">
-        <v>0.8319613792948265</v>
+        <v>0.7122455764982432</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2859,10 +2817,10 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D68">
-        <v>10766741.19</v>
+        <v>7575782.38</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2871,10 +2829,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>10920950.8853232</v>
+        <v>7875542.379999999</v>
       </c>
       <c r="H68">
-        <v>0.5918803287254876</v>
+        <v>0.5647464752770466</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2885,10 +2843,10 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D69">
-        <v>7762181.090000001</v>
+        <v>4817389.54</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2897,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>7882021.090000001</v>
+        <v>4651389.54</v>
       </c>
       <c r="H69">
-        <v>0.5600553398164023</v>
+        <v>0.5142731606177193</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2911,22 +2869,22 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D70">
-        <v>6677709.54</v>
+        <v>592723.9299999999</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>4607669.54</v>
+        <v>592723.9299999999</v>
       </c>
       <c r="H70">
-        <v>0.5155150948607308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2937,10 +2895,10 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D71">
-        <v>592723.9299999999</v>
+        <v>1314853.94</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2949,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>592723.9299999999</v>
+        <v>1314853.94</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2963,10 +2921,10 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D72">
-        <v>1314853.94</v>
+        <v>12968563.02</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2975,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>1314853.94</v>
+        <v>13585483.02</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>0.6659357776739544</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2989,10 +2947,10 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D73">
-        <v>13473550.64</v>
+        <v>3098424.6</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -3001,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>13739670.64000001</v>
+        <v>3233624.6</v>
       </c>
       <c r="H73">
-        <v>0.6431175995060093</v>
+        <v>0.6378506645452906</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3015,10 +2973,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D74">
-        <v>3208857.45</v>
+        <v>2146322.17</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3027,10 +2985,10 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>3274937.45</v>
+        <v>2229522.17</v>
       </c>
       <c r="H74">
-        <v>0.6739621851403604</v>
+        <v>0.5693029731119471</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3041,10 +2999,10 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D75">
-        <v>2213202.17</v>
+        <v>2390343.2</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3053,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>2250962.17</v>
+        <v>2372503.2</v>
       </c>
       <c r="H75">
-        <v>0.5603150585156214</v>
+        <v>0.1352171832687096</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3067,10 +3025,10 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D76">
-        <v>2369543.2</v>
+        <v>3891199.08</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3079,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>2359383.2</v>
+        <v>4032164.559524</v>
       </c>
       <c r="H76">
-        <v>0.1349111920437511</v>
+        <v>0.6394114034632455</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3093,10 +3051,10 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D77">
-        <v>4016599.08</v>
+        <v>2967078.98</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3105,10 +3063,10 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>4088599.08</v>
+        <v>3051525.965794</v>
       </c>
       <c r="H77">
-        <v>0.626598487616937</v>
+        <v>0.5459306650751473</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3119,10 +3077,10 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D78">
-        <v>3042318.98</v>
+        <v>3857728.04</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3131,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>3086598.98</v>
+        <v>3972928.04</v>
       </c>
       <c r="H78">
-        <v>0.5363145684704398</v>
+        <v>0.7487827541925476</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3145,10 +3103,10 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D79">
-        <v>3983128.04</v>
+        <v>19320306.06</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3157,10 +3115,10 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>4053928.04</v>
+        <v>19639139.1990464</v>
       </c>
       <c r="H79">
-        <v>0.7291816654939932</v>
+        <v>0.3473851644338501</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3171,10 +3129,10 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D80">
-        <v>19754002.37</v>
+        <v>3927201.26</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3183,10 +3141,10 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>20046362.1991296</v>
+        <v>4062443.65136</v>
       </c>
       <c r="H80">
-        <v>0.4482924089035066</v>
+        <v>0.6248818243054672</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3197,10 +3155,10 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D81">
-        <v>4060961.26</v>
+        <v>4372949.66</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3209,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>4136481.26</v>
+        <v>4372949.66</v>
       </c>
       <c r="H81">
-        <v>0.6098168567552026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3223,10 +3181,10 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D82">
-        <v>4374391.09</v>
+        <v>65487591.85</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3235,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>4361407.125047999</v>
+        <v>67650871.84999999</v>
       </c>
       <c r="H82">
-        <v>0.07317198116341588</v>
+        <v>0.5958260063428882</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3249,10 +3207,10 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D83">
-        <v>67196399.36</v>
+        <v>11583791.91</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3261,10 +3219,10 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>68184503.921774</v>
+        <v>11992391.91</v>
       </c>
       <c r="H83">
-        <v>0.4740117026748488</v>
+        <v>0.7441868200252971</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3275,10 +3233,10 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D84">
-        <v>11995378.22</v>
+        <v>0</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3287,10 +3245,10 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>12234138.22</v>
-      </c>
-      <c r="H84">
-        <v>0.7570856102359776</v>
+        <v>0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3301,10 +3259,10 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D85">
-        <v>2504190.54</v>
+        <v>3245135.36</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3313,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>2550630.54</v>
+        <v>3351695.360000002</v>
       </c>
       <c r="H85">
-        <v>0.6039254905181211</v>
+        <v>0.5680439883414699</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3327,10 +3285,10 @@
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D86">
-        <v>3352403.21</v>
+        <v>7100488.470000001</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3339,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>3413363.209999998</v>
+        <v>7201694.331348001</v>
       </c>
       <c r="H86">
-        <v>0.5542545236491259</v>
+        <v>0.7151208817045164</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3353,10 +3311,10 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D87">
-        <v>10</v>
+        <v>2145129.02</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3365,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>10</v>
+        <v>2114494.335934001</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>0.227574409551419</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3379,10 +3337,10 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D88">
-        <v>5397462.34</v>
+        <v>12783808.06</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3391,62 +3349,10 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>5493462.34</v>
+        <v>13174528.06000001</v>
       </c>
       <c r="H88">
-        <v>0.7174710148281457</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" t="s">
-        <v>96</v>
-      </c>
-      <c r="C89" t="s">
-        <v>180</v>
-      </c>
-      <c r="D89">
-        <v>2208300.53</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>2176380.530000001</v>
-      </c>
-      <c r="H89">
-        <v>0.4387659174657289</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" t="s">
-        <v>97</v>
-      </c>
-      <c r="C90" t="s">
-        <v>181</v>
-      </c>
-      <c r="D90">
-        <v>13155199.45</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>13334688.0594276</v>
-      </c>
-      <c r="H90">
-        <v>0.5202119441478535</v>
+        <v>0.5298865179994919</v>
       </c>
     </row>
   </sheetData>
@@ -3456,7 +3362,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3476,13 +3382,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3493,13 +3399,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
         <v>186</v>
-      </c>
-      <c r="E2" t="s">
-        <v>189</v>
       </c>
       <c r="F2">
         <v>80</v>
@@ -3513,13 +3419,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" t="s">
         <v>187</v>
-      </c>
-      <c r="E3" t="s">
-        <v>190</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3533,13 +3439,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -3553,13 +3459,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" t="s">
         <v>186</v>
-      </c>
-      <c r="E5" t="s">
-        <v>189</v>
       </c>
       <c r="F5">
         <v>44</v>
@@ -3573,13 +3479,13 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3593,13 +3499,13 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F7">
         <v>11</v>
@@ -3613,16 +3519,16 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3633,16 +3539,16 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" t="s">
         <v>186</v>
       </c>
-      <c r="E9" t="s">
-        <v>189</v>
-      </c>
       <c r="F9">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3653,13 +3559,13 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" t="s">
         <v>187</v>
-      </c>
-      <c r="E10" t="s">
-        <v>190</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -3673,13 +3579,13 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E11" t="s">
         <v>186</v>
-      </c>
-      <c r="E11" t="s">
-        <v>189</v>
       </c>
       <c r="F11">
         <v>9</v>
@@ -3693,13 +3599,13 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12" t="s">
         <v>186</v>
-      </c>
-      <c r="E12" t="s">
-        <v>189</v>
       </c>
       <c r="F12">
         <v>12</v>
@@ -3713,16 +3619,16 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3733,16 +3639,16 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" t="s">
         <v>186</v>
       </c>
-      <c r="E14" t="s">
-        <v>189</v>
-      </c>
       <c r="F14">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3753,13 +3659,13 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" t="s">
         <v>186</v>
-      </c>
-      <c r="E15" t="s">
-        <v>189</v>
       </c>
       <c r="F15">
         <v>27</v>
@@ -3773,13 +3679,13 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" t="s">
         <v>186</v>
-      </c>
-      <c r="E16" t="s">
-        <v>189</v>
       </c>
       <c r="F16">
         <v>61</v>
@@ -3793,13 +3699,13 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -3813,16 +3719,16 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" t="s">
         <v>186</v>
       </c>
-      <c r="E18" t="s">
-        <v>189</v>
-      </c>
       <c r="F18">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3833,16 +3739,16 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" t="s">
         <v>186</v>
       </c>
-      <c r="E19" t="s">
-        <v>189</v>
-      </c>
       <c r="F19">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3853,16 +3759,16 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" t="s">
         <v>186</v>
       </c>
-      <c r="E20" t="s">
-        <v>189</v>
-      </c>
       <c r="F20">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3873,16 +3779,16 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" t="s">
         <v>187</v>
       </c>
-      <c r="E21" t="s">
-        <v>190</v>
-      </c>
       <c r="F21">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3893,16 +3799,16 @@
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F22">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3913,16 +3819,16 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3933,16 +3839,16 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" t="s">
         <v>186</v>
       </c>
-      <c r="E24" t="s">
-        <v>189</v>
-      </c>
       <c r="F24">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3953,13 +3859,13 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
+        <v>184</v>
+      </c>
+      <c r="E25" t="s">
         <v>187</v>
-      </c>
-      <c r="E25" t="s">
-        <v>190</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -3973,16 +3879,16 @@
         <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
+        <v>183</v>
+      </c>
+      <c r="E26" t="s">
         <v>186</v>
       </c>
-      <c r="E26" t="s">
-        <v>189</v>
-      </c>
       <c r="F26">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3993,13 +3899,13 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" t="s">
         <v>186</v>
-      </c>
-      <c r="E27" t="s">
-        <v>189</v>
       </c>
       <c r="F27">
         <v>16</v>
@@ -4010,19 +3916,19 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" t="s">
         <v>186</v>
       </c>
-      <c r="E28" t="s">
-        <v>189</v>
-      </c>
       <c r="F28">
-        <v>80</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4030,19 +3936,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" t="s">
         <v>186</v>
       </c>
-      <c r="E29" t="s">
-        <v>189</v>
-      </c>
       <c r="F29">
-        <v>158</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4053,16 +3959,16 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4070,19 +3976,19 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4093,16 +3999,16 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D32" t="s">
+        <v>184</v>
+      </c>
+      <c r="E32" t="s">
         <v>186</v>
       </c>
-      <c r="E32" t="s">
-        <v>189</v>
-      </c>
       <c r="F32">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4110,19 +4016,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D33" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" t="s">
         <v>186</v>
       </c>
-      <c r="E33" t="s">
-        <v>189</v>
-      </c>
       <c r="F33">
-        <v>59</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4130,19 +4036,19 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
+        <v>183</v>
+      </c>
+      <c r="E34" t="s">
         <v>186</v>
       </c>
-      <c r="E34" t="s">
-        <v>189</v>
-      </c>
       <c r="F34">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4150,19 +4056,19 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F35">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4170,19 +4076,19 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E36" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4190,19 +4096,19 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" t="s">
         <v>187</v>
       </c>
-      <c r="E37" t="s">
-        <v>190</v>
-      </c>
       <c r="F37">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4210,19 +4116,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E38" t="s">
         <v>187</v>
       </c>
-      <c r="E38" t="s">
-        <v>190</v>
-      </c>
       <c r="F38">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4230,19 +4136,19 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4250,19 +4156,19 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E40" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F40">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4270,19 +4176,19 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F41">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4290,19 +4196,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D42" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E42" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F42">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4313,16 +4219,16 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E43" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4330,19 +4236,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" t="s">
         <v>187</v>
       </c>
-      <c r="E44" t="s">
-        <v>189</v>
-      </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4353,16 +4259,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" t="s">
         <v>186</v>
       </c>
-      <c r="E45" t="s">
-        <v>189</v>
-      </c>
       <c r="F45">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4370,19 +4276,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D46" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E46" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F46">
-        <v>7</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4393,13 +4299,13 @@
         <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E47" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F47">
         <v>7</v>
@@ -4410,19 +4316,19 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
+        <v>183</v>
+      </c>
+      <c r="E48" t="s">
         <v>187</v>
       </c>
-      <c r="E48" t="s">
-        <v>190</v>
-      </c>
       <c r="F48">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4430,19 +4336,19 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D49" t="s">
+        <v>184</v>
+      </c>
+      <c r="E49" t="s">
         <v>187</v>
       </c>
-      <c r="E49" t="s">
-        <v>189</v>
-      </c>
       <c r="F49">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4453,16 +4359,16 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D50" t="s">
+        <v>184</v>
+      </c>
+      <c r="E50" t="s">
         <v>186</v>
       </c>
-      <c r="E50" t="s">
-        <v>189</v>
-      </c>
       <c r="F50">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4470,19 +4376,19 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D51" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" t="s">
         <v>186</v>
       </c>
-      <c r="E51" t="s">
-        <v>189</v>
-      </c>
       <c r="F51">
-        <v>126</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4490,19 +4396,19 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E52" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4510,19 +4416,19 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
+        <v>184</v>
+      </c>
+      <c r="E53" t="s">
         <v>187</v>
       </c>
-      <c r="E53" t="s">
-        <v>190</v>
-      </c>
       <c r="F53">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4530,19 +4436,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D54" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" t="s">
         <v>187</v>
       </c>
-      <c r="E54" t="s">
-        <v>190</v>
-      </c>
       <c r="F54">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4550,19 +4456,19 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D55" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" t="s">
         <v>187</v>
       </c>
-      <c r="E55" t="s">
-        <v>190</v>
-      </c>
       <c r="F55">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4570,19 +4476,19 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D56" t="s">
+        <v>184</v>
+      </c>
+      <c r="E56" t="s">
         <v>187</v>
       </c>
-      <c r="E56" t="s">
-        <v>190</v>
-      </c>
       <c r="F56">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4590,19 +4496,19 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
+        <v>184</v>
+      </c>
+      <c r="E57" t="s">
         <v>187</v>
       </c>
-      <c r="E57" t="s">
-        <v>190</v>
-      </c>
       <c r="F57">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4610,19 +4516,19 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" t="s">
         <v>187</v>
       </c>
-      <c r="E58" t="s">
-        <v>190</v>
-      </c>
       <c r="F58">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4630,16 +4536,16 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
+        <v>184</v>
+      </c>
+      <c r="E59" t="s">
         <v>187</v>
-      </c>
-      <c r="E59" t="s">
-        <v>190</v>
       </c>
       <c r="F59">
         <v>4</v>
@@ -4650,19 +4556,19 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E60" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F60">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4670,16 +4576,16 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D61" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" t="s">
         <v>187</v>
-      </c>
-      <c r="E61" t="s">
-        <v>190</v>
       </c>
       <c r="F61">
         <v>4</v>
@@ -4690,19 +4596,19 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" t="s">
         <v>187</v>
       </c>
-      <c r="E62" t="s">
-        <v>190</v>
-      </c>
       <c r="F62">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4710,19 +4616,19 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
+        <v>184</v>
+      </c>
+      <c r="E63" t="s">
         <v>187</v>
       </c>
-      <c r="E63" t="s">
-        <v>190</v>
-      </c>
       <c r="F63">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4730,19 +4636,19 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D64" t="s">
+        <v>184</v>
+      </c>
+      <c r="E64" t="s">
         <v>187</v>
       </c>
-      <c r="E64" t="s">
-        <v>190</v>
-      </c>
       <c r="F64">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4750,19 +4656,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
+        <v>184</v>
+      </c>
+      <c r="E65" t="s">
         <v>187</v>
       </c>
-      <c r="E65" t="s">
-        <v>190</v>
-      </c>
       <c r="F65">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4770,19 +4676,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
+        <v>184</v>
+      </c>
+      <c r="E66" t="s">
         <v>187</v>
       </c>
-      <c r="E66" t="s">
-        <v>190</v>
-      </c>
       <c r="F66">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4790,19 +4696,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
+        <v>184</v>
+      </c>
+      <c r="E67" t="s">
         <v>187</v>
       </c>
-      <c r="E67" t="s">
-        <v>189</v>
-      </c>
       <c r="F67">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4810,19 +4716,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E68" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F68">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4830,19 +4736,19 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E69" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4850,19 +4756,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D70" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E70" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F70">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4870,19 +4776,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D71" t="s">
+        <v>184</v>
+      </c>
+      <c r="E71" t="s">
         <v>187</v>
       </c>
-      <c r="E71" t="s">
-        <v>190</v>
-      </c>
       <c r="F71">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4890,19 +4796,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D72" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" t="s">
         <v>187</v>
       </c>
-      <c r="E72" t="s">
-        <v>189</v>
-      </c>
       <c r="F72">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4910,19 +4816,19 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D73" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E73" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F73">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4930,19 +4836,19 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D74" t="s">
+        <v>184</v>
+      </c>
+      <c r="E74" t="s">
         <v>186</v>
       </c>
-      <c r="E74" t="s">
-        <v>189</v>
-      </c>
       <c r="F74">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4950,19 +4856,19 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D75" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" t="s">
         <v>186</v>
       </c>
-      <c r="E75" t="s">
-        <v>189</v>
-      </c>
       <c r="F75">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4970,19 +4876,19 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D76" t="s">
+        <v>183</v>
+      </c>
+      <c r="E76" t="s">
         <v>186</v>
       </c>
-      <c r="E76" t="s">
-        <v>189</v>
-      </c>
       <c r="F76">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4990,19 +4896,19 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C77" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D77" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E77" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F77">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5010,19 +4916,19 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D78" t="s">
+        <v>183</v>
+      </c>
+      <c r="E78" t="s">
         <v>186</v>
       </c>
-      <c r="E78" t="s">
-        <v>190</v>
-      </c>
       <c r="F78">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5030,19 +4936,19 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D79" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E79" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F79">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5050,19 +4956,19 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D80" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" t="s">
         <v>186</v>
       </c>
-      <c r="E80" t="s">
-        <v>189</v>
-      </c>
       <c r="F80">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5070,19 +4976,19 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D81" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F81">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5090,16 +4996,16 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D82" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E82" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F82">
         <v>8</v>
@@ -5110,16 +5016,16 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D83" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E83" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F83">
         <v>2</v>
@@ -5130,19 +5036,19 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C84" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D84" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" t="s">
         <v>186</v>
       </c>
-      <c r="E84" t="s">
-        <v>189</v>
-      </c>
       <c r="F84">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5150,19 +5056,19 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D85" t="s">
+        <v>183</v>
+      </c>
+      <c r="E85" t="s">
         <v>186</v>
       </c>
-      <c r="E85" t="s">
-        <v>189</v>
-      </c>
       <c r="F85">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5170,19 +5076,19 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D86" t="s">
+        <v>183</v>
+      </c>
+      <c r="E86" t="s">
         <v>186</v>
       </c>
-      <c r="E86" t="s">
-        <v>189</v>
-      </c>
       <c r="F86">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5190,19 +5096,19 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D87" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" t="s">
         <v>187</v>
       </c>
-      <c r="E87" t="s">
-        <v>189</v>
-      </c>
       <c r="F87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5210,19 +5116,19 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C88" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D88" t="s">
+        <v>184</v>
+      </c>
+      <c r="E88" t="s">
         <v>187</v>
       </c>
-      <c r="E88" t="s">
-        <v>190</v>
-      </c>
       <c r="F88">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5230,19 +5136,19 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C89" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D89" t="s">
+        <v>183</v>
+      </c>
+      <c r="E89" t="s">
         <v>186</v>
       </c>
-      <c r="E89" t="s">
-        <v>189</v>
-      </c>
       <c r="F89">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5250,19 +5156,19 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C90" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D90" t="s">
+        <v>183</v>
+      </c>
+      <c r="E90" t="s">
         <v>186</v>
       </c>
-      <c r="E90" t="s">
-        <v>189</v>
-      </c>
       <c r="F90">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5270,16 +5176,16 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C91" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D91" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -5290,19 +5196,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C92" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D92" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E92" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5310,19 +5216,19 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C93" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E93" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F93">
-        <v>200</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5330,19 +5236,19 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C94" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D94" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E94" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F94">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5350,19 +5256,19 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C95" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D95" t="s">
+        <v>183</v>
+      </c>
+      <c r="E95" t="s">
         <v>186</v>
       </c>
-      <c r="E95" t="s">
-        <v>189</v>
-      </c>
       <c r="F95">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5370,19 +5276,19 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C96" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5390,19 +5296,19 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C97" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D97" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5410,19 +5316,19 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C98" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D98" t="s">
+        <v>183</v>
+      </c>
+      <c r="E98" t="s">
         <v>186</v>
       </c>
-      <c r="E98" t="s">
-        <v>189</v>
-      </c>
       <c r="F98">
-        <v>12</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5430,19 +5336,19 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C99" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D99" t="s">
+        <v>183</v>
+      </c>
+      <c r="E99" t="s">
         <v>186</v>
       </c>
-      <c r="E99" t="s">
-        <v>189</v>
-      </c>
       <c r="F99">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5450,19 +5356,19 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C100" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D100" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E100" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F100">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5470,18 +5376,78 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C101" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D101" t="s">
+        <v>183</v>
+      </c>
+      <c r="E101" t="s">
+        <v>187</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>93</v>
+      </c>
+      <c r="C102" t="s">
+        <v>176</v>
+      </c>
+      <c r="D102" t="s">
+        <v>183</v>
+      </c>
+      <c r="E102" t="s">
         <v>186</v>
       </c>
-      <c r="E101" t="s">
-        <v>189</v>
-      </c>
-      <c r="F101">
+      <c r="F102">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>94</v>
+      </c>
+      <c r="C103" t="s">
+        <v>177</v>
+      </c>
+      <c r="D103" t="s">
+        <v>184</v>
+      </c>
+      <c r="E103" t="s">
+        <v>187</v>
+      </c>
+      <c r="F103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>95</v>
+      </c>
+      <c r="C104" t="s">
+        <v>178</v>
+      </c>
+      <c r="D104" t="s">
+        <v>183</v>
+      </c>
+      <c r="E104" t="s">
+        <v>186</v>
+      </c>
+      <c r="F104">
         <v>44</v>
       </c>
     </row>
@@ -5492,7 +5458,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5512,10 +5478,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5523,16 +5489,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E2">
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5540,16 +5506,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5557,13 +5523,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -5574,16 +5540,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5591,16 +5557,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5608,16 +5574,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E7">
-        <v>-10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5625,16 +5591,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5642,16 +5608,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E9">
-        <v>-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5659,16 +5625,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E10">
-        <v>-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5676,16 +5642,84 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -5695,7 +5729,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5715,22 +5749,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5738,28 +5772,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>6636.8</v>
+        <v>6627.8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5767,28 +5801,28 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>6633.8</v>
+        <v>6639.2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5796,28 +5830,28 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G4" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>6647</v>
+        <v>6643</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5825,28 +5859,28 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F5" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G5" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>6649.6</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5854,28 +5888,28 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F6" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G6" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>6648</v>
+        <v>6552.4</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5883,28 +5917,28 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G7" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>6586.2</v>
+        <v>6624</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5912,28 +5946,28 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F8" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G8" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>6582.4</v>
+        <v>6624.2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5941,28 +5975,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F9" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G9" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>6580.6</v>
+        <v>6642.2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5970,28 +6004,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F10" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G10" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>6586.2</v>
+        <v>6641.6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5999,28 +6033,28 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F11" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G11" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>6588.8</v>
+        <v>6643</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6028,28 +6062,28 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F12" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G12" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>6587</v>
+        <v>6641.2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6057,28 +6091,28 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F13" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G13" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>6649.6</v>
+        <v>6636.2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6086,28 +6120,28 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F14" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G14" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>6616.4</v>
+        <v>6626.8</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6115,28 +6149,28 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="D15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F15" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G15" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>6617.2</v>
+        <v>6630.8</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6144,28 +6178,28 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F16" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G16" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>6612</v>
+        <v>6646.2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6173,28 +6207,28 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F17" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G17" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>6603</v>
+        <v>6646.2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6202,28 +6236,28 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F18" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G18" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>6604.2</v>
+        <v>6646.4</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6231,28 +6265,28 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F19" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G19" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>6603</v>
+        <v>6626.8</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6260,28 +6294,28 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F20" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G20" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>6602.4</v>
+        <v>6624.6</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -6289,28 +6323,28 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="E21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F21" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>6603.2</v>
+        <v>6628.2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6318,28 +6352,28 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F22" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G22" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>6603</v>
+        <v>6628</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6347,28 +6381,28 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F23" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>6604.8</v>
+        <v>6642.4</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -6376,28 +6410,28 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F24" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G24" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>6568.4</v>
+        <v>6638.6</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6405,28 +6439,28 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G25" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>6571.4</v>
+        <v>6642.2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -6434,28 +6468,28 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G26" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>6570.2</v>
+        <v>6634.2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6463,28 +6497,28 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>6568.6</v>
+        <v>6629</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6495,25 +6529,25 @@
         <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F28" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G28" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>6568.2</v>
+        <v>6632</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6521,28 +6555,28 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D29" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F29" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="G29" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>6568.4</v>
+        <v>6554</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -6550,28 +6584,28 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D30" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F30" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="G30" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>6568.2</v>
+        <v>6542.8</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6579,28 +6613,28 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D31" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F31" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="G31" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>6569.8</v>
+        <v>6540.2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6608,28 +6642,28 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D32" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F32" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="G32" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>6569.8</v>
+        <v>6538</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -6637,28 +6671,28 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="G33" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>6577</v>
+        <v>6534.4</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -6666,28 +6700,28 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D34" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E34" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F34" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G34" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>6641.2</v>
+        <v>6534.6</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -6695,28 +6729,28 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D35" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E35" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F35" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G35" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>6640.4</v>
+        <v>6540.4</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -6724,434 +6758,28 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" t="s">
         <v>225</v>
       </c>
-      <c r="E36" t="s">
-        <v>187</v>
-      </c>
-      <c r="F36" t="s">
-        <v>239</v>
-      </c>
       <c r="G36" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>6638.4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E37" t="s">
-        <v>187</v>
-      </c>
-      <c r="F37" t="s">
-        <v>239</v>
-      </c>
-      <c r="G37" t="s">
-        <v>241</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>6642.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" t="s">
-        <v>174</v>
-      </c>
-      <c r="D38" t="s">
-        <v>203</v>
-      </c>
-      <c r="E38" t="s">
-        <v>187</v>
-      </c>
-      <c r="F38" t="s">
-        <v>239</v>
-      </c>
-      <c r="G38" t="s">
-        <v>240</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>6647</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" t="s">
-        <v>174</v>
-      </c>
-      <c r="D39" t="s">
-        <v>227</v>
-      </c>
-      <c r="E39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F39" t="s">
-        <v>239</v>
-      </c>
-      <c r="G39" t="s">
-        <v>240</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>6650.2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" t="s">
-        <v>175</v>
-      </c>
-      <c r="D40" t="s">
-        <v>228</v>
-      </c>
-      <c r="E40" t="s">
-        <v>187</v>
-      </c>
-      <c r="F40" t="s">
-        <v>238</v>
-      </c>
-      <c r="G40" t="s">
-        <v>240</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>6597.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" t="s">
-        <v>229</v>
-      </c>
-      <c r="E41" t="s">
-        <v>186</v>
-      </c>
-      <c r="F41" t="s">
-        <v>238</v>
-      </c>
-      <c r="G41" t="s">
-        <v>240</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>6554.8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" t="s">
-        <v>175</v>
-      </c>
-      <c r="D42" t="s">
-        <v>230</v>
-      </c>
-      <c r="E42" t="s">
-        <v>186</v>
-      </c>
-      <c r="F42" t="s">
-        <v>238</v>
-      </c>
-      <c r="G42" t="s">
-        <v>240</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="I42">
-        <v>6554.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" t="s">
-        <v>175</v>
-      </c>
-      <c r="D43" t="s">
-        <v>231</v>
-      </c>
-      <c r="E43" t="s">
-        <v>186</v>
-      </c>
-      <c r="F43" t="s">
-        <v>238</v>
-      </c>
-      <c r="G43" t="s">
-        <v>240</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-      <c r="I43">
-        <v>6547.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" t="s">
-        <v>175</v>
-      </c>
-      <c r="D44" t="s">
-        <v>232</v>
-      </c>
-      <c r="E44" t="s">
-        <v>186</v>
-      </c>
-      <c r="F44" t="s">
-        <v>238</v>
-      </c>
-      <c r="G44" t="s">
-        <v>240</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>6547.8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" t="s">
-        <v>175</v>
-      </c>
-      <c r="D45" t="s">
-        <v>233</v>
-      </c>
-      <c r="E45" t="s">
-        <v>186</v>
-      </c>
-      <c r="F45" t="s">
-        <v>238</v>
-      </c>
-      <c r="G45" t="s">
-        <v>240</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
-      </c>
-      <c r="I45">
-        <v>6547.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" t="s">
-        <v>234</v>
-      </c>
-      <c r="E46" t="s">
-        <v>187</v>
-      </c>
-      <c r="F46" t="s">
-        <v>238</v>
-      </c>
-      <c r="G46" t="s">
-        <v>240</v>
-      </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>6594</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" t="s">
-        <v>175</v>
-      </c>
-      <c r="D47" t="s">
-        <v>235</v>
-      </c>
-      <c r="E47" t="s">
-        <v>187</v>
-      </c>
-      <c r="F47" t="s">
-        <v>238</v>
-      </c>
-      <c r="G47" t="s">
-        <v>240</v>
-      </c>
-      <c r="H47">
-        <v>1</v>
-      </c>
-      <c r="I47">
-        <v>6592.4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" t="s">
-        <v>236</v>
-      </c>
-      <c r="E48" t="s">
-        <v>187</v>
-      </c>
-      <c r="F48" t="s">
-        <v>238</v>
-      </c>
-      <c r="G48" t="s">
-        <v>240</v>
-      </c>
-      <c r="H48">
-        <v>1</v>
-      </c>
-      <c r="I48">
-        <v>6592</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" t="s">
-        <v>175</v>
-      </c>
-      <c r="D49" t="s">
-        <v>237</v>
-      </c>
-      <c r="E49" t="s">
-        <v>187</v>
-      </c>
-      <c r="F49" t="s">
-        <v>238</v>
-      </c>
-      <c r="G49" t="s">
-        <v>240</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>6594</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" t="s">
-        <v>181</v>
-      </c>
-      <c r="D50" t="s">
-        <v>203</v>
-      </c>
-      <c r="E50" t="s">
-        <v>186</v>
-      </c>
-      <c r="F50" t="s">
-        <v>239</v>
-      </c>
-      <c r="G50" t="s">
-        <v>241</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>6586.6</v>
+        <v>6643.8</v>
       </c>
     </row>
   </sheetData>

--- a/info_faccts.xlsx
+++ b/info_faccts.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99549C4C-467C-44DE-A898-DF7D056FD3B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,12 @@
     <sheet name="trdrec_aggr" sheetId="3" r:id="rId3"/>
     <sheet name="trdrec_details" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="213">
   <si>
     <t>DataDateTime</t>
   </si>
@@ -43,7 +49,7 @@
     <t>CurrentMarginRate</t>
   </si>
   <si>
-    <t>20200807T093735</t>
+    <t>20200812T094553</t>
   </si>
   <si>
     <t>10_f_xb_3670</t>
@@ -172,12 +178,12 @@
     <t>614_f_gtja_3502</t>
   </si>
   <si>
-    <t>615_f_huat_2586</t>
-  </si>
-  <si>
     <t>6162_f_sd_0117</t>
   </si>
   <si>
+    <t>6162_f_ya_1177</t>
+  </si>
+  <si>
     <t>618_f_hy_0338</t>
   </si>
   <si>
@@ -595,123 +601,78 @@
     <t>Price</t>
   </si>
   <si>
-    <t>09:31:59</t>
-  </si>
-  <si>
-    <t>09:32:42</t>
-  </si>
-  <si>
-    <t>09:32:27</t>
-  </si>
-  <si>
-    <t>09:31:48</t>
-  </si>
-  <si>
-    <t>09:31:51</t>
+    <t>09:30:58</t>
+  </si>
+  <si>
+    <t>09:31:36</t>
+  </si>
+  <si>
+    <t>09:31:54</t>
+  </si>
+  <si>
+    <t>09:32:10</t>
+  </si>
+  <si>
+    <t>09:32:01</t>
+  </si>
+  <si>
+    <t>09:30:42</t>
+  </si>
+  <si>
+    <t>09:30:59</t>
+  </si>
+  <si>
+    <t>09:32:30</t>
+  </si>
+  <si>
+    <t>09:32:19</t>
+  </si>
+  <si>
+    <t>09:31:50</t>
   </si>
   <si>
     <t>09:31:44</t>
   </si>
   <si>
-    <t>09:32:36</t>
-  </si>
-  <si>
-    <t>09:32:30</t>
-  </si>
-  <si>
-    <t>09:32:25</t>
-  </si>
-  <si>
-    <t>09:32:20</t>
-  </si>
-  <si>
-    <t>09:32:09</t>
-  </si>
-  <si>
-    <t>09:32:05</t>
-  </si>
-  <si>
-    <t>09:31:54</t>
-  </si>
-  <si>
-    <t>09:30:21</t>
-  </si>
-  <si>
-    <t>09:30:17</t>
-  </si>
-  <si>
-    <t>09:30:23</t>
-  </si>
-  <si>
-    <t>09:31:47</t>
-  </si>
-  <si>
-    <t>09:31:46</t>
-  </si>
-  <si>
-    <t>09:31:55</t>
-  </si>
-  <si>
-    <t>09:32:37</t>
-  </si>
-  <si>
-    <t>09:32:31</t>
-  </si>
-  <si>
-    <t>09:32:28</t>
-  </si>
-  <si>
-    <t>09:32:11</t>
-  </si>
-  <si>
-    <t>09:32:01</t>
-  </si>
-  <si>
-    <t>09:31:01</t>
-  </si>
-  <si>
-    <t>09:31:33</t>
-  </si>
-  <si>
-    <t>09:31:27</t>
-  </si>
-  <si>
-    <t>09:31:22</t>
-  </si>
-  <si>
-    <t>09:31:17</t>
-  </si>
-  <si>
-    <t>09:31:12</t>
-  </si>
-  <si>
-    <t>09:31:07</t>
-  </si>
-  <si>
-    <t>09:30:14</t>
+    <t>09:31:41</t>
+  </si>
+  <si>
+    <t>09:31:24</t>
+  </si>
+  <si>
+    <t>09:31:19</t>
+  </si>
+  <si>
+    <t>09:31:16</t>
+  </si>
+  <si>
+    <t>09:31:09</t>
+  </si>
+  <si>
+    <t>09:31:04</t>
+  </si>
+  <si>
+    <t>sell</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>sell</t>
+    <t>open</t>
   </si>
   <si>
     <t>close</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -719,8 +680,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -766,15 +734,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -816,7 +792,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -848,9 +824,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -882,6 +876,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1057,17 +1069,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1104,7 +1124,7 @@
         <v>96</v>
       </c>
       <c r="D2">
-        <v>20635148.15</v>
+        <v>22609548.149999999</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1113,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>21297548.15</v>
+        <v>24359948.149999999</v>
       </c>
       <c r="H2">
-        <v>0.6456360095140816</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.55393352715325928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1145,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1156,7 +1176,7 @@
         <v>98</v>
       </c>
       <c r="D4">
-        <v>4734956.310000001</v>
+        <v>4440996.3100000015</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1165,13 +1185,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4626236.310000001</v>
+        <v>4174836.310000001</v>
       </c>
       <c r="H4">
-        <v>0.413429464436502</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.44968163075117062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1182,7 +1202,7 @@
         <v>99</v>
       </c>
       <c r="D5">
-        <v>11726941.59</v>
+        <v>12788181.59</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1191,13 +1211,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>12144901.59</v>
+        <v>13729021.59</v>
       </c>
       <c r="H5">
-        <v>0.7185118739195976</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.62374204482549711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1208,7 +1228,7 @@
         <v>100</v>
       </c>
       <c r="D6">
-        <v>3855074.94</v>
+        <v>3583594.94</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1217,13 +1237,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3745954.94</v>
+        <v>3346874.94</v>
       </c>
       <c r="H6">
-        <v>0.4659028813624757</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.5117232136555423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1249,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1260,22 +1280,22 @@
         <v>102</v>
       </c>
       <c r="D8">
-        <v>12394918.46</v>
+        <v>13521668.550000001</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="G8">
-        <v>12865326.5163</v>
+        <v>13578628.550000001</v>
       </c>
       <c r="H8">
-        <v>0.5435696941806973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.55131128835540566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1286,7 +1306,7 @@
         <v>103</v>
       </c>
       <c r="D9">
-        <v>5855321.52</v>
+        <v>5612921.5199999996</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1295,13 +1315,13 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5756921.52</v>
+        <v>5380921.5199999996</v>
       </c>
       <c r="H9">
-        <v>0.2786239128721005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.29268741314034258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1312,7 +1332,7 @@
         <v>104</v>
       </c>
       <c r="D10">
-        <v>2212556.37</v>
+        <v>2434676.37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1321,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2307596.37</v>
+        <v>2633396.37</v>
       </c>
       <c r="H10">
-        <v>0.6187966052312691</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.53211830014028605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1353,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1364,7 +1384,7 @@
         <v>106</v>
       </c>
       <c r="D12">
-        <v>2942767.84</v>
+        <v>3238927.84</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1373,13 +1393,13 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3057967.839999998</v>
+        <v>3523134.2819360001</v>
       </c>
       <c r="H12">
-        <v>0.6226064169464911</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.57414694931481636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1390,7 +1410,7 @@
         <v>107</v>
       </c>
       <c r="D13">
-        <v>4923584.73</v>
+        <v>5452472.5499999998</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1399,13 +1419,13 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5128832.631424</v>
+        <v>5929552.5499999998</v>
       </c>
       <c r="H13">
-        <v>0.6499696596795448</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.55171866214424581</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1416,7 +1436,7 @@
         <v>108</v>
       </c>
       <c r="D14">
-        <v>9395372.559999999</v>
+        <v>10061732.560000001</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1425,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>9648092.559999999</v>
+        <v>10670852.560000001</v>
       </c>
       <c r="H14">
-        <v>0.4440046955768429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.3939549512433711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +1462,7 @@
         <v>109</v>
       </c>
       <c r="D15">
-        <v>16633496.32</v>
+        <v>18138976.32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1451,13 +1471,13 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>17260576.32</v>
+        <v>19515136.32</v>
       </c>
       <c r="H15">
-        <v>0.5607119380356821</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.48667626217227411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1468,7 +1488,7 @@
         <v>110</v>
       </c>
       <c r="D16">
-        <v>3501419.62</v>
+        <v>3820939.62</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1477,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3633859.62</v>
+        <v>4119379.62</v>
       </c>
       <c r="H16">
-        <v>0.5690359607232157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.49266020304290392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1494,7 +1514,7 @@
         <v>110</v>
       </c>
       <c r="D17">
-        <v>1399249.4</v>
+        <v>1522649.4</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1503,13 +1523,13 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1449849.4</v>
+        <v>1636049.4</v>
       </c>
       <c r="H17">
-        <v>0.5927539784476926</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>0.51548687955265904</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1520,7 +1540,7 @@
         <v>111</v>
       </c>
       <c r="D18">
-        <v>3623374.02</v>
+        <v>3919534.02</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1529,13 +1549,13 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3740494.02</v>
+        <v>4193134.0200000019</v>
       </c>
       <c r="H18">
-        <v>0.508999717636228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>0.44557869867464889</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1546,7 +1566,7 @@
         <v>112</v>
       </c>
       <c r="D19">
-        <v>1294706.46</v>
+        <v>1173506.46</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1555,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1247706.46</v>
+        <v>1055706.46</v>
       </c>
       <c r="H19">
-        <v>0.6427858039622556</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>0.7459118891817712</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1587,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1598,7 +1618,7 @@
         <v>114</v>
       </c>
       <c r="D21">
-        <v>10569891.31</v>
+        <v>8161811.3099999996</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1607,13 +1627,13 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>10853571.31</v>
+        <v>8819339.0456799995</v>
       </c>
       <c r="H21">
-        <v>0.4385446839617257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.52962336245457908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1624,7 +1644,7 @@
         <v>115</v>
       </c>
       <c r="D22">
-        <v>25775405.93</v>
+        <v>28391485.93</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1633,13 +1653,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26822685.93000003</v>
+        <v>30868141.905324001</v>
       </c>
       <c r="H22">
-        <v>0.6270019059198652</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.54965687445779166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1650,7 +1670,7 @@
         <v>116</v>
       </c>
       <c r="D23">
-        <v>8611106.890000001</v>
+        <v>9569174.25</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1659,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>9012234.766100001</v>
+        <v>10402934.25</v>
       </c>
       <c r="H23">
-        <v>0.668984969485992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.53880121370564249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1676,7 +1696,7 @@
         <v>117</v>
       </c>
       <c r="D24">
-        <v>3764031.2</v>
+        <v>4158911.2</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1685,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3932351.2</v>
+        <v>4529471.2</v>
       </c>
       <c r="H24">
-        <v>0.6993507599219519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.59582195820121331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1702,7 +1722,7 @@
         <v>118</v>
       </c>
       <c r="D25">
-        <v>4522815.029999999</v>
+        <v>4522815.0299999993</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1711,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4522815.029999999</v>
+        <v>4522815.0299999993</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1728,7 +1748,7 @@
         <v>119</v>
       </c>
       <c r="D26">
-        <v>1728617.9</v>
+        <v>1777977.9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1737,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1748777.9</v>
+        <v>1824537.9</v>
       </c>
       <c r="H26">
-        <v>0.1814515153696762</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.17067072161120911</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1754,7 +1774,7 @@
         <v>120</v>
       </c>
       <c r="D27">
-        <v>21765783.58</v>
+        <v>23740183.579999998</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1763,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>22597783.58</v>
+        <v>25602583.579999998</v>
       </c>
       <c r="H27">
-        <v>0.5616805716837469</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>0.48650590129232513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1780,7 +1800,7 @@
         <v>120</v>
       </c>
       <c r="D28">
-        <v>43855565.25</v>
+        <v>47801753.460000001</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1789,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>45563405.25</v>
+        <v>51520553.460000001</v>
       </c>
       <c r="H28">
-        <v>0.5713041651995475</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.48359741359036351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1806,7 +1826,7 @@
         <v>121</v>
       </c>
       <c r="D29">
-        <v>7320205.45</v>
+        <v>8056228.5099999998</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1815,13 +1835,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>7660205.45</v>
+        <v>8730428.5099999998</v>
       </c>
       <c r="H29">
-        <v>0.6846377207807139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.51738876216970497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1832,7 +1852,7 @@
         <v>122</v>
       </c>
       <c r="D30">
-        <v>16015981.45</v>
+        <v>17472101.449999999</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1841,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>16603621.45</v>
+        <v>18843261.449999999</v>
       </c>
       <c r="H30">
-        <v>0.5637862094236076</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.48750363223347348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1858,7 +1878,7 @@
         <v>123</v>
       </c>
       <c r="D31">
-        <v>4030561.27</v>
+        <v>4203321.2699999996</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1867,13 +1887,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>4100281.27</v>
+        <v>4364601.2699999996</v>
       </c>
       <c r="H31">
-        <v>0.2708629791146011</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.24970968310239239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1884,7 +1904,7 @@
         <v>124</v>
       </c>
       <c r="D32">
-        <v>11423311.85</v>
+        <v>10696111.85</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1893,13 +1913,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>11129311.85</v>
+        <v>9983311.8499999996</v>
       </c>
       <c r="H32">
-        <v>0.5404700740774012</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.59158524633285903</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1910,7 +1930,7 @@
         <v>125</v>
       </c>
       <c r="D33">
-        <v>1085278.76</v>
+        <v>1066558.76</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1919,13 +1939,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1075318.76</v>
+        <v>1032598.76</v>
       </c>
       <c r="H33">
-        <v>0.2895037374778062</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.29948670478744333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1951,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1962,7 +1982,7 @@
         <v>127</v>
       </c>
       <c r="D35">
-        <v>7534742.55</v>
+        <v>5679564.8499999996</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1971,13 +1991,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>7388942.55</v>
+        <v>5394444.8499999978</v>
       </c>
       <c r="H35">
-        <v>0.3256249434501288</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.35034441032426178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1988,7 +2008,7 @@
         <v>128</v>
       </c>
       <c r="D36">
-        <v>1112759.95</v>
+        <v>1040039.95</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1997,13 +2017,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1084079.95</v>
+        <v>966719.95</v>
       </c>
       <c r="H36">
-        <v>0.4438831287304961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.48874381872433692</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2014,7 +2034,7 @@
         <v>129</v>
       </c>
       <c r="D37">
-        <v>1134477.25</v>
+        <v>1233197.25</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2023,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1173997.25</v>
+        <v>1328557.25</v>
       </c>
       <c r="H37">
-        <v>0.5856259032974737</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>0.50783630137128077</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2040,7 +2060,7 @@
         <v>130</v>
       </c>
       <c r="D38">
-        <v>3160435.62</v>
+        <v>2966515.62</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2049,13 +2069,13 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>3081715.62</v>
+        <v>2770995.62</v>
       </c>
       <c r="H38">
-        <v>0.4163955920111797</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.45468942314676047</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2066,7 +2086,7 @@
         <v>131</v>
       </c>
       <c r="D39">
-        <v>14604986.97</v>
+        <v>16011746.970000001</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2075,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>15165866.97</v>
+        <v>17400266.969999999</v>
       </c>
       <c r="H39">
-        <v>0.6460036619983619</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.55253903957773642</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2092,7 +2112,7 @@
         <v>132</v>
       </c>
       <c r="D40">
-        <v>1860259.74</v>
+        <v>2247475.9700000002</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2101,13 +2121,13 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1800019.74</v>
+        <v>2027195.97</v>
       </c>
       <c r="H40">
-        <v>0.5771243375364318</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.75555852649016464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2118,7 +2138,7 @@
         <v>133</v>
       </c>
       <c r="D41">
-        <v>37188793</v>
+        <v>41211193</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2127,13 +2147,13 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>38838233.00000003</v>
+        <v>45169153</v>
       </c>
       <c r="H41">
-        <v>0.6659209238484127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.56189904645765765</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2144,7 +2164,7 @@
         <v>134</v>
       </c>
       <c r="D42">
-        <v>8024079.840000001</v>
+        <v>7681639.8400000008</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2153,13 +2173,13 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>7880999.840000001</v>
+        <v>7340039.8400000008</v>
       </c>
       <c r="H42">
-        <v>0.2833936867584049</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>0.29868132159893018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2170,7 +2190,7 @@
         <v>135</v>
       </c>
       <c r="D43">
-        <v>5551421.33</v>
+        <v>5296626.8100000015</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2179,13 +2199,13 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>5451506.812560002</v>
+        <v>5022946.8100000015</v>
       </c>
       <c r="H43">
-        <v>0.323395358497609</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.34490128315732649</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2196,7 +2216,7 @@
         <v>136</v>
       </c>
       <c r="D44">
-        <v>3739196.38</v>
+        <v>36994300.200000003</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2205,13 +2225,13 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>3887436.38</v>
+        <v>40023340.200000003</v>
       </c>
       <c r="H44">
-        <v>0.5731793866681876</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.56511175446570994</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2222,7 +2242,7 @@
         <v>136</v>
       </c>
       <c r="D45">
-        <v>33986926.98999999</v>
+        <v>4082956.38</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2231,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>35396176.35500802</v>
+        <v>4425276.38</v>
       </c>
       <c r="H45">
-        <v>0.6118452056174117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>0.49419448915866371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2248,7 +2268,7 @@
         <v>137</v>
       </c>
       <c r="D46">
-        <v>2200599.78</v>
+        <v>2103639.7799999998</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2257,13 +2277,13 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>2156599.78</v>
+        <v>2004759.78</v>
       </c>
       <c r="H46">
-        <v>0.2975083304515592</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.31423774872418869</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2274,7 +2294,7 @@
         <v>138</v>
       </c>
       <c r="D47">
-        <v>3720082.17</v>
+        <v>3477682.17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2283,13 +2303,13 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>3608882.17</v>
+        <v>3230082.17</v>
       </c>
       <c r="H47">
-        <v>0.4444633890609956</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.48758140415975859</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2300,22 +2320,22 @@
         <v>139</v>
       </c>
       <c r="D48">
-        <v>3900777.62</v>
+        <v>3257382.78</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>400000</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>3399977.62</v>
+        <v>3011782.78</v>
       </c>
       <c r="H48">
-        <v>0.4599782042094736</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.56649902221700055</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2326,7 +2346,7 @@
         <v>140</v>
       </c>
       <c r="D49">
-        <v>1988752.71</v>
+        <v>1867552.71</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2335,13 +2355,13 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>1931952.71</v>
+        <v>1745152.71</v>
       </c>
       <c r="H49">
-        <v>0.4151281736083487</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.45122927952820813</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -2352,7 +2372,7 @@
         <v>141</v>
       </c>
       <c r="D50">
-        <v>8575124.74</v>
+        <v>8281291.4199999999</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2361,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>8404124.74</v>
+        <v>7772251.4199999999</v>
       </c>
       <c r="H50">
-        <v>0.2862908481770108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.42553291463131793</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -2378,7 +2398,7 @@
         <v>142</v>
       </c>
       <c r="D51">
-        <v>2097599.14</v>
+        <v>2000639.14</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2387,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>2051359.14</v>
+        <v>1906879.14</v>
       </c>
       <c r="H51">
-        <v>0.3648999267870765</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.3854289370431731</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2404,7 +2424,7 @@
         <v>143</v>
       </c>
       <c r="D52">
-        <v>5509559.439999999</v>
+        <v>5242919.4399999985</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2413,13 +2433,13 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>5381079.439999999</v>
+        <v>4984199.4400000013</v>
       </c>
       <c r="H52">
-        <v>0.3278928734789316</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.34758255981827241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2430,7 +2450,7 @@
         <v>144</v>
       </c>
       <c r="D53">
-        <v>4902982.36</v>
+        <v>4657942.3600000003</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2439,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>4783462.359999999</v>
+        <v>4432022.3600000003</v>
       </c>
       <c r="H53">
-        <v>0.3331397803661195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.35292168516947647</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2456,22 +2476,22 @@
         <v>145</v>
       </c>
       <c r="D54">
-        <v>2639558.42</v>
+        <v>2542598.42</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1300000</v>
       </c>
       <c r="G54">
-        <v>2592518.42</v>
+        <v>1150278.42</v>
       </c>
       <c r="H54">
-        <v>0.2681074875448715</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.59330748811231293</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2482,7 +2502,7 @@
         <v>146</v>
       </c>
       <c r="D55">
-        <v>4199793.09</v>
+        <v>3981633.09</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2491,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>4099713.09</v>
+        <v>3776433.09</v>
       </c>
       <c r="H55">
-        <v>0.4401571428014247</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.46917129412188258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2508,7 +2528,7 @@
         <v>147</v>
       </c>
       <c r="D56">
-        <v>2042023.93</v>
+        <v>1889106.38</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2517,13 +2537,13 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1967826.375900001</v>
+        <v>1754946.379999999</v>
       </c>
       <c r="H56">
-        <v>0.5705844853748711</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.62819560333233682</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2534,7 +2554,7 @@
         <v>148</v>
       </c>
       <c r="D57">
-        <v>4036514.41</v>
+        <v>3758516.71</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2543,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>3908796.376328</v>
+        <v>3490196.7099999981</v>
       </c>
       <c r="H57">
-        <v>0.5129507415997848</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>0.67686500111336168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2560,7 +2580,7 @@
         <v>149</v>
       </c>
       <c r="D58">
-        <v>4432465.59</v>
+        <v>4214305.59</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2569,13 +2589,13 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>4329145.59</v>
+        <v>4019905.59</v>
       </c>
       <c r="H58">
-        <v>0.4168300562975522</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.44075512728645949</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2586,7 +2606,7 @@
         <v>150</v>
       </c>
       <c r="D59">
-        <v>3943416.6</v>
+        <v>3701016.6</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2595,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>3828616.6</v>
+        <v>3487416.6</v>
       </c>
       <c r="H59">
-        <v>0.4189544599477524</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.45160305769032588</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2612,7 +2632,7 @@
         <v>151</v>
       </c>
       <c r="D60">
-        <v>3118139.31</v>
+        <v>3438099.31</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2621,13 +2641,13 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>3267819.31</v>
+        <v>3714899.31</v>
       </c>
       <c r="H60">
-        <v>0.7903031823384384</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.68227259704651322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2638,7 +2658,7 @@
         <v>152</v>
       </c>
       <c r="D61">
-        <v>2087022.11</v>
+        <v>1996358.44</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2647,13 +2667,13 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>2054569.66016</v>
+        <v>1931198.44</v>
       </c>
       <c r="H61">
-        <v>0.3895268267213075</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.40775923576243162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2664,7 +2684,7 @@
         <v>153</v>
       </c>
       <c r="D62">
-        <v>3630467.38</v>
+        <v>3412307.38</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2673,13 +2693,13 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>3532187.38</v>
+        <v>3216827.38</v>
       </c>
       <c r="H62">
-        <v>0.4087026662781407</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.44063141491913072</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2690,7 +2710,7 @@
         <v>154</v>
       </c>
       <c r="D63">
-        <v>5100225.91</v>
+        <v>4712385.91</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2699,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>4917185.91</v>
+        <v>4358465.91</v>
       </c>
       <c r="H63">
-        <v>0.5219297474152245</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.57815865766402186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2731,7 +2751,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2742,7 +2762,7 @@
         <v>156</v>
       </c>
       <c r="D65">
-        <v>5876955.19</v>
+        <v>6417275.1900000004</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2751,13 +2771,13 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>6125755.189999999</v>
+        <v>6897355.1899999985</v>
       </c>
       <c r="H65">
-        <v>0.5715143180574934</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.49817912886113108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2768,7 +2788,7 @@
         <v>157</v>
       </c>
       <c r="D66">
-        <v>1794191.81</v>
+        <v>1991631.81</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2777,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>1881231.81</v>
+        <v>2163471.81</v>
       </c>
       <c r="H66">
-        <v>0.8433793175121783</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.71966548988683132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2794,7 +2814,7 @@
         <v>158</v>
       </c>
       <c r="D67">
-        <v>10395136.07</v>
+        <v>14603136.07</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2803,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>10922536.07</v>
+        <v>15653296.07000001</v>
       </c>
       <c r="H67">
-        <v>0.7122455764982432</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.48772909972819473</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2820,7 +2840,7 @@
         <v>158</v>
       </c>
       <c r="D68">
-        <v>7575782.38</v>
+        <v>8262281.9700000007</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2829,13 +2849,13 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>7875542.379999999</v>
+        <v>8784281.9700000007</v>
       </c>
       <c r="H68">
-        <v>0.5647464752770466</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.44311419115340639</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2846,7 +2866,7 @@
         <v>159</v>
       </c>
       <c r="D69">
-        <v>4817389.54</v>
+        <v>3850269.54</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2855,13 +2875,13 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>4651389.54</v>
+        <v>3532829.54</v>
       </c>
       <c r="H69">
-        <v>0.5142731606177193</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.66463167085044272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2872,7 +2892,7 @@
         <v>160</v>
       </c>
       <c r="D70">
-        <v>592723.9299999999</v>
+        <v>3292723.93</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2881,13 +2901,13 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>592723.9299999999</v>
+        <v>3292723.93</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2913,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2924,7 +2944,7 @@
         <v>162</v>
       </c>
       <c r="D72">
-        <v>12968563.02</v>
+        <v>14300805.5</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2933,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>13585483.02</v>
+        <v>15445605.5</v>
       </c>
       <c r="H72">
-        <v>0.6659357776739544</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.54434061519957833</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2950,7 +2970,7 @@
         <v>163</v>
       </c>
       <c r="D73">
-        <v>3098424.6</v>
+        <v>3415312.22</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2959,13 +2979,13 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>3233624.6</v>
+        <v>3714352.22</v>
       </c>
       <c r="H73">
-        <v>0.6378506645452906</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.58684967684620937</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2976,7 +2996,7 @@
         <v>164</v>
       </c>
       <c r="D74">
-        <v>2146322.17</v>
+        <v>2315856.67</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2985,13 +3005,13 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>2229522.17</v>
+        <v>2446656.6700000009</v>
       </c>
       <c r="H74">
-        <v>0.5693029731119471</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.38182128757771289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -3002,7 +3022,7 @@
         <v>165</v>
       </c>
       <c r="D75">
-        <v>2390343.2</v>
+        <v>2341863.2000000002</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3011,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>2372503.2</v>
+        <v>2298583.2000000002</v>
       </c>
       <c r="H75">
-        <v>0.1352171832687096</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.13703467422889021</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -3028,7 +3048,7 @@
         <v>166</v>
       </c>
       <c r="D76">
-        <v>3891199.08</v>
+        <v>4294574.75</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3037,13 +3057,13 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>4032164.559524</v>
+        <v>4641494.75</v>
       </c>
       <c r="H76">
-        <v>0.6394114034632455</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.58186066029698713</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -3054,7 +3074,7 @@
         <v>167</v>
       </c>
       <c r="D77">
-        <v>2967078.98</v>
+        <v>3184053.44</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3063,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>3051525.965794</v>
+        <v>3362219.3125820002</v>
       </c>
       <c r="H77">
-        <v>0.5459306650751473</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.48623383783508872</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -3080,7 +3100,7 @@
         <v>168</v>
       </c>
       <c r="D78">
-        <v>3857728.04</v>
+        <v>4227928.04</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3089,13 +3109,13 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>3972928.04</v>
+        <v>4546528.04</v>
       </c>
       <c r="H78">
-        <v>0.7487827541925476</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.64210095578779258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -3106,7 +3126,7 @@
         <v>169</v>
       </c>
       <c r="D79">
-        <v>19320306.06</v>
+        <v>20305660.399999999</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3115,13 +3135,13 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>19639139.1990464</v>
+        <v>21252851.297168799</v>
       </c>
       <c r="H79">
-        <v>0.3473851644338501</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.37397146805703108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -3132,7 +3152,7 @@
         <v>170</v>
       </c>
       <c r="D80">
-        <v>3927201.26</v>
+        <v>4298247.6500000004</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3141,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>4062443.65136</v>
+        <v>4658647.6500000041</v>
       </c>
       <c r="H80">
-        <v>0.6248818243054672</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.5681604188288415</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -3158,7 +3178,7 @@
         <v>171</v>
       </c>
       <c r="D81">
-        <v>4372949.66</v>
+        <v>4368753.9800000004</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3167,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>4372949.66</v>
+        <v>4347313.9800000004</v>
       </c>
       <c r="H81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>3.6227611054677027E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -3184,7 +3204,7 @@
         <v>172</v>
       </c>
       <c r="D82">
-        <v>65487591.85</v>
+        <v>71754111.849999994</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3193,13 +3213,13 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>67650871.84999999</v>
+        <v>77120191.849999994</v>
       </c>
       <c r="H82">
-        <v>0.5958260063428882</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.51291581946447373</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -3210,7 +3230,7 @@
         <v>173</v>
       </c>
       <c r="D83">
-        <v>11583791.91</v>
+        <v>12694391.91</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3219,13 +3239,13 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>11992391.91</v>
+        <v>13624991.91</v>
       </c>
       <c r="H83">
-        <v>0.7441868200252971</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.64278863854385937</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -3251,7 +3271,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -3262,7 +3282,7 @@
         <v>175</v>
       </c>
       <c r="D85">
-        <v>3245135.36</v>
+        <v>3541295.36</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3271,13 +3291,13 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>3351695.360000002</v>
+        <v>3796175.3600000022</v>
       </c>
       <c r="H85">
-        <v>0.5680439883414699</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.49217199492069807</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -3288,7 +3308,7 @@
         <v>176</v>
       </c>
       <c r="D86">
-        <v>7100488.470000001</v>
+        <v>7643942</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3297,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>7201694.331348001</v>
+        <v>8174942.0000000037</v>
       </c>
       <c r="H86">
-        <v>0.7151208817045164</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.61898567598400045</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -3314,7 +3334,7 @@
         <v>177</v>
       </c>
       <c r="D87">
-        <v>2145129.02</v>
+        <v>2063700.09</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3323,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>2114494.335934001</v>
+        <v>2020260.09</v>
       </c>
       <c r="H87">
-        <v>0.227574409551419</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.15591339033975571</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3340,7 +3360,7 @@
         <v>178</v>
       </c>
       <c r="D88">
-        <v>12783808.06</v>
+        <v>13869728.060000001</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3349,29 +3369,33 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>13174528.06000001</v>
+        <v>14799008.060000001</v>
       </c>
       <c r="H88">
-        <v>0.5298865179994919</v>
+        <v>0.46291578274875228</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3391,7 +3415,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3411,7 +3435,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3431,7 +3455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3451,7 +3475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3471,7 +3495,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3491,7 +3515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3511,7 +3535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3531,7 +3555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3548,10 +3572,10 @@
         <v>186</v>
       </c>
       <c r="F9">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3571,7 +3595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3591,7 +3615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3608,10 +3632,10 @@
         <v>186</v>
       </c>
       <c r="F12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3631,7 +3655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3651,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -3671,7 +3695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -3691,7 +3715,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -3711,7 +3735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3731,7 +3755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -3751,7 +3775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -3771,7 +3795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -3791,7 +3815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -3808,10 +3832,10 @@
         <v>187</v>
       </c>
       <c r="F22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -3831,7 +3855,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -3848,10 +3872,10 @@
         <v>186</v>
       </c>
       <c r="F24">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -3862,24 +3886,24 @@
         <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
         <v>183</v>
@@ -3888,18 +3912,18 @@
         <v>186</v>
       </c>
       <c r="F26">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
         <v>183</v>
@@ -3908,18 +3932,18 @@
         <v>186</v>
       </c>
       <c r="F27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
         <v>183</v>
@@ -3928,30 +3952,30 @@
         <v>186</v>
       </c>
       <c r="F28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
         <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E29" t="s">
         <v>186</v>
       </c>
       <c r="F29">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -3971,15 +3995,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D31" t="s">
         <v>184</v>
@@ -3988,10 +4012,10 @@
         <v>186</v>
       </c>
       <c r="F31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -4002,24 +4026,24 @@
         <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E32" t="s">
         <v>186</v>
       </c>
       <c r="F32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
         <v>183</v>
@@ -4028,18 +4052,18 @@
         <v>186</v>
       </c>
       <c r="F33">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
         <v>183</v>
@@ -4048,78 +4072,78 @@
         <v>186</v>
       </c>
       <c r="F34">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E36" t="s">
         <v>187</v>
       </c>
       <c r="F36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E37" t="s">
         <v>187</v>
       </c>
       <c r="F37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
         <v>184</v>
@@ -4128,90 +4152,90 @@
         <v>187</v>
       </c>
       <c r="F38">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D39" t="s">
+        <v>183</v>
+      </c>
+      <c r="E39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" t="s">
         <v>184</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>187</v>
       </c>
-      <c r="F39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" t="s">
-        <v>183</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" t="s">
+        <v>183</v>
+      </c>
+      <c r="E41" t="s">
         <v>186</v>
       </c>
-      <c r="F40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="F41">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" t="s">
         <v>184</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>187</v>
       </c>
-      <c r="F41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" t="s">
-        <v>183</v>
-      </c>
-      <c r="E42" t="s">
-        <v>186</v>
-      </c>
       <c r="F42">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -4222,36 +4246,36 @@
         <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E43" t="s">
         <v>187</v>
       </c>
       <c r="F43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -4262,36 +4286,36 @@
         <v>133</v>
       </c>
       <c r="D45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E45" t="s">
         <v>186</v>
       </c>
       <c r="F45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E46" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F46">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -4302,7 +4326,7 @@
         <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47" t="s">
         <v>187</v>
@@ -4311,35 +4335,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E48" t="s">
         <v>187</v>
       </c>
       <c r="F48">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D49" t="s">
         <v>184</v>
@@ -4348,10 +4372,10 @@
         <v>187</v>
       </c>
       <c r="F49">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -4362,16 +4386,16 @@
         <v>136</v>
       </c>
       <c r="D50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E50" t="s">
         <v>186</v>
       </c>
       <c r="F50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -4382,16 +4406,16 @@
         <v>136</v>
       </c>
       <c r="D51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E51" t="s">
         <v>186</v>
       </c>
       <c r="F51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -4402,16 +4426,16 @@
         <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E52" t="s">
         <v>186</v>
       </c>
       <c r="F52">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -4422,16 +4446,16 @@
         <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F53">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -4451,7 +4475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -4471,7 +4495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -4488,10 +4512,10 @@
         <v>187</v>
       </c>
       <c r="F56">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -4511,7 +4535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -4528,10 +4552,10 @@
         <v>187</v>
       </c>
       <c r="F58">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -4551,7 +4575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -4571,7 +4595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -4591,7 +4615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -4611,7 +4635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -4631,7 +4655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -4651,7 +4675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -4671,7 +4695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -4688,10 +4712,10 @@
         <v>187</v>
       </c>
       <c r="F66">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -4711,7 +4735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -4731,7 +4755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -4751,7 +4775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -4771,7 +4795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -4791,35 +4815,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D72" t="s">
         <v>184</v>
       </c>
       <c r="E72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F72">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D73" t="s">
         <v>184</v>
@@ -4828,30 +4852,30 @@
         <v>187</v>
       </c>
       <c r="F73">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D74" t="s">
         <v>184</v>
       </c>
       <c r="E74" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F74">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -4862,24 +4886,24 @@
         <v>156</v>
       </c>
       <c r="D75" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E75" t="s">
         <v>186</v>
       </c>
       <c r="F75">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D76" t="s">
         <v>183</v>
@@ -4888,30 +4912,30 @@
         <v>186</v>
       </c>
       <c r="F76">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D77" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E77" t="s">
         <v>186</v>
       </c>
       <c r="F77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -4922,36 +4946,36 @@
         <v>158</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E78" t="s">
         <v>186</v>
       </c>
       <c r="F78">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C79" t="s">
         <v>158</v>
       </c>
       <c r="D79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E79" t="s">
         <v>186</v>
       </c>
       <c r="F79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -4971,7 +4995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -4991,7 +5015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -5011,7 +5035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -5022,24 +5046,24 @@
         <v>162</v>
       </c>
       <c r="D83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E83" t="s">
         <v>186</v>
       </c>
       <c r="F83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D84" t="s">
         <v>183</v>
@@ -5048,18 +5072,18 @@
         <v>186</v>
       </c>
       <c r="F84">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D85" t="s">
         <v>183</v>
@@ -5068,50 +5092,50 @@
         <v>186</v>
       </c>
       <c r="F85">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D86" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E86" t="s">
+        <v>187</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C87" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" t="s">
+        <v>183</v>
+      </c>
+      <c r="E87" t="s">
         <v>186</v>
       </c>
-      <c r="F86">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" t="s">
-        <v>82</v>
-      </c>
-      <c r="C87" t="s">
-        <v>165</v>
-      </c>
-      <c r="D87" t="s">
-        <v>184</v>
-      </c>
-      <c r="E87" t="s">
-        <v>187</v>
-      </c>
       <c r="F87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -5125,33 +5149,33 @@
         <v>184</v>
       </c>
       <c r="E88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C89" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D89" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E89" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F89">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -5171,47 +5195,47 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C91" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D91" t="s">
+        <v>183</v>
+      </c>
+      <c r="E91" t="s">
+        <v>186</v>
+      </c>
+      <c r="F91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" t="s">
+        <v>86</v>
+      </c>
+      <c r="C92" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92" t="s">
         <v>184</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E92" t="s">
         <v>187</v>
       </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" t="s">
-        <v>85</v>
-      </c>
-      <c r="C92" t="s">
-        <v>168</v>
-      </c>
-      <c r="D92" t="s">
-        <v>183</v>
-      </c>
-      <c r="E92" t="s">
-        <v>186</v>
-      </c>
       <c r="F92">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -5222,16 +5246,16 @@
         <v>169</v>
       </c>
       <c r="D93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F93">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -5242,16 +5266,16 @@
         <v>169</v>
       </c>
       <c r="D94" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E94" t="s">
         <v>186</v>
       </c>
       <c r="F94">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -5268,18 +5292,18 @@
         <v>186</v>
       </c>
       <c r="F95">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D96" t="s">
         <v>184</v>
@@ -5291,7 +5315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -5311,7 +5335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -5331,7 +5355,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -5351,7 +5375,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -5371,7 +5395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -5388,10 +5412,10 @@
         <v>187</v>
       </c>
       <c r="F101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -5411,7 +5435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -5428,10 +5452,10 @@
         <v>187</v>
       </c>
       <c r="F103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -5452,22 +5476,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5484,261 +5511,127 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
         <v>184</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
         <v>183</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
         <v>184</v>
       </c>
       <c r="E6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E8">
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E15">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="2" width="18.375" customWidth="1"/>
+    <col min="4" max="6" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5767,44 +5660,44 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
         <v>192</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G2" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>6627.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>6434.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
         <v>193</v>
@@ -5813,85 +5706,85 @@
         <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G3" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>6639.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>6513.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
         <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F4" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G4" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>6643</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>6433</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
         <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F5" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G5" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>6628</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>6425.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
         <v>196</v>
@@ -5900,889 +5793,368 @@
         <v>183</v>
       </c>
       <c r="F6" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>6552.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>6430.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
         <v>197</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F7" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="G7" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>6624</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>6444.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E8" t="s">
         <v>184</v>
       </c>
       <c r="F8" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G8" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>6624.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>6509.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F9" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G9" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>6642.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>6411.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F10" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>6641.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>6421.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E11" t="s">
         <v>184</v>
       </c>
       <c r="F11" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G11" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>6643</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>6512.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E12" t="s">
         <v>184</v>
       </c>
       <c r="F12" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G12" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>6641.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>6512.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E13" t="s">
         <v>184</v>
       </c>
       <c r="F13" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G13" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>6636.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>6513.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
         <v>184</v>
       </c>
       <c r="F14" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G14" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>6626.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>6515.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E15" t="s">
         <v>184</v>
       </c>
       <c r="F15" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G15" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>6630.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>6514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E16" t="s">
         <v>184</v>
       </c>
       <c r="F16" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="G16" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>6646.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>6513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
         <v>184</v>
       </c>
       <c r="F17" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="G17" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>6646.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>6515.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="D18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E18" t="s">
         <v>184</v>
       </c>
       <c r="F18" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="G18" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>6646.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" t="s">
-        <v>208</v>
-      </c>
-      <c r="E19" t="s">
-        <v>184</v>
-      </c>
-      <c r="F19" t="s">
-        <v>224</v>
-      </c>
-      <c r="G19" t="s">
-        <v>227</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>6626.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" t="s">
-        <v>184</v>
-      </c>
-      <c r="F20" t="s">
-        <v>224</v>
-      </c>
-      <c r="G20" t="s">
-        <v>227</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>6624.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" t="s">
-        <v>195</v>
-      </c>
-      <c r="E21" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" t="s">
-        <v>224</v>
-      </c>
-      <c r="G21" t="s">
-        <v>227</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>6628.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D22" t="s">
-        <v>210</v>
-      </c>
-      <c r="E22" t="s">
-        <v>184</v>
-      </c>
-      <c r="F22" t="s">
-        <v>224</v>
-      </c>
-      <c r="G22" t="s">
-        <v>227</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>6628</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D23" t="s">
-        <v>211</v>
-      </c>
-      <c r="E23" t="s">
-        <v>184</v>
-      </c>
-      <c r="F23" t="s">
-        <v>224</v>
-      </c>
-      <c r="G23" t="s">
-        <v>227</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>6642.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" t="s">
-        <v>212</v>
-      </c>
-      <c r="E24" t="s">
-        <v>184</v>
-      </c>
-      <c r="F24" t="s">
-        <v>224</v>
-      </c>
-      <c r="G24" t="s">
-        <v>227</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>6638.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25" t="s">
-        <v>184</v>
-      </c>
-      <c r="F25" t="s">
-        <v>224</v>
-      </c>
-      <c r="G25" t="s">
-        <v>227</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>6642.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" t="s">
-        <v>214</v>
-      </c>
-      <c r="E26" t="s">
-        <v>184</v>
-      </c>
-      <c r="F26" t="s">
-        <v>224</v>
-      </c>
-      <c r="G26" t="s">
-        <v>227</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>6634.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" t="s">
-        <v>215</v>
-      </c>
-      <c r="E27" t="s">
-        <v>184</v>
-      </c>
-      <c r="F27" t="s">
-        <v>224</v>
-      </c>
-      <c r="G27" t="s">
-        <v>227</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>6629</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" t="s">
-        <v>204</v>
-      </c>
-      <c r="E28" t="s">
-        <v>184</v>
-      </c>
-      <c r="F28" t="s">
-        <v>224</v>
-      </c>
-      <c r="G28" t="s">
-        <v>227</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>6632</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" t="s">
-        <v>216</v>
-      </c>
-      <c r="E29" t="s">
-        <v>183</v>
-      </c>
-      <c r="F29" t="s">
-        <v>225</v>
-      </c>
-      <c r="G29" t="s">
-        <v>226</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>6554</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" t="s">
-        <v>217</v>
-      </c>
-      <c r="E30" t="s">
-        <v>183</v>
-      </c>
-      <c r="F30" t="s">
-        <v>225</v>
-      </c>
-      <c r="G30" t="s">
-        <v>227</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>6542.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" t="s">
-        <v>218</v>
-      </c>
-      <c r="E31" t="s">
-        <v>183</v>
-      </c>
-      <c r="F31" t="s">
-        <v>225</v>
-      </c>
-      <c r="G31" t="s">
-        <v>227</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>6540.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" t="s">
-        <v>219</v>
-      </c>
-      <c r="E32" t="s">
-        <v>183</v>
-      </c>
-      <c r="F32" t="s">
-        <v>225</v>
-      </c>
-      <c r="G32" t="s">
-        <v>227</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>6538</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" t="s">
-        <v>176</v>
-      </c>
-      <c r="D33" t="s">
-        <v>220</v>
-      </c>
-      <c r="E33" t="s">
-        <v>183</v>
-      </c>
-      <c r="F33" t="s">
-        <v>225</v>
-      </c>
-      <c r="G33" t="s">
-        <v>226</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>6534.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" t="s">
-        <v>221</v>
-      </c>
-      <c r="E34" t="s">
-        <v>183</v>
-      </c>
-      <c r="F34" t="s">
-        <v>225</v>
-      </c>
-      <c r="G34" t="s">
-        <v>226</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>6534.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" t="s">
-        <v>176</v>
-      </c>
-      <c r="D35" t="s">
-        <v>222</v>
-      </c>
-      <c r="E35" t="s">
-        <v>183</v>
-      </c>
-      <c r="F35" t="s">
-        <v>225</v>
-      </c>
-      <c r="G35" t="s">
-        <v>226</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>6540.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" t="s">
-        <v>223</v>
-      </c>
-      <c r="E36" t="s">
-        <v>184</v>
-      </c>
-      <c r="F36" t="s">
-        <v>225</v>
-      </c>
-      <c r="G36" t="s">
-        <v>226</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>6643.8</v>
+        <v>6511.4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/info_faccts.xlsx
+++ b/info_faccts.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\trading_plan\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99549C4C-467C-44DE-A898-DF7D056FD3B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="capital" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="trdrec_aggr" sheetId="3" r:id="rId3"/>
     <sheet name="trdrec_details" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="228">
   <si>
     <t>DataDateTime</t>
   </si>
@@ -49,7 +43,7 @@
     <t>CurrentMarginRate</t>
   </si>
   <si>
-    <t>20200812T094553</t>
+    <t>20200813T093629</t>
   </si>
   <si>
     <t>10_f_xb_3670</t>
@@ -601,78 +595,123 @@
     <t>Price</t>
   </si>
   <si>
+    <t>09:30:02</t>
+  </si>
+  <si>
+    <t>09:30:44</t>
+  </si>
+  <si>
+    <t>09:31:00</t>
+  </si>
+  <si>
+    <t>09:30:56</t>
+  </si>
+  <si>
+    <t>09:30:49</t>
+  </si>
+  <si>
+    <t>09:30:53</t>
+  </si>
+  <si>
+    <t>09:31:03</t>
+  </si>
+  <si>
     <t>09:30:58</t>
   </si>
   <si>
-    <t>09:31:36</t>
+    <t>09:31:24</t>
+  </si>
+  <si>
+    <t>09:31:17</t>
+  </si>
+  <si>
+    <t>09:31:22</t>
+  </si>
+  <si>
+    <t>09:30:27</t>
+  </si>
+  <si>
+    <t>09:30:24</t>
+  </si>
+  <si>
+    <t>09:30:34</t>
+  </si>
+  <si>
+    <t>09:30:31</t>
+  </si>
+  <si>
+    <t>09:30:40</t>
+  </si>
+  <si>
+    <t>09:30:36</t>
+  </si>
+  <si>
+    <t>09:30:32</t>
+  </si>
+  <si>
+    <t>09:30:37</t>
+  </si>
+  <si>
+    <t>09:31:59</t>
   </si>
   <si>
     <t>09:31:54</t>
   </si>
   <si>
-    <t>09:32:10</t>
-  </si>
-  <si>
-    <t>09:32:01</t>
-  </si>
-  <si>
-    <t>09:30:42</t>
-  </si>
-  <si>
-    <t>09:30:59</t>
-  </si>
-  <si>
-    <t>09:32:30</t>
-  </si>
-  <si>
-    <t>09:32:19</t>
-  </si>
-  <si>
-    <t>09:31:50</t>
-  </si>
-  <si>
-    <t>09:31:44</t>
-  </si>
-  <si>
-    <t>09:31:41</t>
-  </si>
-  <si>
-    <t>09:31:24</t>
-  </si>
-  <si>
-    <t>09:31:19</t>
-  </si>
-  <si>
-    <t>09:31:16</t>
-  </si>
-  <si>
-    <t>09:31:09</t>
-  </si>
-  <si>
-    <t>09:31:04</t>
+    <t>09:31:49</t>
+  </si>
+  <si>
+    <t>09:31:33</t>
+  </si>
+  <si>
+    <t>09:31:23</t>
+  </si>
+  <si>
+    <t>09:31:07</t>
+  </si>
+  <si>
+    <t>09:31:02</t>
+  </si>
+  <si>
+    <t>09:30:52</t>
+  </si>
+  <si>
+    <t>09:30:47</t>
+  </si>
+  <si>
+    <t>09:30:46</t>
+  </si>
+  <si>
+    <t>09:30:41</t>
+  </si>
+  <si>
+    <t>09:30:38</t>
+  </si>
+  <si>
+    <t>09:30:48</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>sell</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>close</t>
   </si>
   <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>close</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -680,15 +719,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -734,23 +766,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -792,7 +816,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -824,27 +848,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -876,24 +882,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1069,25 +1057,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1124,22 +1110,22 @@
         <v>96</v>
       </c>
       <c r="D2">
-        <v>22609548.149999999</v>
+        <v>24667148.15</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>4100000</v>
       </c>
       <c r="G2">
-        <v>24359948.149999999</v>
+        <v>19608514.6165268</v>
       </c>
       <c r="H2">
-        <v>0.55393352715325928</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.6660869247582744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1165,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1176,7 +1162,7 @@
         <v>98</v>
       </c>
       <c r="D4">
-        <v>4440996.3100000015</v>
+        <v>4133956.31</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1185,13 +1171,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4174836.310000001</v>
+        <v>4276551.212444001</v>
       </c>
       <c r="H4">
-        <v>0.44968163075117062</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.2859133772190295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1202,7 +1188,7 @@
         <v>99</v>
       </c>
       <c r="D5">
-        <v>12788181.59</v>
+        <v>13894141.59</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1211,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>13729021.59</v>
+        <v>13393728.2164496</v>
       </c>
       <c r="H5">
-        <v>0.62374204482549711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.6554391621309956</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1228,7 +1214,7 @@
         <v>100</v>
       </c>
       <c r="D6">
-        <v>3583594.94</v>
+        <v>3300674.94</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1237,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3346874.94</v>
+        <v>3428274.94</v>
       </c>
       <c r="H6">
-        <v>0.5117232136555423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4896699446165189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1269,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1280,22 +1266,22 @@
         <v>102</v>
       </c>
       <c r="D8">
-        <v>13521668.550000001</v>
+        <v>13753988.55</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>13578628.550000001</v>
+        <v>13177668.54999999</v>
       </c>
       <c r="H8">
-        <v>0.55131128835540566</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5568642717151973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1306,7 +1292,7 @@
         <v>103</v>
       </c>
       <c r="D9">
-        <v>5612921.5199999996</v>
+        <v>5343165.7</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1315,13 +1301,13 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5380921.5199999996</v>
+        <v>5526165.7</v>
       </c>
       <c r="H9">
-        <v>0.29268741314034258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4192186998663467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1332,7 +1318,7 @@
         <v>104</v>
       </c>
       <c r="D10">
-        <v>2434676.37</v>
+        <v>2666156.37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1341,13 +1327,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2633396.37</v>
+        <v>2558516.37</v>
       </c>
       <c r="H10">
-        <v>0.53211830014028605</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5368348688736354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1373,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1384,7 +1370,7 @@
         <v>106</v>
       </c>
       <c r="D12">
-        <v>3238927.84</v>
+        <v>3562654.2</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1393,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3523134.2819360001</v>
+        <v>3411854.199999998</v>
       </c>
       <c r="H12">
-        <v>0.57414694931481636</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5814860435712641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1410,7 +1396,7 @@
         <v>107</v>
       </c>
       <c r="D13">
-        <v>5452472.5499999998</v>
+        <v>5992272.55</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1419,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5929552.5499999998</v>
+        <v>5753433.1139344</v>
       </c>
       <c r="H13">
-        <v>0.55171866214424581</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5844079410355232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1436,7 +1422,7 @@
         <v>108</v>
       </c>
       <c r="D14">
-        <v>10061732.560000001</v>
+        <v>10756172.56</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1445,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>10670852.560000001</v>
+        <v>10451612.56</v>
       </c>
       <c r="H14">
-        <v>0.3939549512433711</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3942456129468315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1462,7 +1448,7 @@
         <v>109</v>
       </c>
       <c r="D15">
-        <v>18138976.32</v>
+        <v>19707896.32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1471,13 +1457,13 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>19515136.32</v>
+        <v>19029576.32</v>
       </c>
       <c r="H15">
-        <v>0.48667626217227411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4892007600934335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1488,7 +1474,7 @@
         <v>110</v>
       </c>
       <c r="D16">
-        <v>3820939.62</v>
+        <v>4154339.62</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1497,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4119379.62</v>
+        <v>4007219.620000001</v>
       </c>
       <c r="H16">
-        <v>0.49266020304290392</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4964655268881917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1514,7 +1500,7 @@
         <v>110</v>
       </c>
       <c r="D17">
-        <v>1522649.4</v>
+        <v>1651249.4</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1523,13 +1509,13 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1636049.4</v>
+        <v>1591049.4</v>
       </c>
       <c r="H17">
-        <v>0.51548687955265904</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5195589778670606</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1540,7 +1526,7 @@
         <v>111</v>
       </c>
       <c r="D18">
-        <v>3919534.02</v>
+        <v>4228174.02</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1549,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4193134.0200000019</v>
+        <v>4084654.019999999</v>
       </c>
       <c r="H18">
-        <v>0.44557869867464889</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4483450473487104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1566,7 +1552,7 @@
         <v>112</v>
       </c>
       <c r="D19">
-        <v>1173506.46</v>
+        <v>1046506.46</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1575,13 +1561,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1055706.46</v>
+        <v>1106706.46</v>
       </c>
       <c r="H19">
-        <v>0.7459118891817712</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.6977676808717643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1607,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1618,22 +1604,22 @@
         <v>114</v>
       </c>
       <c r="D21">
-        <v>8161811.3099999996</v>
+        <v>8898219.050000001</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="G21">
-        <v>8819339.0456799995</v>
+        <v>7875994.766160001</v>
       </c>
       <c r="H21">
-        <v>0.52962336245457908</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.601069368448566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1644,7 +1630,7 @@
         <v>115</v>
       </c>
       <c r="D22">
-        <v>28391485.93</v>
+        <v>31160261.91</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1653,13 +1639,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>30868141.905324001</v>
+        <v>29852261.91</v>
       </c>
       <c r="H22">
-        <v>0.54965687445779166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5572315039359764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1670,7 +1656,7 @@
         <v>116</v>
       </c>
       <c r="D23">
-        <v>9569174.25</v>
+        <v>10495094.25</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1679,13 +1665,13 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>10402934.25</v>
+        <v>10038614.25</v>
       </c>
       <c r="H23">
-        <v>0.53880121370564249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5472870122487279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1696,7 +1682,7 @@
         <v>117</v>
       </c>
       <c r="D24">
-        <v>4158911.2</v>
+        <v>4570431.2</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1705,13 +1691,13 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4529471.2</v>
+        <v>4367551.2</v>
       </c>
       <c r="H24">
-        <v>0.59582195820121331</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.6056622301302386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1722,7 +1708,7 @@
         <v>118</v>
       </c>
       <c r="D25">
-        <v>4522815.0299999993</v>
+        <v>4522815.029999999</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1731,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4522815.0299999993</v>
+        <v>4522815.029999999</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1748,7 +1734,7 @@
         <v>119</v>
       </c>
       <c r="D26">
-        <v>1777977.9</v>
+        <v>1829417.9</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1757,13 +1743,13 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1824537.9</v>
+        <v>1805497.9</v>
       </c>
       <c r="H26">
-        <v>0.17067072161120911</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.1690516505170125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1774,7 +1760,7 @@
         <v>120</v>
       </c>
       <c r="D27">
-        <v>23740183.579999998</v>
+        <v>25797783.58</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1783,13 +1769,13 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>25602583.579999998</v>
+        <v>24751383.58</v>
       </c>
       <c r="H27">
-        <v>0.48650590129232513</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4932611528781451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1800,7 +1786,7 @@
         <v>120</v>
       </c>
       <c r="D28">
-        <v>47801753.460000001</v>
+        <v>51916313.46</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1809,13 +1795,13 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>51520553.460000001</v>
+        <v>49714313.46</v>
       </c>
       <c r="H28">
-        <v>0.48359741359036351</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4912359741153696</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1826,7 +1812,7 @@
         <v>121</v>
       </c>
       <c r="D29">
-        <v>8056228.5099999998</v>
+        <v>8771503.66</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1835,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>8730428.5099999998</v>
+        <v>8374103.66</v>
       </c>
       <c r="H29">
-        <v>0.51738876216970497</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.565168642777465</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1852,7 +1838,7 @@
         <v>122</v>
       </c>
       <c r="D30">
-        <v>17472101.449999999</v>
+        <v>19108008.31</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1861,13 +1847,13 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>18843261.449999999</v>
+        <v>18634408.31</v>
       </c>
       <c r="H30">
-        <v>0.48750363223347348</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3030208582995252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1878,7 +1864,7 @@
         <v>123</v>
       </c>
       <c r="D31">
-        <v>4203321.2699999996</v>
+        <v>4383361.27</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1887,13 +1873,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>4364601.2699999996</v>
+        <v>4289001.27</v>
       </c>
       <c r="H31">
-        <v>0.24970968310239239</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.2490739295117998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1904,7 +1890,7 @@
         <v>124</v>
       </c>
       <c r="D32">
-        <v>10696111.85</v>
+        <v>9934111.85</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1913,13 +1899,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>9983311.8499999996</v>
+        <v>10348111.85</v>
       </c>
       <c r="H32">
-        <v>0.59158524633285903</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5596847119506154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1930,7 +1916,7 @@
         <v>125</v>
       </c>
       <c r="D33">
-        <v>1066558.76</v>
+        <v>1022878.76</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1939,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1032598.76</v>
+        <v>1039078.76</v>
       </c>
       <c r="H33">
-        <v>0.29948670478744333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.2929949217708964</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1971,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1982,7 +1968,7 @@
         <v>127</v>
       </c>
       <c r="D35">
-        <v>5679564.8499999996</v>
+        <v>5374764.85</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1991,13 +1977,13 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>5394444.8499999978</v>
+        <v>5542284.85</v>
       </c>
       <c r="H35">
-        <v>0.35034441032426178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3343995572511941</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -2008,7 +1994,7 @@
         <v>128</v>
       </c>
       <c r="D36">
-        <v>1040039.95</v>
+        <v>963839.95</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2017,13 +2003,13 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>966719.95</v>
+        <v>1004759.949999999</v>
       </c>
       <c r="H36">
-        <v>0.48874381872433692</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4611393995152774</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -2034,7 +2020,7 @@
         <v>129</v>
       </c>
       <c r="D37">
-        <v>1233197.25</v>
+        <v>1336077.25</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2043,13 +2029,13 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1328557.25</v>
+        <v>1284557.25</v>
       </c>
       <c r="H37">
-        <v>0.50783630137128077</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5148195613702697</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2060,7 +2046,7 @@
         <v>130</v>
       </c>
       <c r="D38">
-        <v>2966515.62</v>
+        <v>2763315.62</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2069,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>2770995.62</v>
+        <v>2867635.62</v>
       </c>
       <c r="H38">
-        <v>0.45468942314676047</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4308631094490311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -2086,7 +2072,7 @@
         <v>131</v>
       </c>
       <c r="D39">
-        <v>16011746.970000001</v>
+        <v>17477786.97</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2095,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>17400266.969999999</v>
+        <v>16720826.97</v>
       </c>
       <c r="H39">
-        <v>0.55253903957773642</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5635930338199056</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -2112,7 +2098,7 @@
         <v>132</v>
       </c>
       <c r="D40">
-        <v>2247475.9700000002</v>
+        <v>2018235.97</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2121,13 +2107,13 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>2027195.97</v>
+        <v>2138315.97</v>
       </c>
       <c r="H40">
-        <v>0.75555852649016464</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.7023583142392189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -2138,7 +2124,7 @@
         <v>133</v>
       </c>
       <c r="D41">
-        <v>41211193</v>
+        <v>45525580.98</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2147,13 +2133,13 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>45169153</v>
+        <v>43895660.98</v>
       </c>
       <c r="H41">
-        <v>0.56189904645765765</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4241550527848997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -2164,7 +2150,7 @@
         <v>134</v>
       </c>
       <c r="D42">
-        <v>7681639.8400000008</v>
+        <v>7323799.840000001</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2173,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>7340039.8400000008</v>
+        <v>7509719.840000001</v>
       </c>
       <c r="H42">
-        <v>0.29868132159893018</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.286214671891142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -2190,7 +2176,7 @@
         <v>135</v>
       </c>
       <c r="D43">
-        <v>5296626.8100000015</v>
+        <v>5017226.810000001</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2199,13 +2185,13 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>5022946.8100000015</v>
+        <v>5165946.810000001</v>
       </c>
       <c r="H43">
-        <v>0.34490128315732649</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3288637809261532</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -2216,7 +2202,7 @@
         <v>136</v>
       </c>
       <c r="D44">
-        <v>36994300.200000003</v>
+        <v>40235020.2</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2225,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>40023340.200000003</v>
+        <v>38511340.2</v>
       </c>
       <c r="H44">
-        <v>0.56511175446570994</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5756733025873779</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2242,7 +2228,7 @@
         <v>136</v>
       </c>
       <c r="D45">
-        <v>4082956.38</v>
+        <v>4441756.38</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2251,13 +2237,13 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>4425276.38</v>
+        <v>4249596.38</v>
       </c>
       <c r="H45">
-        <v>0.49419448915866371</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5044928996292112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2268,7 +2254,7 @@
         <v>137</v>
       </c>
       <c r="D46">
-        <v>2103639.7799999998</v>
+        <v>2002039.78</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2277,13 +2263,13 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>2004759.78</v>
+        <v>2057399.78</v>
       </c>
       <c r="H46">
-        <v>0.31423774872418869</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3002718314668041</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2294,7 +2280,7 @@
         <v>138</v>
       </c>
       <c r="D47">
-        <v>3477682.17</v>
+        <v>3223682.17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2303,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>3230082.17</v>
+        <v>3356482.17</v>
       </c>
       <c r="H47">
-        <v>0.48758140415975859</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4601388959560599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -2320,7 +2306,7 @@
         <v>139</v>
       </c>
       <c r="D48">
-        <v>3257382.78</v>
+        <v>3003382.78</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2329,13 +2315,13 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>3011782.78</v>
+        <v>3140982.78</v>
       </c>
       <c r="H48">
-        <v>0.56649902221700055</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.532684232035172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -2346,7 +2332,7 @@
         <v>140</v>
       </c>
       <c r="D49">
-        <v>1867552.71</v>
+        <v>1740552.71</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2355,13 +2341,13 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>1745152.71</v>
+        <v>1806752.71</v>
       </c>
       <c r="H49">
-        <v>0.45122927952820813</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4274099027088217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -2372,7 +2358,7 @@
         <v>141</v>
       </c>
       <c r="D50">
-        <v>8281291.4199999999</v>
+        <v>7655614.19</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2381,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>7772251.4199999999</v>
+        <v>7867454.19</v>
       </c>
       <c r="H50">
-        <v>0.42553291463131793</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3140935733875559</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -2398,7 +2384,7 @@
         <v>142</v>
       </c>
       <c r="D51">
-        <v>2000639.14</v>
+        <v>1899039.14</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2407,13 +2393,13 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1906879.14</v>
+        <v>1953919.14</v>
       </c>
       <c r="H51">
-        <v>0.3854289370431731</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3688701263246749</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2424,7 +2410,7 @@
         <v>143</v>
       </c>
       <c r="D52">
-        <v>5242919.4399999985</v>
+        <v>4963519.439999999</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2433,13 +2419,13 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>4984199.4400000013</v>
+        <v>5112679.439999999</v>
       </c>
       <c r="H52">
-        <v>0.34758255981827241</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3322901073570927</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -2450,7 +2436,7 @@
         <v>144</v>
       </c>
       <c r="D53">
-        <v>4657942.3600000003</v>
+        <v>4402022.36</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2459,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>4432022.3600000003</v>
+        <v>4534262.360000001</v>
       </c>
       <c r="H53">
-        <v>0.35292168516947647</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3381909290312877</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2476,22 +2462,22 @@
         <v>145</v>
       </c>
       <c r="D54">
-        <v>2542598.42</v>
+        <v>1140998.42</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1300000</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>1150278.42</v>
+        <v>1190118.42</v>
       </c>
       <c r="H54">
-        <v>0.59330748811231293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5623480728917717</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2502,7 +2488,7 @@
         <v>146</v>
       </c>
       <c r="D55">
-        <v>3981633.09</v>
+        <v>3753033.09</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2511,13 +2497,13 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>3776433.09</v>
+        <v>3863553.09</v>
       </c>
       <c r="H55">
-        <v>0.46917129412188258</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.449716610468526</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -2528,7 +2514,7 @@
         <v>147</v>
       </c>
       <c r="D56">
-        <v>1889106.38</v>
+        <v>1736706.38</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2537,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1754946.379999999</v>
+        <v>1810146.379999999</v>
       </c>
       <c r="H56">
-        <v>0.62819560333233682</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5972520299711896</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -2554,7 +2540,7 @@
         <v>148</v>
       </c>
       <c r="D57">
-        <v>3758516.71</v>
+        <v>3453716.71</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2563,13 +2549,13 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>3490196.7099999981</v>
+        <v>3600596.709999998</v>
       </c>
       <c r="H57">
-        <v>0.67686500111336168</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.6434133524495725</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2580,7 +2566,7 @@
         <v>149</v>
       </c>
       <c r="D58">
-        <v>4214305.59</v>
+        <v>3985705.59</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2589,13 +2575,13 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>4019905.59</v>
+        <v>4097665.59</v>
       </c>
       <c r="H58">
-        <v>0.44075512728645949</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4240228886027764</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2606,7 +2592,7 @@
         <v>150</v>
       </c>
       <c r="D59">
-        <v>3701016.6</v>
+        <v>3454422.62</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2615,13 +2601,13 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>3487416.6</v>
+        <v>3592582.62</v>
       </c>
       <c r="H59">
-        <v>0.45160305769032588</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4728889992792984</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2632,7 +2618,7 @@
         <v>151</v>
       </c>
       <c r="D60">
-        <v>3438099.31</v>
+        <v>3771819.31</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2641,13 +2627,13 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>3714899.31</v>
+        <v>3604818.141808002</v>
       </c>
       <c r="H60">
-        <v>0.68227259704651322</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.7425894718387643</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2658,7 +2644,7 @@
         <v>152</v>
       </c>
       <c r="D61">
-        <v>1996358.44</v>
+        <v>1920158.44</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2667,13 +2653,13 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>1931198.44</v>
+        <v>1956878.44</v>
       </c>
       <c r="H61">
-        <v>0.40775923576243162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.394620321944985</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2684,7 +2670,7 @@
         <v>153</v>
       </c>
       <c r="D62">
-        <v>3412307.38</v>
+        <v>3183707.38</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2693,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>3216827.38</v>
+        <v>3293867.38</v>
       </c>
       <c r="H62">
-        <v>0.44063141491913072</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4219973179369475</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2710,7 +2696,7 @@
         <v>154</v>
       </c>
       <c r="D63">
-        <v>4712385.91</v>
+        <v>4305985.91</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2719,13 +2705,13 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>4358465.91</v>
+        <v>4501825.91</v>
       </c>
       <c r="H63">
-        <v>0.57815865766402186</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.548914340403714</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2751,7 +2737,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2762,7 +2748,7 @@
         <v>156</v>
       </c>
       <c r="D65">
-        <v>6417275.1900000004</v>
+        <v>6981195.19</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2771,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>6897355.1899999985</v>
+        <v>6704155.19</v>
       </c>
       <c r="H65">
-        <v>0.49817912886113108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5024418296617624</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2788,7 +2774,7 @@
         <v>157</v>
       </c>
       <c r="D66">
-        <v>1991631.81</v>
+        <v>2197391.81</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2797,13 +2783,13 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>2163471.81</v>
+        <v>2095631.81</v>
       </c>
       <c r="H66">
-        <v>0.71966548988683132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.7282347942599707</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -2814,7 +2800,7 @@
         <v>158</v>
       </c>
       <c r="D67">
-        <v>14603136.07</v>
+        <v>15862456.07</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2823,13 +2809,13 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>15653296.07000001</v>
+        <v>15224336.07</v>
       </c>
       <c r="H67">
-        <v>0.48772909972819473</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4915452184970064</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -2840,7 +2826,7 @@
         <v>158</v>
       </c>
       <c r="D68">
-        <v>8262281.9700000007</v>
+        <v>8905281.970000001</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2849,13 +2835,13 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>8784281.9700000007</v>
+        <v>8578281.970000001</v>
       </c>
       <c r="H68">
-        <v>0.44311419115340639</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4447603859773802</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2866,7 +2852,7 @@
         <v>159</v>
       </c>
       <c r="D69">
-        <v>3850269.54</v>
+        <v>3466709.54</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2875,13 +2861,13 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>3532829.54</v>
+        <v>3653269.54</v>
       </c>
       <c r="H69">
-        <v>0.66463167085044272</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.6301213679404559</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2907,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2933,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -2944,7 +2930,7 @@
         <v>162</v>
       </c>
       <c r="D72">
-        <v>14300805.5</v>
+        <v>15672285.8</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2953,13 +2939,13 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>15445605.5</v>
+        <v>14988085.8</v>
       </c>
       <c r="H72">
-        <v>0.54434061519957833</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5600192120597552</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2970,7 +2956,7 @@
         <v>163</v>
       </c>
       <c r="D73">
-        <v>3415312.22</v>
+        <v>3775392.22</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2979,13 +2965,13 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>3714352.22</v>
+        <v>3602912.22</v>
       </c>
       <c r="H73">
-        <v>0.58684967684620937</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.593008285947083</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -2996,7 +2982,7 @@
         <v>164</v>
       </c>
       <c r="D74">
-        <v>2315856.67</v>
+        <v>2470176.67</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3005,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>2446656.6700000009</v>
+        <v>2396256.670000001</v>
       </c>
       <c r="H74">
-        <v>0.38182128757771289</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3821240067742825</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -3022,7 +3008,7 @@
         <v>165</v>
       </c>
       <c r="D75">
-        <v>2341863.2000000002</v>
+        <v>2291063.2</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3031,13 +3017,13 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>2298583.2000000002</v>
+        <v>2316023.2</v>
       </c>
       <c r="H75">
-        <v>0.13703467422889021</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.1333706847150754</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -3048,7 +3034,7 @@
         <v>166</v>
       </c>
       <c r="D76">
-        <v>4294574.75</v>
+        <v>4705774.75</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3057,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>4641494.75</v>
+        <v>4509414.75</v>
       </c>
       <c r="H76">
-        <v>0.58186066029698713</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5870489513079276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -3074,7 +3060,7 @@
         <v>167</v>
       </c>
       <c r="D77">
-        <v>3184053.44</v>
+        <v>3382187.63</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3083,13 +3069,13 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>3362219.3125820002</v>
+        <v>3271667.63</v>
       </c>
       <c r="H77">
-        <v>0.48623383783508872</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.4897861828342263</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -3100,7 +3086,7 @@
         <v>168</v>
       </c>
       <c r="D78">
-        <v>4227928.04</v>
+        <v>4613728.04</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3109,13 +3095,13 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>4546528.04</v>
+        <v>4433128.04</v>
       </c>
       <c r="H78">
-        <v>0.64210095578779258</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.6454719949843812</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -3126,7 +3112,7 @@
         <v>169</v>
       </c>
       <c r="D79">
-        <v>20305660.399999999</v>
+        <v>21453086.96</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3135,13 +3121,13 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>21252851.297168799</v>
+        <v>21019646.96</v>
       </c>
       <c r="H79">
-        <v>0.37397146805703108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.3267183322854441</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -3152,7 +3138,7 @@
         <v>170</v>
       </c>
       <c r="D80">
-        <v>4298247.6500000004</v>
+        <v>4729295.12</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3161,13 +3147,13 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>4658647.6500000041</v>
+        <v>4547980.290672</v>
       </c>
       <c r="H80">
-        <v>0.5681604188288415</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.571049440413528</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -3178,7 +3164,7 @@
         <v>171</v>
       </c>
       <c r="D81">
-        <v>4368753.9800000004</v>
+        <v>4343353.98</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3187,13 +3173,13 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>4347313.9800000004</v>
+        <v>4355310.028804</v>
       </c>
       <c r="H81">
-        <v>3.6227611054677027E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.1060895313867893</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -3204,7 +3190,7 @@
         <v>172</v>
       </c>
       <c r="D82">
-        <v>71754111.849999994</v>
+        <v>78285391.84999999</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3213,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>77120191.849999994</v>
+        <v>75436408.13473399</v>
       </c>
       <c r="H82">
-        <v>0.51291581946447373</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5426750638350013</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -3230,7 +3216,7 @@
         <v>173</v>
       </c>
       <c r="D83">
-        <v>12694391.91</v>
+        <v>13863265.06</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3239,13 +3225,13 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>13624991.91</v>
+        <v>13309265.06</v>
       </c>
       <c r="H83">
-        <v>0.64278863854385937</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.7166586552300582</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -3271,7 +3257,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -3282,7 +3268,7 @@
         <v>175</v>
       </c>
       <c r="D85">
-        <v>3541295.36</v>
+        <v>3849935.36</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3291,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>3796175.3600000022</v>
+        <v>3716062.502912002</v>
       </c>
       <c r="H85">
-        <v>0.49217199492069807</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.5342971487815733</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -3308,7 +3294,7 @@
         <v>176</v>
       </c>
       <c r="D86">
-        <v>7643942</v>
+        <v>8279485.029999999</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3317,13 +3303,13 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>8174942.0000000037</v>
+        <v>7962525.029999999</v>
       </c>
       <c r="H86">
-        <v>0.61898567598400045</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.6708163528372608</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -3334,7 +3320,7 @@
         <v>177</v>
       </c>
       <c r="D87">
-        <v>2063700.09</v>
+        <v>2012900.09</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3343,13 +3329,13 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>2020260.09</v>
+        <v>2035140.09</v>
       </c>
       <c r="H87">
-        <v>0.15591339033975571</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0.1517780527825974</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3360,7 +3346,7 @@
         <v>178</v>
       </c>
       <c r="D88">
-        <v>13869728.060000001</v>
+        <v>15001408.06</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -3369,33 +3355,32 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>14799008.060000001</v>
+        <v>14499808.06</v>
       </c>
       <c r="H88">
-        <v>0.46291578274875228</v>
+        <v>0.4631021853678252</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="1" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3415,7 +3400,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3432,10 +3417,10 @@
         <v>186</v>
       </c>
       <c r="F2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3452,10 +3437,10 @@
         <v>187</v>
       </c>
       <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3475,7 +3460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3492,10 +3477,10 @@
         <v>186</v>
       </c>
       <c r="F5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3512,10 +3497,10 @@
         <v>187</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3535,7 +3520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3555,7 +3540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3575,7 +3560,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3592,10 +3577,10 @@
         <v>187</v>
       </c>
       <c r="F10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3615,7 +3600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -3635,7 +3620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3655,7 +3640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -3672,10 +3657,10 @@
         <v>186</v>
       </c>
       <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -3695,7 +3680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -3715,7 +3700,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -3735,7 +3720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -3755,7 +3740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -3775,7 +3760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -3795,7 +3780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -3815,7 +3800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -3832,10 +3817,10 @@
         <v>187</v>
       </c>
       <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -3846,24 +3831,24 @@
         <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E23" t="s">
         <v>186</v>
       </c>
       <c r="F23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
         <v>183</v>
@@ -3872,18 +3857,18 @@
         <v>186</v>
       </c>
       <c r="F24">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
         <v>183</v>
@@ -3892,18 +3877,18 @@
         <v>186</v>
       </c>
       <c r="F25">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
         <v>183</v>
@@ -3912,18 +3897,18 @@
         <v>186</v>
       </c>
       <c r="F26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
         <v>183</v>
@@ -3932,18 +3917,18 @@
         <v>186</v>
       </c>
       <c r="F27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
         <v>183</v>
@@ -3952,30 +3937,30 @@
         <v>186</v>
       </c>
       <c r="F28">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" t="s">
         <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E29" t="s">
         <v>186</v>
       </c>
       <c r="F29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -3986,36 +3971,36 @@
         <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E30" t="s">
         <v>186</v>
       </c>
       <c r="F30">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E31" t="s">
         <v>186</v>
       </c>
       <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -4026,24 +4011,24 @@
         <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E32" t="s">
         <v>186</v>
       </c>
       <c r="F32">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D33" t="s">
         <v>183</v>
@@ -4052,18 +4037,18 @@
         <v>186</v>
       </c>
       <c r="F33">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
         <v>183</v>
@@ -4072,78 +4057,78 @@
         <v>186</v>
       </c>
       <c r="F34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
         <v>39</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>124</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>184</v>
-      </c>
-      <c r="E35" t="s">
-        <v>187</v>
-      </c>
-      <c r="F35">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D36" t="s">
-        <v>185</v>
       </c>
       <c r="E36" t="s">
         <v>187</v>
       </c>
       <c r="F36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E37" t="s">
         <v>187</v>
       </c>
       <c r="F37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
         <v>184</v>
@@ -4152,90 +4137,90 @@
         <v>187</v>
       </c>
       <c r="F38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F39">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
         <v>44</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>129</v>
       </c>
-      <c r="D39" t="s">
-        <v>183</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D40" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" t="s">
         <v>186</v>
       </c>
-      <c r="F39">
+      <c r="F40">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
         <v>45</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>130</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>184</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>187</v>
       </c>
-      <c r="F40">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="F41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
         <v>46</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>131</v>
       </c>
-      <c r="D41" t="s">
-        <v>183</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D42" t="s">
+        <v>183</v>
+      </c>
+      <c r="E42" t="s">
         <v>186</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42" t="s">
-        <v>184</v>
-      </c>
-      <c r="E42" t="s">
-        <v>187</v>
-      </c>
-      <c r="F42">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -4246,36 +4231,36 @@
         <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E43" t="s">
         <v>187</v>
       </c>
       <c r="F43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" t="s">
+        <v>187</v>
+      </c>
+      <c r="F44">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" t="s">
-        <v>184</v>
-      </c>
-      <c r="E44" t="s">
-        <v>186</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -4292,10 +4277,10 @@
         <v>186</v>
       </c>
       <c r="F45">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -4315,7 +4300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -4335,7 +4320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -4355,7 +4340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -4375,7 +4360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -4395,7 +4380,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -4415,7 +4400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -4435,7 +4420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -4455,7 +4440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -4475,7 +4460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -4495,7 +4480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -4515,7 +4500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -4535,7 +4520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -4552,10 +4537,10 @@
         <v>187</v>
       </c>
       <c r="F58">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -4575,7 +4560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -4595,7 +4580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -4615,7 +4600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -4635,7 +4620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -4655,7 +4640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -4675,7 +4660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -4695,7 +4680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -4715,7 +4700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -4735,7 +4720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -4752,10 +4737,10 @@
         <v>187</v>
       </c>
       <c r="F68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -4775,7 +4760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -4792,10 +4777,10 @@
         <v>186</v>
       </c>
       <c r="F70">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -4815,7 +4800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -4835,7 +4820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -4855,7 +4840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -4875,7 +4860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -4895,7 +4880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -4915,7 +4900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -4935,7 +4920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>8</v>
       </c>
@@ -4955,7 +4940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>8</v>
       </c>
@@ -4975,7 +4960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -4995,7 +4980,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>8</v>
       </c>
@@ -5015,7 +5000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>8</v>
       </c>
@@ -5035,7 +5020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -5052,10 +5037,10 @@
         <v>186</v>
       </c>
       <c r="F83">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -5075,7 +5060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -5095,7 +5080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>8</v>
       </c>
@@ -5115,7 +5100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -5135,7 +5120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -5155,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -5166,24 +5151,24 @@
         <v>167</v>
       </c>
       <c r="D89" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E89" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C90" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D90" t="s">
         <v>183</v>
@@ -5192,30 +5177,30 @@
         <v>186</v>
       </c>
       <c r="F90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" t="s">
+        <v>169</v>
+      </c>
+      <c r="D91" t="s">
+        <v>183</v>
+      </c>
+      <c r="E91" t="s">
+        <v>187</v>
+      </c>
+      <c r="F91">
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" t="s">
-        <v>85</v>
-      </c>
-      <c r="C91" t="s">
-        <v>168</v>
-      </c>
-      <c r="D91" t="s">
-        <v>183</v>
-      </c>
-      <c r="E91" t="s">
-        <v>186</v>
-      </c>
-      <c r="F91">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -5226,24 +5211,24 @@
         <v>169</v>
       </c>
       <c r="D92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C93" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D93" t="s">
         <v>183</v>
@@ -5252,38 +5237,38 @@
         <v>186</v>
       </c>
       <c r="F93">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D94" t="s">
         <v>184</v>
       </c>
       <c r="E94" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F94">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C95" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D95" t="s">
         <v>183</v>
@@ -5292,30 +5277,30 @@
         <v>186</v>
       </c>
       <c r="F95">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C96" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -5332,18 +5317,18 @@
         <v>186</v>
       </c>
       <c r="F97">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C98" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D98" t="s">
         <v>183</v>
@@ -5352,18 +5337,18 @@
         <v>186</v>
       </c>
       <c r="F98">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C99" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D99" t="s">
         <v>183</v>
@@ -5372,18 +5357,18 @@
         <v>186</v>
       </c>
       <c r="F99">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C100" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D100" t="s">
         <v>183</v>
@@ -5392,38 +5377,38 @@
         <v>186</v>
       </c>
       <c r="F100">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C101" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D101" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E101" t="s">
         <v>187</v>
       </c>
       <c r="F101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C102" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D102" t="s">
         <v>183</v>
@@ -5432,69 +5417,29 @@
         <v>186</v>
       </c>
       <c r="F102">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" t="s">
-        <v>94</v>
-      </c>
-      <c r="C103" t="s">
-        <v>177</v>
-      </c>
-      <c r="D103" t="s">
-        <v>184</v>
-      </c>
-      <c r="E103" t="s">
-        <v>187</v>
-      </c>
-      <c r="F103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
-        <v>8</v>
-      </c>
-      <c r="B104" t="s">
-        <v>95</v>
-      </c>
-      <c r="C104" t="s">
-        <v>178</v>
-      </c>
-      <c r="D104" t="s">
-        <v>183</v>
-      </c>
-      <c r="E104" t="s">
-        <v>186</v>
-      </c>
-      <c r="F104">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="1" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5511,49 +5456,49 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
         <v>183</v>
       </c>
       <c r="E2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
         <v>184</v>
       </c>
       <c r="E3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
         <v>183</v>
@@ -5562,76 +5507,183 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
         <v>184</v>
       </c>
       <c r="E6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12">
         <v>-9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7">
-        <v>-2</v>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="18.375" customWidth="1"/>
-    <col min="4" max="6" width="18.375" customWidth="1"/>
+    <col min="1" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5660,15 +5712,15 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
         <v>192</v>
@@ -5677,27 +5729,27 @@
         <v>183</v>
       </c>
       <c r="F2" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="G2" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>6434.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6411.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
         <v>193</v>
@@ -5706,114 +5758,114 @@
         <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>6513.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D4" t="s">
         <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F4" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>6433</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6493.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
         <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G5" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>6425.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
         <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G6" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>6430.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
         <v>197</v>
@@ -5822,56 +5874,56 @@
         <v>183</v>
       </c>
       <c r="F7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>6444.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6422.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
         <v>198</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F8" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G8" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>6509.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
         <v>199</v>
@@ -5880,56 +5932,56 @@
         <v>183</v>
       </c>
       <c r="F9" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G9" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>6411.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6418.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
         <v>200</v>
       </c>
       <c r="E10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F10" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G10" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>6421.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6486.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
         <v>201</v>
@@ -5938,27 +5990,27 @@
         <v>184</v>
       </c>
       <c r="F11" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G11" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>6512.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
         <v>202</v>
@@ -5967,194 +6019,657 @@
         <v>184</v>
       </c>
       <c r="F12" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G12" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>6512.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6486.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D13" t="s">
         <v>203</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F13" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G13" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>6513.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6412.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
         <v>204</v>
       </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F14" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G14" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>6515.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6414.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
         <v>205</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F15" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G15" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>6514</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6416.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D16" t="s">
         <v>206</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F16" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G16" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>6513</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6414.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D17" t="s">
         <v>207</v>
       </c>
       <c r="E17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F17" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G17" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>6515.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+        <v>6419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
         <v>208</v>
       </c>
       <c r="E18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F18" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="G18" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>6511.4</v>
+        <v>6418.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" t="s">
+        <v>184</v>
+      </c>
+      <c r="F19" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" t="s">
+        <v>226</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>6488.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" t="s">
+        <v>225</v>
+      </c>
+      <c r="G20" t="s">
+        <v>227</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>6418.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" t="s">
+        <v>183</v>
+      </c>
+      <c r="F21" t="s">
+        <v>225</v>
+      </c>
+      <c r="G21" t="s">
+        <v>227</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>6413.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" t="s">
+        <v>183</v>
+      </c>
+      <c r="F22" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" t="s">
+        <v>227</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>6410.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" t="s">
+        <v>183</v>
+      </c>
+      <c r="F23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" t="s">
+        <v>227</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>6407.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" t="s">
+        <v>227</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>6408.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G25" t="s">
+        <v>227</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>6413.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>6493</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>172</v>
+      </c>
+      <c r="D27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" t="s">
+        <v>184</v>
+      </c>
+      <c r="F27" t="s">
+        <v>225</v>
+      </c>
+      <c r="G27" t="s">
+        <v>227</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>6493.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" t="s">
+        <v>172</v>
+      </c>
+      <c r="D28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" t="s">
+        <v>225</v>
+      </c>
+      <c r="G28" t="s">
+        <v>227</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>6422.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" t="s">
+        <v>219</v>
+      </c>
+      <c r="E29" t="s">
+        <v>183</v>
+      </c>
+      <c r="F29" t="s">
+        <v>225</v>
+      </c>
+      <c r="G29" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>6422.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" t="s">
+        <v>184</v>
+      </c>
+      <c r="F30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G30" t="s">
+        <v>227</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>6498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" t="s">
+        <v>227</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>6420.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E32" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" t="s">
+        <v>227</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>6495.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" t="s">
+        <v>222</v>
+      </c>
+      <c r="E33" t="s">
+        <v>184</v>
+      </c>
+      <c r="F33" t="s">
+        <v>225</v>
+      </c>
+      <c r="G33" t="s">
+        <v>227</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>6493</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34" t="s">
+        <v>183</v>
+      </c>
+      <c r="F34" t="s">
+        <v>225</v>
+      </c>
+      <c r="G34" t="s">
+        <v>227</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>6422.8</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/info_faccts.xlsx
+++ b/info_faccts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="200">
   <si>
     <t>DataDateTime</t>
   </si>
@@ -43,10 +43,7 @@
     <t>CurrentMarginRate</t>
   </si>
   <si>
-    <t>20200813T093629</t>
-  </si>
-  <si>
-    <t>10_f_xb_3670</t>
+    <t>20200814T093522</t>
   </si>
   <si>
     <t>1101_f_ya_9059</t>
@@ -307,9 +304,6 @@
     <t>930_f_xy_0810</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>1101</t>
   </si>
   <si>
@@ -568,21 +562,21 @@
     <t>Qty</t>
   </si>
   <si>
+    <t>IC2008</t>
+  </si>
+  <si>
     <t>IC2009</t>
   </si>
   <si>
-    <t>IC2008</t>
-  </si>
-  <si>
     <t>IF2008</t>
   </si>
   <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>short</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>NetQty</t>
   </si>
   <si>
@@ -595,112 +589,34 @@
     <t>Price</t>
   </si>
   <si>
-    <t>09:30:02</t>
-  </si>
-  <si>
-    <t>09:30:44</t>
-  </si>
-  <si>
-    <t>09:31:00</t>
-  </si>
-  <si>
-    <t>09:30:56</t>
-  </si>
-  <si>
-    <t>09:30:49</t>
-  </si>
-  <si>
-    <t>09:30:53</t>
-  </si>
-  <si>
-    <t>09:31:03</t>
-  </si>
-  <si>
-    <t>09:30:58</t>
-  </si>
-  <si>
-    <t>09:31:24</t>
-  </si>
-  <si>
-    <t>09:31:17</t>
-  </si>
-  <si>
-    <t>09:31:22</t>
-  </si>
-  <si>
-    <t>09:30:27</t>
-  </si>
-  <si>
-    <t>09:30:24</t>
-  </si>
-  <si>
-    <t>09:30:34</t>
-  </si>
-  <si>
-    <t>09:30:31</t>
-  </si>
-  <si>
-    <t>09:30:40</t>
+    <t>09:33:12</t>
+  </si>
+  <si>
+    <t>09:31:02</t>
+  </si>
+  <si>
+    <t>09:31:29</t>
+  </si>
+  <si>
+    <t>09:31:30</t>
   </si>
   <si>
     <t>09:30:36</t>
   </si>
   <si>
-    <t>09:30:32</t>
-  </si>
-  <si>
-    <t>09:30:37</t>
-  </si>
-  <si>
-    <t>09:31:59</t>
-  </si>
-  <si>
-    <t>09:31:54</t>
-  </si>
-  <si>
-    <t>09:31:49</t>
-  </si>
-  <si>
-    <t>09:31:33</t>
-  </si>
-  <si>
-    <t>09:31:23</t>
-  </si>
-  <si>
-    <t>09:31:07</t>
-  </si>
-  <si>
-    <t>09:31:02</t>
-  </si>
-  <si>
-    <t>09:30:52</t>
-  </si>
-  <si>
-    <t>09:30:47</t>
-  </si>
-  <si>
-    <t>09:30:46</t>
-  </si>
-  <si>
-    <t>09:30:41</t>
-  </si>
-  <si>
-    <t>09:30:38</t>
-  </si>
-  <si>
-    <t>09:30:48</t>
+    <t>09:32:41</t>
+  </si>
+  <si>
+    <t>sell</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>sell</t>
+    <t>open</t>
   </si>
   <si>
     <t>close</t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +974,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1107,22 +1023,22 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2">
-        <v>24667148.15</v>
+        <v>1549178.61</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4100000</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>19608514.6165268</v>
+        <v>1549178.61</v>
       </c>
       <c r="H2">
-        <v>0.6660869247582744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1133,10 +1049,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3">
-        <v>1549178.61</v>
+        <v>4202021.93</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1145,10 +1061,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1549178.61</v>
+        <v>4199701.93</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4404209705425452</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1159,10 +1075,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4">
-        <v>4133956.31</v>
+        <v>11636354.34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1171,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4276551.212444001</v>
+        <v>11610554.33999999</v>
       </c>
       <c r="H4">
-        <v>0.2859133772190295</v>
+        <v>0.7593322197913253</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1185,10 +1101,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>13894141.59</v>
+        <v>3366234.94</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1197,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>13393728.2164496</v>
+        <v>3373714.94</v>
       </c>
       <c r="H5">
-        <v>0.6554391621309956</v>
+        <v>0.4999208380065448</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1211,10 +1127,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6">
-        <v>3300674.94</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1223,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3428274.94</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>0.4896699446165189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1237,10 +1153,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>13461468.55</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1249,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>13417588.55</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.5495231257482556</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1263,10 +1179,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D8">
-        <v>13753988.55</v>
+        <v>8146365.7</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1275,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>13177668.54999999</v>
+        <v>8157165.7</v>
       </c>
       <c r="H8">
-        <v>0.5568642717151973</v>
+        <v>0.2855227030633936</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1289,10 +1205,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9">
-        <v>5343165.7</v>
+        <v>2612516.37</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1301,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>5526165.7</v>
+        <v>2598476.37</v>
       </c>
       <c r="H9">
-        <v>0.4192186998663467</v>
+        <v>0.5310564359682824</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1315,10 +1231,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10">
-        <v>2666156.37</v>
+        <v>1001</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1327,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2558516.37</v>
+        <v>1001</v>
       </c>
       <c r="H10">
-        <v>0.5368348688736354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1341,10 +1257,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11">
-        <v>1001</v>
+        <v>3485174.2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1353,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1001</v>
+        <v>3462814.200000002</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.5756136728329225</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1367,10 +1283,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12">
-        <v>3562654.2</v>
+        <v>5869593.029999999</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1379,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3411854.199999998</v>
+        <v>5831993.029999999</v>
       </c>
       <c r="H12">
-        <v>0.5814860435712641</v>
+        <v>0.5790591282651103</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1393,10 +1309,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13">
-        <v>5992272.55</v>
+        <v>10595252.56</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1405,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5753433.1139344</v>
+        <v>10544492.56</v>
       </c>
       <c r="H13">
-        <v>0.5844079410355232</v>
+        <v>0.3926042696169344</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1419,22 +1335,22 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14">
-        <v>10756172.56</v>
+        <v>19344336.32</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>3600000</v>
       </c>
       <c r="G14">
-        <v>10451612.56</v>
+        <v>15629656.32</v>
       </c>
       <c r="H14">
-        <v>0.3942456129468315</v>
+        <v>0.5984079373538016</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1445,10 +1361,10 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D15">
-        <v>19707896.32</v>
+        <v>4074099.62</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1457,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>19029576.32</v>
+        <v>4048499.62</v>
       </c>
       <c r="H15">
-        <v>0.4892007600934335</v>
+        <v>0.4937817432720915</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1471,10 +1387,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D16">
-        <v>4154339.62</v>
+        <v>1621449.4</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1483,10 +1399,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4007219.620000001</v>
+        <v>1610049.4</v>
       </c>
       <c r="H16">
-        <v>0.4964655268881917</v>
+        <v>0.5158338619920606</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1497,10 +1413,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17">
-        <v>1651249.4</v>
+        <v>4156654.02</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1509,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1591049.4</v>
+        <v>4132654.019999999</v>
       </c>
       <c r="H17">
-        <v>0.5195589778670606</v>
+        <v>0.4452143322658306</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1523,10 +1439,10 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18">
-        <v>4228174.02</v>
+        <v>1080906.46</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1535,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4084654.019999999</v>
+        <v>1093906.46</v>
       </c>
       <c r="H18">
-        <v>0.4483450473487104</v>
+        <v>0.7097060200192986</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1549,10 +1465,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19">
-        <v>1046506.46</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1561,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1106706.46</v>
+        <v>10</v>
       </c>
       <c r="H19">
-        <v>0.6977676808717643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1575,10 +1491,10 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>8031005.37</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1587,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>7960365.37</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.558819776886698</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1601,22 +1517,22 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21">
-        <v>8898219.050000001</v>
+        <v>30230615.06</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>7875994.766160001</v>
+        <v>30107655.06</v>
       </c>
       <c r="H21">
-        <v>0.601069368448566</v>
+        <v>0.2953711002161324</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1627,10 +1543,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22">
-        <v>31160261.91</v>
+        <v>10280534.25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1639,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>29852261.91</v>
+        <v>10204214.25</v>
       </c>
       <c r="H22">
-        <v>0.5572315039359764</v>
+        <v>0.5409285090226326</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1653,10 +1569,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23">
-        <v>10495094.25</v>
+        <v>4475071.2</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1665,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>10038614.25</v>
+        <v>4445671.101847196</v>
       </c>
       <c r="H23">
-        <v>0.5472870122487279</v>
+        <v>0.6351078015705732</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1679,10 +1595,10 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24">
-        <v>4570431.2</v>
+        <v>4522815.029999999</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1691,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4367551.2</v>
+        <v>4522815.029999999</v>
       </c>
       <c r="H24">
-        <v>0.6056622301302386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1705,10 +1621,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25">
-        <v>4522815.029999999</v>
+        <v>1818387.15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1717,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4522815.029999999</v>
+        <v>1817787.15</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.08434782917240891</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1731,10 +1647,10 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26">
-        <v>1829417.9</v>
+        <v>25320983.58</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1743,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1805497.9</v>
+        <v>25298583.58</v>
       </c>
       <c r="H26">
-        <v>0.1690516505170125</v>
+        <v>0.4848537057899594</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1757,10 +1673,10 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D27">
-        <v>25797783.58</v>
+        <v>50960873.46</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1769,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>24751383.58</v>
+        <v>50986313.46</v>
       </c>
       <c r="H27">
-        <v>0.4932611528781451</v>
+        <v>0.4812293797089121</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1783,10 +1699,10 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28">
-        <v>51916313.46</v>
+        <v>8585823.66</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1795,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>49714313.46</v>
+        <v>8590783.66</v>
       </c>
       <c r="H28">
-        <v>0.4912359741153696</v>
+        <v>0.5535074084265786</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1809,10 +1725,10 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29">
-        <v>8771503.66</v>
+        <v>18670111.51</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1821,10 +1737,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>8374103.66</v>
+        <v>18670231.51</v>
       </c>
       <c r="H29">
-        <v>0.565168642777465</v>
+        <v>0.008212345943213215</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1835,10 +1751,10 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30">
-        <v>19108008.31</v>
+        <v>4341641.27</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1847,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>18634408.31</v>
+        <v>4339681.27</v>
       </c>
       <c r="H30">
-        <v>0.3030208582995252</v>
+        <v>0.2473188082773646</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1861,10 +1777,10 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D31">
-        <v>4383361.27</v>
+        <v>10140511.85</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1873,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>4289001.27</v>
+        <v>10150111.85</v>
       </c>
       <c r="H31">
-        <v>0.2490739295117998</v>
+        <v>0.5736527918162794</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1887,10 +1803,10 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D32">
-        <v>9934111.85</v>
+        <v>1023358.76</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1899,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>10348111.85</v>
+        <v>1022878.76</v>
       </c>
       <c r="H32">
-        <v>0.5596847119506154</v>
+        <v>0.2976868930194621</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1913,10 +1829,10 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D33">
-        <v>1022878.76</v>
+        <v>1637.84</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1925,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1039078.76</v>
+        <v>1637.84</v>
       </c>
       <c r="H33">
-        <v>0.2929949217708964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1939,10 +1855,10 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D34">
-        <v>1637.84</v>
+        <v>5457324.85</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1951,10 +1867,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1637.84</v>
+        <v>5466924.850000001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.3408213668786757</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1965,10 +1881,10 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D35">
-        <v>5374764.85</v>
+        <v>984479.95</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1977,10 +1893,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>5542284.85</v>
+        <v>987239.9499999995</v>
       </c>
       <c r="H35">
-        <v>0.3343995572511941</v>
+        <v>0.471831797325463</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1991,10 +1907,10 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D36">
-        <v>963839.95</v>
+        <v>1312237.25</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2003,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1004759.949999999</v>
+        <v>1306637.25</v>
       </c>
       <c r="H36">
-        <v>0.4611393995152774</v>
+        <v>0.5084918557158844</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2017,10 +1933,10 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37">
-        <v>1336077.25</v>
+        <v>2818355.62</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2029,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1284557.25</v>
+        <v>2826675.62</v>
       </c>
       <c r="H37">
-        <v>0.5148195613702697</v>
+        <v>0.4394431363864807</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2043,10 +1959,10 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D38">
-        <v>2763315.62</v>
+        <v>17138066.97</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2055,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>2867635.62</v>
+        <v>17033186.97</v>
       </c>
       <c r="H38">
-        <v>0.4308631094490311</v>
+        <v>0.5558504827473276</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2069,10 +1985,10 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D39">
-        <v>17477786.97</v>
+        <v>4778315.970000001</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2081,10 +1997,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>16720826.97</v>
+        <v>4794875.970000001</v>
       </c>
       <c r="H39">
-        <v>0.5635930338199056</v>
+        <v>0.3148516060572888</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2095,10 +2011,10 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D40">
-        <v>2018235.97</v>
+        <v>44802465.71</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2107,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>2138315.97</v>
+        <v>44710705.71</v>
       </c>
       <c r="H40">
-        <v>0.7023583142392189</v>
+        <v>0.2126165679794637</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2121,10 +2037,10 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41">
-        <v>45525580.98</v>
+        <v>7413679.840000001</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2133,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>43895660.98</v>
+        <v>7432999.840000001</v>
       </c>
       <c r="H41">
-        <v>0.4241550527848997</v>
+        <v>0.2906198905555202</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2147,10 +2063,10 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42">
-        <v>7323799.840000001</v>
+        <v>5092906.810000001</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2159,10 +2075,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>7509719.840000001</v>
+        <v>5111826.810000001</v>
       </c>
       <c r="H42">
-        <v>0.286214671891142</v>
+        <v>0.3341221178813762</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2173,10 +2089,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43">
-        <v>5017226.810000001</v>
+        <v>39484060.2</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2185,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>5165946.810000001</v>
+        <v>39232060.19999997</v>
       </c>
       <c r="H43">
-        <v>0.3288637809261532</v>
+        <v>0.5677685618967325</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2199,10 +2115,10 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44">
-        <v>40235020.2</v>
+        <v>4354636.38</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2211,10 +2127,10 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>38511340.2</v>
+        <v>4328716.38</v>
       </c>
       <c r="H44">
-        <v>0.5756733025873779</v>
+        <v>0.4976869378538493</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2225,10 +2141,10 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45">
-        <v>4441756.38</v>
+        <v>2029559.78</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2237,10 +2153,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>4249596.38</v>
+        <v>2034199.78</v>
       </c>
       <c r="H45">
-        <v>0.5044928996292112</v>
+        <v>0.3053198639122849</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2251,22 +2167,22 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D46">
-        <v>2002039.78</v>
+        <v>3292482.17</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>5500000</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>2057399.78</v>
+        <v>8803682.17</v>
       </c>
       <c r="H46">
-        <v>0.3002718314668041</v>
+        <v>0.1763698382128213</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2277,10 +2193,10 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47">
-        <v>3223682.17</v>
+        <v>3072182.78</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2289,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>3356482.17</v>
+        <v>3088582.78</v>
       </c>
       <c r="H47">
-        <v>0.4601388959560599</v>
+        <v>0.5446174248242104</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2303,10 +2219,10 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D48">
-        <v>3003382.78</v>
+        <v>1774952.71</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2315,10 +2231,10 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>3140982.78</v>
+        <v>1783952.71</v>
       </c>
       <c r="H48">
-        <v>0.532684232035172</v>
+        <v>0.435186423747746</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2329,10 +2245,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D49">
-        <v>1740552.71</v>
+        <v>7765694.19</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2341,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>1806752.71</v>
+        <v>7787942.206</v>
       </c>
       <c r="H49">
-        <v>0.4274099027088217</v>
+        <v>0.2990592300756474</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2355,10 +2271,10 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D50">
-        <v>7655614.19</v>
+        <v>1926559.14</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2367,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>7867454.19</v>
+        <v>1932319.14</v>
       </c>
       <c r="H50">
-        <v>0.3140935733875559</v>
+        <v>0.3749873325790273</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2381,10 +2297,10 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D51">
-        <v>1899039.14</v>
+        <v>5039199.439999999</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2393,10 +2309,10 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1953919.14</v>
+        <v>5057239.439999999</v>
       </c>
       <c r="H51">
-        <v>0.3688701263246749</v>
+        <v>0.3377286008036036</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2407,10 +2323,10 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D52">
-        <v>4963519.439999999</v>
+        <v>4465302.36</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2419,10 +2335,10 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>5112679.439999999</v>
+        <v>4480742.36</v>
       </c>
       <c r="H52">
-        <v>0.3322901073570927</v>
+        <v>0.343925152616898</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2433,10 +2349,10 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D53">
-        <v>4402022.36</v>
+        <v>1168518.42</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2445,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>4534262.360000001</v>
+        <v>1173798.42</v>
       </c>
       <c r="H53">
-        <v>0.3381909290312877</v>
+        <v>0.5732146069850734</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2459,10 +2375,10 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D54">
-        <v>1140998.42</v>
+        <v>3814953.09</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2471,10 +2387,10 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>1190118.42</v>
+        <v>3826833.09</v>
       </c>
       <c r="H54">
-        <v>0.5623480728917717</v>
+        <v>0.4564588940564429</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2485,10 +2401,10 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D55">
-        <v>3753033.09</v>
+        <v>1777986.38</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2497,10 +2413,10 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>3863553.09</v>
+        <v>1782066.38</v>
       </c>
       <c r="H55">
-        <v>0.449716610468526</v>
+        <v>0.6099059003627014</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2511,10 +2427,10 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D56">
-        <v>1736706.38</v>
+        <v>3536276.71</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2523,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>1810146.379999999</v>
+        <v>3550196.709999998</v>
       </c>
       <c r="H56">
-        <v>0.5972520299711896</v>
+        <v>0.6560357609029505</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2537,10 +2453,10 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D57">
-        <v>3453716.71</v>
+        <v>4047625.59</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2549,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>3600596.709999998</v>
+        <v>4058065.59</v>
       </c>
       <c r="H57">
-        <v>0.6434133524495725</v>
+        <v>0.4304494250424376</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2563,10 +2479,10 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D58">
-        <v>3985705.59</v>
+        <v>3530102.62</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2575,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>4097665.59</v>
+        <v>3542862.619999998</v>
       </c>
       <c r="H58">
-        <v>0.4240228886027764</v>
+        <v>0.4820888030933586</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2589,10 +2505,10 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D59">
-        <v>3454422.62</v>
+        <v>3697298.14</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2601,10 +2517,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>3592582.62</v>
+        <v>3679618.14</v>
       </c>
       <c r="H59">
-        <v>0.4728889992792984</v>
+        <v>0.7305301522401997</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2615,10 +2531,10 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D60">
-        <v>3771819.31</v>
+        <v>1940798.44</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2627,10 +2543,10 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>3604818.141808002</v>
+        <v>1943198.44</v>
       </c>
       <c r="H60">
-        <v>0.7425894718387643</v>
+        <v>0.3995227579536345</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2641,10 +2557,10 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D61">
-        <v>1920158.44</v>
+        <v>3243590.35</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2653,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>1956878.44</v>
+        <v>3246675.456384</v>
       </c>
       <c r="H61">
-        <v>0.394620321944985</v>
+        <v>0.4304198614161448</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2667,10 +2583,10 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D62">
-        <v>3183707.38</v>
+        <v>4416065.91</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2679,10 +2595,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>3293867.38</v>
+        <v>4426945.91</v>
       </c>
       <c r="H62">
-        <v>0.4219973179369475</v>
+        <v>0.5611829126685669</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2693,10 +2609,10 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D63">
-        <v>4305985.91</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2705,10 +2621,10 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>4501825.91</v>
-      </c>
-      <c r="H63">
-        <v>0.548914340403714</v>
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2719,10 +2635,10 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>5847122.17</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2731,10 +2647,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64" t="s">
-        <v>179</v>
+        <v>5828362.17</v>
+      </c>
+      <c r="H64">
+        <v>0.554113540957253</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2745,10 +2661,10 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D65">
-        <v>6981195.19</v>
+        <v>2149711.81</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2757,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>6704155.19</v>
+        <v>2142031.81</v>
       </c>
       <c r="H65">
-        <v>0.5024418296617624</v>
+        <v>0.7157988937615263</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2771,10 +2687,10 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D66">
-        <v>2197391.81</v>
+        <v>15191571.61</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2783,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>2095631.81</v>
+        <v>15155531.61</v>
       </c>
       <c r="H66">
-        <v>0.7282347942599707</v>
+        <v>0.5365784196335431</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2797,10 +2713,10 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D67">
-        <v>15862456.07</v>
+        <v>8756281.970000001</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2809,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>15224336.07</v>
+        <v>8740281.970000001</v>
       </c>
       <c r="H67">
-        <v>0.4915452184970064</v>
+        <v>0.4385625101291782</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2823,10 +2739,10 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D68">
-        <v>8905281.970000001</v>
+        <v>3562549.54</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2835,10 +2751,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>8578281.970000001</v>
+        <v>3570389.54</v>
       </c>
       <c r="H68">
-        <v>0.4447603859773802</v>
+        <v>0.6479696330277731</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2849,10 +2765,10 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D69">
-        <v>3466709.54</v>
+        <v>3292723.93</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2861,10 +2777,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>3653269.54</v>
+        <v>3292723.93</v>
       </c>
       <c r="H69">
-        <v>0.6301213679404559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2875,10 +2791,10 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D70">
-        <v>3292723.93</v>
+        <v>1314853.94</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2887,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>3292723.93</v>
+        <v>1314853.94</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2901,10 +2817,10 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D71">
-        <v>1314853.94</v>
+        <v>15342218.56</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2913,10 +2829,10 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>1314853.94</v>
+        <v>15289778.56</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>0.5715978662283523</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2927,10 +2843,10 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D72">
-        <v>15672285.8</v>
+        <v>3691952.22</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2939,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>14988085.8</v>
+        <v>3675712.22</v>
       </c>
       <c r="H72">
-        <v>0.5600192120597552</v>
+        <v>0.5839873938770972</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2953,10 +2869,10 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D73">
-        <v>3775392.22</v>
+        <v>2434416.67</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2965,10 +2881,10 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>3602912.22</v>
+        <v>2426016.669999999</v>
       </c>
       <c r="H73">
-        <v>0.593008285947083</v>
+        <v>0.3792053085933662</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2979,10 +2895,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D74">
-        <v>2470176.67</v>
+        <v>2304823.2</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2991,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>2396256.670000001</v>
+        <v>2307543.2</v>
       </c>
       <c r="H74">
-        <v>0.3821240067742825</v>
+        <v>0.1345763754282043</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3005,10 +2921,10 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D75">
-        <v>2291063.2</v>
+        <v>3859494.75</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -3017,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>2316023.2</v>
+        <v>3838821.022932</v>
       </c>
       <c r="H75">
-        <v>0.1333706847150754</v>
+        <v>0.6490414596346591</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3031,10 +2947,10 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D76">
-        <v>4705774.75</v>
+        <v>3328547.63</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -3043,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>4509414.75</v>
+        <v>3312347.63</v>
       </c>
       <c r="H76">
-        <v>0.5870489513079276</v>
+        <v>0.4860381155102371</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3057,10 +2973,10 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D77">
-        <v>3382187.63</v>
+        <v>4524328.04</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -3069,10 +2985,10 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>3271667.63</v>
+        <v>4494896.197552</v>
       </c>
       <c r="H77">
-        <v>0.4897861828342263</v>
+        <v>0.6822044081173746</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3083,10 +2999,10 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D78">
-        <v>4613728.04</v>
+        <v>21234951.32</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3095,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>4433128.04</v>
+        <v>21180071.32</v>
       </c>
       <c r="H78">
-        <v>0.6454719949843812</v>
+        <v>0.2678497496202011</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3109,10 +3025,10 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D79">
-        <v>21453086.96</v>
+        <v>4652943.85</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3121,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>21019646.96</v>
+        <v>4611343.849999996</v>
       </c>
       <c r="H79">
-        <v>0.3267183322854441</v>
+        <v>0.5652471133767224</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3135,10 +3051,10 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D80">
-        <v>4729295.12</v>
+        <v>4372157.279999999</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3147,10 +3063,10 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>4547980.290672</v>
+        <v>4366797.279999999</v>
       </c>
       <c r="H80">
-        <v>0.571049440413528</v>
+        <v>0.1053355973511095</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3161,10 +3077,10 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D81">
-        <v>4343353.98</v>
+        <v>76837854.64</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -3173,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>4355310.028804</v>
+        <v>76059654.64</v>
       </c>
       <c r="H81">
-        <v>0.1060895313867893</v>
+        <v>0.5405088334226994</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3187,10 +3103,10 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D82">
-        <v>78285391.84999999</v>
+        <v>13565265.06</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -3199,10 +3115,10 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>75436408.13473399</v>
+        <v>13415265.06</v>
       </c>
       <c r="H82">
-        <v>0.5426750638350013</v>
+        <v>0.7143280402690755</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3213,10 +3129,10 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D83">
-        <v>13863265.06</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -3225,10 +3141,10 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>13309265.06</v>
-      </c>
-      <c r="H83">
-        <v>0.7166586552300582</v>
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3239,10 +3155,10 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>3135629.82</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3251,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84" t="s">
-        <v>179</v>
+        <v>3106829.82</v>
+      </c>
+      <c r="H84">
+        <v>0.6415681950677298</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3265,10 +3181,10 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D85">
-        <v>3849935.36</v>
+        <v>8112605.029999999</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -3277,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="G85">
-        <v>3716062.502912002</v>
+        <v>8045405.029999999</v>
       </c>
       <c r="H85">
-        <v>0.5342971487815733</v>
+        <v>0.6670172576755903</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3291,10 +3207,10 @@
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D86">
-        <v>8279485.029999999</v>
+        <v>2026660.09</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3303,10 +3219,10 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>7962525.029999999</v>
+        <v>2031540.09</v>
       </c>
       <c r="H86">
-        <v>0.6708163528372608</v>
+        <v>0.1528597941672911</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3317,10 +3233,10 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D87">
-        <v>2012900.09</v>
+        <v>14739168.06</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3329,36 +3245,10 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>2035140.09</v>
+        <v>14647648.06</v>
       </c>
       <c r="H87">
-        <v>0.1517780527825974</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" t="s">
-        <v>95</v>
-      </c>
-      <c r="C88" t="s">
-        <v>178</v>
-      </c>
-      <c r="D88">
-        <v>15001408.06</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>14499808.06</v>
-      </c>
-      <c r="H88">
-        <v>0.4631021853678252</v>
+        <v>0.4605764401469381</v>
       </c>
     </row>
   </sheetData>
@@ -3368,7 +3258,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3391,13 +3281,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3405,19 +3295,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F2">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3425,19 +3315,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" t="s">
         <v>184</v>
       </c>
-      <c r="E3" t="s">
-        <v>187</v>
-      </c>
       <c r="F3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3448,16 +3338,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3465,19 +3355,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F5">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3488,16 +3378,16 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3505,19 +3395,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3525,19 +3415,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3548,16 +3438,16 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F9">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3568,16 +3458,16 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3585,19 +3475,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3608,16 +3498,16 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3625,19 +3515,19 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F13">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3648,16 +3538,16 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3668,16 +3558,16 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F15">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3688,16 +3578,16 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F16">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3705,19 +3595,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3728,16 +3618,16 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3748,16 +3638,16 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3768,16 +3658,16 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F20">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3785,19 +3675,19 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3805,19 +3695,19 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22">
         <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" t="s">
-        <v>184</v>
-      </c>
-      <c r="E22" t="s">
-        <v>187</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3828,16 +3718,16 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E23" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3845,19 +3735,19 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F24">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3865,19 +3755,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F25">
-        <v>109</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3885,19 +3775,19 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F26">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3905,19 +3795,19 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F27">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3925,19 +3815,19 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3948,16 +3838,16 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F29">
-        <v>80</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3968,16 +3858,16 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3988,16 +3878,16 @@
         <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F31">
-        <v>158</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4008,13 +3898,13 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -4025,19 +3915,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
         <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F33">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4045,19 +3935,19 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
         <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F34">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4065,7 +3955,7 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
         <v>123</v>
@@ -4074,10 +3964,10 @@
         <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4085,19 +3975,19 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" t="s">
         <v>184</v>
       </c>
-      <c r="E36" t="s">
-        <v>187</v>
-      </c>
       <c r="F36">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4105,19 +3995,19 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4125,19 +4015,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
         <v>127</v>
       </c>
       <c r="D38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F38">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4145,19 +4035,19 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
         <v>128</v>
       </c>
       <c r="D39" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" t="s">
         <v>184</v>
       </c>
-      <c r="E39" t="s">
-        <v>187</v>
-      </c>
       <c r="F39">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4165,19 +4055,19 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
         <v>129</v>
       </c>
       <c r="D40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4185,19 +4075,19 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
         <v>130</v>
       </c>
       <c r="D41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" t="s">
         <v>184</v>
       </c>
-      <c r="E41" t="s">
-        <v>187</v>
-      </c>
       <c r="F41">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4208,16 +4098,16 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F42">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4228,16 +4118,16 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F43">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4245,19 +4135,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
         <v>132</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4268,16 +4158,16 @@
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F45">
-        <v>122</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4288,16 +4178,16 @@
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" t="s">
+        <v>181</v>
+      </c>
+      <c r="E46" t="s">
         <v>184</v>
       </c>
-      <c r="E46" t="s">
-        <v>187</v>
-      </c>
       <c r="F46">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4305,19 +4195,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
         <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E47" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F47">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4328,16 +4218,16 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D48" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F48">
-        <v>11</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4345,16 +4235,16 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D49" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F49">
         <v>8</v>
@@ -4368,16 +4258,16 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F50">
-        <v>126</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4388,16 +4278,16 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D51" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4408,13 +4298,13 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" t="s">
         <v>184</v>
-      </c>
-      <c r="E52" t="s">
-        <v>186</v>
       </c>
       <c r="F52">
         <v>4</v>
@@ -4425,16 +4315,16 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
         <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E53" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F53">
         <v>10</v>
@@ -4445,19 +4335,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
         <v>137</v>
       </c>
       <c r="D54" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" t="s">
         <v>184</v>
       </c>
-      <c r="E54" t="s">
-        <v>187</v>
-      </c>
       <c r="F54">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4465,19 +4355,19 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
         <v>138</v>
       </c>
       <c r="D55" t="s">
+        <v>181</v>
+      </c>
+      <c r="E55" t="s">
         <v>184</v>
       </c>
-      <c r="E55" t="s">
-        <v>187</v>
-      </c>
       <c r="F55">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4485,19 +4375,19 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
         <v>139</v>
       </c>
       <c r="D56" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" t="s">
         <v>184</v>
       </c>
-      <c r="E56" t="s">
-        <v>187</v>
-      </c>
       <c r="F56">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4505,19 +4395,19 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
         <v>140</v>
       </c>
       <c r="D57" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" t="s">
         <v>184</v>
       </c>
-      <c r="E57" t="s">
-        <v>187</v>
-      </c>
       <c r="F57">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4525,19 +4415,19 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
         <v>141</v>
       </c>
       <c r="D58" t="s">
+        <v>181</v>
+      </c>
+      <c r="E58" t="s">
         <v>184</v>
       </c>
-      <c r="E58" t="s">
-        <v>187</v>
-      </c>
       <c r="F58">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4545,16 +4435,16 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59" t="s">
         <v>142</v>
       </c>
       <c r="D59" t="s">
+        <v>181</v>
+      </c>
+      <c r="E59" t="s">
         <v>184</v>
-      </c>
-      <c r="E59" t="s">
-        <v>187</v>
       </c>
       <c r="F59">
         <v>4</v>
@@ -4568,16 +4458,16 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
+        <v>182</v>
+      </c>
+      <c r="E60" t="s">
         <v>184</v>
       </c>
-      <c r="E60" t="s">
-        <v>187</v>
-      </c>
       <c r="F60">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4588,13 +4478,13 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D61" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" t="s">
         <v>184</v>
-      </c>
-      <c r="E61" t="s">
-        <v>187</v>
       </c>
       <c r="F61">
         <v>4</v>
@@ -4605,19 +4495,19 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
         <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E62" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F62">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4625,19 +4515,19 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C63" t="s">
         <v>145</v>
       </c>
       <c r="D63" t="s">
+        <v>181</v>
+      </c>
+      <c r="E63" t="s">
         <v>184</v>
       </c>
-      <c r="E63" t="s">
-        <v>187</v>
-      </c>
       <c r="F63">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4645,19 +4535,19 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
         <v>146</v>
       </c>
       <c r="D64" t="s">
+        <v>181</v>
+      </c>
+      <c r="E64" t="s">
         <v>184</v>
       </c>
-      <c r="E64" t="s">
-        <v>187</v>
-      </c>
       <c r="F64">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4665,19 +4555,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
         <v>147</v>
       </c>
       <c r="D65" t="s">
+        <v>181</v>
+      </c>
+      <c r="E65" t="s">
         <v>184</v>
       </c>
-      <c r="E65" t="s">
-        <v>187</v>
-      </c>
       <c r="F65">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4685,19 +4575,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C66" t="s">
         <v>148</v>
       </c>
       <c r="D66" t="s">
+        <v>181</v>
+      </c>
+      <c r="E66" t="s">
         <v>184</v>
       </c>
-      <c r="E66" t="s">
-        <v>187</v>
-      </c>
       <c r="F66">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4705,19 +4595,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
         <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E67" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F67">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4728,16 +4618,16 @@
         <v>66</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D68" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F68">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4748,16 +4638,16 @@
         <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D69" t="s">
+        <v>181</v>
+      </c>
+      <c r="E69" t="s">
         <v>184</v>
       </c>
-      <c r="E69" t="s">
-        <v>186</v>
-      </c>
       <c r="F69">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4768,16 +4658,16 @@
         <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D70" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F70">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4788,16 +4678,16 @@
         <v>68</v>
       </c>
       <c r="C71" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D71" t="s">
+        <v>181</v>
+      </c>
+      <c r="E71" t="s">
         <v>184</v>
       </c>
-      <c r="E71" t="s">
-        <v>187</v>
-      </c>
       <c r="F71">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4805,19 +4695,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C72" t="s">
         <v>152</v>
       </c>
       <c r="D72" t="s">
+        <v>181</v>
+      </c>
+      <c r="E72" t="s">
         <v>184</v>
       </c>
-      <c r="E72" t="s">
-        <v>186</v>
-      </c>
       <c r="F72">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4825,19 +4715,19 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D73" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F73">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4845,16 +4735,16 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C74" t="s">
         <v>154</v>
       </c>
       <c r="D74" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E74" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F74">
         <v>16</v>
@@ -4868,16 +4758,16 @@
         <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D75" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F75">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4885,19 +4775,19 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
         <v>156</v>
       </c>
       <c r="D76" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F76">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4908,16 +4798,16 @@
         <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E77" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F77">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4928,16 +4818,16 @@
         <v>74</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D78" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E78" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4945,19 +4835,19 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D79" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E79" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F79">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4968,16 +4858,16 @@
         <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D80" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E80" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F80">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4985,19 +4875,19 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D81" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E81" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F81">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5005,19 +4895,19 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D82" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F82">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5025,19 +4915,19 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
         <v>162</v>
       </c>
       <c r="D83" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E83" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F83">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5045,19 +4935,19 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
         <v>163</v>
       </c>
       <c r="D84" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E84" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F84">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5065,19 +4955,19 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C85" t="s">
         <v>164</v>
       </c>
       <c r="D85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E85" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F85">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5088,16 +4978,16 @@
         <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D86" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E86" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5108,16 +4998,16 @@
         <v>83</v>
       </c>
       <c r="C87" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D87" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E87" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F87">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5125,19 +5015,19 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C88" t="s">
         <v>166</v>
       </c>
       <c r="D88" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5145,16 +5035,16 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C89" t="s">
         <v>167</v>
       </c>
       <c r="D89" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E89" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F89">
         <v>9</v>
@@ -5168,16 +5058,16 @@
         <v>85</v>
       </c>
       <c r="C90" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D90" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F90">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5188,16 +5078,16 @@
         <v>86</v>
       </c>
       <c r="C91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E91" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F91">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5208,16 +5098,16 @@
         <v>86</v>
       </c>
       <c r="C92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D92" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E92" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F92">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5228,16 +5118,16 @@
         <v>87</v>
       </c>
       <c r="C93" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F93">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5245,19 +5135,19 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C94" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5268,16 +5158,16 @@
         <v>88</v>
       </c>
       <c r="C95" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E95" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5285,19 +5175,19 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D96" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E96" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F96">
-        <v>258</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5305,19 +5195,19 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C97" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D97" t="s">
+        <v>181</v>
+      </c>
+      <c r="E97" t="s">
         <v>184</v>
       </c>
-      <c r="E97" t="s">
-        <v>186</v>
-      </c>
       <c r="F97">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5325,16 +5215,16 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C98" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F98">
         <v>50</v>
@@ -5345,19 +5235,19 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D99" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E99" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F99">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5365,19 +5255,19 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C100" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D100" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E100" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F100">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5385,19 +5275,19 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C101" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D101" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E101" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5405,18 +5295,38 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C102" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D102" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E102" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>94</v>
+      </c>
+      <c r="C103" t="s">
+        <v>176</v>
+      </c>
+      <c r="D103" t="s">
+        <v>182</v>
+      </c>
+      <c r="E103" t="s">
+        <v>185</v>
+      </c>
+      <c r="F103">
         <v>44</v>
       </c>
     </row>
@@ -5427,7 +5337,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5450,10 +5360,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5461,16 +5371,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5478,16 +5388,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E3">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5495,16 +5405,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E4">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5512,16 +5422,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5529,134 +5439,15 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E6">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E12">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13">
         <v>-1</v>
       </c>
     </row>
@@ -5667,7 +5458,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5694,22 +5485,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5717,28 +5508,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>6411.8</v>
+        <v>6377.8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5746,28 +5537,28 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="G3" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>6497</v>
+        <v>6455</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5775,28 +5566,28 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F4" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="G4" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>6493.6</v>
+        <v>6462.4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5804,28 +5595,28 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F5" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="G5" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>6496</v>
+        <v>6462</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5833,28 +5624,28 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>6500</v>
+        <v>6467.8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5862,811 +5653,28 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F7" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="G7" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>6422.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" t="s">
-        <v>183</v>
-      </c>
-      <c r="F8" t="s">
-        <v>225</v>
-      </c>
-      <c r="G8" t="s">
-        <v>227</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>6420</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9" t="s">
-        <v>225</v>
-      </c>
-      <c r="G9" t="s">
-        <v>227</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>6418.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" t="s">
-        <v>225</v>
-      </c>
-      <c r="G10" t="s">
-        <v>227</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>6486.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E11" t="s">
-        <v>184</v>
-      </c>
-      <c r="F11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G11" t="s">
-        <v>226</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>6489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" t="s">
-        <v>184</v>
-      </c>
-      <c r="F12" t="s">
-        <v>225</v>
-      </c>
-      <c r="G12" t="s">
-        <v>227</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>6486.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D13" t="s">
-        <v>203</v>
-      </c>
-      <c r="E13" t="s">
-        <v>183</v>
-      </c>
-      <c r="F13" t="s">
-        <v>225</v>
-      </c>
-      <c r="G13" t="s">
-        <v>227</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>6412.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" t="s">
-        <v>183</v>
-      </c>
-      <c r="F14" t="s">
-        <v>225</v>
-      </c>
-      <c r="G14" t="s">
-        <v>227</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>6414.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15" t="s">
-        <v>225</v>
-      </c>
-      <c r="G15" t="s">
-        <v>227</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>6416.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D16" t="s">
-        <v>206</v>
-      </c>
-      <c r="E16" t="s">
-        <v>183</v>
-      </c>
-      <c r="F16" t="s">
-        <v>225</v>
-      </c>
-      <c r="G16" t="s">
-        <v>227</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>6414.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" t="s">
-        <v>225</v>
-      </c>
-      <c r="G17" t="s">
-        <v>227</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>6419</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" t="s">
-        <v>208</v>
-      </c>
-      <c r="E18" t="s">
-        <v>183</v>
-      </c>
-      <c r="F18" t="s">
-        <v>225</v>
-      </c>
-      <c r="G18" t="s">
-        <v>227</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>6418.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D19" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" t="s">
-        <v>184</v>
-      </c>
-      <c r="F19" t="s">
-        <v>225</v>
-      </c>
-      <c r="G19" t="s">
-        <v>226</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>6488.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D20" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" t="s">
-        <v>183</v>
-      </c>
-      <c r="F20" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" t="s">
-        <v>227</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>6418.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" t="s">
-        <v>211</v>
-      </c>
-      <c r="E21" t="s">
-        <v>183</v>
-      </c>
-      <c r="F21" t="s">
-        <v>225</v>
-      </c>
-      <c r="G21" t="s">
-        <v>227</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>6413.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" t="s">
-        <v>212</v>
-      </c>
-      <c r="E22" t="s">
-        <v>183</v>
-      </c>
-      <c r="F22" t="s">
-        <v>225</v>
-      </c>
-      <c r="G22" t="s">
-        <v>227</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>6410.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23" t="s">
-        <v>183</v>
-      </c>
-      <c r="F23" t="s">
-        <v>225</v>
-      </c>
-      <c r="G23" t="s">
-        <v>227</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>6407.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" t="s">
-        <v>214</v>
-      </c>
-      <c r="E24" t="s">
-        <v>183</v>
-      </c>
-      <c r="F24" t="s">
-        <v>225</v>
-      </c>
-      <c r="G24" t="s">
-        <v>227</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>6408.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" t="s">
-        <v>215</v>
-      </c>
-      <c r="E25" t="s">
-        <v>183</v>
-      </c>
-      <c r="F25" t="s">
-        <v>225</v>
-      </c>
-      <c r="G25" t="s">
-        <v>227</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>6413.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" t="s">
-        <v>216</v>
-      </c>
-      <c r="E26" t="s">
-        <v>184</v>
-      </c>
-      <c r="F26" t="s">
-        <v>225</v>
-      </c>
-      <c r="G26" t="s">
-        <v>227</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>6493</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" t="s">
-        <v>172</v>
-      </c>
-      <c r="D27" t="s">
-        <v>217</v>
-      </c>
-      <c r="E27" t="s">
-        <v>184</v>
-      </c>
-      <c r="F27" t="s">
-        <v>225</v>
-      </c>
-      <c r="G27" t="s">
-        <v>227</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>6493.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" t="s">
-        <v>218</v>
-      </c>
-      <c r="E28" t="s">
-        <v>183</v>
-      </c>
-      <c r="F28" t="s">
-        <v>225</v>
-      </c>
-      <c r="G28" t="s">
-        <v>227</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>6422.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" t="s">
-        <v>219</v>
-      </c>
-      <c r="E29" t="s">
-        <v>183</v>
-      </c>
-      <c r="F29" t="s">
-        <v>225</v>
-      </c>
-      <c r="G29" t="s">
-        <v>227</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>6422.4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" t="s">
-        <v>172</v>
-      </c>
-      <c r="D30" t="s">
-        <v>220</v>
-      </c>
-      <c r="E30" t="s">
-        <v>184</v>
-      </c>
-      <c r="F30" t="s">
-        <v>225</v>
-      </c>
-      <c r="G30" t="s">
-        <v>227</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>6498</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" t="s">
-        <v>221</v>
-      </c>
-      <c r="E31" t="s">
-        <v>183</v>
-      </c>
-      <c r="F31" t="s">
-        <v>225</v>
-      </c>
-      <c r="G31" t="s">
-        <v>227</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>6420.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>172</v>
-      </c>
-      <c r="D32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E32" t="s">
-        <v>184</v>
-      </c>
-      <c r="F32" t="s">
-        <v>225</v>
-      </c>
-      <c r="G32" t="s">
-        <v>227</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>6495.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" t="s">
-        <v>172</v>
-      </c>
-      <c r="D33" t="s">
-        <v>222</v>
-      </c>
-      <c r="E33" t="s">
-        <v>184</v>
-      </c>
-      <c r="F33" t="s">
-        <v>225</v>
-      </c>
-      <c r="G33" t="s">
-        <v>227</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>6493</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" t="s">
-        <v>223</v>
-      </c>
-      <c r="E34" t="s">
-        <v>183</v>
-      </c>
-      <c r="F34" t="s">
-        <v>225</v>
-      </c>
-      <c r="G34" t="s">
-        <v>227</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>6422.8</v>
+        <v>6385.6</v>
       </c>
     </row>
   </sheetData>

--- a/info_faccts.xlsx
+++ b/info_faccts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="215">
   <si>
     <t>DataDateTime</t>
   </si>
@@ -43,7 +43,10 @@
     <t>CurrentMarginRate</t>
   </si>
   <si>
-    <t>20200814T093522</t>
+    <t>20200818T094133</t>
+  </si>
+  <si>
+    <t>10_f_xb_3670</t>
   </si>
   <si>
     <t>1101_f_ya_9059</t>
@@ -142,33 +145,12 @@
     <t>602_f_xb_3002</t>
   </si>
   <si>
-    <t>603_f_ya_1556</t>
-  </si>
-  <si>
-    <t>604_f_zx_2686</t>
-  </si>
-  <si>
     <t>605_f_xb_3673</t>
   </si>
   <si>
-    <t>606_f_huat_3509</t>
-  </si>
-  <si>
     <t>608_f_huat_1732</t>
   </si>
   <si>
-    <t>610_f_ya_0590</t>
-  </si>
-  <si>
-    <t>612_f_zx_0008</t>
-  </si>
-  <si>
-    <t>613_f_gf_8771</t>
-  </si>
-  <si>
-    <t>614_f_gtja_3502</t>
-  </si>
-  <si>
     <t>6162_f_sd_0117</t>
   </si>
   <si>
@@ -256,9 +238,6 @@
     <t>8111_f_huat_5696</t>
   </si>
   <si>
-    <t>812_f_fzzq_0006</t>
-  </si>
-  <si>
     <t>813_f_nh_5945</t>
   </si>
   <si>
@@ -304,6 +283,9 @@
     <t>930_f_xy_0810</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>1101</t>
   </si>
   <si>
@@ -394,33 +376,12 @@
     <t>602</t>
   </si>
   <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t>604</t>
-  </si>
-  <si>
     <t>605</t>
   </si>
   <si>
-    <t>606</t>
-  </si>
-  <si>
     <t>608</t>
   </si>
   <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>612</t>
-  </si>
-  <si>
-    <t>613</t>
-  </si>
-  <si>
-    <t>614</t>
-  </si>
-  <si>
     <t>6162</t>
   </si>
   <si>
@@ -502,9 +463,6 @@
     <t>8111</t>
   </si>
   <si>
-    <t>812</t>
-  </si>
-  <si>
     <t>813</t>
   </si>
   <si>
@@ -562,21 +520,21 @@
     <t>Qty</t>
   </si>
   <si>
+    <t>IC2009</t>
+  </si>
+  <si>
     <t>IC2008</t>
   </si>
   <si>
-    <t>IC2009</t>
-  </si>
-  <si>
     <t>IF2008</t>
   </si>
   <si>
+    <t>short</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
     <t>NetQty</t>
   </si>
   <si>
@@ -589,34 +547,121 @@
     <t>Price</t>
   </si>
   <si>
-    <t>09:33:12</t>
-  </si>
-  <si>
-    <t>09:31:02</t>
-  </si>
-  <si>
-    <t>09:31:29</t>
-  </si>
-  <si>
-    <t>09:31:30</t>
-  </si>
-  <si>
-    <t>09:30:36</t>
-  </si>
-  <si>
-    <t>09:32:41</t>
+    <t>09:39:41</t>
+  </si>
+  <si>
+    <t>09:38:22</t>
+  </si>
+  <si>
+    <t>09:38:32</t>
+  </si>
+  <si>
+    <t>09:38:27</t>
+  </si>
+  <si>
+    <t>09:38:34</t>
+  </si>
+  <si>
+    <t>09:30:14</t>
+  </si>
+  <si>
+    <t>09:34:35</t>
+  </si>
+  <si>
+    <t>09:34:30</t>
+  </si>
+  <si>
+    <t>09:34:00</t>
+  </si>
+  <si>
+    <t>09:33:40</t>
+  </si>
+  <si>
+    <t>09:33:35</t>
+  </si>
+  <si>
+    <t>09:33:27</t>
+  </si>
+  <si>
+    <t>09:33:17</t>
+  </si>
+  <si>
+    <t>09:33:09</t>
+  </si>
+  <si>
+    <t>09:33:01</t>
+  </si>
+  <si>
+    <t>09:32:54</t>
+  </si>
+  <si>
+    <t>09:32:45</t>
+  </si>
+  <si>
+    <t>09:32:22</t>
+  </si>
+  <si>
+    <t>09:32:05</t>
+  </si>
+  <si>
+    <t>09:31:56</t>
+  </si>
+  <si>
+    <t>09:31:49</t>
+  </si>
+  <si>
+    <t>09:31:42</t>
+  </si>
+  <si>
+    <t>09:31:34</t>
+  </si>
+  <si>
+    <t>09:31:00</t>
+  </si>
+  <si>
+    <t>09:30:39</t>
+  </si>
+  <si>
+    <t>09:30:31</t>
+  </si>
+  <si>
+    <t>09:30:25</t>
+  </si>
+  <si>
+    <t>09:37:09</t>
+  </si>
+  <si>
+    <t>09:37:22</t>
+  </si>
+  <si>
+    <t>09:37:17</t>
+  </si>
+  <si>
+    <t>09:37:12</t>
+  </si>
+  <si>
+    <t>09:37:24</t>
+  </si>
+  <si>
+    <t>09:37:58</t>
+  </si>
+  <si>
+    <t>09:38:24</t>
+  </si>
+  <si>
+    <t>09:38:19</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>sell</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>close</t>
   </si>
   <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>close</t>
   </si>
 </sst>
 </file>
@@ -974,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1023,10 +1068,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D2">
-        <v>1549178.61</v>
+        <v>16384560</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1035,10 +1080,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1549178.61</v>
+        <v>15411120</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.8715160481522439</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1049,10 +1094,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>4202021.93</v>
+        <v>1549178.61</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1061,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4199701.93</v>
+        <v>1549178.61</v>
       </c>
       <c r="H3">
-        <v>0.4404209705425452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1075,10 +1120,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>11636354.34</v>
+        <v>4765901.93</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1087,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>11610554.33999999</v>
+        <v>4916741.93</v>
       </c>
       <c r="H4">
-        <v>0.7593322197913253</v>
+        <v>0.3899538408354086</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1101,10 +1146,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>3366234.94</v>
+        <v>9629876.82</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1113,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3373714.94</v>
+        <v>9077756.82</v>
       </c>
       <c r="H5">
-        <v>0.4999208380065448</v>
+        <v>0.9411369096357881</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1127,10 +1172,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>3881474.94</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1139,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>4021834.940000002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4347317147729586</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1153,10 +1198,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>13461468.55</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1165,10 +1210,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>13417588.55</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>0.5495231257482556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1179,10 +1224,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D8">
-        <v>8146365.7</v>
+        <v>11210628.55</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1191,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8157165.7</v>
+        <v>10595468.55</v>
       </c>
       <c r="H8">
-        <v>0.2855227030633936</v>
+        <v>0.7213815947761938</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1205,10 +1250,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D9">
-        <v>2612516.37</v>
+        <v>8854365.699999999</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1217,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2598476.37</v>
+        <v>9047565.699999999</v>
       </c>
       <c r="H9">
-        <v>0.5310564359682824</v>
+        <v>0.2668138679556645</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1231,10 +1276,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D10">
-        <v>1001</v>
+        <v>2190956.37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1243,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1001</v>
+        <v>2072156.37</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.6903556221483419</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1257,10 +1302,10 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D11">
-        <v>3485174.2</v>
+        <v>1001</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1269,10 +1314,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3462814.200000002</v>
+        <v>1001</v>
       </c>
       <c r="H11">
-        <v>0.5756136728329225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1283,10 +1328,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D12">
-        <v>5869593.029999999</v>
+        <v>2876254.2</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1295,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5831993.029999999</v>
+        <v>2704654.2</v>
       </c>
       <c r="H12">
-        <v>0.5790591282651103</v>
+        <v>0.7639843940123656</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1309,10 +1354,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D13">
-        <v>10595252.56</v>
+        <v>4838393.029999999</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1321,10 +1366,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>10544492.56</v>
+        <v>4549714.290496799</v>
       </c>
       <c r="H13">
-        <v>0.3926042696169344</v>
+        <v>0.7340853044280519</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1335,22 +1380,22 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D14">
-        <v>19344336.32</v>
+        <v>9330572.559999999</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3600000</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>15629656.32</v>
+        <v>8973092.559999999</v>
       </c>
       <c r="H14">
-        <v>0.5984079373538016</v>
+        <v>0.4782714957305648</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1361,10 +1406,10 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D15">
-        <v>4074099.62</v>
+        <v>12908224.04</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1373,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4048499.62</v>
+        <v>12104224.04</v>
       </c>
       <c r="H15">
-        <v>0.4937817432720915</v>
+        <v>0.7878928850361895</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1387,10 +1432,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D16">
-        <v>1621449.4</v>
+        <v>3449384.23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1399,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1610049.4</v>
+        <v>3275144.23</v>
       </c>
       <c r="H16">
-        <v>0.5158338619920606</v>
+        <v>0.6321211692103098</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1413,10 +1458,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D17">
-        <v>4156654.02</v>
+        <v>1387249.4</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4132654.019999999</v>
+        <v>1318649.4</v>
       </c>
       <c r="H17">
-        <v>0.4452143322658306</v>
+        <v>0.6529135037713589</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1439,10 +1484,10 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D18">
-        <v>1080906.46</v>
+        <v>3594574.02</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1451,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1093906.46</v>
+        <v>3429454.019999999</v>
       </c>
       <c r="H18">
-        <v>0.7097060200192986</v>
+        <v>0.5561720288059149</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1465,10 +1510,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>7616906.459999999</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1477,10 +1522,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>7683306.459999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.1047299107733365</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1491,10 +1536,10 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D20">
-        <v>8031005.37</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1503,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>7960365.37</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>0.558819776886698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1517,10 +1562,10 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D21">
-        <v>30230615.06</v>
+        <v>6672285.37</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1529,10 +1574,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>30107655.06</v>
+        <v>6251066.33736</v>
       </c>
       <c r="H21">
-        <v>0.2953711002161324</v>
+        <v>0.8145201034853095</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1543,10 +1588,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D22">
-        <v>10280534.25</v>
+        <v>27659677.48</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1555,10 +1600,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>10204214.25</v>
+        <v>26901517.48</v>
       </c>
       <c r="H22">
-        <v>0.5409285090226326</v>
+        <v>0.319058164892786</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1569,10 +1614,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D23">
-        <v>4475071.2</v>
+        <v>8594294.25</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1581,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4445671.101847196</v>
+        <v>8088854.25</v>
       </c>
       <c r="H23">
-        <v>0.6351078015705732</v>
+        <v>0.7074054029345385</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1595,10 +1640,10 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D24">
-        <v>4522815.029999999</v>
+        <v>3656562.83</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1607,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4522815.029999999</v>
+        <v>3412887.315856799</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.9081666381422507</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1621,10 +1666,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D25">
-        <v>1818387.15</v>
+        <v>4522815.029999999</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1633,10 +1678,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1817787.15</v>
+        <v>4522815.029999999</v>
       </c>
       <c r="H25">
-        <v>0.08434782917240891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1647,10 +1692,10 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D26">
-        <v>25320983.58</v>
+        <v>1771547.15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1659,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>25298583.58</v>
+        <v>1757347.15</v>
       </c>
       <c r="H26">
-        <v>0.4848537057899594</v>
+        <v>0.09044724031902292</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1673,10 +1718,10 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D27">
-        <v>50960873.46</v>
+        <v>21573783.58</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1685,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>50986313.46</v>
+        <v>20437783.58</v>
       </c>
       <c r="H27">
-        <v>0.4812293797089121</v>
+        <v>0.6221700092980429</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1699,10 +1744,10 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D28">
-        <v>8585823.66</v>
+        <v>43465753.46</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1711,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>8590783.66</v>
+        <v>41169513.46</v>
       </c>
       <c r="H28">
-        <v>0.5535074084265786</v>
+        <v>0.6178243137294519</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1725,10 +1770,10 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D29">
-        <v>18670111.51</v>
+        <v>7133423.659999999</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1737,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>18670231.51</v>
+        <v>6687783.659999999</v>
       </c>
       <c r="H29">
-        <v>0.008212345943213215</v>
+        <v>0.7370678614325875</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1751,10 +1796,10 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D30">
-        <v>4341641.27</v>
+        <v>1060.51</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1763,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>4339681.27</v>
+        <v>1060.51</v>
       </c>
       <c r="H30">
-        <v>0.2473188082773646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1777,10 +1822,10 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D31">
-        <v>10140511.85</v>
+        <v>4013761.27</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1789,10 +1834,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>10150111.85</v>
+        <v>3912401.27</v>
       </c>
       <c r="H31">
-        <v>0.5736527918162794</v>
+        <v>0.2843855533254133</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1803,10 +1848,10 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D32">
-        <v>1023358.76</v>
+        <v>11556511.85</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1815,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1022878.76</v>
+        <v>11969311.85</v>
       </c>
       <c r="H32">
-        <v>0.2976868930194621</v>
+        <v>0.5042094379051542</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1829,10 +1874,10 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D33">
-        <v>1637.84</v>
+        <v>1141078.76</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1841,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1637.84</v>
+        <v>1149598.76</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>0.2761370410663978</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1855,10 +1900,10 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D34">
-        <v>5457324.85</v>
+        <v>1637.84</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1867,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>5466924.850000001</v>
+        <v>1637.84</v>
       </c>
       <c r="H34">
-        <v>0.3408213668786757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1881,10 +1926,10 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D35">
-        <v>984479.95</v>
+        <v>1124877.25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1893,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>987239.9499999995</v>
+        <v>1067597.25</v>
       </c>
       <c r="H35">
-        <v>0.471831797325463</v>
+        <v>0.6451601481738549</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1907,10 +1952,10 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D36">
-        <v>1312237.25</v>
+        <v>14468186.97</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1919,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1306637.25</v>
+        <v>13654226.97</v>
       </c>
       <c r="H36">
-        <v>0.5084918557158844</v>
+        <v>0.7188242601770667</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1933,10 +1978,10 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D37">
-        <v>2818355.62</v>
+        <v>33594527.07</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1945,10 +1990,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>2826675.62</v>
+        <v>31567327.07</v>
       </c>
       <c r="H37">
-        <v>0.4394431363864807</v>
+        <v>0.7636690919868896</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1959,10 +2004,10 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D38">
-        <v>17138066.97</v>
+        <v>3686689.25</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1971,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>17033186.97</v>
+        <v>3686689.25</v>
       </c>
       <c r="H38">
-        <v>0.5558504827473276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1985,10 +2030,10 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D39">
-        <v>4778315.970000001</v>
+        <v>2218359.78</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1997,10 +2042,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>4794875.970000001</v>
+        <v>2273239.78</v>
       </c>
       <c r="H39">
-        <v>0.3148516060572888</v>
+        <v>0.2831806858491628</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2011,10 +2056,10 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D40">
-        <v>44802465.71</v>
+        <v>9904176.33</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2023,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>44710705.71</v>
+        <v>9827212.585953997</v>
       </c>
       <c r="H40">
-        <v>0.2126165679794637</v>
+        <v>0.4094100910924196</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2037,10 +2082,10 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D41">
-        <v>7413679.840000001</v>
+        <v>3544182.78</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2049,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>7432999.840000001</v>
+        <v>3681382.78</v>
       </c>
       <c r="H41">
-        <v>0.2906198905555202</v>
+        <v>0.4735872644028613</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2063,10 +2108,10 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D42">
-        <v>5092906.810000001</v>
+        <v>2010952.71</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2075,10 +2120,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>5111826.810000001</v>
+        <v>2081952.71</v>
       </c>
       <c r="H42">
-        <v>0.3341221178813762</v>
+        <v>0.3864986923742374</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2089,10 +2134,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D43">
-        <v>39484060.2</v>
+        <v>8470742.209999999</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2101,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>39232060.19999997</v>
+        <v>8683742.209999999</v>
       </c>
       <c r="H43">
-        <v>0.5677685618967325</v>
+        <v>0.2779925913991406</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2115,10 +2160,10 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D44">
-        <v>4354636.38</v>
+        <v>2115359.14</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2127,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>4328716.38</v>
+        <v>2172159.14</v>
       </c>
       <c r="H44">
-        <v>0.4976869378538493</v>
+        <v>0.3457514627588475</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2141,10 +2186,10 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D45">
-        <v>2029559.78</v>
+        <v>5558399.439999999</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2153,10 +2198,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>2034199.78</v>
+        <v>5714599.440000001</v>
       </c>
       <c r="H45">
-        <v>0.3053198639122849</v>
+        <v>0.3097817123644276</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2167,22 +2212,22 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D46">
-        <v>3292482.17</v>
+        <v>4935142.36</v>
       </c>
       <c r="E46">
-        <v>5500000</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>8803682.17</v>
+        <v>5078582.36</v>
       </c>
       <c r="H46">
-        <v>0.1763698382128213</v>
+        <v>0.314540690051938</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2193,10 +2238,10 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D47">
-        <v>3072182.78</v>
+        <v>1357318.42</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2205,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>3088582.78</v>
+        <v>1412998.42</v>
       </c>
       <c r="H47">
-        <v>0.5446174248242104</v>
+        <v>0.4935478979516482</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2219,10 +2264,10 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D48">
-        <v>1774952.71</v>
+        <v>4239753.09</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2231,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>1783952.71</v>
+        <v>4362513.09</v>
       </c>
       <c r="H48">
-        <v>0.435186423747746</v>
+        <v>0.4150158320785692</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2245,10 +2290,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D49">
-        <v>7765694.19</v>
+        <v>2061186.38</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2257,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>7787942.206</v>
+        <v>2143026.380000001</v>
       </c>
       <c r="H49">
-        <v>0.2990592300756474</v>
+        <v>0.5256775233910091</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2271,10 +2316,10 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D50">
-        <v>1926559.14</v>
+        <v>4102676.71</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2283,10 +2328,10 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1932319.14</v>
+        <v>4268276.710000002</v>
       </c>
       <c r="H50">
-        <v>0.3749873325790273</v>
+        <v>0.565571579355266</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2297,10 +2342,10 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D51">
-        <v>5039199.439999999</v>
+        <v>4472425.59</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2309,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>5057239.439999999</v>
+        <v>4596625.59</v>
       </c>
       <c r="H51">
-        <v>0.3377286008036036</v>
+        <v>0.393878501642332</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2323,10 +2368,10 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D52">
-        <v>4465302.36</v>
+        <v>4049302.62</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2335,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>4480742.36</v>
+        <v>4175727.9257044</v>
       </c>
       <c r="H52">
-        <v>0.343925152616898</v>
+        <v>0.2697830941200425</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2349,10 +2394,10 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D53">
-        <v>1168518.42</v>
+        <v>3040818.14</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2361,10 +2406,10 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>1173798.42</v>
+        <v>2849218.139999998</v>
       </c>
       <c r="H53">
-        <v>0.5732146069850734</v>
+        <v>0.9780030391074241</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2375,10 +2420,10 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D54">
-        <v>3814953.09</v>
+        <v>1182398.44</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2387,10 +2432,10 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>3826833.09</v>
+        <v>1221878.44</v>
       </c>
       <c r="H54">
-        <v>0.4564588940564429</v>
+        <v>0.658553235459331</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2401,10 +2446,10 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D55">
-        <v>1777986.38</v>
+        <v>3584711.86</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2413,10 +2458,10 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>1782066.38</v>
+        <v>3648072.79564</v>
       </c>
       <c r="H55">
-        <v>0.6099059003627014</v>
+        <v>0.1759149106802334</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2427,10 +2472,10 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D56">
-        <v>3536276.71</v>
+        <v>5171265.91</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2439,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>3550196.709999998</v>
+        <v>5390145.91</v>
       </c>
       <c r="H56">
-        <v>0.6560357609029505</v>
+        <v>0.4777144149702618</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2453,10 +2498,10 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D57">
-        <v>4047625.59</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2465,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>4058065.59</v>
-      </c>
-      <c r="H57">
-        <v>0.4304494250424376</v>
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2479,10 +2524,10 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D58">
-        <v>3530102.62</v>
+        <v>4861682.17</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2491,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>3542862.619999998</v>
+        <v>4565607.696944001</v>
       </c>
       <c r="H58">
-        <v>0.4820888030933586</v>
+        <v>0.7687462070710299</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2505,10 +2550,10 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D59">
-        <v>3697298.14</v>
+        <v>1774991.81</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2517,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>3679618.14</v>
+        <v>1664911.81</v>
       </c>
       <c r="H59">
-        <v>0.7305301522401997</v>
+        <v>0.9546884047870379</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2531,10 +2576,10 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D60">
-        <v>1940798.44</v>
+        <v>12672967.5</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2543,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>1943198.44</v>
+        <v>12022087.49999999</v>
       </c>
       <c r="H60">
-        <v>0.3995227579536345</v>
+        <v>0.6346207012717227</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2557,10 +2602,10 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D61">
-        <v>3243590.35</v>
+        <v>7585281.970000001</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2569,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>3246675.456384</v>
+        <v>7236281.970000001</v>
       </c>
       <c r="H61">
-        <v>0.4304198614161448</v>
+        <v>0.5491328304333616</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2583,10 +2628,10 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D62">
-        <v>4416065.91</v>
+        <v>4267669.54</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2595,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>4426945.91</v>
+        <v>4472589.54</v>
       </c>
       <c r="H62">
-        <v>0.5611829126685669</v>
+        <v>0.536181194038208</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2609,10 +2654,10 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>3292723.93</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2621,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63" t="s">
-        <v>177</v>
+        <v>3292723.93</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2635,10 +2680,10 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D64">
-        <v>5847122.17</v>
+        <v>1314853.94</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2647,10 +2692,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>5828362.17</v>
+        <v>1314853.94</v>
       </c>
       <c r="H64">
-        <v>0.554113540957253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2661,10 +2706,10 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D65">
-        <v>2149711.81</v>
+        <v>12672338.56</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2673,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>2142031.81</v>
+        <v>11894579.092656</v>
       </c>
       <c r="H65">
-        <v>0.7157988937615263</v>
+        <v>0.8020698442276452</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2687,10 +2732,10 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D66">
-        <v>15191571.61</v>
+        <v>2153376.67</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2699,10 +2744,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>15155531.61</v>
+        <v>2072016.669999999</v>
       </c>
       <c r="H66">
-        <v>0.5365784196335431</v>
+        <v>0.4602681116460325</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2713,10 +2758,10 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D67">
-        <v>8756281.970000001</v>
+        <v>2399223.2</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2725,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>8740281.970000001</v>
+        <v>2425223.2</v>
       </c>
       <c r="H67">
-        <v>0.4385625101291782</v>
+        <v>0.1327171866078141</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2739,10 +2784,10 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D68">
-        <v>3562549.54</v>
+        <v>3157220.94</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2751,10 +2796,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>3570389.54</v>
+        <v>2962220.94</v>
       </c>
       <c r="H68">
-        <v>0.6479696330277731</v>
+        <v>0.8719444134373042</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2765,10 +2810,10 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D69">
-        <v>3292723.93</v>
+        <v>2906987.63</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2777,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>3292723.93</v>
+        <v>2789267.63</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>0.598345451705543</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2791,10 +2836,10 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D70">
-        <v>1314853.94</v>
+        <v>3774256.2</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2803,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>1314853.94</v>
+        <v>3564976.2</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>0.8917153500211306</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2817,10 +2862,10 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D71">
-        <v>15342218.56</v>
+        <v>19680439.86</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2829,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>15289778.56</v>
+        <v>19158839.86</v>
       </c>
       <c r="H71">
-        <v>0.5715978662283523</v>
+        <v>0.381629120209161</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2843,10 +2888,10 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D72">
-        <v>3691952.22</v>
+        <v>3903503.85</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2855,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>3675712.22</v>
+        <v>3694223.85</v>
       </c>
       <c r="H72">
-        <v>0.5839873938770972</v>
+        <v>0.7314398124520798</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2869,10 +2914,10 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D73">
-        <v>2434416.67</v>
+        <v>4278477.279999999</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2881,10 +2926,10 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>2426016.669999999</v>
+        <v>4252877.279999999</v>
       </c>
       <c r="H73">
-        <v>0.3792053085933662</v>
+        <v>0.1121221160653853</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2895,10 +2940,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="D74">
-        <v>2304823.2</v>
+        <v>64374008.01000001</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2907,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>2307543.2</v>
+        <v>61104008.01000001</v>
       </c>
       <c r="H74">
-        <v>0.1345763754282043</v>
+        <v>0.6529479112641927</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2921,10 +2966,10 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D75">
-        <v>3859494.75</v>
+        <v>11223952.09</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2933,10 +2978,10 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>3838821.022932</v>
+        <v>10577152.09</v>
       </c>
       <c r="H75">
-        <v>0.6490414596346591</v>
+        <v>0.9204288561950705</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2947,10 +2992,10 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D76">
-        <v>3328547.63</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2959,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>3312347.63</v>
-      </c>
-      <c r="H76">
-        <v>0.4860381155102371</v>
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2973,10 +3018,10 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D77">
-        <v>4524328.04</v>
+        <v>3273549.82</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2985,10 +3030,10 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <v>4494896.197552</v>
+        <v>3117069.82</v>
       </c>
       <c r="H77">
-        <v>0.6822044081173746</v>
+        <v>0.6629025717492589</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2999,10 +3044,10 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D78">
-        <v>21234951.32</v>
+        <v>6801085.029999999</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -3011,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>21180071.32</v>
+        <v>6434845.029999999</v>
       </c>
       <c r="H78">
-        <v>0.2678497496202011</v>
+        <v>0.8645355053717588</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3025,10 +3070,10 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D79">
-        <v>4652943.85</v>
+        <v>2121060.09</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -3037,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>4611343.849999996</v>
+        <v>2147300.09</v>
       </c>
       <c r="H79">
-        <v>0.5652471133767224</v>
+        <v>0.149894652125684</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3051,10 +3096,10 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D80">
-        <v>4372157.279999999</v>
+        <v>12615273.69</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3063,192 +3108,10 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>4366797.279999999</v>
+        <v>11980913.69000001</v>
       </c>
       <c r="H80">
-        <v>0.1053355973511095</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" t="s">
-        <v>88</v>
-      </c>
-      <c r="C81" t="s">
-        <v>170</v>
-      </c>
-      <c r="D81">
-        <v>76837854.64</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>76059654.64</v>
-      </c>
-      <c r="H81">
-        <v>0.5405088334226994</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82" t="s">
-        <v>171</v>
-      </c>
-      <c r="D82">
-        <v>13565265.06</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>13415265.06</v>
-      </c>
-      <c r="H82">
-        <v>0.7143280402690755</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C83" t="s">
-        <v>172</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84" t="s">
-        <v>173</v>
-      </c>
-      <c r="D84">
-        <v>3135629.82</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>3106829.82</v>
-      </c>
-      <c r="H84">
-        <v>0.6415681950677298</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" t="s">
-        <v>92</v>
-      </c>
-      <c r="C85" t="s">
-        <v>174</v>
-      </c>
-      <c r="D85">
-        <v>8112605.029999999</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>8045405.029999999</v>
-      </c>
-      <c r="H85">
-        <v>0.6670172576755903</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" t="s">
-        <v>93</v>
-      </c>
-      <c r="C86" t="s">
-        <v>175</v>
-      </c>
-      <c r="D86">
-        <v>2026660.09</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>2031540.09</v>
-      </c>
-      <c r="H86">
-        <v>0.1528597941672911</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" t="s">
-        <v>94</v>
-      </c>
-      <c r="C87" t="s">
-        <v>176</v>
-      </c>
-      <c r="D87">
-        <v>14739168.06</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>14647648.06</v>
-      </c>
-      <c r="H87">
-        <v>0.4605764401469381</v>
+        <v>0.6240325398755128</v>
       </c>
     </row>
   </sheetData>
@@ -3258,7 +3121,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3281,13 +3144,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3295,19 +3158,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3315,19 +3178,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3338,16 +3201,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F4">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3355,19 +3218,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3375,16 +3238,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F6">
         <v>11</v>
@@ -3395,16 +3258,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -3415,16 +3278,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F8">
         <v>41</v>
@@ -3435,16 +3298,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -3455,16 +3318,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E10" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -3475,16 +3338,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F11">
         <v>13</v>
@@ -3495,16 +3358,16 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -3515,19 +3378,19 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E13" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3535,16 +3398,16 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E14" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F14">
         <v>27</v>
@@ -3555,19 +3418,19 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E15" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F15">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3575,19 +3438,19 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E16" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3595,19 +3458,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3615,16 +3478,16 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -3635,16 +3498,16 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F19">
         <v>12</v>
@@ -3655,16 +3518,16 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -3675,16 +3538,16 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E21" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3695,19 +3558,19 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E22" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F22">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3715,19 +3578,19 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F23">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3735,16 +3598,16 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E24" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F24">
         <v>36</v>
@@ -3755,19 +3618,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E25" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F25">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3775,19 +3638,19 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E26" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3798,16 +3661,16 @@
         <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E27" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F27">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3818,16 +3681,16 @@
         <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E28" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F28">
-        <v>158</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3835,16 +3698,16 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E29" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -3858,16 +3721,16 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E30" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3875,19 +3738,19 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E31" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F31">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3898,16 +3761,16 @@
         <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E32" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3915,16 +3778,16 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E33" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F33">
         <v>7</v>
@@ -3935,16 +3798,16 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E34" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F34">
         <v>30</v>
@@ -3955,16 +3818,16 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="E35" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -3975,19 +3838,19 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E36" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F36">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3995,19 +3858,19 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E37" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4015,19 +3878,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E38" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4035,19 +3898,19 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E39" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F39">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4055,19 +3918,19 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E40" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F40">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4075,19 +3938,19 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E41" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F41">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4095,19 +3958,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E42" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4115,19 +3978,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E43" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F43">
-        <v>62</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4135,19 +3998,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E44" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F44">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4155,19 +4018,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E45" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F45">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4175,16 +4038,16 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E46" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F46">
         <v>11</v>
@@ -4195,19 +4058,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D47" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E47" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F47">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4215,19 +4078,19 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D48" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E48" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F48">
-        <v>126</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4235,19 +4098,19 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D49" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E49" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F49">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4255,19 +4118,19 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D50" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E50" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4275,19 +4138,19 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D51" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E51" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F51">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4295,19 +4158,19 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E52" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4315,19 +4178,19 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D53" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E53" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4335,19 +4198,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D54" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E54" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F54">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4355,19 +4218,19 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D55" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E55" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4375,19 +4238,19 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D56" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E56" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F56">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4395,16 +4258,16 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D57" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E57" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F57">
         <v>4</v>
@@ -4415,19 +4278,19 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D58" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E58" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F58">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4435,19 +4298,19 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D59" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E59" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4455,19 +4318,19 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D60" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E60" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F60">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4475,19 +4338,19 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D61" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E61" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F61">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4495,19 +4358,19 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D62" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E62" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F62">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4515,19 +4378,19 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D63" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E63" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4535,19 +4398,19 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D64" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E64" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F64">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4555,19 +4418,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D65" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E65" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F65">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4575,19 +4438,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D66" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E66" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F66">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4595,19 +4458,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D67" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E67" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4615,19 +4478,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D68" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E68" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F68">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4635,19 +4498,19 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D69" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4655,19 +4518,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D70" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E70" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4675,19 +4538,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D71" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E71" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F71">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4695,19 +4558,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D72" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E72" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F72">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4715,19 +4578,19 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D73" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E73" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F73">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4735,16 +4598,16 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D74" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E74" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F74">
         <v>16</v>
@@ -4755,19 +4618,19 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D75" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E75" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F75">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4775,19 +4638,19 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D76" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E76" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4795,19 +4658,19 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D77" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E77" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F77">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4815,19 +4678,19 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D78" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E78" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F78">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4835,19 +4698,19 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D79" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E79" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F79">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4855,19 +4718,19 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D80" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E80" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F80">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4875,19 +4738,19 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D81" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E81" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F81">
-        <v>57</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4895,19 +4758,19 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D82" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E82" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F82">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4915,19 +4778,19 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D83" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E83" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F83">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4935,19 +4798,19 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C84" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D84" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E84" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4955,19 +4818,19 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C85" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D85" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E85" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F85">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4975,19 +4838,19 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C86" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D86" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E86" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4995,19 +4858,19 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D87" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="E87" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F87">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5015,19 +4878,19 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C88" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D88" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E88" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="F88">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5035,19 +4898,19 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C89" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D89" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E89" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F89">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5055,278 +4918,18 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C90" t="s">
+        <v>162</v>
+      </c>
+      <c r="D90" t="s">
         <v>167</v>
       </c>
-      <c r="D90" t="s">
-        <v>182</v>
-      </c>
       <c r="E90" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F90">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>8</v>
-      </c>
-      <c r="B91" t="s">
-        <v>86</v>
-      </c>
-      <c r="C91" t="s">
-        <v>168</v>
-      </c>
-      <c r="D91" t="s">
-        <v>182</v>
-      </c>
-      <c r="E91" t="s">
-        <v>184</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>8</v>
-      </c>
-      <c r="B92" t="s">
-        <v>86</v>
-      </c>
-      <c r="C92" t="s">
-        <v>168</v>
-      </c>
-      <c r="D92" t="s">
-        <v>182</v>
-      </c>
-      <c r="E92" t="s">
-        <v>185</v>
-      </c>
-      <c r="F92">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" t="s">
-        <v>87</v>
-      </c>
-      <c r="C93" t="s">
-        <v>169</v>
-      </c>
-      <c r="D93" t="s">
-        <v>182</v>
-      </c>
-      <c r="E93" t="s">
-        <v>184</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" t="s">
-        <v>87</v>
-      </c>
-      <c r="C94" t="s">
-        <v>169</v>
-      </c>
-      <c r="D94" t="s">
-        <v>182</v>
-      </c>
-      <c r="E94" t="s">
-        <v>185</v>
-      </c>
-      <c r="F94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>8</v>
-      </c>
-      <c r="B95" t="s">
-        <v>88</v>
-      </c>
-      <c r="C95" t="s">
-        <v>170</v>
-      </c>
-      <c r="D95" t="s">
-        <v>182</v>
-      </c>
-      <c r="E95" t="s">
-        <v>185</v>
-      </c>
-      <c r="F95">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" t="s">
-        <v>88</v>
-      </c>
-      <c r="C96" t="s">
-        <v>170</v>
-      </c>
-      <c r="D96" t="s">
-        <v>181</v>
-      </c>
-      <c r="E96" t="s">
-        <v>185</v>
-      </c>
-      <c r="F96">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
-        <v>8</v>
-      </c>
-      <c r="B97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C97" t="s">
-        <v>170</v>
-      </c>
-      <c r="D97" t="s">
-        <v>181</v>
-      </c>
-      <c r="E97" t="s">
-        <v>184</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
-        <v>8</v>
-      </c>
-      <c r="B98" t="s">
-        <v>89</v>
-      </c>
-      <c r="C98" t="s">
-        <v>171</v>
-      </c>
-      <c r="D98" t="s">
-        <v>182</v>
-      </c>
-      <c r="E98" t="s">
-        <v>185</v>
-      </c>
-      <c r="F98">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" t="s">
-        <v>91</v>
-      </c>
-      <c r="C99" t="s">
-        <v>173</v>
-      </c>
-      <c r="D99" t="s">
-        <v>182</v>
-      </c>
-      <c r="E99" t="s">
-        <v>184</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" t="s">
-        <v>91</v>
-      </c>
-      <c r="C100" t="s">
-        <v>173</v>
-      </c>
-      <c r="D100" t="s">
-        <v>182</v>
-      </c>
-      <c r="E100" t="s">
-        <v>185</v>
-      </c>
-      <c r="F100">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" t="s">
-        <v>92</v>
-      </c>
-      <c r="C101" t="s">
-        <v>174</v>
-      </c>
-      <c r="D101" t="s">
-        <v>182</v>
-      </c>
-      <c r="E101" t="s">
-        <v>185</v>
-      </c>
-      <c r="F101">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" t="s">
-        <v>93</v>
-      </c>
-      <c r="C102" t="s">
-        <v>175</v>
-      </c>
-      <c r="D102" t="s">
-        <v>181</v>
-      </c>
-      <c r="E102" t="s">
-        <v>184</v>
-      </c>
-      <c r="F102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
-        <v>8</v>
-      </c>
-      <c r="B103" t="s">
-        <v>94</v>
-      </c>
-      <c r="C103" t="s">
-        <v>176</v>
-      </c>
-      <c r="D103" t="s">
-        <v>182</v>
-      </c>
-      <c r="E103" t="s">
-        <v>185</v>
-      </c>
-      <c r="F103">
         <v>44</v>
       </c>
     </row>
@@ -5337,7 +4940,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5360,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5371,16 +4974,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5388,16 +4991,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5405,16 +5008,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5422,16 +5025,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5439,16 +5042,67 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="E6">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9">
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
@@ -5458,7 +5112,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5485,22 +5139,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5508,28 +5162,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="G2" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>6377.8</v>
+        <v>6764.6</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5537,28 +5191,28 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G3" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>6455</v>
+        <v>6669.6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5566,28 +5220,28 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G4" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>6462.4</v>
+        <v>6667.4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5595,28 +5249,28 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G5" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>6462</v>
+        <v>6669.8</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5624,28 +5278,28 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="G6" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>6467.8</v>
+        <v>6668.2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5653,28 +5307,898 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>6385.6</v>
+        <v>6726.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>6742.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>6737.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>6749.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>6749</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>6747.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" t="s">
+        <v>213</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>6745.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>6741.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" t="s">
+        <v>212</v>
+      </c>
+      <c r="G15" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>6742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>6741.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" t="s">
+        <v>212</v>
+      </c>
+      <c r="G17" t="s">
+        <v>213</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>6739.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" t="s">
+        <v>212</v>
+      </c>
+      <c r="G18" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>6739.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" t="s">
+        <v>213</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>6738.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" t="s">
+        <v>213</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>6732.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" t="s">
+        <v>213</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>6732.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>6735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" t="s">
+        <v>213</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>6734</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" t="s">
+        <v>212</v>
+      </c>
+      <c r="G24" t="s">
+        <v>213</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>6729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" t="s">
+        <v>213</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>6722.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" t="s">
+        <v>213</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>6720.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G27" t="s">
+        <v>213</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>6720.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" t="s">
+        <v>202</v>
+      </c>
+      <c r="E28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F28" t="s">
+        <v>212</v>
+      </c>
+      <c r="G28" t="s">
+        <v>213</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>6721.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" t="s">
+        <v>213</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>6746.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" t="s">
+        <v>213</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>6748.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" t="s">
+        <v>205</v>
+      </c>
+      <c r="E31" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" t="s">
+        <v>212</v>
+      </c>
+      <c r="G31" t="s">
+        <v>213</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>6748.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>6747.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" t="s">
+        <v>205</v>
+      </c>
+      <c r="E33" t="s">
+        <v>168</v>
+      </c>
+      <c r="F33" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" t="s">
+        <v>213</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>6749</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34" t="s">
+        <v>212</v>
+      </c>
+      <c r="G34" t="s">
+        <v>214</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>6748.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" t="s">
+        <v>208</v>
+      </c>
+      <c r="E35" t="s">
+        <v>167</v>
+      </c>
+      <c r="F35" t="s">
+        <v>212</v>
+      </c>
+      <c r="G35" t="s">
+        <v>214</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>6674.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" t="s">
+        <v>212</v>
+      </c>
+      <c r="G36" t="s">
+        <v>214</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>6669.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" t="s">
+        <v>210</v>
+      </c>
+      <c r="E37" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37" t="s">
+        <v>212</v>
+      </c>
+      <c r="G37" t="s">
+        <v>214</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>6667.6</v>
       </c>
     </row>
   </sheetData>

--- a/info_faccts.xlsx
+++ b/info_faccts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="188">
   <si>
     <t>DataDateTime</t>
   </si>
@@ -43,7 +43,7 @@
     <t>CurrentMarginRate</t>
   </si>
   <si>
-    <t>20200818T094133</t>
+    <t>20200819T094154</t>
   </si>
   <si>
     <t>10_f_xb_3670</t>
@@ -88,9 +88,6 @@
     <t>1201_f_gtax_1947</t>
   </si>
   <si>
-    <t>1202_f_hy_2555</t>
-  </si>
-  <si>
     <t>1202_f_xb_3032</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>2_f_zc_0709</t>
   </si>
   <si>
-    <t>3004_f_hait_2172</t>
-  </si>
-  <si>
     <t>3004_f_huat_5397</t>
   </si>
   <si>
@@ -151,15 +145,9 @@
     <t>608_f_huat_1732</t>
   </si>
   <si>
-    <t>6162_f_sd_0117</t>
-  </si>
-  <si>
     <t>6162_f_ya_1177</t>
   </si>
   <si>
-    <t>618_f_hy_0338</t>
-  </si>
-  <si>
     <t>619_f_xy_0809</t>
   </si>
   <si>
@@ -214,9 +202,6 @@
     <t>8001_f_huat_3630</t>
   </si>
   <si>
-    <t>803_f_sw_0988</t>
-  </si>
-  <si>
     <t>804_f_ya_9099</t>
   </si>
   <si>
@@ -271,9 +256,6 @@
     <t>920_f_huat_2997</t>
   </si>
   <si>
-    <t>921_f_sw_0778</t>
-  </si>
-  <si>
     <t>922_f_ya_9073</t>
   </si>
   <si>
@@ -385,9 +367,6 @@
     <t>6162</t>
   </si>
   <si>
-    <t>618</t>
-  </si>
-  <si>
     <t>619</t>
   </si>
   <si>
@@ -442,9 +421,6 @@
     <t>8001</t>
   </si>
   <si>
-    <t>803</t>
-  </si>
-  <si>
     <t>804</t>
   </si>
   <si>
@@ -496,9 +472,6 @@
     <t>920</t>
   </si>
   <si>
-    <t>921</t>
-  </si>
-  <si>
     <t>922</t>
   </si>
   <si>
@@ -547,115 +520,61 @@
     <t>Price</t>
   </si>
   <si>
-    <t>09:39:41</t>
-  </si>
-  <si>
-    <t>09:38:22</t>
-  </si>
-  <si>
-    <t>09:38:32</t>
-  </si>
-  <si>
-    <t>09:38:27</t>
-  </si>
-  <si>
-    <t>09:38:34</t>
-  </si>
-  <si>
-    <t>09:30:14</t>
-  </si>
-  <si>
-    <t>09:34:35</t>
-  </si>
-  <si>
-    <t>09:34:30</t>
-  </si>
-  <si>
-    <t>09:34:00</t>
-  </si>
-  <si>
-    <t>09:33:40</t>
-  </si>
-  <si>
-    <t>09:33:35</t>
-  </si>
-  <si>
-    <t>09:33:27</t>
-  </si>
-  <si>
-    <t>09:33:17</t>
-  </si>
-  <si>
-    <t>09:33:09</t>
-  </si>
-  <si>
-    <t>09:33:01</t>
-  </si>
-  <si>
-    <t>09:32:54</t>
-  </si>
-  <si>
-    <t>09:32:45</t>
-  </si>
-  <si>
-    <t>09:32:22</t>
-  </si>
-  <si>
-    <t>09:32:05</t>
-  </si>
-  <si>
-    <t>09:31:56</t>
-  </si>
-  <si>
-    <t>09:31:49</t>
-  </si>
-  <si>
-    <t>09:31:42</t>
-  </si>
-  <si>
-    <t>09:31:34</t>
-  </si>
-  <si>
-    <t>09:31:00</t>
-  </si>
-  <si>
-    <t>09:30:39</t>
-  </si>
-  <si>
-    <t>09:30:31</t>
-  </si>
-  <si>
-    <t>09:30:25</t>
-  </si>
-  <si>
-    <t>09:37:09</t>
-  </si>
-  <si>
-    <t>09:37:22</t>
-  </si>
-  <si>
-    <t>09:37:17</t>
-  </si>
-  <si>
-    <t>09:37:12</t>
-  </si>
-  <si>
-    <t>09:37:24</t>
-  </si>
-  <si>
-    <t>09:37:58</t>
-  </si>
-  <si>
-    <t>09:38:24</t>
+    <t>09:34:27</t>
+  </si>
+  <si>
+    <t>09:36:24</t>
+  </si>
+  <si>
+    <t>09:36:15</t>
+  </si>
+  <si>
+    <t>09:36:07</t>
+  </si>
+  <si>
+    <t>09:35:59</t>
+  </si>
+  <si>
+    <t>09:35:51</t>
+  </si>
+  <si>
+    <t>09:35:35</t>
+  </si>
+  <si>
+    <t>09:35:27</t>
+  </si>
+  <si>
+    <t>09:35:19</t>
+  </si>
+  <si>
+    <t>09:35:03</t>
+  </si>
+  <si>
+    <t>09:34:55</t>
+  </si>
+  <si>
+    <t>09:37:13</t>
+  </si>
+  <si>
+    <t>09:37:18</t>
+  </si>
+  <si>
+    <t>09:37:56</t>
+  </si>
+  <si>
+    <t>09:38:35</t>
   </si>
   <si>
     <t>09:38:19</t>
   </si>
   <si>
+    <t>09:38:12</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
     <t>buy</t>
-  </si>
-  <si>
-    <t>sell</t>
   </si>
   <si>
     <t>close</t>
@@ -1019,7 +938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1068,10 +987,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D2">
-        <v>16384560</v>
+        <v>20835520</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1080,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>15411120</v>
+        <v>21727840</v>
       </c>
       <c r="H2">
-        <v>0.8715160481522439</v>
+        <v>0.6217329288139083</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1094,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D3">
         <v>1549178.61</v>
@@ -1120,10 +1039,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D4">
-        <v>4765901.93</v>
+        <v>4861661.93</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1132,10 +1051,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4916741.93</v>
+        <v>4722061.93</v>
       </c>
       <c r="H4">
-        <v>0.3899538408354086</v>
+        <v>0.4084642744192049</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1146,10 +1065,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D5">
-        <v>9629876.82</v>
+        <v>9299636.82</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1158,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>9077756.82</v>
+        <v>9789836.820000008</v>
       </c>
       <c r="H5">
-        <v>0.9411369096357881</v>
+        <v>0.8777416986609173</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1172,10 +1091,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D6">
-        <v>3881474.94</v>
+        <v>3965954.94</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1184,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4021834.940000002</v>
+        <v>3834834.940000002</v>
       </c>
       <c r="H6">
-        <v>0.4347317147729586</v>
+        <v>0.4585743135009611</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1198,7 +1117,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -1224,10 +1143,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D8">
-        <v>11210628.55</v>
+        <v>10835968.29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1236,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>10595468.55</v>
+        <v>11414888.29</v>
       </c>
       <c r="H8">
-        <v>0.7213815947761938</v>
+        <v>0.6731621199246964</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1250,10 +1169,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D9">
-        <v>8854365.699999999</v>
+        <v>8965483.57</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1262,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>9047565.699999999</v>
+        <v>8787283.57</v>
       </c>
       <c r="H9">
-        <v>0.2668138679556645</v>
+        <v>0.2728979872900585</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1276,10 +1195,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D10">
-        <v>2190956.37</v>
+        <v>2121836.37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1288,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2072156.37</v>
+        <v>2230196.37</v>
       </c>
       <c r="H10">
-        <v>0.6903556221483419</v>
+        <v>0.6451535924614568</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1302,7 +1221,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D11">
         <v>1001</v>
@@ -1328,10 +1247,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D12">
-        <v>2876254.2</v>
+        <v>2776414.2</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1340,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2704654.2</v>
+        <v>2931374.2</v>
       </c>
       <c r="H12">
-        <v>0.7639843940123656</v>
+        <v>0.7089829746062445</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1354,10 +1273,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D13">
-        <v>4838393.029999999</v>
+        <v>4664554.21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1366,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4549714.290496799</v>
+        <v>4913314.21</v>
       </c>
       <c r="H13">
-        <v>0.7340853044280519</v>
+        <v>0.6837173965310065</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1380,10 +1299,10 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D14">
-        <v>9330572.559999999</v>
+        <v>9123212.559999999</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1392,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>8973092.559999999</v>
+        <v>9442892.559999999</v>
       </c>
       <c r="H14">
-        <v>0.4782714957305648</v>
+        <v>0.4571117983788643</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1406,10 +1325,10 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D15">
-        <v>12908224.04</v>
+        <v>15797424.04</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1418,10 +1337,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>12104224.04</v>
+        <v>16510224.04</v>
       </c>
       <c r="H15">
-        <v>0.7878928850361895</v>
+        <v>0.5809810924891603</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1432,10 +1351,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D16">
-        <v>3449384.23</v>
+        <v>1348849.4</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1444,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3275144.23</v>
+        <v>1407649.4</v>
       </c>
       <c r="H16">
-        <v>0.6321211692103098</v>
+        <v>0.6151787511861974</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1458,10 +1377,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D17">
-        <v>1387249.4</v>
+        <v>3502414.02</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1470,10 +1389,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1318649.4</v>
+        <v>3639694.02</v>
       </c>
       <c r="H17">
-        <v>0.6529135037713589</v>
+        <v>0.5270843069385267</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1484,10 +1403,10 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D18">
-        <v>3594574.02</v>
+        <v>7657144.87</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1496,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3429454.019999999</v>
+        <v>7600544.87</v>
       </c>
       <c r="H18">
-        <v>0.5561720288059149</v>
+        <v>0.1051693021582017</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1510,10 +1429,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D19">
-        <v>7616906.459999999</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>7683306.459999999</v>
+        <v>10</v>
       </c>
       <c r="H19">
-        <v>0.1047299107733365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1536,10 +1455,10 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>6457486.39</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1548,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>6778926.39</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6603296956584888</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1562,10 +1481,10 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D21">
-        <v>6672285.37</v>
+        <v>27244957.48</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1574,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>6251066.33736</v>
+        <v>27864877.48</v>
       </c>
       <c r="H21">
-        <v>0.8145201034853095</v>
+        <v>0.3098134993127554</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1588,10 +1507,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D22">
-        <v>27659677.48</v>
+        <v>8317814.25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1600,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26901517.48</v>
+        <v>8723894.25</v>
       </c>
       <c r="H22">
-        <v>0.319058164892786</v>
+        <v>0.6597141867005089</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1614,10 +1533,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D23">
-        <v>8594294.25</v>
+        <v>4223371.74</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1626,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>8088854.25</v>
+        <v>4415131.74</v>
       </c>
       <c r="H23">
-        <v>0.7074054029345385</v>
+        <v>0.6668544843918973</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1640,10 +1559,10 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D24">
-        <v>3656562.83</v>
+        <v>4522815.029999999</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1652,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3412887.315856799</v>
+        <v>4522815.029999999</v>
       </c>
       <c r="H24">
-        <v>0.9081666381422507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1666,10 +1585,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D25">
-        <v>4522815.029999999</v>
+        <v>1763867.15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1678,10 +1597,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4522815.029999999</v>
+        <v>1775387.15</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.09004728912226272</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1692,10 +1611,10 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D26">
-        <v>1771547.15</v>
+        <v>42235513.46</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1704,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1757347.15</v>
+        <v>44129993.46</v>
       </c>
       <c r="H26">
-        <v>0.09044724031902292</v>
+        <v>0.5797226148059365</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1718,10 +1637,10 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D27">
-        <v>21573783.58</v>
+        <v>6894623.659999999</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1730,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>20437783.58</v>
+        <v>7255303.659999999</v>
       </c>
       <c r="H27">
-        <v>0.6221700092980429</v>
+        <v>0.6833630447936341</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1744,10 +1663,10 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D28">
-        <v>43465753.46</v>
+        <v>1060.51</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1756,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>41169513.46</v>
+        <v>1060.51</v>
       </c>
       <c r="H28">
-        <v>0.6178243137294519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1770,10 +1689,10 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D29">
-        <v>7133423.659999999</v>
+        <v>3960001.27</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1782,10 +1701,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>6687783.659999999</v>
+        <v>4040641.27</v>
       </c>
       <c r="H29">
-        <v>0.7370678614325875</v>
+        <v>0.2769564346898828</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1796,10 +1715,10 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D30">
-        <v>1060.51</v>
+        <v>11790836.19</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1808,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1060.51</v>
+        <v>11444036.19</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>0.5238606292803063</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1822,10 +1741,10 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D31">
-        <v>4013761.27</v>
+        <v>1134718.76</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1834,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>3912401.27</v>
+        <v>1124998.76</v>
       </c>
       <c r="H31">
-        <v>0.2843855533254133</v>
+        <v>0.2815533770010555</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1848,10 +1767,10 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D32">
-        <v>11556511.85</v>
+        <v>1637.84</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1860,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>11969311.85</v>
+        <v>1637.84</v>
       </c>
       <c r="H32">
-        <v>0.5042094379051542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1874,10 +1793,10 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D33">
-        <v>1141078.76</v>
+        <v>1094157.25</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1886,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1149598.76</v>
+        <v>1142157.25</v>
       </c>
       <c r="H33">
-        <v>0.2761370410663978</v>
+        <v>0.6065406492845009</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1900,10 +1819,10 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D34">
-        <v>1637.84</v>
+        <v>14030426.97</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1912,10 +1831,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1637.84</v>
+        <v>14721266.97</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.6705875533755096</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1926,10 +1845,10 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D35">
-        <v>1124877.25</v>
+        <v>1089.25</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1938,10 +1857,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1067597.25</v>
+        <v>1089.25</v>
       </c>
       <c r="H35">
-        <v>0.6451601481738549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1952,10 +1871,10 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D36">
-        <v>14468186.97</v>
+        <v>9810051.17</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1964,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>13654226.97</v>
+        <v>9712771.17</v>
       </c>
       <c r="H36">
-        <v>0.7188242601770667</v>
+        <v>0.1667314066866871</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1978,10 +1897,10 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D37">
-        <v>33594527.07</v>
+        <v>3628182.78</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1990,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>31567327.07</v>
+        <v>3500182.78</v>
       </c>
       <c r="H37">
-        <v>0.7636690919868896</v>
+        <v>0.5012241103591741</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2004,10 +1923,10 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D38">
-        <v>3686689.25</v>
+        <v>2052952.71</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2016,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>3686689.25</v>
+        <v>1990352.71</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>0.4068183472867982</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2030,10 +1949,10 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D39">
-        <v>2218359.78</v>
+        <v>8596742.209999999</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2042,10 +1961,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>2273239.78</v>
+        <v>8399942.209999999</v>
       </c>
       <c r="H39">
-        <v>0.2831806858491628</v>
+        <v>0.2891848466657487</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2056,10 +1975,10 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D40">
-        <v>9904176.33</v>
+        <v>2148959.14</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2068,10 +1987,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>9827212.585953997</v>
+        <v>2095679.14</v>
       </c>
       <c r="H40">
-        <v>0.4094100910924196</v>
+        <v>0.3606139821575932</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2082,10 +2001,10 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D41">
-        <v>3544182.78</v>
+        <v>5650799.439999999</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2094,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>3681382.78</v>
+        <v>5504279.439999999</v>
       </c>
       <c r="H41">
-        <v>0.4735872644028613</v>
+        <v>0.3236329876449732</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2108,10 +2027,10 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D42">
-        <v>2010952.71</v>
+        <v>5012097.54</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2120,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>2081952.71</v>
+        <v>4875697.54</v>
       </c>
       <c r="H42">
-        <v>0.3864986923742374</v>
+        <v>0.3278890839483862</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2134,10 +2053,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D43">
-        <v>8470742.209999999</v>
+        <v>1386188.82</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2146,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>8683742.209999999</v>
+        <v>1331628.82</v>
       </c>
       <c r="H43">
-        <v>0.2779925913991406</v>
+        <v>0.5202386653061475</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2160,10 +2079,10 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D44">
-        <v>2115359.14</v>
+        <v>4306176.18</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2172,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>2172159.14</v>
+        <v>4181616.18</v>
       </c>
       <c r="H44">
-        <v>0.3457514627588475</v>
+        <v>0.4301026020996504</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2186,10 +2105,10 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D45">
-        <v>5558399.439999999</v>
+        <v>2104913.85</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2198,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>5714599.440000001</v>
+        <v>2021873.85</v>
       </c>
       <c r="H45">
-        <v>0.3097817123644276</v>
+        <v>0.5534873503606567</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2212,10 +2131,10 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D46">
-        <v>4935142.36</v>
+        <v>4192521.46</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2224,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>5078582.36</v>
+        <v>4026921.459999998</v>
       </c>
       <c r="H46">
-        <v>0.314540690051938</v>
+        <v>0.5955000671902851</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2238,10 +2157,10 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D47">
-        <v>1357318.42</v>
+        <v>4538082.98</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2250,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1412998.42</v>
+        <v>4411722.98</v>
       </c>
       <c r="H47">
-        <v>0.4935478979516482</v>
+        <v>0.4076692956818427</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2264,10 +2183,10 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D48">
-        <v>4239753.09</v>
+        <v>4139477.14</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2276,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>4362513.09</v>
+        <v>4041197.14</v>
       </c>
       <c r="H48">
-        <v>0.4150158320785692</v>
+        <v>0.2769183391038429</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2290,10 +2209,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D49">
-        <v>2061186.38</v>
+        <v>3681858.14</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2302,10 +2221,10 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>2143026.380000001</v>
+        <v>3881458.140000002</v>
       </c>
       <c r="H49">
-        <v>0.5256775233910091</v>
+        <v>0.7221224341221413</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2316,10 +2235,10 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D50">
-        <v>4102676.71</v>
+        <v>1204561.34</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2328,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>4268276.710000002</v>
+        <v>1162081.34</v>
       </c>
       <c r="H50">
-        <v>0.565571579355266</v>
+        <v>0.5158915984314835</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2342,10 +2261,10 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D51">
-        <v>4472425.59</v>
+        <v>3619801.77</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2354,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>4596625.59</v>
+        <v>3518721.77</v>
       </c>
       <c r="H51">
-        <v>0.393878501642332</v>
+        <v>0.3180363987687495</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2368,10 +2287,10 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D52">
-        <v>4049302.62</v>
+        <v>5292003.08</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2380,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>4175727.9257044</v>
+        <v>5057763.08</v>
       </c>
       <c r="H52">
-        <v>0.2697830941200425</v>
+        <v>0.505737568079207</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2394,10 +2313,10 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D53">
-        <v>3040818.14</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2406,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>2849218.139999998</v>
-      </c>
-      <c r="H53">
-        <v>0.9780030391074241</v>
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2420,10 +2339,10 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D54">
-        <v>1182398.44</v>
+        <v>1713551.81</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2432,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>1221878.44</v>
+        <v>1834831.81</v>
       </c>
       <c r="H54">
-        <v>0.658553235459331</v>
+        <v>0.8712994789424323</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2446,10 +2365,10 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D55">
-        <v>3584711.86</v>
+        <v>12304327.5</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2458,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>3648072.79564</v>
+        <v>13053127.50000001</v>
       </c>
       <c r="H55">
-        <v>0.1759149106802334</v>
+        <v>0.587882283383809</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2472,10 +2391,10 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D56">
-        <v>5171265.91</v>
+        <v>7393281.970000001</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2484,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>5390145.91</v>
+        <v>7784281.970000001</v>
       </c>
       <c r="H56">
-        <v>0.4777144149702618</v>
+        <v>0.5134346385964739</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2498,10 +2417,10 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>4380338.279999999</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2510,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57" t="s">
-        <v>163</v>
+        <v>4146338.279999999</v>
+      </c>
+      <c r="H57">
+        <v>0.5783493381538567</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2524,10 +2443,10 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D58">
-        <v>4861682.17</v>
+        <v>3292723.93</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2536,10 +2455,10 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>4565607.696944001</v>
+        <v>3292723.93</v>
       </c>
       <c r="H58">
-        <v>0.7687462070710299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2550,10 +2469,10 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D59">
-        <v>1774991.81</v>
+        <v>1314853.94</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2562,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>1664911.81</v>
+        <v>1314853.94</v>
       </c>
       <c r="H59">
-        <v>0.9546884047870379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2576,10 +2495,10 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D60">
-        <v>12672967.5</v>
+        <v>12227742.81</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2588,10 +2507,10 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>12022087.49999999</v>
+        <v>13134862.81</v>
       </c>
       <c r="H60">
-        <v>0.6346207012717227</v>
+        <v>0.7302800294721921</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2602,10 +2521,10 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D61">
-        <v>7585281.970000001</v>
+        <v>2107296.67</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2614,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>7236281.970000001</v>
+        <v>2202096.670000001</v>
       </c>
       <c r="H61">
-        <v>0.5491328304333616</v>
+        <v>0.4355906863979771</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2628,10 +2547,10 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D62">
-        <v>4267669.54</v>
+        <v>2413761.11</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2640,10 +2559,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>4472589.54</v>
+        <v>2382561.11</v>
       </c>
       <c r="H62">
-        <v>0.536181194038208</v>
+        <v>0.134199118191768</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2654,10 +2573,10 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D63">
-        <v>3292723.93</v>
+        <v>3692020.94</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2666,10 +2585,10 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>3292723.93</v>
+        <v>3929020.94</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>0.6611998357025809</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2680,10 +2599,10 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D64">
-        <v>1314853.94</v>
+        <v>2837867.63</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2692,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>1314853.94</v>
+        <v>2978627.63</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>0.5635556398837273</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2706,10 +2625,10 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D65">
-        <v>12672338.56</v>
+        <v>3651376.2</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2718,10 +2637,10 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>11894579.092656</v>
+        <v>3908016.2</v>
       </c>
       <c r="H65">
-        <v>0.8020698442276452</v>
+        <v>0.8181583280028368</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2732,10 +2651,10 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D66">
-        <v>2153376.67</v>
+        <v>19364549.73</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2744,10 +2663,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>2072016.669999999</v>
+        <v>20202381.0860296</v>
       </c>
       <c r="H66">
-        <v>0.4602681116460325</v>
+        <v>0.4428630448015342</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2758,10 +2677,10 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D67">
-        <v>2399223.2</v>
+        <v>3780623.85</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2770,10 +2689,10 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>2425223.2</v>
+        <v>4035983.850000004</v>
       </c>
       <c r="H67">
-        <v>0.1327171866078141</v>
+        <v>0.6733846568786436</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2784,10 +2703,10 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D68">
-        <v>3157220.94</v>
+        <v>4263117.279999999</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2796,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>2962220.94</v>
+        <v>4278933.567619999</v>
       </c>
       <c r="H68">
-        <v>0.8719444134373042</v>
+        <v>0.03736183267947326</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2810,10 +2729,10 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D69">
-        <v>2906987.63</v>
+        <v>62444085.42999999</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2822,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>2789267.63</v>
+        <v>66336749.47170805</v>
       </c>
       <c r="H69">
-        <v>0.598345451705543</v>
+        <v>0.5832099086570431</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2836,10 +2755,10 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D70">
-        <v>3774256.2</v>
+        <v>10846859.37</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2848,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>3564976.2</v>
+        <v>11559659.37</v>
       </c>
       <c r="H70">
-        <v>0.8917153500211306</v>
+        <v>0.7779312272243883</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2862,10 +2781,10 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D71">
-        <v>19680439.86</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2874,10 +2793,10 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>19158839.86</v>
-      </c>
-      <c r="H71">
-        <v>0.381629120209161</v>
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2888,10 +2807,10 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D72">
-        <v>3903503.85</v>
+        <v>6586045.029999999</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2900,10 +2819,10 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>3694223.85</v>
+        <v>7029565.029999999</v>
       </c>
       <c r="H72">
-        <v>0.7314398124520798</v>
+        <v>0.7959821092941792</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2914,10 +2833,10 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D73">
-        <v>4278477.279999999</v>
+        <v>2137860.09</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2926,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>4252877.279999999</v>
+        <v>2106100.09</v>
       </c>
       <c r="H73">
-        <v>0.1121221160653853</v>
+        <v>0.1537841442283971</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2940,10 +2859,10 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D74">
-        <v>64374008.01000001</v>
+        <v>12244729.25</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2952,166 +2871,10 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>61104008.01000001</v>
+        <v>12954089.25000001</v>
       </c>
       <c r="H74">
-        <v>0.6529479112641927</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" t="s">
-        <v>157</v>
-      </c>
-      <c r="D75">
-        <v>11223952.09</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>10577152.09</v>
-      </c>
-      <c r="H75">
-        <v>0.9204288561950705</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C76" t="s">
-        <v>158</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" t="s">
-        <v>159</v>
-      </c>
-      <c r="D77">
-        <v>3273549.82</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>3117069.82</v>
-      </c>
-      <c r="H77">
-        <v>0.6629025717492589</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" t="s">
-        <v>85</v>
-      </c>
-      <c r="C78" t="s">
-        <v>160</v>
-      </c>
-      <c r="D78">
-        <v>6801085.029999999</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>6434845.029999999</v>
-      </c>
-      <c r="H78">
-        <v>0.8645355053717588</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>161</v>
-      </c>
-      <c r="D79">
-        <v>2121060.09</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>2147300.09</v>
-      </c>
-      <c r="H79">
-        <v>0.149894652125684</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80" t="s">
-        <v>162</v>
-      </c>
-      <c r="D80">
-        <v>12615273.69</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>11980913.69000001</v>
-      </c>
-      <c r="H80">
-        <v>0.6240325398755128</v>
+        <v>0.5555133565256229</v>
       </c>
     </row>
   </sheetData>
@@ -3121,7 +2884,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3144,13 +2907,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3161,13 +2924,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F2">
         <v>78</v>
@@ -3181,13 +2944,13 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -3201,13 +2964,13 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -3221,13 +2984,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F5">
         <v>43</v>
@@ -3241,13 +3004,13 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F6">
         <v>11</v>
@@ -3261,16 +3024,16 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3281,16 +3044,16 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F8">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3301,13 +3064,13 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F9">
         <v>15</v>
@@ -3321,13 +3084,13 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -3341,13 +3104,13 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F11">
         <v>13</v>
@@ -3361,13 +3124,13 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -3381,13 +3144,13 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3401,13 +3164,13 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F14">
         <v>27</v>
@@ -3421,13 +3184,13 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F15">
         <v>60</v>
@@ -3441,16 +3204,16 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3458,19 +3221,19 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F17">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3478,16 +3241,16 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E18" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F18">
         <v>5</v>
@@ -3498,19 +3261,19 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3518,19 +3281,19 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3538,19 +3301,19 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3558,19 +3321,19 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E22" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F22">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3578,19 +3341,19 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F23">
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3598,19 +3361,19 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F24">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3618,19 +3381,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E25" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3638,19 +3401,19 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F26">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3658,19 +3421,19 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3678,19 +3441,19 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F28">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3698,19 +3461,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3718,19 +3481,19 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F30">
-        <v>158</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3738,19 +3501,19 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
         <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3758,19 +3521,19 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E32" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F32">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3778,19 +3541,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F33">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3798,19 +3561,19 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
         <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E34" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F34">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3818,19 +3581,19 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
         <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E35" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3838,19 +3601,19 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E36" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3858,19 +3621,19 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E37" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F37">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3878,19 +3641,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E38" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F38">
-        <v>140</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3898,19 +3661,19 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3918,16 +3681,16 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E40" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F40">
         <v>10</v>
@@ -3938,19 +3701,19 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
         <v>123</v>
       </c>
       <c r="D41" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E41" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F41">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3958,19 +3721,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
         <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E42" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3978,19 +3741,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
         <v>125</v>
       </c>
       <c r="D43" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E43" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3998,19 +3761,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
         <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E44" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F44">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4018,19 +3781,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
         <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E45" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4038,19 +3801,19 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
         <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E46" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F46">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4058,19 +3821,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
         <v>129</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E47" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4078,19 +3841,19 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
         <v>129</v>
       </c>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E48" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4098,19 +3861,19 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
         <v>130</v>
       </c>
       <c r="D49" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E49" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4118,19 +3881,19 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
         <v>131</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E50" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F50">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4138,19 +3901,19 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
         <v>132</v>
       </c>
       <c r="D51" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E51" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F51">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4158,19 +3921,19 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E52" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F52">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4178,19 +3941,19 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E53" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F53">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4198,19 +3961,19 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
         <v>135</v>
       </c>
       <c r="D54" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E54" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F54">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4218,19 +3981,19 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
         <v>136</v>
       </c>
       <c r="D55" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E55" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4238,19 +4001,19 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D56" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E56" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F56">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4258,19 +4021,19 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E57" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F57">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4278,19 +4041,19 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E58" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4298,19 +4061,19 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D59" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E59" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F59">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4318,19 +4081,19 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D60" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E60" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4338,19 +4101,19 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C61" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D61" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E61" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F61">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4358,19 +4121,19 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E62" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F62">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4378,19 +4141,19 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D63" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E63" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F63">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4398,19 +4161,19 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D64" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F64">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4418,19 +4181,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D65" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E65" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F65">
-        <v>48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4438,19 +4201,19 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D66" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E66" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F66">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4458,19 +4221,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D67" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E67" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F67">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4478,19 +4241,19 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D68" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E68" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F68">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4498,19 +4261,19 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E69" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F69">
-        <v>60</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4518,19 +4281,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D70" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E70" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F70">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4538,19 +4301,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D71" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E71" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4558,19 +4321,19 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D72" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E72" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F72">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4578,19 +4341,19 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D73" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E73" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F73">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4598,338 +4361,18 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D74" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E74" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F74">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75" t="s">
-        <v>167</v>
-      </c>
-      <c r="E75" t="s">
-        <v>171</v>
-      </c>
-      <c r="F75">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" t="s">
-        <v>153</v>
-      </c>
-      <c r="D76" t="s">
-        <v>167</v>
-      </c>
-      <c r="E76" t="s">
-        <v>170</v>
-      </c>
-      <c r="F76">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" t="s">
-        <v>154</v>
-      </c>
-      <c r="D77" t="s">
-        <v>167</v>
-      </c>
-      <c r="E77" t="s">
-        <v>171</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" t="s">
-        <v>154</v>
-      </c>
-      <c r="D78" t="s">
-        <v>167</v>
-      </c>
-      <c r="E78" t="s">
-        <v>170</v>
-      </c>
-      <c r="F78">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79" t="s">
-        <v>155</v>
-      </c>
-      <c r="D79" t="s">
-        <v>167</v>
-      </c>
-      <c r="E79" t="s">
-        <v>171</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" t="s">
-        <v>155</v>
-      </c>
-      <c r="D80" t="s">
-        <v>167</v>
-      </c>
-      <c r="E80" t="s">
-        <v>170</v>
-      </c>
-      <c r="F80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" t="s">
-        <v>81</v>
-      </c>
-      <c r="C81" t="s">
-        <v>156</v>
-      </c>
-      <c r="D81" t="s">
-        <v>167</v>
-      </c>
-      <c r="E81" t="s">
-        <v>170</v>
-      </c>
-      <c r="F81">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" t="s">
-        <v>156</v>
-      </c>
-      <c r="D82" t="s">
-        <v>168</v>
-      </c>
-      <c r="E82" t="s">
-        <v>170</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>8</v>
-      </c>
-      <c r="B83" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" t="s">
-        <v>156</v>
-      </c>
-      <c r="D83" t="s">
-        <v>168</v>
-      </c>
-      <c r="E83" t="s">
-        <v>171</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>8</v>
-      </c>
-      <c r="B84" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" t="s">
-        <v>157</v>
-      </c>
-      <c r="D84" t="s">
-        <v>167</v>
-      </c>
-      <c r="E84" t="s">
-        <v>170</v>
-      </c>
-      <c r="F84">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" t="s">
-        <v>84</v>
-      </c>
-      <c r="C85" t="s">
-        <v>159</v>
-      </c>
-      <c r="D85" t="s">
-        <v>167</v>
-      </c>
-      <c r="E85" t="s">
-        <v>171</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>8</v>
-      </c>
-      <c r="B86" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" t="s">
-        <v>159</v>
-      </c>
-      <c r="D86" t="s">
-        <v>167</v>
-      </c>
-      <c r="E86" t="s">
-        <v>170</v>
-      </c>
-      <c r="F86">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>8</v>
-      </c>
-      <c r="B87" t="s">
-        <v>85</v>
-      </c>
-      <c r="C87" t="s">
-        <v>160</v>
-      </c>
-      <c r="D87" t="s">
-        <v>167</v>
-      </c>
-      <c r="E87" t="s">
-        <v>170</v>
-      </c>
-      <c r="F87">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88" t="s">
-        <v>86</v>
-      </c>
-      <c r="C88" t="s">
-        <v>161</v>
-      </c>
-      <c r="D88" t="s">
-        <v>168</v>
-      </c>
-      <c r="E88" t="s">
-        <v>171</v>
-      </c>
-      <c r="F88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>8</v>
-      </c>
-      <c r="B89" t="s">
-        <v>87</v>
-      </c>
-      <c r="C89" t="s">
-        <v>162</v>
-      </c>
-      <c r="D89" t="s">
-        <v>168</v>
-      </c>
-      <c r="E89" t="s">
-        <v>170</v>
-      </c>
-      <c r="F89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" t="s">
-        <v>87</v>
-      </c>
-      <c r="C90" t="s">
-        <v>162</v>
-      </c>
-      <c r="D90" t="s">
-        <v>167</v>
-      </c>
-      <c r="E90" t="s">
-        <v>170</v>
-      </c>
-      <c r="F90">
         <v>44</v>
       </c>
     </row>
@@ -4940,7 +4383,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4963,10 +4406,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4974,16 +4417,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4991,16 +4434,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E3">
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5008,101 +4451,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5">
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9">
-        <v>-3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5112,7 +4470,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5139,22 +4497,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5162,28 +4520,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="G2" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>6764.6</v>
+        <v>6634.8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5191,28 +4549,28 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="G3" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>6669.6</v>
+        <v>6630.4</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5220,28 +4578,28 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="G4" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>6667.4</v>
+        <v>6636.2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5249,28 +4607,28 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="G5" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>6669.8</v>
+        <v>6638.2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5278,28 +4636,28 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="G6" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>6668.2</v>
+        <v>6635.4</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5307,28 +4665,28 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="G7" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>6726.8</v>
+        <v>6636.4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5336,28 +4694,28 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="G8" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>6742.2</v>
+        <v>6638.4</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5365,28 +4723,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="G9" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>6737.6</v>
+        <v>6638.4</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5394,28 +4752,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" t="s">
         <v>184</v>
       </c>
-      <c r="E10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" t="s">
-        <v>212</v>
-      </c>
       <c r="G10" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>6749.8</v>
+        <v>6637.2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5423,28 +4781,28 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="G11" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>6749</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5452,28 +4810,28 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="G12" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>6747.4</v>
+        <v>6641.2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5481,28 +4839,28 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E13" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="G13" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>6745.8</v>
+        <v>6620.2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5510,28 +4868,28 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E14" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="G14" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>6741.8</v>
+        <v>6622.8</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5539,28 +4897,28 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E15" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="G15" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>6742</v>
+        <v>6623.6</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5568,28 +4926,28 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F16" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="G16" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>6741.4</v>
+        <v>6622</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5597,28 +4955,28 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F17" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="G17" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>6739.6</v>
+        <v>6623.6</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5626,579 +4984,28 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E18" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F18" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>6739.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" t="s">
-        <v>193</v>
-      </c>
-      <c r="E19" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>6738.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" t="s">
-        <v>194</v>
-      </c>
-      <c r="E20" t="s">
-        <v>168</v>
-      </c>
-      <c r="F20" t="s">
-        <v>212</v>
-      </c>
-      <c r="G20" t="s">
-        <v>213</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>6732.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" t="s">
-        <v>195</v>
-      </c>
-      <c r="E21" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G21" t="s">
-        <v>213</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>6732.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" t="s">
-        <v>196</v>
-      </c>
-      <c r="E22" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" t="s">
-        <v>212</v>
-      </c>
-      <c r="G22" t="s">
-        <v>213</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>6735</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>123</v>
-      </c>
-      <c r="D23" t="s">
-        <v>197</v>
-      </c>
-      <c r="E23" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23" t="s">
-        <v>212</v>
-      </c>
-      <c r="G23" t="s">
-        <v>213</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>6734</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" t="s">
-        <v>198</v>
-      </c>
-      <c r="E24" t="s">
-        <v>168</v>
-      </c>
-      <c r="F24" t="s">
-        <v>212</v>
-      </c>
-      <c r="G24" t="s">
-        <v>213</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>6729</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" t="s">
-        <v>199</v>
-      </c>
-      <c r="E25" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" t="s">
-        <v>212</v>
-      </c>
-      <c r="G25" t="s">
-        <v>213</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>6722.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" t="s">
-        <v>200</v>
-      </c>
-      <c r="E26" t="s">
-        <v>168</v>
-      </c>
-      <c r="F26" t="s">
-        <v>212</v>
-      </c>
-      <c r="G26" t="s">
-        <v>213</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>6720.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" t="s">
-        <v>123</v>
-      </c>
-      <c r="D27" t="s">
-        <v>201</v>
-      </c>
-      <c r="E27" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" t="s">
-        <v>212</v>
-      </c>
-      <c r="G27" t="s">
-        <v>213</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>6720.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" t="s">
-        <v>202</v>
-      </c>
-      <c r="E28" t="s">
-        <v>168</v>
-      </c>
-      <c r="F28" t="s">
-        <v>212</v>
-      </c>
-      <c r="G28" t="s">
-        <v>213</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>6721.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" t="s">
-        <v>203</v>
-      </c>
-      <c r="E29" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" t="s">
-        <v>212</v>
-      </c>
-      <c r="G29" t="s">
-        <v>213</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>6746.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D30" t="s">
-        <v>204</v>
-      </c>
-      <c r="E30" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" t="s">
-        <v>212</v>
-      </c>
-      <c r="G30" t="s">
-        <v>213</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>6748.8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" t="s">
-        <v>205</v>
-      </c>
-      <c r="E31" t="s">
-        <v>168</v>
-      </c>
-      <c r="F31" t="s">
-        <v>212</v>
-      </c>
-      <c r="G31" t="s">
-        <v>213</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>6748.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" t="s">
-        <v>206</v>
-      </c>
-      <c r="E32" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" t="s">
-        <v>212</v>
-      </c>
-      <c r="G32" t="s">
-        <v>213</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>6747.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" t="s">
-        <v>205</v>
-      </c>
-      <c r="E33" t="s">
-        <v>168</v>
-      </c>
-      <c r="F33" t="s">
-        <v>212</v>
-      </c>
-      <c r="G33" t="s">
-        <v>213</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>6749</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" t="s">
-        <v>141</v>
-      </c>
-      <c r="D34" t="s">
-        <v>207</v>
-      </c>
-      <c r="E34" t="s">
-        <v>168</v>
-      </c>
-      <c r="F34" t="s">
-        <v>212</v>
-      </c>
-      <c r="G34" t="s">
-        <v>214</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>6748.6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" t="s">
-        <v>208</v>
-      </c>
-      <c r="E35" t="s">
-        <v>167</v>
-      </c>
-      <c r="F35" t="s">
-        <v>212</v>
-      </c>
-      <c r="G35" t="s">
-        <v>214</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>6674.8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" t="s">
-        <v>147</v>
-      </c>
-      <c r="D36" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" t="s">
-        <v>167</v>
-      </c>
-      <c r="F36" t="s">
-        <v>212</v>
-      </c>
-      <c r="G36" t="s">
-        <v>214</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>6669.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" t="s">
-        <v>147</v>
-      </c>
-      <c r="D37" t="s">
-        <v>210</v>
-      </c>
-      <c r="E37" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" t="s">
-        <v>212</v>
-      </c>
-      <c r="G37" t="s">
-        <v>214</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>6667.6</v>
+        <v>6623.2</v>
       </c>
     </row>
   </sheetData>

--- a/info_faccts.xlsx
+++ b/info_faccts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="187">
   <si>
     <t>DataDateTime</t>
   </si>
@@ -43,7 +43,7 @@
     <t>CurrentMarginRate</t>
   </si>
   <si>
-    <t>20200819T094154</t>
+    <t>20200820T093941</t>
   </si>
   <si>
     <t>10_f_xb_3670</t>
@@ -88,9 +88,6 @@
     <t>1201_f_gtax_1947</t>
   </si>
   <si>
-    <t>1202_f_xb_3032</t>
-  </si>
-  <si>
     <t>1203_f_huat_5169</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
     <t>2_f_zc_0709</t>
   </si>
   <si>
+    <t>3004_f_hait_2172</t>
+  </si>
+  <si>
     <t>3004_f_huat_5397</t>
   </si>
   <si>
@@ -145,9 +145,15 @@
     <t>608_f_huat_1732</t>
   </si>
   <si>
+    <t>6162_f_sd_0117</t>
+  </si>
+  <si>
     <t>6162_f_ya_1177</t>
   </si>
   <si>
+    <t>618_f_hy_0338</t>
+  </si>
+  <si>
     <t>619_f_xy_0809</t>
   </si>
   <si>
@@ -253,9 +259,6 @@
     <t>919_f_ya_9057</t>
   </si>
   <si>
-    <t>920_f_huat_2997</t>
-  </si>
-  <si>
     <t>922_f_ya_9073</t>
   </si>
   <si>
@@ -307,9 +310,6 @@
     <t>1201</t>
   </si>
   <si>
-    <t>1202</t>
-  </si>
-  <si>
     <t>1203</t>
   </si>
   <si>
@@ -367,6 +367,9 @@
     <t>6162</t>
   </si>
   <si>
+    <t>618</t>
+  </si>
+  <si>
     <t>619</t>
   </si>
   <si>
@@ -469,9 +472,6 @@
     <t>919</t>
   </si>
   <si>
-    <t>920</t>
-  </si>
-  <si>
     <t>922</t>
   </si>
   <si>
@@ -499,7 +499,7 @@
     <t>IC2008</t>
   </si>
   <si>
-    <t>IF2008</t>
+    <t>IF2009</t>
   </si>
   <si>
     <t>short</t>
@@ -520,61 +520,58 @@
     <t>Price</t>
   </si>
   <si>
-    <t>09:34:27</t>
-  </si>
-  <si>
-    <t>09:36:24</t>
-  </si>
-  <si>
-    <t>09:36:15</t>
-  </si>
-  <si>
-    <t>09:36:07</t>
-  </si>
-  <si>
-    <t>09:35:59</t>
-  </si>
-  <si>
-    <t>09:35:51</t>
-  </si>
-  <si>
-    <t>09:35:35</t>
-  </si>
-  <si>
-    <t>09:35:27</t>
-  </si>
-  <si>
-    <t>09:35:19</t>
-  </si>
-  <si>
-    <t>09:35:03</t>
-  </si>
-  <si>
-    <t>09:34:55</t>
-  </si>
-  <si>
-    <t>09:37:13</t>
-  </si>
-  <si>
-    <t>09:37:18</t>
-  </si>
-  <si>
-    <t>09:37:56</t>
-  </si>
-  <si>
-    <t>09:38:35</t>
-  </si>
-  <si>
-    <t>09:38:19</t>
-  </si>
-  <si>
-    <t>09:38:12</t>
+    <t>09:33:05</t>
+  </si>
+  <si>
+    <t>09:33:16</t>
+  </si>
+  <si>
+    <t>09:33:10</t>
+  </si>
+  <si>
+    <t>09:31:28</t>
+  </si>
+  <si>
+    <t>09:32:27</t>
+  </si>
+  <si>
+    <t>09:32:16</t>
+  </si>
+  <si>
+    <t>09:32:08</t>
+  </si>
+  <si>
+    <t>09:32:00</t>
+  </si>
+  <si>
+    <t>09:31:52</t>
+  </si>
+  <si>
+    <t>09:31:44</t>
+  </si>
+  <si>
+    <t>09:30:28</t>
+  </si>
+  <si>
+    <t>09:31:00</t>
+  </si>
+  <si>
+    <t>09:30:52</t>
+  </si>
+  <si>
+    <t>09:30:44</t>
+  </si>
+  <si>
+    <t>09:30:36</t>
+  </si>
+  <si>
+    <t>09:32:34</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>sell</t>
-  </si>
-  <si>
-    <t>buy</t>
   </si>
   <si>
     <t>close</t>
@@ -938,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -987,10 +984,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2">
-        <v>20835520</v>
+        <v>22408000</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -999,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>21727840</v>
+        <v>23201538.092518</v>
       </c>
       <c r="H2">
-        <v>0.6217329288139083</v>
+        <v>0.5513763763845212</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1013,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3">
         <v>1549178.61</v>
@@ -1039,10 +1036,10 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D4">
-        <v>4861661.93</v>
+        <v>4620093.189999999</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1051,10 +1048,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4722061.93</v>
+        <v>4491453.190000001</v>
       </c>
       <c r="H4">
-        <v>0.4084642744192049</v>
+        <v>0.4206645644680535</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1065,10 +1062,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D5">
-        <v>9299636.82</v>
+        <v>12466516.82</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1077,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>9789836.820000008</v>
+        <v>12917156.82</v>
       </c>
       <c r="H5">
-        <v>0.8777416986609173</v>
+        <v>0.6551686348575274</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1091,10 +1088,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>3965954.94</v>
+        <v>3744194.94</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1103,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3834834.940000002</v>
+        <v>3622754.94</v>
       </c>
       <c r="H6">
-        <v>0.4585743135009611</v>
+        <v>0.4780741807504098</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1117,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -1143,10 +1140,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8">
-        <v>10835968.29</v>
+        <v>11788448.29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1155,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>11414888.29</v>
+        <v>12317488.29</v>
       </c>
       <c r="H8">
-        <v>0.6731621199246964</v>
+        <v>0.6145549012736259</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1169,10 +1166,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D9">
-        <v>8965483.57</v>
+        <v>8663083.57</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1181,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>8787283.57</v>
+        <v>8497483.57</v>
       </c>
       <c r="H9">
-        <v>0.2728979872900585</v>
+        <v>0.2779345179716541</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1195,10 +1192,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D10">
-        <v>2121836.37</v>
+        <v>2303276.37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1207,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2230196.37</v>
+        <v>2400116.37</v>
       </c>
       <c r="H10">
-        <v>0.6451535924614568</v>
+        <v>0.5904073726225199</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1221,7 +1218,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D11">
         <v>1001</v>
@@ -1247,10 +1244,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D12">
-        <v>2776414.2</v>
+        <v>3738494.2</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1259,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2931374.2</v>
+        <v>3878374.2</v>
       </c>
       <c r="H12">
-        <v>0.7089829746062445</v>
+        <v>0.5277584612645165</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1273,10 +1270,10 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13">
-        <v>4664554.21</v>
+        <v>5084874.21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1285,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4913314.21</v>
+        <v>5303074.21</v>
       </c>
       <c r="H13">
-        <v>0.6837173965310065</v>
+        <v>0.6239550624730935</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1299,10 +1296,10 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D14">
-        <v>9123212.559999999</v>
+        <v>9667532.559999999</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1311,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>9442892.559999999</v>
+        <v>9944012.559999999</v>
       </c>
       <c r="H14">
-        <v>0.4571117983788643</v>
+        <v>0.427507424628595</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1325,10 +1322,10 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D15">
-        <v>15797424.04</v>
+        <v>17007024.04</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1337,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>16510224.04</v>
+        <v>17623824.04</v>
       </c>
       <c r="H15">
-        <v>0.5809810924891603</v>
+        <v>0.536034403121514</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1351,10 +1348,10 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D16">
-        <v>1348849.4</v>
+        <v>3744334.02</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1363,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1407649.4</v>
+        <v>3865774.019999999</v>
       </c>
       <c r="H16">
-        <v>0.6151787511861974</v>
+        <v>0.4887495208527479</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1377,10 +1374,10 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D17">
-        <v>3502414.02</v>
+        <v>7556344.87</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1389,10 +1386,10 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3639694.02</v>
+        <v>7503944.87</v>
       </c>
       <c r="H17">
-        <v>0.5270843069385267</v>
+        <v>0.1049112185175209</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1403,10 +1400,10 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18">
-        <v>7657144.87</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1415,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>7600544.87</v>
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>0.1051693021582017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1429,10 +1426,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>7021966.390000001</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1441,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>7315406.390000001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6026444144000591</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1455,10 +1452,10 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D20">
-        <v>6457486.39</v>
+        <v>28333597.48</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1467,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>6778926.39</v>
+        <v>28908157.48</v>
       </c>
       <c r="H20">
-        <v>0.6603296956584888</v>
+        <v>0.2941134662727038</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1481,10 +1478,10 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D21">
-        <v>27244957.48</v>
+        <v>9043574.25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1493,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>27864877.48</v>
+        <v>9425174.25</v>
       </c>
       <c r="H21">
-        <v>0.3098134993127554</v>
+        <v>0.6013878841550327</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1507,10 +1504,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D22">
-        <v>8317814.25</v>
+        <v>4566091.74</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1519,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>8723894.25</v>
+        <v>4749011.739999996</v>
       </c>
       <c r="H22">
-        <v>0.6597141867005089</v>
+        <v>0.6105895202524813</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1533,10 +1530,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D23">
-        <v>4223371.74</v>
+        <v>4522815.029999999</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1545,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4415131.74</v>
+        <v>4522815.029999999</v>
       </c>
       <c r="H23">
-        <v>0.6668544843918973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1559,10 +1556,10 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D24">
-        <v>4522815.029999999</v>
+        <v>1784027.15</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1571,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4522815.029999999</v>
+        <v>1794947.15</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.08771823727511976</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1585,10 +1582,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D25">
-        <v>1763867.15</v>
+        <v>22572183.58</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1597,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1775387.15</v>
+        <v>23426583.58</v>
       </c>
       <c r="H25">
-        <v>0.09004728912226272</v>
+        <v>0.5376784009920059</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1614,7 +1611,7 @@
         <v>106</v>
       </c>
       <c r="D26">
-        <v>42235513.46</v>
+        <v>45455033.46</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1623,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>44129993.46</v>
+        <v>47131673.46</v>
       </c>
       <c r="H26">
-        <v>0.5797226148059365</v>
+        <v>0.5346046713445096</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1640,7 +1637,7 @@
         <v>107</v>
       </c>
       <c r="D27">
-        <v>6894623.659999999</v>
+        <v>7516543.659999999</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1649,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>7255303.659999999</v>
+        <v>7840863.659999999</v>
       </c>
       <c r="H27">
-        <v>0.6833630447936341</v>
+        <v>0.6228109825340338</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1692,7 +1689,7 @@
         <v>109</v>
       </c>
       <c r="D29">
-        <v>3960001.27</v>
+        <v>4101121.27</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1701,10 +1698,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>4040641.27</v>
+        <v>4175041.27</v>
       </c>
       <c r="H29">
-        <v>0.2769564346898828</v>
+        <v>0.2639847437963169</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1718,7 +1715,7 @@
         <v>110</v>
       </c>
       <c r="D30">
-        <v>11790836.19</v>
+        <v>11186036.19</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1727,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>11444036.19</v>
+        <v>10898196.862942</v>
       </c>
       <c r="H30">
-        <v>0.5238606292803063</v>
+        <v>0.6668297601331994</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1744,7 +1741,7 @@
         <v>111</v>
       </c>
       <c r="D31">
-        <v>1134718.76</v>
+        <v>1101868.85</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1753,10 +1750,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1124998.76</v>
+        <v>1065508.85</v>
       </c>
       <c r="H31">
-        <v>0.2815533770010555</v>
+        <v>0.2926770622318153</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1796,7 +1793,7 @@
         <v>113</v>
       </c>
       <c r="D33">
-        <v>1094157.25</v>
+        <v>1174797.25</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1805,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1142157.25</v>
+        <v>1215917.25</v>
       </c>
       <c r="H33">
-        <v>0.6065406492845009</v>
+        <v>0.5611250272171071</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1822,7 +1819,7 @@
         <v>114</v>
       </c>
       <c r="D34">
-        <v>14030426.97</v>
+        <v>15179546.97</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1831,10 +1828,10 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>14721266.97</v>
+        <v>15765506.97</v>
       </c>
       <c r="H34">
-        <v>0.6705875533755096</v>
+        <v>0.61669522068024</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1848,7 +1845,7 @@
         <v>115</v>
       </c>
       <c r="D35">
-        <v>1089.25</v>
+        <v>39021727.07</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1857,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1089.25</v>
+        <v>40460927.07</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>0.59019547324475</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1871,10 +1868,10 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36">
-        <v>9810051.17</v>
+        <v>1089.25</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1883,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>9712771.17</v>
+        <v>1089.25</v>
       </c>
       <c r="H36">
-        <v>0.1667314066866871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1897,10 +1894,10 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37">
-        <v>3628182.78</v>
+        <v>2169640.68</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1909,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>3500182.78</v>
+        <v>2129480.68</v>
       </c>
       <c r="H37">
-        <v>0.5012241103591741</v>
+        <v>0.2957521079740436</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1923,10 +1920,10 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38">
-        <v>2052952.71</v>
+        <v>4673091.17</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1935,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1990352.71</v>
+        <v>4602691.17</v>
       </c>
       <c r="H38">
-        <v>0.4068183472867982</v>
+        <v>0.3473793789210498</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1949,10 +1946,10 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D39">
-        <v>8596742.209999999</v>
+        <v>3456982.78</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1961,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>8399942.209999999</v>
+        <v>3365782.78</v>
       </c>
       <c r="H39">
-        <v>0.2891848466657487</v>
+        <v>0.5146261993770139</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1975,10 +1972,10 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40">
-        <v>2148959.14</v>
+        <v>1950559.29</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1987,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>2095679.14</v>
+        <v>1902959.29</v>
       </c>
       <c r="H40">
-        <v>0.3606139821575932</v>
+        <v>0.4136967112943336</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2001,10 +1998,10 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D41">
-        <v>5650799.439999999</v>
+        <v>2301642.45</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2013,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>5504279.439999999</v>
+        <v>2301642.45</v>
       </c>
       <c r="H41">
-        <v>0.3236329876449732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2027,10 +2024,10 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42">
-        <v>5012097.54</v>
+        <v>2067119.66</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2039,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>4875697.54</v>
+        <v>2029999.66</v>
       </c>
       <c r="H42">
-        <v>0.3278890839483862</v>
+        <v>0.3619531640709733</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2053,10 +2050,10 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D43">
-        <v>1386188.82</v>
+        <v>5462479.439999999</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2065,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1331628.82</v>
+        <v>5367439.439999999</v>
       </c>
       <c r="H43">
-        <v>0.5202386653061475</v>
+        <v>0.3276735619768819</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2079,10 +2076,10 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D44">
-        <v>4306176.18</v>
+        <v>4810497.54</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2091,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>4181616.18</v>
+        <v>4719697.54</v>
       </c>
       <c r="H44">
-        <v>0.4301026020996504</v>
+        <v>0.3336010383411137</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2105,10 +2102,10 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D45">
-        <v>2104913.85</v>
+        <v>1305548.82</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2117,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>2021873.85</v>
+        <v>1269388.82</v>
       </c>
       <c r="H45">
-        <v>0.5534873503606567</v>
+        <v>0.5374882693546963</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2131,10 +2128,10 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D46">
-        <v>4192521.46</v>
+        <v>4124736.18</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2143,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>4026921.459999998</v>
+        <v>4042656.18</v>
       </c>
       <c r="H46">
-        <v>0.5955000671902851</v>
+        <v>0.4381545006877137</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2157,10 +2154,10 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47">
-        <v>4538082.98</v>
+        <v>1983953.85</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2169,10 +2166,10 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>4411722.98</v>
+        <v>1929233.850000001</v>
       </c>
       <c r="H47">
-        <v>0.4076692956818427</v>
+        <v>0.5712875087693488</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2183,10 +2180,10 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D48">
-        <v>4139477.14</v>
+        <v>3950601.46</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2195,10 +2192,10 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>4041197.14</v>
+        <v>3844041.46</v>
       </c>
       <c r="H48">
-        <v>0.2769183391038429</v>
+        <v>0.6143908760026745</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2209,10 +2206,10 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D49">
-        <v>3681858.14</v>
+        <v>4356642.98</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2221,10 +2218,10 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>3881458.140000002</v>
+        <v>4277802.98</v>
       </c>
       <c r="H49">
-        <v>0.7221224341221413</v>
+        <v>0.4140695605387605</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2235,10 +2232,10 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D50">
-        <v>1204561.34</v>
+        <v>3979567.16</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2247,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1162081.34</v>
+        <v>3898927.16</v>
       </c>
       <c r="H50">
-        <v>0.5158915984314835</v>
+        <v>0.3634452098869166</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2261,10 +2258,10 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D51">
-        <v>3619801.77</v>
+        <v>3958018.14</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2273,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>3518721.77</v>
+        <v>4078338.139999998</v>
       </c>
       <c r="H51">
-        <v>0.3180363987687495</v>
+        <v>0.6771052093292101</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2287,10 +2284,10 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D52">
-        <v>5292003.08</v>
+        <v>1144081.34</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2299,10 +2296,10 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>5057763.08</v>
+        <v>1117921.340000001</v>
       </c>
       <c r="H52">
-        <v>0.505737568079207</v>
+        <v>0.5281552278087828</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2313,10 +2310,10 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>3449806.95</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2325,10 +2322,10 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53" t="s">
-        <v>154</v>
+        <v>3332659.054952001</v>
+      </c>
+      <c r="H53">
+        <v>0.236222183853529</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2339,10 +2336,10 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D54">
-        <v>1713551.81</v>
+        <v>4969443.08</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2351,10 +2348,10 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>1834831.81</v>
+        <v>4835683.08</v>
       </c>
       <c r="H54">
-        <v>0.8712994789424323</v>
+        <v>0.5209592023139781</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2365,10 +2362,10 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D55">
-        <v>12304327.5</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2377,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>13053127.50000001</v>
-      </c>
-      <c r="H55">
-        <v>0.587882283383809</v>
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2394,7 +2391,7 @@
         <v>135</v>
       </c>
       <c r="D56">
-        <v>7393281.970000001</v>
+        <v>2274831.81</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2403,10 +2400,10 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>7784281.970000001</v>
+        <v>2341391.81</v>
       </c>
       <c r="H56">
-        <v>0.5134346385964739</v>
+        <v>0.6724615646451757</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2420,7 +2417,7 @@
         <v>136</v>
       </c>
       <c r="D57">
-        <v>4380338.279999999</v>
+        <v>13272007.5</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2429,10 +2426,10 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>4146338.279999999</v>
+        <v>13671367.49999999</v>
       </c>
       <c r="H57">
-        <v>0.5783493381538567</v>
+        <v>0.5528035728686247</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2443,10 +2440,10 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D58">
-        <v>3292723.93</v>
+        <v>7897281.970000001</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2455,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>3292723.93</v>
+        <v>8105281.970000001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>0.4856388728447902</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2469,10 +2466,10 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D59">
-        <v>1314853.94</v>
+        <v>4077938.28</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2481,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>1314853.94</v>
+        <v>3951338.28</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>0.5977073671353698</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2495,10 +2492,10 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D60">
-        <v>12227742.81</v>
+        <v>3292723.93</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2507,10 +2504,10 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>13134862.81</v>
+        <v>3292723.93</v>
       </c>
       <c r="H60">
-        <v>0.7302800294721921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2521,10 +2518,10 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D61">
-        <v>2107296.67</v>
+        <v>1314853.94</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2533,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <v>2202096.670000001</v>
+        <v>1314853.94</v>
       </c>
       <c r="H61">
-        <v>0.4355906863979771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2547,10 +2544,10 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D62">
-        <v>2413761.11</v>
+        <v>17397022.81</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2559,10 +2556,10 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>2382561.11</v>
+        <v>17884222.81</v>
       </c>
       <c r="H62">
-        <v>0.134199118191768</v>
+        <v>0.5282296077589513</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2573,10 +2570,10 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D63">
-        <v>3692020.94</v>
+        <v>2228256.67</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2585,10 +2582,10 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>3929020.94</v>
+        <v>2279136.67</v>
       </c>
       <c r="H63">
-        <v>0.6611998357025809</v>
+        <v>0.4144980037550797</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2599,10 +2596,10 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D64">
-        <v>2837867.63</v>
+        <v>2373441.11</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2611,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>2978627.63</v>
+        <v>2356801.11</v>
       </c>
       <c r="H64">
-        <v>0.5635556398837273</v>
+        <v>0.1336129716945016</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2625,10 +2622,10 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D65">
-        <v>3651376.2</v>
+        <v>3994420.94</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2637,10 +2634,10 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <v>3908016.2</v>
+        <v>4119220.94</v>
       </c>
       <c r="H65">
-        <v>0.8181583280028368</v>
+        <v>0.6211261880019476</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2651,10 +2648,10 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D66">
-        <v>19364549.73</v>
+        <v>3019307.63</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2663,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>20202381.0860296</v>
+        <v>3093827.63</v>
       </c>
       <c r="H66">
-        <v>0.4428630448015342</v>
+        <v>0.5343609915333259</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2677,10 +2674,10 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D67">
-        <v>3780623.85</v>
+        <v>3973936.2</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2689,10 +2686,10 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>4035983.850000004</v>
+        <v>4111303.832048</v>
       </c>
       <c r="H67">
-        <v>0.6733846568786436</v>
+        <v>0.7180641763781793</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2703,10 +2700,10 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D68">
-        <v>4263117.279999999</v>
+        <v>20424474.76</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2715,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>4278933.567619999</v>
+        <v>20821914.76</v>
       </c>
       <c r="H68">
-        <v>0.03736183267947326</v>
+        <v>0.4688269696864319</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2729,10 +2726,10 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D69">
-        <v>62444085.42999999</v>
+        <v>5497352.12</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2741,10 +2738,10 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <v>66336749.47170805</v>
+        <v>5655432.12</v>
       </c>
       <c r="H69">
-        <v>0.5832099086570431</v>
+        <v>0.5289679615144953</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2755,10 +2752,10 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D70">
-        <v>10846859.37</v>
+        <v>3276040.61</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2767,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>11559659.37</v>
+        <v>3318240.61</v>
       </c>
       <c r="H70">
-        <v>0.7779312272243883</v>
+        <v>0.2372486183272887</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2781,10 +2778,10 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>67325745.90000001</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2793,10 +2790,10 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71" t="s">
-        <v>154</v>
+        <v>69317585.90000001</v>
+      </c>
+      <c r="H71">
+        <v>0.5360559678694777</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2807,10 +2804,10 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D72">
-        <v>6586045.029999999</v>
+        <v>11754059.37</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2819,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>7029565.029999999</v>
+        <v>12133859.37</v>
       </c>
       <c r="H72">
-        <v>0.7959821092941792</v>
+        <v>0.7299029706819488</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2833,10 +2830,10 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D73">
-        <v>2137860.09</v>
+        <v>7131577.2</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2845,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="G73">
-        <v>2106100.09</v>
+        <v>7357257.2</v>
       </c>
       <c r="H73">
-        <v>0.1537841442283971</v>
+        <v>0.6955189768273971</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2859,22 +2856,48 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74">
+        <v>2099840.63</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>2082480.63</v>
+      </c>
+      <c r="H74">
+        <v>0.151213507325636</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" t="s">
         <v>153</v>
       </c>
-      <c r="D74">
-        <v>12244729.25</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>12954089.25000001</v>
-      </c>
-      <c r="H74">
-        <v>0.5555133565256229</v>
+      <c r="D75">
+        <v>13148889.25</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>13537489.25</v>
+      </c>
+      <c r="H75">
+        <v>0.5235587093818003</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +2907,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2924,7 +2947,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>158</v>
@@ -2933,7 +2956,7 @@
         <v>161</v>
       </c>
       <c r="F2">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2944,16 +2967,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
         <v>162</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2961,19 +2984,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
         <v>158</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2981,19 +3004,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
         <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F5">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3001,19 +3024,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3024,16 +3047,16 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
         <v>161</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3041,19 +3064,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8">
         <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3061,19 +3084,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
         <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3081,10 +3104,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
         <v>158</v>
@@ -3093,7 +3116,7 @@
         <v>161</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3101,10 +3124,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
         <v>158</v>
@@ -3113,7 +3136,7 @@
         <v>161</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3124,16 +3147,16 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E12" t="s">
         <v>161</v>
       </c>
       <c r="F12">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3141,19 +3164,19 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E13" t="s">
         <v>161</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3161,10 +3184,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
         <v>158</v>
@@ -3173,7 +3196,7 @@
         <v>161</v>
       </c>
       <c r="F14">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3181,10 +3204,10 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
         <v>158</v>
@@ -3193,7 +3216,7 @@
         <v>161</v>
       </c>
       <c r="F15">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3201,16 +3224,16 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D16" t="s">
         <v>158</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F16">
         <v>5</v>
@@ -3221,10 +3244,10 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
         <v>158</v>
@@ -3233,7 +3256,7 @@
         <v>161</v>
       </c>
       <c r="F17">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3241,19 +3264,19 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
         <v>158</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3261,10 +3284,10 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
         <v>158</v>
@@ -3273,7 +3296,7 @@
         <v>161</v>
       </c>
       <c r="F19">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3281,10 +3304,10 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
         <v>158</v>
@@ -3293,7 +3316,7 @@
         <v>161</v>
       </c>
       <c r="F20">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3301,10 +3324,10 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
         <v>158</v>
@@ -3313,7 +3336,7 @@
         <v>161</v>
       </c>
       <c r="F21">
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3321,10 +3344,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D22" t="s">
         <v>158</v>
@@ -3333,7 +3356,7 @@
         <v>161</v>
       </c>
       <c r="F22">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3341,19 +3364,19 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E23" t="s">
         <v>161</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3367,13 +3390,13 @@
         <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
         <v>161</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3381,19 +3404,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
         <v>161</v>
       </c>
       <c r="F25">
-        <v>158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3407,13 +3430,13 @@
         <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E26" t="s">
         <v>161</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3421,10 +3444,10 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
         <v>158</v>
@@ -3433,7 +3456,7 @@
         <v>161</v>
       </c>
       <c r="F27">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3441,19 +3464,19 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D28" t="s">
         <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F28">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3461,19 +3484,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E29" t="s">
         <v>162</v>
       </c>
       <c r="F29">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3481,19 +3504,19 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3501,10 +3524,10 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
         <v>158</v>
@@ -3513,7 +3536,7 @@
         <v>161</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3521,10 +3544,10 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
         <v>158</v>
@@ -3533,7 +3556,7 @@
         <v>161</v>
       </c>
       <c r="F32">
-        <v>57</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3541,19 +3564,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E33" t="s">
         <v>162</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3561,19 +3584,19 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
         <v>159</v>
       </c>
       <c r="E34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3581,7 +3604,7 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
         <v>117</v>
@@ -3590,10 +3613,10 @@
         <v>159</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3601,7 +3624,7 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
         <v>118</v>
@@ -3613,7 +3636,7 @@
         <v>162</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3621,19 +3644,19 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
         <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E37" t="s">
         <v>162</v>
       </c>
       <c r="F37">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3641,13 +3664,13 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E38" t="s">
         <v>162</v>
@@ -3661,10 +3684,10 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
         <v>159</v>
@@ -3681,10 +3704,10 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
         <v>158</v>
@@ -3701,10 +3724,10 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" t="s">
         <v>158</v>
@@ -3721,10 +3744,10 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" t="s">
         <v>158</v>
@@ -3741,10 +3764,10 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
         <v>158</v>
@@ -3761,10 +3784,10 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" t="s">
         <v>158</v>
@@ -3781,10 +3804,10 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
         <v>158</v>
@@ -3801,10 +3824,10 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D46" t="s">
         <v>158</v>
@@ -3813,7 +3836,7 @@
         <v>162</v>
       </c>
       <c r="F46">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3821,10 +3844,10 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D47" t="s">
         <v>159</v>
@@ -3841,10 +3864,10 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D48" t="s">
         <v>158</v>
@@ -3861,10 +3884,10 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D49" t="s">
         <v>158</v>
@@ -3881,10 +3904,10 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D50" t="s">
         <v>158</v>
@@ -3893,7 +3916,7 @@
         <v>162</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3901,10 +3924,10 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
         <v>158</v>
@@ -3921,10 +3944,10 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
         <v>158</v>
@@ -3941,10 +3964,10 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
         <v>158</v>
@@ -3961,10 +3984,10 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D54" t="s">
         <v>158</v>
@@ -3981,10 +4004,10 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D55" t="s">
         <v>158</v>
@@ -4001,10 +4024,10 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
         <v>158</v>
@@ -4021,10 +4044,10 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
         <v>158</v>
@@ -4041,10 +4064,10 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
         <v>158</v>
@@ -4061,10 +4084,10 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
         <v>158</v>
@@ -4081,10 +4104,10 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
         <v>158</v>
@@ -4101,10 +4124,10 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D61" t="s">
         <v>158</v>
@@ -4121,10 +4144,10 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
         <v>158</v>
@@ -4133,7 +4156,7 @@
         <v>161</v>
       </c>
       <c r="F62">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4141,10 +4164,10 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
         <v>158</v>
@@ -4153,7 +4176,7 @@
         <v>162</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4161,10 +4184,10 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D64" t="s">
         <v>158</v>
@@ -4173,7 +4196,7 @@
         <v>161</v>
       </c>
       <c r="F64">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4181,19 +4204,19 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
         <v>158</v>
       </c>
       <c r="E65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4201,10 +4224,10 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
         <v>158</v>
@@ -4213,7 +4236,7 @@
         <v>161</v>
       </c>
       <c r="F66">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4221,19 +4244,19 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
         <v>158</v>
       </c>
       <c r="E67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4241,10 +4264,10 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
         <v>158</v>
@@ -4253,7 +4276,7 @@
         <v>161</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4261,10 +4284,10 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D69" t="s">
         <v>158</v>
@@ -4273,7 +4296,7 @@
         <v>161</v>
       </c>
       <c r="F69">
-        <v>242</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4281,19 +4304,19 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D70" t="s">
         <v>158</v>
       </c>
       <c r="E70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F70">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4301,19 +4324,19 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D71" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E71" t="s">
         <v>161</v>
       </c>
       <c r="F71">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4321,58 +4344,18 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" t="s">
-        <v>81</v>
-      </c>
-      <c r="C73" t="s">
-        <v>153</v>
-      </c>
-      <c r="D73" t="s">
-        <v>159</v>
-      </c>
-      <c r="E73" t="s">
-        <v>161</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" t="s">
-        <v>153</v>
-      </c>
-      <c r="D74" t="s">
-        <v>158</v>
-      </c>
-      <c r="E74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F74">
         <v>44</v>
       </c>
     </row>
@@ -4383,7 +4366,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4417,16 +4400,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>158</v>
       </c>
       <c r="E2">
-        <v>-11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4434,16 +4417,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
         <v>158</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4451,16 +4434,33 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
         <v>158</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4470,7 +4470,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4520,10 +4520,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
         <v>167</v>
@@ -4532,16 +4532,16 @@
         <v>158</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>6634.8</v>
+        <v>6499</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4549,10 +4549,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
         <v>168</v>
@@ -4561,16 +4561,16 @@
         <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>6630.4</v>
+        <v>6496.6</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4578,10 +4578,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="D4" t="s">
         <v>169</v>
@@ -4590,16 +4590,16 @@
         <v>158</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>6636.2</v>
+        <v>6497.4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4607,10 +4607,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
         <v>170</v>
@@ -4619,16 +4619,16 @@
         <v>158</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>6638.2</v>
+        <v>6483.2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4636,10 +4636,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
         <v>171</v>
@@ -4648,16 +4648,16 @@
         <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>6635.4</v>
+        <v>6490.2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4665,10 +4665,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
         <v>172</v>
@@ -4677,16 +4677,16 @@
         <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>6636.4</v>
+        <v>6489.2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4694,10 +4694,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
         <v>173</v>
@@ -4706,16 +4706,16 @@
         <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>6638.4</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4723,10 +4723,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
         <v>174</v>
@@ -4735,16 +4735,16 @@
         <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>6638.4</v>
+        <v>6494</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4752,10 +4752,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
         <v>175</v>
@@ -4764,16 +4764,16 @@
         <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>6637.2</v>
+        <v>6492.8</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4781,10 +4781,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="D11" t="s">
         <v>176</v>
@@ -4793,16 +4793,16 @@
         <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>6640</v>
+        <v>6488</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4810,10 +4810,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
         <v>177</v>
@@ -4825,13 +4825,13 @@
         <v>184</v>
       </c>
       <c r="G12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>6641.2</v>
+        <v>6481.6</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4839,10 +4839,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D13" t="s">
         <v>178</v>
@@ -4851,16 +4851,16 @@
         <v>158</v>
       </c>
       <c r="F13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" t="s">
         <v>185</v>
-      </c>
-      <c r="G13" t="s">
-        <v>186</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>6620.2</v>
+        <v>6487.6</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4868,10 +4868,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D14" t="s">
         <v>179</v>
@@ -4880,16 +4880,16 @@
         <v>158</v>
       </c>
       <c r="F14" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" t="s">
         <v>185</v>
-      </c>
-      <c r="G14" t="s">
-        <v>186</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>6622.8</v>
+        <v>6487.6</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4897,10 +4897,10 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
         <v>180</v>
@@ -4909,16 +4909,16 @@
         <v>158</v>
       </c>
       <c r="F15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" t="s">
         <v>185</v>
-      </c>
-      <c r="G15" t="s">
-        <v>186</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>6623.6</v>
+        <v>6486.8</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4926,10 +4926,10 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D16" t="s">
         <v>181</v>
@@ -4938,16 +4938,16 @@
         <v>158</v>
       </c>
       <c r="F16" t="s">
+        <v>184</v>
+      </c>
+      <c r="G16" t="s">
         <v>185</v>
-      </c>
-      <c r="G16" t="s">
-        <v>186</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>6622</v>
+        <v>6484.6</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4955,10 +4955,10 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
         <v>182</v>
@@ -4967,45 +4967,16 @@
         <v>158</v>
       </c>
       <c r="F17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" t="s">
         <v>185</v>
-      </c>
-      <c r="G17" t="s">
-        <v>186</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>6623.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" t="s">
-        <v>185</v>
-      </c>
-      <c r="G18" t="s">
-        <v>186</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>6623.2</v>
+        <v>6494.4</v>
       </c>
     </row>
   </sheetData>

--- a/info_faccts.xlsx
+++ b/info_faccts.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="278">
   <si>
     <t>DataDateTime</t>
   </si>
@@ -46,7 +46,7 @@
     <t>CurrentMarginRate</t>
   </si>
   <si>
-    <t>20200825T093111</t>
+    <t>20200907T093103</t>
   </si>
   <si>
     <t>10_f_xb_3670</t>
@@ -136,6 +136,9 @@
     <t>308_f_zx_0056</t>
   </si>
   <si>
+    <t>310_f_huat_6138</t>
+  </si>
+  <si>
     <t>601_f_huat_1561</t>
   </si>
   <si>
@@ -247,7 +250,7 @@
     <t>807_f_nh_5910</t>
   </si>
   <si>
-    <t>808_f_nh_6071</t>
+    <t>808_f_dx_6071</t>
   </si>
   <si>
     <t>809_f_huat_5036</t>
@@ -382,6 +385,9 @@
     <t>mtx8_zx</t>
   </si>
   <si>
+    <t>mtx10_ht</t>
+  </si>
+  <si>
     <t>ct1_ht</t>
   </si>
   <si>
@@ -493,7 +499,7 @@
     <t>km7_nh</t>
   </si>
   <si>
-    <t>km8_nh</t>
+    <t>km8_dx</t>
   </si>
   <si>
     <t>km9_ht</t>
@@ -622,6 +628,9 @@
     <t>308</t>
   </si>
   <si>
+    <t>310</t>
+  </si>
+  <si>
     <t>601</t>
   </si>
   <si>
@@ -790,9 +799,18 @@
     <t>IC2009</t>
   </si>
   <si>
+    <t>IC2010</t>
+  </si>
+  <si>
     <t>IF2009</t>
   </si>
   <si>
+    <t>IH2009</t>
+  </si>
+  <si>
+    <t>IC2012</t>
+  </si>
+  <si>
     <t>sell</t>
   </si>
   <si>
@@ -811,49 +829,25 @@
     <t>Price</t>
   </si>
   <si>
+    <t>09:30:17</t>
+  </si>
+  <si>
+    <t>09:30:33</t>
+  </si>
+  <si>
     <t>09:30:13</t>
   </si>
   <si>
-    <t>09:30:23</t>
-  </si>
-  <si>
-    <t>09:30:36</t>
-  </si>
-  <si>
-    <t>09:30:11</t>
-  </si>
-  <si>
-    <t>09:30:19</t>
-  </si>
-  <si>
-    <t>09:30:05</t>
-  </si>
-  <si>
-    <t>09:30:07</t>
+    <t>09:30:22</t>
+  </si>
+  <si>
+    <t>09:30:29</t>
+  </si>
+  <si>
+    <t>09:30:37</t>
   </si>
   <si>
     <t>09:30:15</t>
-  </si>
-  <si>
-    <t>09:30:08</t>
-  </si>
-  <si>
-    <t>09:30:16</t>
-  </si>
-  <si>
-    <t>09:30:09</t>
-  </si>
-  <si>
-    <t>09:30:17</t>
-  </si>
-  <si>
-    <t>09:30:26</t>
-  </si>
-  <si>
-    <t>09:30:34</t>
-  </si>
-  <si>
-    <t>close</t>
   </si>
   <si>
     <t>open</t>
@@ -1214,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1267,13 +1261,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E2">
-        <v>22494158.12</v>
+        <v>22659692.94</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1282,10 +1276,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>22310078.12</v>
+        <v>22386412.94</v>
       </c>
       <c r="I2">
-        <v>0.5958535836807729</v>
+        <v>0.465093395172581</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1296,10 +1290,10 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E3">
         <v>1548220.71</v>
@@ -1314,7 +1308,7 @@
         <v>1548220.71</v>
       </c>
       <c r="I3">
-        <v>0.3810503219531277</v>
+        <v>0.3816200081705405</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1325,13 +1319,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E4">
-        <v>4603225.18</v>
+        <v>12991206.5</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1340,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4626545.180000002</v>
+        <v>13076326.5</v>
       </c>
       <c r="I4">
-        <v>0.3740415218424387</v>
+        <v>0.2289288815172978</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1354,13 +1348,13 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E5">
-        <v>11006147.86</v>
+        <v>11181127.27</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1369,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>10915427.86</v>
+        <v>11054647.27</v>
       </c>
       <c r="I5">
-        <v>0.7926945339181601</v>
+        <v>0.5810633160075491</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1383,13 +1377,13 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E6">
-        <v>3728909.76</v>
+        <v>7748509.76</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1398,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3750109.76</v>
+        <v>7790509.76</v>
       </c>
       <c r="I6">
-        <v>0.4195077212886696</v>
+        <v>0.2022399109349168</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1412,10 +1406,10 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -1441,13 +1435,13 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E8">
-        <v>16442784.01</v>
+        <v>16391371.17</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1456,10 +1450,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>16339104.00999999</v>
+        <v>16185931.17</v>
       </c>
       <c r="I8">
-        <v>0.4621648773016167</v>
+        <v>0.4643392537051049</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1470,13 +1464,13 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E9">
-        <v>8646883.57</v>
+        <v>12703265.1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1485,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8679883.57</v>
+        <v>12886385.1</v>
       </c>
       <c r="I9">
-        <v>0.2718700062010164</v>
+        <v>0.5135123891338623</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1499,13 +1493,13 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E10">
-        <v>2315890.84</v>
+        <v>2171155.76</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1514,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2296450.84</v>
+        <v>2171155.76</v>
       </c>
       <c r="I10">
-        <v>0.685057120578292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1528,10 +1522,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E11">
         <v>1001</v>
@@ -1557,13 +1551,13 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E12">
-        <v>3352259.95</v>
+        <v>3389276.97</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1572,10 +1566,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3326339.949999998</v>
+        <v>3352556.97</v>
       </c>
       <c r="I12">
-        <v>0.5675427131252778</v>
+        <v>0.4177153177504392</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1586,13 +1580,13 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E13">
-        <v>5108130.57</v>
+        <v>5242052.27</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1601,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5058570.569999997</v>
+        <v>5180852.27</v>
       </c>
       <c r="I13">
-        <v>0.6530935872660965</v>
+        <v>0.4505096610291882</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1615,13 +1609,13 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E14">
-        <v>9696692.559999999</v>
+        <v>9940047.890000001</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1630,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9640627.163439995</v>
+        <v>9878847.890000001</v>
       </c>
       <c r="I14">
-        <v>0.3916425701346957</v>
+        <v>0.2362647978781664</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1644,13 +1638,13 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E15">
-        <v>17071824.04</v>
+        <v>17376728.6</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1659,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16932624.04</v>
+        <v>17206088.6</v>
       </c>
       <c r="I15">
-        <v>0.5574564212671198</v>
+        <v>0.3731639043169868</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1673,13 +1667,13 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E16">
-        <v>3619481.54</v>
+        <v>3599744.8</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1688,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3588801.54</v>
+        <v>3564224.799999997</v>
       </c>
       <c r="I16">
-        <v>0.5698726934897603</v>
+        <v>0.5238780673991162</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1702,13 +1696,13 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E17">
-        <v>1455049.4</v>
+        <v>1450369.64</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1717,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1444249.4</v>
+        <v>1430612.937184</v>
       </c>
       <c r="I17">
-        <v>0.5900296721605008</v>
+        <v>0.5891474752486435</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1731,13 +1725,13 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E18">
-        <v>4757294.02</v>
+        <v>4754283.34</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1746,10 +1740,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4731374.019999999</v>
+        <v>4705323.339999998</v>
       </c>
       <c r="I18">
-        <v>0.3990046003591998</v>
+        <v>0.3968312196797938</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1760,13 +1754,13 @@
         <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E19">
-        <v>7052206.390000001</v>
+        <v>8110307.13</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1775,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6983461.41112</v>
+        <v>8028707.13</v>
       </c>
       <c r="I19">
-        <v>0.6758617427862375</v>
+        <v>0.4464850369999735</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1789,13 +1783,13 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E20">
-        <v>28391917.48</v>
+        <v>38330287.89</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1804,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>28275277.48</v>
+        <v>38109967.89</v>
       </c>
       <c r="I20">
-        <v>0.3004490408983247</v>
+        <v>0.2204800178329405</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1818,13 +1812,13 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E21">
-        <v>9082454.25</v>
+        <v>9073062.75</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1833,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>9004694.25</v>
+        <v>8940382.75</v>
       </c>
       <c r="I21">
-        <v>0.6289519491458581</v>
+        <v>0.5395350215850657</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1847,13 +1841,13 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E22">
-        <v>4584451.74</v>
+        <v>4662613.89</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1862,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4544331.74</v>
+        <v>4613653.889999998</v>
       </c>
       <c r="I22">
-        <v>0.6375656896914836</v>
+        <v>0.4384422516791784</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1876,10 +1870,10 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E23">
         <v>4522815.029999999</v>
@@ -1905,13 +1899,13 @@
         <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E24">
-        <v>1780435.71</v>
+        <v>1787292.78</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1920,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1777204.1404</v>
+        <v>1787292.78</v>
       </c>
       <c r="I24">
-        <v>0.08852106318219108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1934,13 +1928,13 @@
         <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E25">
-        <v>22658583.58</v>
+        <v>22563985.11</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1949,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>22482583.58</v>
+        <v>22221585.11</v>
       </c>
       <c r="I25">
-        <v>0.5597933153552631</v>
+        <v>0.5601818204408003</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1963,13 +1957,13 @@
         <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E26">
-        <v>45628368.2</v>
+        <v>45671782.19</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1978,10 +1972,10 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>45282768.2</v>
+        <v>45161782.19</v>
       </c>
       <c r="I26">
-        <v>0.5558670770485272</v>
+        <v>0.4306783093317956</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1992,13 +1986,13 @@
         <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E27">
-        <v>7550958.290000001</v>
+        <v>7612850.040000001</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2007,10 +2001,10 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>7483998.290000001</v>
+        <v>7527170.039999997</v>
       </c>
       <c r="I27">
-        <v>0.6516463274071645</v>
+        <v>0.4341118352097174</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2021,10 +2015,10 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E28">
         <v>1060.51</v>
@@ -2050,13 +2044,13 @@
         <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E29">
-        <v>4108681.27</v>
+        <v>4077166.15</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2065,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>4093561.27</v>
+        <v>4054766.15</v>
       </c>
       <c r="I29">
-        <v>0.2690175930846639</v>
+        <v>0.1942839539587258</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2079,13 +2073,13 @@
         <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E30">
-        <v>12216463.57</v>
+        <v>32619369.1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2094,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>12281263.57</v>
+        <v>33076969.1</v>
       </c>
       <c r="I30">
-        <v>0.4803658814399991</v>
+        <v>0.6192277151536233</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2108,13 +2102,13 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E31">
-        <v>1097308.85</v>
+        <v>30822363.63</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2123,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>1109788.85</v>
+        <v>31337163.63</v>
       </c>
       <c r="I31">
-        <v>0.2805474212504477</v>
+        <v>0.5530517121660754</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2137,13 +2131,13 @@
         <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E32">
-        <v>1637.84</v>
+        <v>1116028.85</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2152,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1637.84</v>
+        <v>1118548.85</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>0.2801912495819918</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2166,13 +2160,13 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E33">
-        <v>4103808.52</v>
+        <v>1637.84</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2181,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>4129728.520000002</v>
+        <v>1637.84</v>
       </c>
       <c r="I33">
-        <v>0.4571341653228089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2195,13 +2189,13 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E34">
-        <v>1365128.89</v>
+        <v>13924932.4</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2210,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1374568.89</v>
+        <v>14004132.4</v>
       </c>
       <c r="I34">
-        <v>0.4578017184718912</v>
+        <v>0.2025111959095731</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2224,13 +2218,13 @@
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D35" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E35">
-        <v>1179117.25</v>
+        <v>4541517.8</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2239,10 +2233,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1169677.25</v>
+        <v>4614477.8</v>
       </c>
       <c r="I35">
-        <v>0.5828274423564278</v>
+        <v>0.5462986949465876</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2253,13 +2247,13 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D36" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E36">
-        <v>3083887.21</v>
+        <v>1171277.25</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2268,10 +2262,10 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>3101167.21</v>
+        <v>1153357.25</v>
       </c>
       <c r="I36">
-        <v>0.4058342923082822</v>
+        <v>0.5919581291919742</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2282,13 +2276,13 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E37">
-        <v>10407847.53</v>
+        <v>8575614.959999999</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2297,10 +2291,10 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>10287487.53</v>
+        <v>8718974.959999999</v>
       </c>
       <c r="I37">
-        <v>0.8449030897634537</v>
+        <v>0.578252193994144</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2311,13 +2305,13 @@
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E38">
-        <v>5083779.33</v>
+        <v>1001</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2326,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>5103219.33</v>
+        <v>1001</v>
       </c>
       <c r="I38">
-        <v>0.3005690919422035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2340,13 +2334,13 @@
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E39">
-        <v>45806244.6</v>
+        <v>5401419.33</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2355,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>45523044.6</v>
+        <v>5442459.33</v>
       </c>
       <c r="I39">
-        <v>0.4146998551146994</v>
+        <v>0.2822553384151794</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2369,13 +2363,13 @@
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D40" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E40">
-        <v>3173430.61</v>
+        <v>45600416.97</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2384,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>3197030.61</v>
+        <v>45100416.97</v>
       </c>
       <c r="I40">
-        <v>0.4920816194499933</v>
+        <v>0.4229957167067846</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2398,13 +2392,13 @@
         <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E41">
-        <v>8376883.08</v>
+        <v>13808486.24</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2413,10 +2407,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>8402843.08</v>
+        <v>14048246.24</v>
       </c>
       <c r="I41">
-        <v>0.2059445813190171</v>
+        <v>0.6056258307727389</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2427,13 +2421,13 @@
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E42">
-        <v>38172927.07</v>
+        <v>8400080.35</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2442,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>37870527.07</v>
+        <v>8547920.35</v>
       </c>
       <c r="I42">
-        <v>0.6300466839528462</v>
+        <v>0.6082557379000383</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2456,13 +2450,13 @@
         <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E43">
-        <v>1089.25</v>
+        <v>38618946.18</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2471,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>1089.25</v>
+        <v>38193666.18</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>0.4475938371412979</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2485,13 +2479,13 @@
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E44">
-        <v>1465320.68</v>
+        <v>1089.25</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2500,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>1474760.68</v>
+        <v>1089.25</v>
       </c>
       <c r="I44">
-        <v>0.4266997408691422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2514,13 +2508,13 @@
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E45">
-        <v>4661096.99</v>
+        <v>1473160.68</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2529,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>4678696.99</v>
+        <v>1491400.68</v>
       </c>
       <c r="I45">
-        <v>0.2689979715912314</v>
+        <v>0.4225697416203403</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2543,13 +2537,13 @@
         <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D46" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E46">
-        <v>3407036.58</v>
+        <v>8176776.99</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2558,10 +2552,10 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>3426476.58</v>
+        <v>8211656.99</v>
       </c>
       <c r="I46">
-        <v>0.4476522644144266</v>
+        <v>0.1534941853434625</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2572,13 +2566,13 @@
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E47">
-        <v>1945159.29</v>
+        <v>13539627.59</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2587,10 +2581,10 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1955959.29</v>
+        <v>13778410.302516</v>
       </c>
       <c r="I47">
-        <v>0.4021556092816226</v>
+        <v>0.6938743868190809</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2601,13 +2595,13 @@
         <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E48">
-        <v>6022855.09</v>
+        <v>5335042.96</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2616,10 +2610,10 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>6058255.09</v>
+        <v>5417882.96</v>
       </c>
       <c r="I48">
-        <v>0.3895180980238321</v>
+        <v>0.5525310941748363</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2630,13 +2624,13 @@
         <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D49" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E49">
-        <v>2062799.66</v>
+        <v>27667059.62</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2645,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>2072239.66</v>
+        <v>28076139.62000002</v>
       </c>
       <c r="I49">
-        <v>0.3542833457786441</v>
+        <v>0.5048453025181235</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2659,13 +2653,13 @@
         <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D50" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E50">
-        <v>5449949.7</v>
+        <v>4081905.55</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2674,10 +2668,10 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>5473709.7</v>
+        <v>4105305.55</v>
       </c>
       <c r="I50">
-        <v>0.316151220076578</v>
+        <v>0.223874201032369</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2688,13 +2682,13 @@
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E51">
-        <v>4799697.54</v>
+        <v>10416141.4</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2703,10 +2697,10 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>4821297.54</v>
+        <v>10416141.4</v>
       </c>
       <c r="I51">
-        <v>0.3263022012119999</v>
+        <v>0.3781515485187252</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2717,13 +2711,13 @@
         <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E52">
-        <v>1301228.82</v>
+        <v>5369297.54</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2732,10 +2726,10 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1310668.82</v>
+        <v>5414097.54</v>
       </c>
       <c r="I52">
-        <v>0.5201313936803655</v>
+        <v>0.2910091641976587</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2746,13 +2740,13 @@
         <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D53" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E53">
-        <v>4115016.18</v>
+        <v>4720400.67</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2761,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>4136256.18</v>
+        <v>4748720.669999999</v>
       </c>
       <c r="I53">
-        <v>0.4278869400202384</v>
+        <v>0.2156599368899077</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2775,13 +2769,13 @@
         <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E54">
-        <v>1977473.85</v>
+        <v>4132656.18</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2790,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>1991633.850000001</v>
+        <v>4175136.18</v>
       </c>
       <c r="I54">
-        <v>0.5529329600418267</v>
+        <v>0.4245360926167444</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2804,13 +2798,13 @@
         <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D55" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E55">
-        <v>3937641.46</v>
+        <v>2689233.85</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2819,10 +2813,10 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>3961044.417032</v>
+        <v>2716113.849999999</v>
       </c>
       <c r="I55">
-        <v>0.4964599719064734</v>
+        <v>0.4060530820532431</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2833,13 +2827,13 @@
         <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D56" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E56">
-        <v>4346922.98</v>
+        <v>4967650.470000001</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2848,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>4365493.015291999</v>
+        <v>5030370.470000001</v>
       </c>
       <c r="I56">
-        <v>0.3153252095875648</v>
+        <v>0.5481139046206273</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2862,13 +2856,13 @@
         <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D57" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E57">
-        <v>2948282.71</v>
+        <v>4370163.52</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2877,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>2967722.71</v>
+        <v>4410483.52</v>
       </c>
       <c r="I57">
-        <v>0.4770930906816426</v>
+        <v>0.4018824675259188</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2891,13 +2885,13 @@
         <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D58" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E58">
-        <v>3624586.09</v>
+        <v>8854418.26</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2906,10 +2900,10 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>3594346.09</v>
+        <v>8952978.26</v>
       </c>
       <c r="I58">
-        <v>0.7659529525160444</v>
+        <v>0.3871576920371078</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2920,13 +2914,13 @@
         <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E59">
-        <v>1140841.34</v>
+        <v>3171716.09</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2935,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>1147321.340000001</v>
+        <v>3126917.937064</v>
       </c>
       <c r="I59">
-        <v>0.5141977050649121</v>
+        <v>0.6930344971044393</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2949,13 +2943,13 @@
         <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D60" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E60">
-        <v>3375105.33</v>
+        <v>4140629.66</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2964,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>3394545.33</v>
+        <v>4211429.66</v>
       </c>
       <c r="I60">
-        <v>0.4171044609382194</v>
+        <v>0.7014625052529073</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2978,13 +2972,13 @@
         <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E61">
-        <v>4952163.08</v>
+        <v>12030621.44</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2993,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>4986723.08</v>
+        <v>12185661.44000001</v>
       </c>
       <c r="I61">
-        <v>0.5047643431605991</v>
+        <v>0.4396049263617158</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3007,13 +3001,13 @@
         <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>22467502.44</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3022,10 +3016,10 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62" t="s">
-        <v>252</v>
+        <v>22678062.43999999</v>
+      </c>
+      <c r="I62">
+        <v>0.3265311760910738</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3036,13 +3030,13 @@
         <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E63">
-        <v>5129296.39</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3051,10 +3045,10 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>5083936.39</v>
-      </c>
-      <c r="I63">
-        <v>0.6807795641990714</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3065,13 +3059,13 @@
         <v>72</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E64">
-        <v>2283471.81</v>
+        <v>5145289.68</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3080,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>2266191.81</v>
+        <v>5070409.679999998</v>
       </c>
       <c r="I64">
-        <v>0.6942042562584321</v>
+        <v>0.525937146759313</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3094,13 +3088,13 @@
         <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D65" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E65">
-        <v>13323847.5</v>
+        <v>2290039.32</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3109,10 +3103,10 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>13218247.5</v>
+        <v>2269639.32</v>
       </c>
       <c r="I65">
-        <v>0.5712829934528008</v>
+        <v>0.428486584379407</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3123,13 +3117,13 @@
         <v>74</v>
       </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D66" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E66">
-        <v>7924281.970000001</v>
+        <v>13362199.59</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3138,10 +3132,10 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>7870281.970000001</v>
+        <v>13225239.59</v>
       </c>
       <c r="I66">
-        <v>0.4997279659092062</v>
+        <v>0.4479754305910458</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3152,13 +3146,13 @@
         <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E67">
-        <v>4061738.28</v>
+        <v>7958951.659999999</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -3167,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>4097138.28</v>
+        <v>7846951.659999999</v>
       </c>
       <c r="I67">
-        <v>0.5759629865360562</v>
+        <v>0.5019630769587284</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3181,13 +3175,13 @@
         <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E68">
-        <v>1001</v>
+        <v>13087997.85</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -3196,10 +3190,10 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>1001</v>
+        <v>13170077.85</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>0.2153361303023733</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3210,13 +3204,13 @@
         <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E69">
-        <v>1310273.24</v>
+        <v>8740000</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3225,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>1310273.24</v>
+        <v>8740000</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -3239,13 +3233,13 @@
         <v>78</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E70">
-        <v>17441069.52</v>
+        <v>7787674.5</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -3254,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>17309309.52</v>
+        <v>7783194.5</v>
       </c>
       <c r="I70">
-        <v>0.554413796166261</v>
+        <v>0.06072899758575993</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3268,13 +3262,13 @@
         <v>79</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D71" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E71">
-        <v>3803258.82</v>
+        <v>17665589.64</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -3283,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>3801098.82</v>
+        <v>17471149.64</v>
       </c>
       <c r="I71">
-        <v>0.04138803210593719</v>
+        <v>0.4033509497203297</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3297,13 +3291,13 @@
         <v>80</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D72" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E72">
-        <v>3764276.37</v>
+        <v>1001</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -3312,10 +3306,10 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>3734036.37</v>
+        <v>1001</v>
       </c>
       <c r="I72">
-        <v>0.6389921692166056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3326,13 +3320,13 @@
         <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D73" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E73">
-        <v>3029027.63</v>
+        <v>3742220.99</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -3341,10 +3335,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>3007787.63</v>
+        <v>3677820.99</v>
       </c>
       <c r="I73">
-        <v>0.5491943591775461</v>
+        <v>0.6416727748350797</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3355,13 +3349,13 @@
         <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D74" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E74">
-        <v>3503391.17</v>
+        <v>3155130.73</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -3370,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>3473151.17</v>
+        <v>3155130.73</v>
       </c>
       <c r="I74">
-        <v>0.7926807286076176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3384,13 +3378,13 @@
         <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D75" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E75">
-        <v>20622967.98</v>
+        <v>3530224.47</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -3399,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>20519287.98</v>
+        <v>3483144.47</v>
       </c>
       <c r="I75">
-        <v>0.3833466350132096</v>
+        <v>0.6142501462191717</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3413,13 +3407,13 @@
         <v>84</v>
       </c>
       <c r="C76" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D76" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E76">
-        <v>4914074.04</v>
+        <v>40014063.48</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3428,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>4914074.04</v>
+        <v>39647823.48</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>0.3462511783761598</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3442,13 +3436,13 @@
         <v>85</v>
       </c>
       <c r="C77" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E77">
-        <v>3281440.61</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3457,10 +3451,10 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>3270440.61</v>
-      </c>
-      <c r="I77">
-        <v>0.2405180505632236</v>
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3471,13 +3465,13 @@
         <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D78" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E78">
-        <v>68460625.90000001</v>
+        <v>3313922.48</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3486,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>67950865.90000001</v>
+        <v>3318682.48</v>
       </c>
       <c r="I78">
-        <v>0.546387739262054</v>
+        <v>0.142425677312763</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3500,13 +3494,13 @@
         <v>87</v>
       </c>
       <c r="C79" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D79" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E79">
-        <v>10872586.35</v>
+        <v>69579057.22999999</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3515,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>10792666.35</v>
+        <v>68711057.22999999</v>
       </c>
       <c r="I79">
-        <v>0.6741661202192172</v>
+        <v>0.3963012810129057</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3529,13 +3523,13 @@
         <v>88</v>
       </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D80" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E80">
-        <v>3436269.82</v>
+        <v>11729262.58</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3544,10 +3538,10 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>3407949.82</v>
+        <v>11729262.58</v>
       </c>
       <c r="I80">
-        <v>0.6001144699953358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3558,13 +3552,13 @@
         <v>89</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D81" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E81">
-        <v>7157399.27</v>
+        <v>3080359.76</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -3573,10 +3567,10 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>7098028.500854</v>
+        <v>3030919.76</v>
       </c>
       <c r="I81">
-        <v>0.6926219018997318</v>
+        <v>0.6673950352285144</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3587,13 +3581,13 @@
         <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D82" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E82">
-        <v>2102012.05</v>
+        <v>7267224.609999999</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -3602,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>2102012.05</v>
+        <v>7228704.609999999</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>0.242162060070677</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3616,13 +3610,13 @@
         <v>91</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D83" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E83">
-        <v>13197464.86</v>
+        <v>18816873.2</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3631,10 +3625,39 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>13098464.86</v>
+        <v>19104593.2</v>
       </c>
       <c r="I83">
-        <v>0.5404755500485421</v>
+        <v>0.5465144371668688</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" t="s">
+        <v>175</v>
+      </c>
+      <c r="D84" t="s">
+        <v>254</v>
+      </c>
+      <c r="E84">
+        <v>13247680.06</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>13136400.06</v>
+      </c>
+      <c r="I84">
+        <v>0.3435070779962224</v>
       </c>
     </row>
   </sheetData>
@@ -3644,7 +3667,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3671,13 +3694,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3688,19 +3711,19 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G2">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3711,16 +3734,16 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F3" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -3734,16 +3757,16 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F4" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -3757,19 +3780,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3780,16 +3803,16 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -3803,19 +3826,19 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G7">
-        <v>44</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3823,22 +3846,22 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F8" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3846,22 +3869,22 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
         <v>180</v>
       </c>
       <c r="E9" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F9" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G9">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3869,22 +3892,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F10" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3892,22 +3915,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
         <v>182</v>
       </c>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F11" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3915,22 +3938,22 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
         <v>100</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E12" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F12" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3941,19 +3964,19 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F13" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3964,19 +3987,19 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E14" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F14" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G14">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3987,19 +4010,19 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E15" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F15" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G15">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4010,19 +4033,19 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E16" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F16" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G16">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4030,22 +4053,22 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E17" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F17" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G17">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4053,22 +4076,22 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E18" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F18" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4076,19 +4099,19 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E19" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F19" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G19">
         <v>12</v>
@@ -4099,22 +4122,22 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
         <v>190</v>
       </c>
       <c r="E20" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F20" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G20">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4122,22 +4145,22 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E21" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F21" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G21">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4145,22 +4168,22 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E22" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F22" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G22">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4168,22 +4191,22 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E23" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F23" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G23">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4191,22 +4214,22 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E24" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F24" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4214,22 +4237,22 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E25" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F25" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G25">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4237,22 +4260,22 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E26" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F26" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G26">
-        <v>160</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4260,19 +4283,19 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E27" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G27">
         <v>31</v>
@@ -4283,22 +4306,22 @@
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E28" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F28" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4306,22 +4329,22 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E29" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F29" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G29">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4329,22 +4352,22 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E30" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4352,22 +4375,22 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D31" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E31" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G31">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4375,22 +4398,22 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E32" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F32" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4398,22 +4421,22 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E33" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F33" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4421,22 +4444,22 @@
         <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E34" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G34">
-        <v>8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4444,22 +4467,22 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E35" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F35" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G35">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4467,22 +4490,22 @@
         <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E36" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F36" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G36">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4490,22 +4513,22 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E37" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F37" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G37">
-        <v>120</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4513,22 +4536,22 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D38" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E38" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F38" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G38">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -4536,22 +4559,22 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E39" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F39" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G39">
-        <v>11</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -4559,22 +4582,22 @@
         <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E40" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F40" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G40">
-        <v>140</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -4582,22 +4605,22 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E41" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F41" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G41">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -4605,22 +4628,22 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E42" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="F42" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G42">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -4628,22 +4651,22 @@
         <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D43" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E43" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F43" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G43">
-        <v>9</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -4651,22 +4674,22 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D44" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F44" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -4674,22 +4697,22 @@
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E45" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F45" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G45">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -4697,22 +4720,22 @@
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D46" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E46" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F46" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G46">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -4720,22 +4743,22 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D47" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E47" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F47" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G47">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4743,22 +4766,22 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D48" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E48" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F48" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G48">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4766,22 +4789,22 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D49" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E49" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F49" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G49">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -4789,22 +4812,22 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E50" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F50" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G50">
-        <v>9</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -4812,22 +4835,22 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D51" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E51" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F51" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -4835,22 +4858,22 @@
         <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D52" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E52" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F52" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G52">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -4858,22 +4881,22 @@
         <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D53" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E53" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F53" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G53">
-        <v>7</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -4881,22 +4904,22 @@
         <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E54" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F54" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G54">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -4904,22 +4927,22 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D55" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E55" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F55" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G55">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -4927,22 +4950,22 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E56" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F56" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4950,22 +4973,22 @@
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D57" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E57" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F57" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G57">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -4973,22 +4996,22 @@
         <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D58" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E58" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F58" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G58">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -4996,22 +5019,22 @@
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D59" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="E59" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F59" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -5019,22 +5042,22 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D60" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="E60" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F60" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G60">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5042,22 +5065,22 @@
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D61" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E61" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F61" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G61">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -5065,22 +5088,22 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="E62" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F62" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G62">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -5088,22 +5111,22 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D63" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E63" t="s">